--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -8,8 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$V$6</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -19,12 +22,108 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">folds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSElement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utf8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.gitignore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npm_module</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -46,16 +145,105 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8A202"/>
+        <bgColor rgb="FFFFD428"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE59"/>
+        <bgColor rgb="FFFFD428"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD428"/>
+        <bgColor rgb="FFFFDE59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFFFDE59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -63,6 +251,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -89,8 +305,76 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -103,6 +387,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF5CE"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFE994"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFDE59"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFD428"/>
+      <rgbColor rgb="FFE8A202"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF999999"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -217,14 +561,292 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="3.34"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" s="16"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" s="16"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:V2"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -11,7 +11,14 @@
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$V$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$W$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0" vbProcedure="false">VINE!$C$1:$I$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_PAT_path" vbProcedure="false">VINE!$C$1:$I$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_SUBSET" vbProcedure="false">VINE!$M$1:$M$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_SUPSET" vbProcedure="false">VINE!$L$1:$L$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE!$A$4:$W$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_FSElement" vbProcedure="false">VINE!$A$1:$W$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE!$A$1:$W$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,12 +30,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+  <si>
+    <t xml:space="preserve">fs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portal</t>
+  </si>
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">workspace</t>
+    <t xml:space="preserve">workspaces</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -55,9 +68,6 @@
     <t xml:space="preserve">permissions</t>
   </si>
   <si>
-    <t xml:space="preserve">portal</t>
-  </si>
-  <si>
     <t xml:space="preserve">add</t>
   </si>
   <si>
@@ -97,22 +107,41 @@
     <t xml:space="preserve">false</t>
   </si>
   <si>
+    <t xml:space="preserve">.gitignore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">files</t>
+  </si>
+  <si>
     <t xml:space="preserve">utf8</t>
   </si>
   <si>
-    <t xml:space="preserve">.gitignore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File</t>
-  </si>
-  <si>
-    <t xml:space="preserve">files</t>
+    <t xml:space="preserve">node_modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devicebase
+database</t>
   </si>
   <si>
     <t xml:space="preserve">package.json</t>
   </si>
   <si>
     <t xml:space="preserve">npm_module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecosystem.config.cjs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devicebase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database</t>
   </si>
 </sst>
 </file>
@@ -175,7 +204,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +271,12 @@
         <bgColor rgb="FFFFF5CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7B59"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
@@ -305,8 +340,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,7 +390,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -376,6 +415,34 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -410,7 +477,7 @@
       <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF7B59"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
@@ -561,291 +628,708 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:S6"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="3.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="3.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="1" width="5.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="1" t="s">
+      <c r="S3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="U3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <f aca="false">ROW() - 4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="M4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="14" t="s">
+      <c r="N4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="R4" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="T4" s="16"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" s="17"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <f aca="false">ROW() - 4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="M5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="15" t="n">
+      <c r="N5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="R5" s="15" t="n">
+      <c r="R5" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="S5" s="15" t="n">
+      <c r="S5" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <f aca="false">ROW() - 4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" s="17"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8" t="s">
+      <c r="Q7" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" s="17"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>5</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" s="17"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>6</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R10" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" s="17"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>7</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" s="17"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>8</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="M12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="N12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R12" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" s="17"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>9</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="N13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="15" t="n">
+      <c r="O13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R13" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>10</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="R6" s="15" t="n">
+      <c r="R14" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="S6" s="15" t="n">
+      <c r="S14" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:V2"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:W2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -631,7 +631,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -631,7 +631,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="T26" activeCellId="0" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1317,7 +1317,7 @@
       <c r="H21" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="A2:A3"/>
@@ -1327,6 +1327,7 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:W2"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -631,7 +631,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T26" activeCellId="0" sqref="T26"/>
+      <selection pane="topLeft" activeCell="P14" activeCellId="0" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -196,7 +196,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="FreeMono"/>
@@ -204,7 +203,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,7 +249,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE994"/>
-        <bgColor rgb="FFFFDE59"/>
+        <bgColor rgb="FFFFDBB6"/>
       </patternFill>
     </fill>
     <fill>
@@ -274,7 +273,37 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7B59"/>
-        <bgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF5429"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFE994"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED4C05"/>
+        <bgColor rgb="FFFF5429"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAA95"/>
+        <bgColor rgb="FFFFDBB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5429"/>
+        <bgColor rgb="FFED4C05"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBE480A"/>
+        <bgColor rgb="FFED4C05"/>
       </patternFill>
     </fill>
   </fills>
@@ -340,7 +369,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -417,27 +446,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -458,10 +523,10 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFED4C05"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -473,7 +538,7 @@
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -493,22 +558,22 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFAA95"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFDE59"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFD428"/>
       <rgbColor rgb="FFE8A202"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF5429"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FFBE480A"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -631,18 +696,21 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P14" activeCellId="0" sqref="P14"/>
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="N4:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="3.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="1" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="3.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="1" width="2.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,23 +930,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="25" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="14" t="s">
@@ -907,7 +975,7 @@
         <f aca="false">ROW() - 4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1010,23 +1078,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="23" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="33" t="s">
         <v>22</v>
       </c>
       <c r="N9" s="13" t="s">
@@ -1056,23 +1124,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="25" t="s">
         <v>22</v>
       </c>
       <c r="N10" s="14" t="s">
@@ -1152,23 +1220,23 @@
         <v>8</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="23" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="33" t="s">
         <v>22</v>
       </c>
       <c r="N12" s="13" t="s">
@@ -1198,23 +1266,23 @@
         <v>9</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="25" t="s">
         <v>22</v>
       </c>
       <c r="N13" s="14" t="s">
@@ -1314,7 +1382,7 @@
       <c r="W15" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="25"/>
+      <c r="H21" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -11,6 +11,7 @@
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">VINE!$N$4:$O$14</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$W$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="LMN_0" vbProcedure="false">VINE!$C$1:$I$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_PAT_path" vbProcedure="false">VINE!$C$1:$I$15</definedName>
@@ -696,7 +697,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="N4:O14"/>
+      <selection pane="topLeft" activeCell="V20" activeCellId="0" sqref="V19:V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -136,7 +136,7 @@
     <t xml:space="preserve">ecosystem.config.cjs</t>
   </si>
   <si>
-    <t xml:space="preserve">json</t>
+    <t xml:space="preserve">json_file</t>
   </si>
   <si>
     <t xml:space="preserve">devicebase</t>
@@ -697,7 +697,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V20" activeCellId="0" sqref="V19:V20"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="VERS" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="VIEW" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">VINE!$N$4:$O$14</definedName>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -143,6 +145,57 @@
   </si>
   <si>
     <t xml:space="preserve">database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dexter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imper</t>
   </si>
 </sst>
 </file>
@@ -153,7 +206,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -203,8 +256,29 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFF00"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +293,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDEE6EF"/>
       </patternFill>
     </fill>
     <fill>
@@ -232,7 +312,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF5CE"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF6F9D4"/>
       </patternFill>
     </fill>
     <fill>
@@ -250,7 +330,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE994"/>
-        <bgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
     <fill>
@@ -262,13 +342,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFB4C7DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFF6F9D4"/>
       </patternFill>
     </fill>
     <fill>
@@ -280,7 +360,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -307,8 +387,86 @@
         <bgColor rgb="FFED4C05"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF468A1A"/>
+        <bgColor rgb="FF5EB91E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF355269"/>
+        <bgColor rgb="FF333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor rgb="FF333300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9D4"/>
+        <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5EB91E"/>
+        <bgColor rgb="FF468A1A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFE8F2A1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFE994"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5983B0"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF5983B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFFFDBB6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -344,6 +502,64 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -370,7 +586,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="85">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -383,6 +599,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -391,27 +611,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -420,82 +636,82 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="17" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="17" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="16" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,12 +719,212 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="24" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="31" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -527,56 +943,56 @@
       <rgbColor rgb="FFED4C05"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFDE59"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FFC9211E"/>
-      <rgbColor rgb="FFFFF5CE"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFF6F9D4"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF7B59"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFE994"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFFF5CE"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFE8F2A1"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FFFFAA95"/>
-      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFD4EA6B"/>
+      <rgbColor rgb="FF5EB91E"/>
       <rgbColor rgb="FFFFD428"/>
       <rgbColor rgb="FFE8A202"/>
       <rgbColor rgb="FFFF5429"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF468A1A"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFBE480A"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF355269"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -694,10 +1110,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X16" activeCellId="0" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -706,10 +1122,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="3.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="1" width="2.69"/>
   </cols>
@@ -742,6 +1158,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -789,6 +1206,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
+      <c r="X2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
@@ -811,579 +1229,632 @@
         <v>13</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="W3" s="2"/>
+      <c r="X3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <f aca="false">ROW() - 4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="16" t="n">
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="R4" s="16" t="n">
+      <c r="R4" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="S4" s="16" t="n">
+      <c r="S4" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="T4" s="17"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="6" t="n">
         <f aca="false">ROW() - 4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="16" t="n">
+      <c r="Q5" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="R5" s="16" t="n">
+      <c r="R5" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="S5" s="16" t="n">
+      <c r="S5" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <f aca="false">ROW() - 4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="19" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="16" t="n">
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="R6" s="16" t="n">
+      <c r="R6" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="S6" s="16" t="n">
+      <c r="S6" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <f aca="false">ROW() - 4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="16" t="n">
+      <c r="Q7" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="R7" s="16" t="n">
+      <c r="R7" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="S7" s="16" t="n">
+      <c r="S7" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="6" t="n">
         <f aca="false">ROW() - 4</f>
         <v>4</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="16" t="n">
+      <c r="Q8" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="R8" s="16" t="n">
+      <c r="R8" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="S8" s="16" t="n">
+      <c r="S8" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="6" t="n">
         <f aca="false">ROW() - 4</f>
         <v>5</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="16" t="n">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="R9" s="16" t="n">
+      <c r="R9" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="S9" s="16" t="n">
+      <c r="S9" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="6" t="n">
         <f aca="false">ROW() - 4</f>
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16" t="n">
+      <c r="P10" s="16"/>
+      <c r="Q10" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="R10" s="16" t="n">
+      <c r="R10" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="S10" s="16" t="n">
+      <c r="S10" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="6" t="n">
         <f aca="false">ROW() - 4</f>
         <v>7</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="P11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="16" t="n">
+      <c r="Q11" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="R11" s="16" t="n">
+      <c r="R11" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="S11" s="16" t="n">
+      <c r="S11" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="6" t="n">
         <f aca="false">ROW() - 4</f>
         <v>8</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="M12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16" t="n">
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="R12" s="16" t="n">
+      <c r="R12" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="S12" s="16" t="n">
+      <c r="S12" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="T12" s="17"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="6" t="n">
         <f aca="false">ROW() - 4</f>
         <v>9</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="16" t="n">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="R13" s="16" t="n">
+      <c r="R13" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="S13" s="16" t="n">
+      <c r="S13" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="T13" s="17"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="6" t="n">
         <f aca="false">ROW() - 4</f>
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="16" t="n">
+      <c r="Q14" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="R14" s="16" t="n">
+      <c r="R14" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="S14" s="16" t="n">
+      <c r="S14" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="T14" s="17"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="34"/>
+      <c r="H21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1409,4 +1880,677 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U12" activeCellId="0" sqref="U12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="0" width="4.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="37" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="D3:I3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AU6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="0" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="14" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="19" style="0" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="40" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="7.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="57"/>
+      <c r="AU2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="57"/>
+      <c r="AR3" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="57"/>
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE4" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI4" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ4" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK4" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL4" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM4" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN4" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO4" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP4" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ4" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS4" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT4" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU4" s="61"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="72"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="72"/>
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="72"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="72"/>
+      <c r="AP5" s="75"/>
+      <c r="AQ5" s="72"/>
+      <c r="AR5" s="76"/>
+      <c r="AS5" s="77"/>
+      <c r="AT5" s="78"/>
+      <c r="AU5" s="61"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="80" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="80" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" s="80" t="n">
+        <v>7</v>
+      </c>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="80" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" s="80" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" s="80" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" s="80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="80" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="80" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="80" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="61"/>
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="83"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="84"/>
+      <c r="AU6" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AT1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,6 +22,14 @@
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE!$A$4:$W$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_FSElement" vbProcedure="false">VINE!$A$1:$W$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE!$A$1:$W$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VERS!$A$1:$T$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VERS!$D$1:$I$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUBSET_Scripts" vbProcedure="false">VERS!$D$1:$I$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUPSET_blocks" vbProcedure="false">VERS!$D$1:$I$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1" vbProcedure="false">VERS!$M$1:$R$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VERS!$A$4:$T$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_Javascript" vbProcedure="false">VERS!$A$1:$T$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VERS!$A$1:$T$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="145">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -171,6 +179,75 @@
     <t xml:space="preserve">ple</t>
   </si>
   <si>
+    <t xml:space="preserve">{}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfc-demo-001-database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Patrick Welborn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devDependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:{}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^4.19.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.npmjs.com/package/express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mongoose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^8.4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.npmjs.com/package/mongoose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^1.4.5-lts.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.npmjs.com/package/multer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfc-demo-001-devicebase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mvc-framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^1.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/thomaspatrickwelborn/MVC-Framework</t>
+  </si>
+  <si>
     <t xml:space="preserve">element</t>
   </si>
   <si>
@@ -196,6 +273,210 @@
   </si>
   <si>
     <t xml:space="preserve">imper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$data.photos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$data.business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$data.interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coutils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$data.coutils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEADER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header-logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business.logo.img.src</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business.logo.img.alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header-nav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUTTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interface.nav.login.button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:PhotosIterator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoGraphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$photo.graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$photo.details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoGraphic.src</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoGraphic.alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoGraphic.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoDetails.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-descript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoDetails.descript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoDetails.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoDetails.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-button-panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:PhotoButtonsIterator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$photoButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$photo.buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoButtonAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coutils(photoButtonText)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">console.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"done"</t>
   </si>
 </sst>
 </file>
@@ -206,7 +487,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -242,7 +523,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="FreeMono"/>
@@ -267,6 +554,13 @@
     <font>
       <b val="true"/>
       <sz val="8"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
       <name val="FreeMono"/>
       <family val="3"/>
       <charset val="1"/>
@@ -305,8 +599,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8A202"/>
-        <bgColor rgb="FFFFD428"/>
+        <fgColor rgb="FFFF7B59"/>
+        <bgColor rgb="FFFF5429"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED4C05"/>
+        <bgColor rgb="FFFF5429"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFAA95"/>
+        <bgColor rgb="FFFFDBB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF6F9D4"/>
       </patternFill>
     </fill>
     <fill>
@@ -341,42 +671,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFB4C7DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF6F9D4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7B59"/>
-        <bgColor rgb="FFFF5429"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFFFD8CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED4C05"/>
-        <bgColor rgb="FFFF5429"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFAA95"/>
-        <bgColor rgb="FFFFDBB6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF5429"/>
         <bgColor rgb="FFED4C05"/>
       </patternFill>
@@ -389,20 +683,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor rgb="FF333300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF468A1A"/>
-        <bgColor rgb="FF5EB91E"/>
+        <bgColor rgb="FF808000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF355269"/>
         <bgColor rgb="FF333333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF333333"/>
-        <bgColor rgb="FF333300"/>
       </patternFill>
     </fill>
     <fill>
@@ -466,7 +760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -532,20 +826,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -586,7 +866,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="96">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -627,7 +907,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -636,66 +920,70 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -711,7 +999,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -723,23 +1011,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -755,62 +1051,70 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -819,11 +1123,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -847,75 +1151,95 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="31" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="24" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="24" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="31" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -923,7 +1247,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -949,7 +1273,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFFE994"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
@@ -978,13 +1302,13 @@
       <rgbColor rgb="FFFFAA95"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FFFFDBB6"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FFD4EA6B"/>
+      <rgbColor rgb="FF5983B0"/>
+      <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FF5EB91E"/>
       <rgbColor rgb="FFFFD428"/>
-      <rgbColor rgb="FFE8A202"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FFFF5429"/>
-      <rgbColor rgb="FF5983B0"/>
+      <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF468A1A"/>
@@ -1113,7 +1437,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X16" activeCellId="0" sqref="X16"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1125,7 +1449,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="1" width="2.69"/>
   </cols>
@@ -1303,41 +1627,41 @@
         <v>1</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="27" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="17" t="n">
+      <c r="Q5" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="R5" s="17" t="n">
+      <c r="R5" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="S5" s="17" t="n">
+      <c r="S5" s="28" t="n">
         <v>4</v>
       </c>
       <c r="T5" s="18"/>
@@ -1352,23 +1676,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="15" t="s">
@@ -1398,46 +1722,46 @@
         <f aca="false">ROW() - 4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="27" t="s">
         <v>23</v>
       </c>
       <c r="P7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" s="17" t="n">
+      <c r="Q7" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="R7" s="17" t="n">
+      <c r="R7" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="S7" s="17" t="n">
+      <c r="S7" s="28" t="n">
         <v>4</v>
       </c>
       <c r="T7" s="18"/>
@@ -1452,43 +1776,43 @@
         <v>4</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="27" t="s">
         <v>23</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="17" t="n">
+      <c r="Q8" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="R8" s="17" t="n">
+      <c r="R8" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="S8" s="17" t="n">
+      <c r="S8" s="28" t="n">
         <v>4</v>
       </c>
       <c r="T8" s="18"/>
@@ -1503,39 +1827,39 @@
         <v>5</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="L9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="37" t="s">
         <v>23</v>
       </c>
       <c r="P9" s="16"/>
-      <c r="Q9" s="17" t="n">
+      <c r="Q9" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="R9" s="17" t="n">
+      <c r="R9" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="S9" s="17" t="n">
+      <c r="S9" s="38" t="n">
         <v>5</v>
       </c>
       <c r="T9" s="18"/>
@@ -1550,23 +1874,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="N10" s="15" t="s">
@@ -1597,43 +1921,43 @@
         <v>7</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="27" t="s">
         <v>23</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="17" t="n">
+      <c r="Q11" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="R11" s="17" t="n">
+      <c r="R11" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="S11" s="17" t="n">
+      <c r="S11" s="28" t="n">
         <v>4</v>
       </c>
       <c r="T11" s="18"/>
@@ -1648,39 +1972,39 @@
         <v>8</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="34" t="s">
+      <c r="M12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="37" t="s">
         <v>23</v>
       </c>
       <c r="P12" s="16"/>
-      <c r="Q12" s="17" t="n">
+      <c r="Q12" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="R12" s="17" t="n">
+      <c r="R12" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="S12" s="17" t="n">
+      <c r="S12" s="38" t="n">
         <v>5</v>
       </c>
       <c r="T12" s="18"/>
@@ -1695,23 +2019,23 @@
         <v>9</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="13" t="s">
         <v>22</v>
       </c>
       <c r="N13" s="15" t="s">
@@ -1742,43 +2066,43 @@
         <v>10</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="27" t="s">
         <v>23</v>
       </c>
       <c r="P14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="17" t="n">
+      <c r="Q14" s="28" t="n">
         <v>6</v>
       </c>
-      <c r="R14" s="17" t="n">
+      <c r="R14" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="S14" s="17" t="n">
+      <c r="S14" s="28" t="n">
         <v>4</v>
       </c>
       <c r="T14" s="18"/>
@@ -1790,23 +2114,23 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
       <c r="T15" s="18"/>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
@@ -1815,33 +2139,33 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36" t="n">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="37" t="n">
+      <c r="D16" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="37" t="n">
+      <c r="E16" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="37" t="n">
+      <c r="F16" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="37" t="n">
+      <c r="G16" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="H16" s="38" t="n">
+      <c r="H16" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="I16" s="38" t="n">
+      <c r="I16" s="42" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="39"/>
+      <c r="N16" s="43"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -1849,12 +2173,12 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="39"/>
+      <c r="V16" s="43"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="40"/>
+      <c r="H21" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1887,163 +2211,717 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U12" activeCellId="0" sqref="U12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="13" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="60.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="3"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="48"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="3"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="48"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="42" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="45" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="43" t="s">
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="T3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="3"/>
+      <c r="A4" s="6" t="n">
+        <f aca="false">VINE!$A$7</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="53" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$C$7)</f>
+        <v>package.json</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="58"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="48"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="36" t="n">
+      <c r="A5" s="6" t="n">
+        <f aca="false">VINE!$A$14</f>
+        <v>10</v>
+      </c>
+      <c r="B5" s="53" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$C$12,VINE!$D$14)</f>
+        <v>database/package.json</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="58"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="48"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="58"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="59"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="48"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="58"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="59"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="48"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="58"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" s="59"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="48"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="58"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="59"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="48"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="58"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" s="59"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="58"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" s="59"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="58"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" s="59"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="n">
+        <f aca="false">VINE!$A$11</f>
+        <v>7</v>
+      </c>
+      <c r="B13" s="53" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$C$9,VINE!$D$11)</f>
+        <v>devicebase/package.json</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="58"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="48"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="58"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" s="59"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="48"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="58"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" s="59"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="48"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="58"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" s="59"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="48"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="58"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" s="59"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="48"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="58"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="48"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="48"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="37" t="n">
+      <c r="E21" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="37" t="n">
+      <c r="F21" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="37" t="n">
+      <c r="G21" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="37" t="n">
+      <c r="H21" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="38" t="n">
+      <c r="I21" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:K1"/>
-    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L1:T1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:K2"/>
-    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L2:T2"/>
     <mergeCell ref="D3:I3"/>
+    <mergeCell ref="M3:R3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2060,459 +2938,2393 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AU6"/>
+  <dimension ref="A1:AU39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="0" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="14" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="19" style="0" width="2.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="40" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="1" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="19" style="1" width="3.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="24.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="24.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="8.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="20.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="43" style="1" width="4.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="30.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="4.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="43" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="56" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62"/>
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC4" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE4" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF4" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG4" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH4" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI4" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ4" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK4" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL4" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM4" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN4" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO4" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP4" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ4" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR4" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS4" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT4" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU4" s="67"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="72"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="80"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="79"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="80"/>
+      <c r="AQ5" s="77"/>
+      <c r="AR5" s="81"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="83"/>
+      <c r="AU5" s="67"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="72"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="80"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="79"/>
+      <c r="AK6" s="77"/>
+      <c r="AL6" s="80"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="79"/>
+      <c r="AO6" s="77"/>
+      <c r="AP6" s="80"/>
+      <c r="AQ6" s="77"/>
+      <c r="AR6" s="81"/>
+      <c r="AS6" s="82"/>
+      <c r="AT6" s="83"/>
+      <c r="AU6" s="67"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="72"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="80"/>
+      <c r="AI7" s="77"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="77"/>
+      <c r="AL7" s="80"/>
+      <c r="AM7" s="77"/>
+      <c r="AN7" s="79"/>
+      <c r="AO7" s="77"/>
+      <c r="AP7" s="80"/>
+      <c r="AQ7" s="77"/>
+      <c r="AR7" s="81"/>
+      <c r="AS7" s="82"/>
+      <c r="AT7" s="83"/>
+      <c r="AU7" s="67"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="72"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="79"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="77"/>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="77"/>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="77"/>
+      <c r="AN8" s="79"/>
+      <c r="AO8" s="77"/>
+      <c r="AP8" s="80"/>
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="81"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="83"/>
+      <c r="AU8" s="67"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="77"/>
+      <c r="AL9" s="80"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="79"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="80"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="81"/>
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="67"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="80"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="80"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="81"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="83"/>
+      <c r="AU10" s="67"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="80"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="77"/>
+      <c r="AL11" s="80"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="79"/>
+      <c r="AO11" s="77"/>
+      <c r="AP11" s="80"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="81"/>
+      <c r="AS11" s="82"/>
+      <c r="AT11" s="83"/>
+      <c r="AU11" s="67"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC12" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD12" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE12" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF12" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG12" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH12" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI12" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="84"/>
+      <c r="AL12" s="80"/>
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="79"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="80"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="81"/>
+      <c r="AS12" s="82"/>
+      <c r="AT12" s="83"/>
+      <c r="AU12" s="67"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="80"/>
+      <c r="AI13" s="77"/>
+      <c r="AJ13" s="79"/>
+      <c r="AK13" s="77"/>
+      <c r="AL13" s="80"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="79"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="80"/>
+      <c r="AQ13" s="77"/>
+      <c r="AR13" s="81"/>
+      <c r="AS13" s="82"/>
+      <c r="AT13" s="83"/>
+      <c r="AU13" s="67"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="77"/>
+      <c r="AL14" s="80"/>
+      <c r="AM14" s="77"/>
+      <c r="AN14" s="79"/>
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="80"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS14" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT14" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU14" s="67"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI15" s="77"/>
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="77"/>
+      <c r="AL15" s="80"/>
+      <c r="AM15" s="77"/>
+      <c r="AN15" s="79"/>
+      <c r="AO15" s="77"/>
+      <c r="AP15" s="80"/>
+      <c r="AQ15" s="77"/>
+      <c r="AR15" s="85"/>
+      <c r="AS15" s="82"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="67"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="77"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="77"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="77"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="77"/>
+      <c r="AL16" s="80"/>
+      <c r="AM16" s="77"/>
+      <c r="AN16" s="79"/>
+      <c r="AO16" s="77"/>
+      <c r="AP16" s="80"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="81"/>
+      <c r="AS16" s="82"/>
+      <c r="AT16" s="83"/>
+      <c r="AU16" s="67"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="O17" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="80"/>
+      <c r="AI17" s="77"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="77"/>
+      <c r="AL17" s="80"/>
+      <c r="AM17" s="77"/>
+      <c r="AN17" s="79"/>
+      <c r="AO17" s="77"/>
+      <c r="AP17" s="80"/>
+      <c r="AQ17" s="77"/>
+      <c r="AR17" s="81"/>
+      <c r="AS17" s="82"/>
+      <c r="AT17" s="83"/>
+      <c r="AU17" s="67"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="87"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56" t="s">
+      <c r="M18" s="72"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="78"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="77"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="77"/>
+      <c r="AJ18" s="79"/>
+      <c r="AK18" s="77"/>
+      <c r="AL18" s="80"/>
+      <c r="AM18" s="77"/>
+      <c r="AN18" s="79"/>
+      <c r="AO18" s="77"/>
+      <c r="AP18" s="80"/>
+      <c r="AQ18" s="77"/>
+      <c r="AR18" s="81"/>
+      <c r="AS18" s="82"/>
+      <c r="AT18" s="83"/>
+      <c r="AU18" s="67"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="80"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="79"/>
+      <c r="AK19" s="77"/>
+      <c r="AL19" s="80"/>
+      <c r="AM19" s="77"/>
+      <c r="AN19" s="79"/>
+      <c r="AO19" s="77"/>
+      <c r="AP19" s="80"/>
+      <c r="AQ19" s="77"/>
+      <c r="AR19" s="81"/>
+      <c r="AS19" s="82"/>
+      <c r="AT19" s="83"/>
+      <c r="AU19" s="67"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="M20" s="72"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="79"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="79"/>
+      <c r="AK20" s="77"/>
+      <c r="AL20" s="80"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="79"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="80"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="81"/>
+      <c r="AS20" s="82"/>
+      <c r="AT20" s="83"/>
+      <c r="AU20" s="67"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="80"/>
+      <c r="AI21" s="77"/>
+      <c r="AJ21" s="79"/>
+      <c r="AK21" s="77"/>
+      <c r="AL21" s="80"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="79"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="80"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="81"/>
+      <c r="AS21" s="82"/>
+      <c r="AT21" s="83"/>
+      <c r="AU21" s="67"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="80"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="77"/>
+      <c r="AL22" s="80"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="77"/>
+      <c r="AP22" s="80"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="81"/>
+      <c r="AS22" s="82"/>
+      <c r="AT22" s="83"/>
+      <c r="AU22" s="67"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC23" s="77"/>
+      <c r="AD23" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE23" s="77"/>
+      <c r="AF23" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG23" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH23" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI23" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ23" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK23" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL23" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM23" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN23" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO23" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP23" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ23" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR23" s="81"/>
+      <c r="AS23" s="82"/>
+      <c r="AT23" s="83"/>
+      <c r="AU23" s="67"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="78"/>
+      <c r="AB24" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="79"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="80"/>
+      <c r="AI24" s="77"/>
+      <c r="AJ24" s="79"/>
+      <c r="AK24" s="77"/>
+      <c r="AL24" s="80"/>
+      <c r="AM24" s="77"/>
+      <c r="AN24" s="79"/>
+      <c r="AO24" s="77"/>
+      <c r="AP24" s="80"/>
+      <c r="AQ24" s="77"/>
+      <c r="AR24" s="81"/>
+      <c r="AS24" s="82"/>
+      <c r="AT24" s="83"/>
+      <c r="AU24" s="67"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="77"/>
+      <c r="AH25" s="80"/>
+      <c r="AI25" s="77"/>
+      <c r="AJ25" s="79"/>
+      <c r="AK25" s="77"/>
+      <c r="AL25" s="80"/>
+      <c r="AM25" s="77"/>
+      <c r="AN25" s="79"/>
+      <c r="AO25" s="77"/>
+      <c r="AP25" s="80"/>
+      <c r="AQ25" s="77"/>
+      <c r="AR25" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS25" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT25" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU25" s="67"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z26" s="78"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE26" s="77"/>
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="77"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="77"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="77"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="77"/>
+      <c r="AN26" s="79"/>
+      <c r="AO26" s="77"/>
+      <c r="AP26" s="80"/>
+      <c r="AQ26" s="77"/>
+      <c r="AR26" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS26" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT26" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU26" s="67"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="79"/>
+      <c r="AG27" s="77"/>
+      <c r="AH27" s="80"/>
+      <c r="AI27" s="77"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="77"/>
+      <c r="AL27" s="80"/>
+      <c r="AM27" s="77"/>
+      <c r="AN27" s="79"/>
+      <c r="AO27" s="77"/>
+      <c r="AP27" s="80"/>
+      <c r="AQ27" s="77"/>
+      <c r="AR27" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS27" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT27" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU27" s="67"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE28" s="77"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="77"/>
+      <c r="AH28" s="80"/>
+      <c r="AI28" s="77"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="77"/>
+      <c r="AL28" s="80"/>
+      <c r="AM28" s="77"/>
+      <c r="AN28" s="79"/>
+      <c r="AO28" s="77"/>
+      <c r="AP28" s="80"/>
+      <c r="AQ28" s="77"/>
+      <c r="AR28" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS28" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT28" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU28" s="67"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC29" s="77"/>
+      <c r="AD29" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE29" s="77"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="77"/>
+      <c r="AH29" s="80"/>
+      <c r="AI29" s="77"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="77"/>
+      <c r="AL29" s="80"/>
+      <c r="AM29" s="77"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="77"/>
+      <c r="AP29" s="80"/>
+      <c r="AQ29" s="77"/>
+      <c r="AR29" s="81"/>
+      <c r="AS29" s="82"/>
+      <c r="AT29" s="83"/>
+      <c r="AU29" s="67"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" s="70"/>
+      <c r="L30" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="M30" s="72"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="77"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="77"/>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="77"/>
+      <c r="AH30" s="80"/>
+      <c r="AI30" s="77"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="77"/>
+      <c r="AL30" s="80"/>
+      <c r="AM30" s="77"/>
+      <c r="AN30" s="79"/>
+      <c r="AO30" s="77"/>
+      <c r="AP30" s="80"/>
+      <c r="AQ30" s="77"/>
+      <c r="AR30" s="81"/>
+      <c r="AS30" s="82"/>
+      <c r="AT30" s="83"/>
+      <c r="AU30" s="67"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="L31" s="71"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="O31" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="78"/>
+      <c r="AA31" s="78"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="80"/>
+      <c r="AE31" s="77"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="77"/>
+      <c r="AH31" s="80"/>
+      <c r="AI31" s="77"/>
+      <c r="AJ31" s="79"/>
+      <c r="AK31" s="77"/>
+      <c r="AL31" s="80"/>
+      <c r="AM31" s="77"/>
+      <c r="AN31" s="79"/>
+      <c r="AO31" s="77"/>
+      <c r="AP31" s="80"/>
+      <c r="AQ31" s="77"/>
+      <c r="AR31" s="81"/>
+      <c r="AS31" s="82"/>
+      <c r="AT31" s="83"/>
+      <c r="AU31" s="67"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="87"/>
+      <c r="L32" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="55" t="s">
+      <c r="M32" s="72"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="78"/>
+      <c r="Z32" s="78"/>
+      <c r="AA32" s="78"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="80"/>
+      <c r="AE32" s="77"/>
+      <c r="AF32" s="79"/>
+      <c r="AG32" s="77"/>
+      <c r="AH32" s="80"/>
+      <c r="AI32" s="77"/>
+      <c r="AJ32" s="79"/>
+      <c r="AK32" s="77"/>
+      <c r="AL32" s="80"/>
+      <c r="AM32" s="77"/>
+      <c r="AN32" s="79"/>
+      <c r="AO32" s="77"/>
+      <c r="AP32" s="80"/>
+      <c r="AQ32" s="77"/>
+      <c r="AR32" s="81"/>
+      <c r="AS32" s="82"/>
+      <c r="AT32" s="83"/>
+      <c r="AU32" s="67"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="78"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="80"/>
+      <c r="AE33" s="77"/>
+      <c r="AF33" s="79"/>
+      <c r="AG33" s="77"/>
+      <c r="AH33" s="80"/>
+      <c r="AI33" s="77"/>
+      <c r="AJ33" s="79"/>
+      <c r="AK33" s="77"/>
+      <c r="AL33" s="80"/>
+      <c r="AM33" s="77"/>
+      <c r="AN33" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO33" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP33" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ33" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR33" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS33" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT33" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU33" s="67"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="U34" s="78"/>
+      <c r="V34" s="78"/>
+      <c r="W34" s="78"/>
+      <c r="X34" s="78"/>
+      <c r="Y34" s="78"/>
+      <c r="Z34" s="78"/>
+      <c r="AA34" s="78"/>
+      <c r="AB34" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC34" s="77"/>
+      <c r="AD34" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE34" s="77"/>
+      <c r="AF34" s="79"/>
+      <c r="AG34" s="77"/>
+      <c r="AH34" s="80"/>
+      <c r="AI34" s="77"/>
+      <c r="AJ34" s="79"/>
+      <c r="AK34" s="77"/>
+      <c r="AL34" s="80"/>
+      <c r="AM34" s="77"/>
+      <c r="AN34" s="79"/>
+      <c r="AO34" s="77"/>
+      <c r="AP34" s="80"/>
+      <c r="AQ34" s="77"/>
+      <c r="AR34" s="81"/>
+      <c r="AS34" s="82"/>
+      <c r="AT34" s="83"/>
+      <c r="AU34" s="67"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="87"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="M35" s="72"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="78"/>
+      <c r="V35" s="78"/>
+      <c r="W35" s="78"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="78"/>
+      <c r="Z35" s="78"/>
+      <c r="AA35" s="78"/>
+      <c r="AB35" s="79"/>
+      <c r="AC35" s="77"/>
+      <c r="AD35" s="80"/>
+      <c r="AE35" s="77"/>
+      <c r="AF35" s="79"/>
+      <c r="AG35" s="77"/>
+      <c r="AH35" s="80"/>
+      <c r="AI35" s="77"/>
+      <c r="AJ35" s="79"/>
+      <c r="AK35" s="77"/>
+      <c r="AL35" s="80"/>
+      <c r="AM35" s="77"/>
+      <c r="AN35" s="79"/>
+      <c r="AO35" s="77"/>
+      <c r="AP35" s="80"/>
+      <c r="AQ35" s="77"/>
+      <c r="AR35" s="81"/>
+      <c r="AS35" s="82"/>
+      <c r="AT35" s="83"/>
+      <c r="AU35" s="67"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="78"/>
+      <c r="U36" s="78"/>
+      <c r="V36" s="78"/>
+      <c r="W36" s="78"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="78"/>
+      <c r="Z36" s="78"/>
+      <c r="AA36" s="78"/>
+      <c r="AB36" s="79"/>
+      <c r="AC36" s="77"/>
+      <c r="AD36" s="80"/>
+      <c r="AE36" s="77"/>
+      <c r="AF36" s="79"/>
+      <c r="AG36" s="77"/>
+      <c r="AH36" s="80"/>
+      <c r="AI36" s="77"/>
+      <c r="AJ36" s="79"/>
+      <c r="AK36" s="77"/>
+      <c r="AL36" s="80"/>
+      <c r="AM36" s="77"/>
+      <c r="AN36" s="79"/>
+      <c r="AO36" s="77"/>
+      <c r="AP36" s="80"/>
+      <c r="AQ36" s="77"/>
+      <c r="AR36" s="81"/>
+      <c r="AS36" s="82"/>
+      <c r="AT36" s="83"/>
+      <c r="AU36" s="67"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="78"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="78"/>
+      <c r="W37" s="78"/>
+      <c r="X37" s="78"/>
+      <c r="Y37" s="78"/>
+      <c r="Z37" s="78"/>
+      <c r="AA37" s="78"/>
+      <c r="AB37" s="79"/>
+      <c r="AC37" s="77"/>
+      <c r="AD37" s="80"/>
+      <c r="AE37" s="77"/>
+      <c r="AF37" s="79"/>
+      <c r="AG37" s="77"/>
+      <c r="AH37" s="80"/>
+      <c r="AI37" s="77"/>
+      <c r="AJ37" s="79"/>
+      <c r="AK37" s="77"/>
+      <c r="AL37" s="80"/>
+      <c r="AM37" s="77"/>
+      <c r="AN37" s="79"/>
+      <c r="AO37" s="77"/>
+      <c r="AP37" s="80"/>
+      <c r="AQ37" s="77"/>
+      <c r="AR37" s="81"/>
+      <c r="AS37" s="82"/>
+      <c r="AT37" s="83"/>
+      <c r="AU37" s="67"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="68"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="78"/>
+      <c r="V38" s="78"/>
+      <c r="W38" s="78"/>
+      <c r="X38" s="78"/>
+      <c r="Y38" s="78"/>
+      <c r="Z38" s="78"/>
+      <c r="AA38" s="78"/>
+      <c r="AB38" s="79"/>
+      <c r="AC38" s="77"/>
+      <c r="AD38" s="80"/>
+      <c r="AE38" s="77"/>
+      <c r="AF38" s="79"/>
+      <c r="AG38" s="77"/>
+      <c r="AH38" s="80"/>
+      <c r="AI38" s="77"/>
+      <c r="AJ38" s="79"/>
+      <c r="AK38" s="77"/>
+      <c r="AL38" s="80"/>
+      <c r="AM38" s="77"/>
+      <c r="AN38" s="79"/>
+      <c r="AO38" s="77"/>
+      <c r="AP38" s="80"/>
+      <c r="AQ38" s="77"/>
+      <c r="AR38" s="81"/>
+      <c r="AS38" s="82"/>
+      <c r="AT38" s="83"/>
+      <c r="AU38" s="67"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="91" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS2" s="57"/>
-      <c r="AT2" s="57"/>
-      <c r="AU2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="56" t="s">
+      <c r="G39" s="91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" s="91" t="n">
         <v>4</v>
       </c>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="57" t="n">
+      <c r="I39" s="91" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" s="91" t="n">
+        <v>6</v>
+      </c>
+      <c r="K39" s="91" t="n">
+        <v>7</v>
+      </c>
+      <c r="L39" s="92"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57" t="n">
+      <c r="T39" s="91" t="n">
         <v>1</v>
       </c>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57" t="n">
+      <c r="U39" s="91" t="n">
         <v>2</v>
       </c>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC4" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD4" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE4" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF4" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG4" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH4" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI4" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ4" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK4" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL4" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM4" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN4" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO4" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP4" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ4" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR4" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS4" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT4" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU4" s="61"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="73"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="75"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="72"/>
-      <c r="AP5" s="75"/>
-      <c r="AQ5" s="72"/>
-      <c r="AR5" s="76"/>
-      <c r="AS5" s="77"/>
-      <c r="AT5" s="78"/>
-      <c r="AU5" s="61"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="80" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="80" t="n">
+      <c r="V39" s="91" t="n">
         <v>3</v>
       </c>
-      <c r="H6" s="80" t="n">
+      <c r="W39" s="91" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="80" t="n">
+      <c r="X39" s="91" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="80" t="n">
+      <c r="Y39" s="91" t="n">
         <v>6</v>
       </c>
-      <c r="K6" s="80" t="n">
+      <c r="Z39" s="91" t="n">
         <v>7</v>
       </c>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="80" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="80" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" s="80" t="n">
-        <v>3</v>
-      </c>
-      <c r="W6" s="80" t="n">
-        <v>4</v>
-      </c>
-      <c r="X6" s="80" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="80" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z6" s="80" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="80" t="n">
+      <c r="AA39" s="91" t="n">
         <v>8</v>
       </c>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="61"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="83"/>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="84"/>
-      <c r="AU6" s="61"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
+      <c r="AD39" s="67"/>
+      <c r="AE39" s="95"/>
+      <c r="AF39" s="67"/>
+      <c r="AG39" s="67"/>
+      <c r="AH39" s="67"/>
+      <c r="AI39" s="95"/>
+      <c r="AJ39" s="67"/>
+      <c r="AK39" s="67"/>
+      <c r="AL39" s="67"/>
+      <c r="AM39" s="95"/>
+      <c r="AN39" s="67"/>
+      <c r="AO39" s="67"/>
+      <c r="AP39" s="67"/>
+      <c r="AQ39" s="95"/>
+      <c r="AR39" s="94"/>
+      <c r="AS39" s="67"/>
+      <c r="AT39" s="95"/>
+      <c r="AU39" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="28">

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
@@ -14,22 +14,6 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">VINE!$N$4:$O$14</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$W$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0" vbProcedure="false">VINE!$C$1:$I$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_PAT_path" vbProcedure="false">VINE!$C$1:$I$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_SUBSET" vbProcedure="false">VINE!$M$1:$M$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_SUPSET" vbProcedure="false">VINE!$L$1:$L$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE!$A$4:$W$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_FSElement" vbProcedure="false">VINE!$A$1:$W$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE!$A$1:$W$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VERS!$A$1:$T$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VERS!$D$1:$I$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUBSET_Scripts" vbProcedure="false">VERS!$D$1:$I$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0_SUPSET_blocks" vbProcedure="false">VERS!$D$1:$I$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_1" vbProcedure="false">VERS!$M$1:$R$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VERS!$A$4:$T$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_Javascript" vbProcedure="false">VERS!$A$1:$T$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VERS!$A$1:$T$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -866,7 +850,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -896,7 +880,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -981,6 +965,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1436,7 +1424,7 @@
   </sheetPr>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1676,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="8"/>
@@ -1722,7 +1710,7 @@
         <f aca="false">ROW() - 4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -1827,39 +1815,39 @@
         <v>5</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="38" t="s">
         <v>23</v>
       </c>
       <c r="P9" s="16"/>
-      <c r="Q9" s="38" t="n">
+      <c r="Q9" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="R9" s="38" t="n">
+      <c r="R9" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="S9" s="38" t="n">
+      <c r="S9" s="39" t="n">
         <v>5</v>
       </c>
       <c r="T9" s="18"/>
@@ -1874,7 +1862,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="8" t="s">
         <v>29</v>
       </c>
@@ -1972,39 +1960,39 @@
         <v>8</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="36" t="s">
+      <c r="M12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="37" t="s">
+      <c r="N12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="38" t="s">
         <v>23</v>
       </c>
       <c r="P12" s="16"/>
-      <c r="Q12" s="38" t="n">
+      <c r="Q12" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="R12" s="38" t="n">
+      <c r="R12" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="S12" s="38" t="n">
+      <c r="S12" s="39" t="n">
         <v>5</v>
       </c>
       <c r="T12" s="18"/>
@@ -2019,7 +2007,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="8" t="s">
         <v>29</v>
       </c>
@@ -2139,33 +2127,33 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40" t="n">
+      <c r="B16" s="40"/>
+      <c r="C16" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="41" t="n">
+      <c r="D16" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="41" t="n">
+      <c r="E16" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="41" t="n">
+      <c r="F16" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="41" t="n">
+      <c r="G16" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="H16" s="42" t="n">
+      <c r="H16" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="I16" s="42" t="n">
+      <c r="I16" s="43" t="n">
         <v>6</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="43"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -2173,12 +2161,12 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="43"/>
+      <c r="V16" s="44"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="44"/>
+      <c r="H21" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2232,396 +2220,396 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="47" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="48"/>
+      <c r="V1" s="49"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="48"/>
+      <c r="V2" s="49"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="50" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="47" t="s">
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="53" t="s">
         <v>44</v>
       </c>
       <c r="U3" s="3"/>
-      <c r="V3" s="48"/>
+      <c r="V3" s="49"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <f aca="false">VINE!$A$7</f>
         <v>3</v>
       </c>
-      <c r="B4" s="53" t="str">
+      <c r="B4" s="54" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$C$7)</f>
         <v>package.json</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="60"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="48"/>
+      <c r="V4" s="49"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <f aca="false">VINE!$A$14</f>
         <v>10</v>
       </c>
-      <c r="B5" s="53" t="str">
+      <c r="B5" s="54" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$C$12,VINE!$D$14)</f>
         <v>database/package.json</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="58"/>
-      <c r="T5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="60"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="48"/>
+      <c r="V5" s="49"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="58" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="54" t="s">
+      <c r="K6" s="59"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="58" t="s">
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="59"/>
+      <c r="T6" s="60"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="48"/>
+      <c r="V6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="58" t="s">
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="54" t="s">
+      <c r="K7" s="59"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="58" t="s">
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="T7" s="59"/>
+      <c r="T7" s="60"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="48"/>
+      <c r="V7" s="49"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="58" t="s">
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54" t="s">
+      <c r="K8" s="59"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="58" t="s">
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="T8" s="59"/>
+      <c r="T8" s="60"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="48"/>
+      <c r="V8" s="49"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="60" t="s">
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="60" t="s">
+      <c r="K9" s="59"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="T9" s="59"/>
+      <c r="T9" s="60"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="48"/>
+      <c r="V9" s="49"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="58" t="s">
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="58"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="54" t="s">
+      <c r="K10" s="59"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="58" t="s">
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="T10" s="59"/>
+      <c r="T10" s="60"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="48" t="s">
+      <c r="V10" s="49" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="58" t="s">
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="54" t="s">
+      <c r="K11" s="59"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="58" t="s">
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="T11" s="59"/>
+      <c r="T11" s="60"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="48" t="s">
+      <c r="V11" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="58" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="54" t="s">
+      <c r="K12" s="59"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="58" t="s">
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="T12" s="59"/>
+      <c r="T12" s="60"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="48" t="s">
+      <c r="V12" s="49" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2630,286 +2618,286 @@
         <f aca="false">VINE!$A$11</f>
         <v>7</v>
       </c>
-      <c r="B13" s="53" t="str">
+      <c r="B13" s="54" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$C$9,VINE!$D$11)</f>
         <v>devicebase/package.json</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="60"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="48"/>
+      <c r="V13" s="49"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="58" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="58"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="54" t="s">
+      <c r="K14" s="59"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="58" t="s">
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="T14" s="59"/>
+      <c r="T14" s="60"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="48"/>
+      <c r="V14" s="49"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="58" t="s">
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="58"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="54" t="s">
+      <c r="K15" s="59"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="57" t="s">
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="T15" s="59"/>
+      <c r="T15" s="60"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="48"/>
+      <c r="V15" s="49"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="58" t="s">
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="54" t="s">
+      <c r="K16" s="59"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="57" t="s">
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="T16" s="59"/>
+      <c r="T16" s="60"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="48"/>
+      <c r="V16" s="49"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="60" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="58"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="60" t="s">
+      <c r="K17" s="59"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="T17" s="59"/>
+      <c r="T17" s="60"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="48"/>
+      <c r="V17" s="49"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="58" t="s">
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="58"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="54" t="s">
+      <c r="K18" s="59"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="59"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="60"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="48" t="s">
+      <c r="V18" s="49" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="59"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="60"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="48"/>
+      <c r="V19" s="49"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="59"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="60"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="48"/>
+      <c r="V20" s="49"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="40" t="n">
+      <c r="D21" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="41" t="n">
+      <c r="E21" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="41" t="n">
+      <c r="F21" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="41" t="n">
+      <c r="G21" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="H21" s="41" t="n">
+      <c r="H21" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="I21" s="42" t="n">
+      <c r="I21" s="43" t="n">
         <v>5</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-      <c r="M21" s="40" t="n">
+      <c r="M21" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="41" t="n">
+      <c r="N21" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="O21" s="41" t="n">
+      <c r="O21" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="P21" s="41" t="n">
+      <c r="P21" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="Q21" s="41" t="n">
+      <c r="Q21" s="42" t="n">
         <v>4</v>
       </c>
-      <c r="R21" s="42" t="n">
+      <c r="R21" s="43" t="n">
         <v>5</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="48"/>
+      <c r="V21" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2940,30 +2928,29 @@
   </sheetPr>
   <dimension ref="A1:AU39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O41" activeCellId="0" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="1" width="3.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="4.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="1" width="4.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="19" style="1" width="3.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="24.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="24.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="24.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="24.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="4.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="5.71"/>
@@ -2978,2353 +2965,2353 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="47" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="62" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62" t="s">
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
       <c r="AU1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="47" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="63" t="s">
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="62" t="s">
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62" t="s">
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="63" t="s">
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
       <c r="AU2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="64" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="50" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="66" t="s">
+      <c r="R3" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="62" t="s">
+      <c r="S3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="63" t="n">
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63" t="n">
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63" t="n">
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63" t="n">
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63" t="n">
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64"/>
       <c r="AU3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="AC4" s="62" t="s">
+      <c r="AC4" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="AD4" s="62" t="s">
+      <c r="AD4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="62" t="s">
+      <c r="AE4" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="AF4" s="62" t="s">
+      <c r="AF4" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="62" t="s">
+      <c r="AG4" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="AH4" s="62" t="s">
+      <c r="AH4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AI4" s="62" t="s">
+      <c r="AI4" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="AJ4" s="62" t="s">
+      <c r="AJ4" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="AK4" s="62" t="s">
+      <c r="AK4" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="AL4" s="62" t="s">
+      <c r="AL4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AM4" s="62" t="s">
+      <c r="AM4" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="AN4" s="62" t="s">
+      <c r="AN4" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="AO4" s="62" t="s">
+      <c r="AO4" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AP4" s="62" t="s">
+      <c r="AP4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AQ4" s="62" t="s">
+      <c r="AQ4" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AR4" s="66" t="s">
+      <c r="AR4" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="AS4" s="62" t="s">
+      <c r="AS4" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AT4" s="62" t="s">
+      <c r="AT4" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="AU4" s="67"/>
+      <c r="AU4" s="68"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="74" t="s">
+      <c r="M5" s="73"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="80"/>
-      <c r="AM5" s="77"/>
-      <c r="AN5" s="79"/>
-      <c r="AO5" s="77"/>
-      <c r="AP5" s="80"/>
-      <c r="AQ5" s="77"/>
-      <c r="AR5" s="81"/>
-      <c r="AS5" s="82"/>
-      <c r="AT5" s="83"/>
-      <c r="AU5" s="67"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="81"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="81"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="80"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="81"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="83"/>
+      <c r="AT5" s="84"/>
+      <c r="AU5" s="68"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="71" t="s">
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="74" t="s">
+      <c r="M6" s="73"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="80"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="79"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="80"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="79"/>
-      <c r="AO6" s="77"/>
-      <c r="AP6" s="80"/>
-      <c r="AQ6" s="77"/>
-      <c r="AR6" s="81"/>
-      <c r="AS6" s="82"/>
-      <c r="AT6" s="83"/>
-      <c r="AU6" s="67"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="81"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="80"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="81"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="80"/>
+      <c r="AO6" s="78"/>
+      <c r="AP6" s="81"/>
+      <c r="AQ6" s="78"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="83"/>
+      <c r="AT6" s="84"/>
+      <c r="AU6" s="68"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69" t="s">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="71" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="74" t="s">
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="80"/>
-      <c r="AI7" s="77"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="77"/>
-      <c r="AL7" s="80"/>
-      <c r="AM7" s="77"/>
-      <c r="AN7" s="79"/>
-      <c r="AO7" s="77"/>
-      <c r="AP7" s="80"/>
-      <c r="AQ7" s="77"/>
-      <c r="AR7" s="81"/>
-      <c r="AS7" s="82"/>
-      <c r="AT7" s="83"/>
-      <c r="AU7" s="67"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="81"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="80"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="81"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="80"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="81"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="84"/>
+      <c r="AU7" s="68"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="71" t="s">
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="72"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="74" t="s">
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="77"/>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="80"/>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="77"/>
-      <c r="AL8" s="80"/>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="79"/>
-      <c r="AO8" s="77"/>
-      <c r="AP8" s="80"/>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="81"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="83"/>
-      <c r="AU8" s="67"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="78"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="78"/>
+      <c r="AH8" s="81"/>
+      <c r="AI8" s="78"/>
+      <c r="AJ8" s="80"/>
+      <c r="AK8" s="78"/>
+      <c r="AL8" s="81"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="78"/>
+      <c r="AP8" s="81"/>
+      <c r="AQ8" s="78"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="83"/>
+      <c r="AT8" s="84"/>
+      <c r="AU8" s="68"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="77" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S9" s="78" t="s">
+      <c r="S9" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="79" t="s">
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="80" t="s">
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="80"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="77"/>
-      <c r="AL9" s="80"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="79"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="80"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="81"/>
-      <c r="AS9" s="82"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="67"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="81"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="80"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="81"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="80"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="81"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="82"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="84"/>
+      <c r="AU9" s="68"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="77" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78" t="s">
+      <c r="S10" s="79"/>
+      <c r="T10" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="79" t="s">
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="80" t="s">
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="80"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="80"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="80"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="81"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="67"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="80"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="81"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="80"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="81"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="80"/>
+      <c r="AO10" s="78"/>
+      <c r="AP10" s="81"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="83"/>
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="68"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="77" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78" t="s">
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="79" t="s">
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="80" t="s">
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="80"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="79"/>
-      <c r="AK11" s="77"/>
-      <c r="AL11" s="80"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="79"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="80"/>
-      <c r="AQ11" s="77"/>
-      <c r="AR11" s="81"/>
-      <c r="AS11" s="82"/>
-      <c r="AT11" s="83"/>
-      <c r="AU11" s="67"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="80"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="81"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="80"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="81"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="80"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="81"/>
+      <c r="AQ11" s="78"/>
+      <c r="AR11" s="82"/>
+      <c r="AS11" s="83"/>
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="68"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="77" t="s">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78" t="s">
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="79" t="s">
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="AC12" s="84" t="s">
+      <c r="AC12" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="AD12" s="80" t="s">
+      <c r="AD12" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="AE12" s="84" t="s">
+      <c r="AE12" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="AF12" s="79" t="s">
+      <c r="AF12" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="AG12" s="84" t="s">
+      <c r="AG12" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="AH12" s="80" t="s">
+      <c r="AH12" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="AI12" s="84" t="s">
+      <c r="AI12" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="AJ12" s="79"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="80"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="79"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="80"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="81"/>
-      <c r="AS12" s="82"/>
-      <c r="AT12" s="83"/>
-      <c r="AU12" s="67"/>
+      <c r="AJ12" s="80"/>
+      <c r="AK12" s="85"/>
+      <c r="AL12" s="81"/>
+      <c r="AM12" s="85"/>
+      <c r="AN12" s="80"/>
+      <c r="AO12" s="85"/>
+      <c r="AP12" s="81"/>
+      <c r="AQ12" s="85"/>
+      <c r="AR12" s="82"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="84"/>
+      <c r="AU12" s="68"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="77" t="s">
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78" t="s">
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="79" t="s">
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="80" t="s">
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="80"/>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="79"/>
-      <c r="AK13" s="77"/>
-      <c r="AL13" s="80"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="79"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="80"/>
-      <c r="AQ13" s="77"/>
-      <c r="AR13" s="81"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="83"/>
-      <c r="AU13" s="67"/>
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="80"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="81"/>
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="80"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="81"/>
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="80"/>
+      <c r="AO13" s="78"/>
+      <c r="AP13" s="81"/>
+      <c r="AQ13" s="78"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="83"/>
+      <c r="AT13" s="84"/>
+      <c r="AU13" s="68"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="77" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78" t="s">
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="80"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="77"/>
-      <c r="AL14" s="80"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="79"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="80"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="85" t="s">
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="78"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="78"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="78"/>
+      <c r="AJ14" s="80"/>
+      <c r="AK14" s="78"/>
+      <c r="AL14" s="81"/>
+      <c r="AM14" s="78"/>
+      <c r="AN14" s="80"/>
+      <c r="AO14" s="78"/>
+      <c r="AP14" s="81"/>
+      <c r="AQ14" s="78"/>
+      <c r="AR14" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="AS14" s="82" t="s">
+      <c r="AS14" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="AT14" s="86" t="s">
+      <c r="AT14" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="AU14" s="67"/>
+      <c r="AU14" s="68"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="77" t="s">
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78" t="s">
+      <c r="S15" s="79"/>
+      <c r="T15" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="79" t="s">
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="80" t="s">
+      <c r="AC15" s="78"/>
+      <c r="AD15" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="79" t="s">
+      <c r="AE15" s="78"/>
+      <c r="AF15" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="80" t="s">
+      <c r="AG15" s="78"/>
+      <c r="AH15" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="79"/>
-      <c r="AK15" s="77"/>
-      <c r="AL15" s="80"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="79"/>
-      <c r="AO15" s="77"/>
-      <c r="AP15" s="80"/>
-      <c r="AQ15" s="77"/>
-      <c r="AR15" s="85"/>
-      <c r="AS15" s="82"/>
-      <c r="AT15" s="83"/>
-      <c r="AU15" s="67"/>
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="80"/>
+      <c r="AK15" s="78"/>
+      <c r="AL15" s="81"/>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="80"/>
+      <c r="AO15" s="78"/>
+      <c r="AP15" s="81"/>
+      <c r="AQ15" s="78"/>
+      <c r="AR15" s="86"/>
+      <c r="AS15" s="83"/>
+      <c r="AT15" s="84"/>
+      <c r="AU15" s="68"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87" t="s">
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="71" t="s">
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="M16" s="72"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="80"/>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="79"/>
-      <c r="AK16" s="77"/>
-      <c r="AL16" s="80"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="79"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="80"/>
-      <c r="AQ16" s="77"/>
-      <c r="AR16" s="81"/>
-      <c r="AS16" s="82"/>
-      <c r="AT16" s="83"/>
-      <c r="AU16" s="67"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="80"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="81"/>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="80"/>
+      <c r="AK16" s="78"/>
+      <c r="AL16" s="81"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="80"/>
+      <c r="AO16" s="78"/>
+      <c r="AP16" s="81"/>
+      <c r="AQ16" s="78"/>
+      <c r="AR16" s="82"/>
+      <c r="AS16" s="83"/>
+      <c r="AT16" s="84"/>
+      <c r="AU16" s="68"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70" t="s">
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="73" t="s">
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="O17" s="74" t="s">
+      <c r="O17" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="80"/>
-      <c r="AE17" s="77"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="80"/>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="79"/>
-      <c r="AK17" s="77"/>
-      <c r="AL17" s="80"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="79"/>
-      <c r="AO17" s="77"/>
-      <c r="AP17" s="80"/>
-      <c r="AQ17" s="77"/>
-      <c r="AR17" s="81"/>
-      <c r="AS17" s="82"/>
-      <c r="AT17" s="83"/>
-      <c r="AU17" s="67"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="80"/>
+      <c r="AG17" s="78"/>
+      <c r="AH17" s="81"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="80"/>
+      <c r="AK17" s="78"/>
+      <c r="AL17" s="81"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="80"/>
+      <c r="AO17" s="78"/>
+      <c r="AP17" s="81"/>
+      <c r="AQ17" s="78"/>
+      <c r="AR17" s="82"/>
+      <c r="AS17" s="83"/>
+      <c r="AT17" s="84"/>
+      <c r="AU17" s="68"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="87" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="87"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71" t="s">
+      <c r="G18" s="88"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="72"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="80"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="77"/>
-      <c r="AH18" s="80"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="79"/>
-      <c r="AK18" s="77"/>
-      <c r="AL18" s="80"/>
-      <c r="AM18" s="77"/>
-      <c r="AN18" s="79"/>
-      <c r="AO18" s="77"/>
-      <c r="AP18" s="80"/>
-      <c r="AQ18" s="77"/>
-      <c r="AR18" s="81"/>
-      <c r="AS18" s="82"/>
-      <c r="AT18" s="83"/>
-      <c r="AU18" s="67"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="78"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="78"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="78"/>
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="78"/>
+      <c r="AJ18" s="80"/>
+      <c r="AK18" s="78"/>
+      <c r="AL18" s="81"/>
+      <c r="AM18" s="78"/>
+      <c r="AN18" s="80"/>
+      <c r="AO18" s="78"/>
+      <c r="AP18" s="81"/>
+      <c r="AQ18" s="78"/>
+      <c r="AR18" s="82"/>
+      <c r="AS18" s="83"/>
+      <c r="AT18" s="84"/>
+      <c r="AU18" s="68"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="71" t="s">
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="72"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="74" t="s">
+      <c r="M19" s="73"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="77"/>
-      <c r="AD19" s="80"/>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="77"/>
-      <c r="AH19" s="80"/>
-      <c r="AI19" s="77"/>
-      <c r="AJ19" s="79"/>
-      <c r="AK19" s="77"/>
-      <c r="AL19" s="80"/>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="79"/>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="80"/>
-      <c r="AQ19" s="77"/>
-      <c r="AR19" s="81"/>
-      <c r="AS19" s="82"/>
-      <c r="AT19" s="83"/>
-      <c r="AU19" s="67"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="80"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="81"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="80"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="81"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="80"/>
+      <c r="AO19" s="78"/>
+      <c r="AP19" s="81"/>
+      <c r="AQ19" s="78"/>
+      <c r="AR19" s="82"/>
+      <c r="AS19" s="83"/>
+      <c r="AT19" s="84"/>
+      <c r="AU19" s="68"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70" t="s">
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="71" t="s">
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="72"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="74" t="s">
+      <c r="M20" s="73"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="80"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="79"/>
-      <c r="AK20" s="77"/>
-      <c r="AL20" s="80"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="79"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="80"/>
-      <c r="AQ20" s="77"/>
-      <c r="AR20" s="81"/>
-      <c r="AS20" s="82"/>
-      <c r="AT20" s="83"/>
-      <c r="AU20" s="67"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="78"/>
+      <c r="AH20" s="81"/>
+      <c r="AI20" s="78"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="78"/>
+      <c r="AL20" s="81"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="80"/>
+      <c r="AO20" s="78"/>
+      <c r="AP20" s="81"/>
+      <c r="AQ20" s="78"/>
+      <c r="AR20" s="82"/>
+      <c r="AS20" s="83"/>
+      <c r="AT20" s="84"/>
+      <c r="AU20" s="68"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="77" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78" t="s">
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="79" t="s">
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AC21" s="77"/>
-      <c r="AD21" s="80" t="s">
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="77"/>
-      <c r="AH21" s="80"/>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="79"/>
-      <c r="AK21" s="77"/>
-      <c r="AL21" s="80"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="79"/>
-      <c r="AO21" s="77"/>
-      <c r="AP21" s="80"/>
-      <c r="AQ21" s="77"/>
-      <c r="AR21" s="81"/>
-      <c r="AS21" s="82"/>
-      <c r="AT21" s="83"/>
-      <c r="AU21" s="67"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="80"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="81"/>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="81"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="80"/>
+      <c r="AO21" s="78"/>
+      <c r="AP21" s="81"/>
+      <c r="AQ21" s="78"/>
+      <c r="AR21" s="82"/>
+      <c r="AS21" s="83"/>
+      <c r="AT21" s="84"/>
+      <c r="AU21" s="68"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="77" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78" t="s">
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="79" t="s">
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="80" t="s">
+      <c r="AC22" s="78"/>
+      <c r="AD22" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="80"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="79"/>
-      <c r="AK22" s="77"/>
-      <c r="AL22" s="80"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="79"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="80"/>
-      <c r="AQ22" s="77"/>
-      <c r="AR22" s="81"/>
-      <c r="AS22" s="82"/>
-      <c r="AT22" s="83"/>
-      <c r="AU22" s="67"/>
+      <c r="AE22" s="78"/>
+      <c r="AF22" s="80"/>
+      <c r="AG22" s="78"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="78"/>
+      <c r="AJ22" s="80"/>
+      <c r="AK22" s="78"/>
+      <c r="AL22" s="81"/>
+      <c r="AM22" s="78"/>
+      <c r="AN22" s="80"/>
+      <c r="AO22" s="78"/>
+      <c r="AP22" s="81"/>
+      <c r="AQ22" s="78"/>
+      <c r="AR22" s="82"/>
+      <c r="AS22" s="83"/>
+      <c r="AT22" s="84"/>
+      <c r="AU22" s="68"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="77" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78" t="s">
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="Z23" s="78"/>
-      <c r="AA23" s="78"/>
-      <c r="AB23" s="79" t="s">
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AC23" s="77"/>
-      <c r="AD23" s="80" t="s">
+      <c r="AC23" s="78"/>
+      <c r="AD23" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="AE23" s="77"/>
-      <c r="AF23" s="79" t="s">
+      <c r="AE23" s="78"/>
+      <c r="AF23" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="AG23" s="77" t="s">
+      <c r="AG23" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="AH23" s="80" t="s">
+      <c r="AH23" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="AI23" s="77" t="s">
+      <c r="AI23" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="AJ23" s="79" t="s">
+      <c r="AJ23" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="AK23" s="77" t="s">
+      <c r="AK23" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="AL23" s="80" t="s">
+      <c r="AL23" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="AM23" s="77" t="s">
+      <c r="AM23" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="AN23" s="79" t="s">
+      <c r="AN23" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="AO23" s="77" t="s">
+      <c r="AO23" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="AP23" s="80" t="s">
+      <c r="AP23" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="AQ23" s="77" t="s">
+      <c r="AQ23" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="AR23" s="81"/>
-      <c r="AS23" s="82"/>
-      <c r="AT23" s="83"/>
-      <c r="AU23" s="67"/>
+      <c r="AR23" s="82"/>
+      <c r="AS23" s="83"/>
+      <c r="AT23" s="84"/>
+      <c r="AU23" s="68"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="77" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78" t="s">
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="78"/>
-      <c r="AA24" s="78"/>
-      <c r="AB24" s="79" t="s">
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AC24" s="77"/>
-      <c r="AD24" s="80" t="s">
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="AE24" s="77"/>
-      <c r="AF24" s="79"/>
-      <c r="AG24" s="77"/>
-      <c r="AH24" s="80"/>
-      <c r="AI24" s="77"/>
-      <c r="AJ24" s="79"/>
-      <c r="AK24" s="77"/>
-      <c r="AL24" s="80"/>
-      <c r="AM24" s="77"/>
-      <c r="AN24" s="79"/>
-      <c r="AO24" s="77"/>
-      <c r="AP24" s="80"/>
-      <c r="AQ24" s="77"/>
-      <c r="AR24" s="81"/>
-      <c r="AS24" s="82"/>
-      <c r="AT24" s="83"/>
-      <c r="AU24" s="67"/>
+      <c r="AE24" s="78"/>
+      <c r="AF24" s="80"/>
+      <c r="AG24" s="78"/>
+      <c r="AH24" s="81"/>
+      <c r="AI24" s="78"/>
+      <c r="AJ24" s="80"/>
+      <c r="AK24" s="78"/>
+      <c r="AL24" s="81"/>
+      <c r="AM24" s="78"/>
+      <c r="AN24" s="80"/>
+      <c r="AO24" s="78"/>
+      <c r="AP24" s="81"/>
+      <c r="AQ24" s="78"/>
+      <c r="AR24" s="82"/>
+      <c r="AS24" s="83"/>
+      <c r="AT24" s="84"/>
+      <c r="AU24" s="68"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="77" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78" t="s">
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="79" t="s">
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="80" t="s">
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="77"/>
-      <c r="AH25" s="80"/>
-      <c r="AI25" s="77"/>
-      <c r="AJ25" s="79"/>
-      <c r="AK25" s="77"/>
-      <c r="AL25" s="80"/>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="79"/>
-      <c r="AO25" s="77"/>
-      <c r="AP25" s="80"/>
-      <c r="AQ25" s="77"/>
-      <c r="AR25" s="81" t="s">
+      <c r="AE25" s="78"/>
+      <c r="AF25" s="80"/>
+      <c r="AG25" s="78"/>
+      <c r="AH25" s="81"/>
+      <c r="AI25" s="78"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="78"/>
+      <c r="AL25" s="81"/>
+      <c r="AM25" s="78"/>
+      <c r="AN25" s="80"/>
+      <c r="AO25" s="78"/>
+      <c r="AP25" s="81"/>
+      <c r="AQ25" s="78"/>
+      <c r="AR25" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="AS25" s="82" t="s">
+      <c r="AS25" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="AT25" s="86" t="s">
+      <c r="AT25" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="AU25" s="67"/>
+      <c r="AU25" s="68"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="77" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="78"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78" t="s">
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="79" t="s">
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="80" t="s">
+      <c r="AC26" s="78"/>
+      <c r="AD26" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="AE26" s="77"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="77"/>
-      <c r="AH26" s="80"/>
-      <c r="AI26" s="77"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="77"/>
-      <c r="AL26" s="80"/>
-      <c r="AM26" s="77"/>
-      <c r="AN26" s="79"/>
-      <c r="AO26" s="77"/>
-      <c r="AP26" s="80"/>
-      <c r="AQ26" s="77"/>
-      <c r="AR26" s="81" t="s">
+      <c r="AE26" s="78"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="78"/>
+      <c r="AH26" s="81"/>
+      <c r="AI26" s="78"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="78"/>
+      <c r="AL26" s="81"/>
+      <c r="AM26" s="78"/>
+      <c r="AN26" s="80"/>
+      <c r="AO26" s="78"/>
+      <c r="AP26" s="81"/>
+      <c r="AQ26" s="78"/>
+      <c r="AR26" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="AS26" s="82" t="s">
+      <c r="AS26" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="AT26" s="86" t="s">
+      <c r="AT26" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="AU26" s="67"/>
+      <c r="AU26" s="68"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="77" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78" t="s">
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="79" t="s">
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="80" t="s">
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="AE27" s="77"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="77"/>
-      <c r="AH27" s="80"/>
-      <c r="AI27" s="77"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="77"/>
-      <c r="AL27" s="80"/>
-      <c r="AM27" s="77"/>
-      <c r="AN27" s="79"/>
-      <c r="AO27" s="77"/>
-      <c r="AP27" s="80"/>
-      <c r="AQ27" s="77"/>
-      <c r="AR27" s="81" t="s">
+      <c r="AE27" s="78"/>
+      <c r="AF27" s="80"/>
+      <c r="AG27" s="78"/>
+      <c r="AH27" s="81"/>
+      <c r="AI27" s="78"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="78"/>
+      <c r="AL27" s="81"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="80"/>
+      <c r="AO27" s="78"/>
+      <c r="AP27" s="81"/>
+      <c r="AQ27" s="78"/>
+      <c r="AR27" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="AS27" s="82" t="s">
+      <c r="AS27" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="AT27" s="86" t="s">
+      <c r="AT27" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="AU27" s="67"/>
+      <c r="AU27" s="68"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="77" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78" t="s">
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="79" t="s">
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="80" t="s">
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="AE28" s="77"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="77"/>
-      <c r="AH28" s="80"/>
-      <c r="AI28" s="77"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="77"/>
-      <c r="AL28" s="80"/>
-      <c r="AM28" s="77"/>
-      <c r="AN28" s="79"/>
-      <c r="AO28" s="77"/>
-      <c r="AP28" s="80"/>
-      <c r="AQ28" s="77"/>
-      <c r="AR28" s="81" t="s">
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="80"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="78"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="78"/>
+      <c r="AL28" s="81"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="80"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="81"/>
+      <c r="AQ28" s="78"/>
+      <c r="AR28" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="AS28" s="82" t="s">
+      <c r="AS28" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="AT28" s="86" t="s">
+      <c r="AT28" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="AU28" s="67"/>
+      <c r="AU28" s="68"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="77" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-      <c r="U29" s="78"/>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78" t="s">
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="79" t="s">
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="80" t="s">
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="77"/>
-      <c r="AH29" s="80"/>
-      <c r="AI29" s="77"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="77"/>
-      <c r="AL29" s="80"/>
-      <c r="AM29" s="77"/>
-      <c r="AN29" s="79"/>
-      <c r="AO29" s="77"/>
-      <c r="AP29" s="80"/>
-      <c r="AQ29" s="77"/>
-      <c r="AR29" s="81"/>
-      <c r="AS29" s="82"/>
-      <c r="AT29" s="83"/>
-      <c r="AU29" s="67"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="80"/>
+      <c r="AG29" s="78"/>
+      <c r="AH29" s="81"/>
+      <c r="AI29" s="78"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="78"/>
+      <c r="AL29" s="81"/>
+      <c r="AM29" s="78"/>
+      <c r="AN29" s="80"/>
+      <c r="AO29" s="78"/>
+      <c r="AP29" s="81"/>
+      <c r="AQ29" s="78"/>
+      <c r="AR29" s="82"/>
+      <c r="AS29" s="83"/>
+      <c r="AT29" s="84"/>
+      <c r="AU29" s="68"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="69" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87" t="s">
+      <c r="D30" s="88"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="70"/>
-      <c r="L30" s="71" t="s">
+      <c r="K30" s="71"/>
+      <c r="L30" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="M30" s="72"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="80"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="77"/>
-      <c r="AH30" s="80"/>
-      <c r="AI30" s="77"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="77"/>
-      <c r="AL30" s="80"/>
-      <c r="AM30" s="77"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="77"/>
-      <c r="AP30" s="80"/>
-      <c r="AQ30" s="77"/>
-      <c r="AR30" s="81"/>
-      <c r="AS30" s="82"/>
-      <c r="AT30" s="83"/>
-      <c r="AU30" s="67"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="78"/>
+      <c r="AF30" s="80"/>
+      <c r="AG30" s="78"/>
+      <c r="AH30" s="81"/>
+      <c r="AI30" s="78"/>
+      <c r="AJ30" s="80"/>
+      <c r="AK30" s="78"/>
+      <c r="AL30" s="81"/>
+      <c r="AM30" s="78"/>
+      <c r="AN30" s="80"/>
+      <c r="AO30" s="78"/>
+      <c r="AP30" s="81"/>
+      <c r="AQ30" s="78"/>
+      <c r="AR30" s="82"/>
+      <c r="AS30" s="83"/>
+      <c r="AT30" s="84"/>
+      <c r="AU30" s="68"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="69" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70" t="s">
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="L31" s="71"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="73" t="s">
+      <c r="L31" s="72"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="O31" s="74" t="s">
+      <c r="O31" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="78"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="80"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="77"/>
-      <c r="AH31" s="80"/>
-      <c r="AI31" s="77"/>
-      <c r="AJ31" s="79"/>
-      <c r="AK31" s="77"/>
-      <c r="AL31" s="80"/>
-      <c r="AM31" s="77"/>
-      <c r="AN31" s="79"/>
-      <c r="AO31" s="77"/>
-      <c r="AP31" s="80"/>
-      <c r="AQ31" s="77"/>
-      <c r="AR31" s="81"/>
-      <c r="AS31" s="82"/>
-      <c r="AT31" s="83"/>
-      <c r="AU31" s="67"/>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="80"/>
+      <c r="AC31" s="78"/>
+      <c r="AD31" s="81"/>
+      <c r="AE31" s="78"/>
+      <c r="AF31" s="80"/>
+      <c r="AG31" s="78"/>
+      <c r="AH31" s="81"/>
+      <c r="AI31" s="78"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="78"/>
+      <c r="AL31" s="81"/>
+      <c r="AM31" s="78"/>
+      <c r="AN31" s="80"/>
+      <c r="AO31" s="78"/>
+      <c r="AP31" s="81"/>
+      <c r="AQ31" s="78"/>
+      <c r="AR31" s="82"/>
+      <c r="AS31" s="83"/>
+      <c r="AT31" s="84"/>
+      <c r="AU31" s="68"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="87" t="s">
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="K32" s="87"/>
-      <c r="L32" s="71" t="s">
+      <c r="K32" s="88"/>
+      <c r="L32" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="72"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="80"/>
-      <c r="AE32" s="77"/>
-      <c r="AF32" s="79"/>
-      <c r="AG32" s="77"/>
-      <c r="AH32" s="80"/>
-      <c r="AI32" s="77"/>
-      <c r="AJ32" s="79"/>
-      <c r="AK32" s="77"/>
-      <c r="AL32" s="80"/>
-      <c r="AM32" s="77"/>
-      <c r="AN32" s="79"/>
-      <c r="AO32" s="77"/>
-      <c r="AP32" s="80"/>
-      <c r="AQ32" s="77"/>
-      <c r="AR32" s="81"/>
-      <c r="AS32" s="82"/>
-      <c r="AT32" s="83"/>
-      <c r="AU32" s="67"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="80"/>
+      <c r="AC32" s="78"/>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="78"/>
+      <c r="AF32" s="80"/>
+      <c r="AG32" s="78"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="78"/>
+      <c r="AJ32" s="80"/>
+      <c r="AK32" s="78"/>
+      <c r="AL32" s="81"/>
+      <c r="AM32" s="78"/>
+      <c r="AN32" s="80"/>
+      <c r="AO32" s="78"/>
+      <c r="AP32" s="81"/>
+      <c r="AQ32" s="78"/>
+      <c r="AR32" s="82"/>
+      <c r="AS32" s="83"/>
+      <c r="AT32" s="84"/>
+      <c r="AU32" s="68"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="77" t="s">
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="78" t="s">
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
+      <c r="V33" s="79"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="79"/>
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="80"/>
-      <c r="AE33" s="77"/>
-      <c r="AF33" s="79"/>
-      <c r="AG33" s="77"/>
-      <c r="AH33" s="80"/>
-      <c r="AI33" s="77"/>
-      <c r="AJ33" s="79"/>
-      <c r="AK33" s="77"/>
-      <c r="AL33" s="80"/>
-      <c r="AM33" s="77"/>
-      <c r="AN33" s="79" t="s">
+      <c r="AB33" s="80"/>
+      <c r="AC33" s="78"/>
+      <c r="AD33" s="81"/>
+      <c r="AE33" s="78"/>
+      <c r="AF33" s="80"/>
+      <c r="AG33" s="78"/>
+      <c r="AH33" s="81"/>
+      <c r="AI33" s="78"/>
+      <c r="AJ33" s="80"/>
+      <c r="AK33" s="78"/>
+      <c r="AL33" s="81"/>
+      <c r="AM33" s="78"/>
+      <c r="AN33" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="AO33" s="77" t="s">
+      <c r="AO33" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="AP33" s="80" t="s">
+      <c r="AP33" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="AQ33" s="77" t="s">
+      <c r="AQ33" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="AR33" s="81" t="s">
+      <c r="AR33" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="AS33" s="82" t="s">
+      <c r="AS33" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="AT33" s="86" t="s">
+      <c r="AT33" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="AU33" s="67"/>
+      <c r="AU33" s="68"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="77" t="s">
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78" t="s">
+      <c r="S34" s="79"/>
+      <c r="T34" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="U34" s="78"/>
-      <c r="V34" s="78"/>
-      <c r="W34" s="78"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="78"/>
-      <c r="AA34" s="78"/>
-      <c r="AB34" s="79" t="s">
+      <c r="U34" s="79"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AC34" s="77"/>
-      <c r="AD34" s="80" t="s">
+      <c r="AC34" s="78"/>
+      <c r="AD34" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="AE34" s="77"/>
-      <c r="AF34" s="79"/>
-      <c r="AG34" s="77"/>
-      <c r="AH34" s="80"/>
-      <c r="AI34" s="77"/>
-      <c r="AJ34" s="79"/>
-      <c r="AK34" s="77"/>
-      <c r="AL34" s="80"/>
-      <c r="AM34" s="77"/>
-      <c r="AN34" s="79"/>
-      <c r="AO34" s="77"/>
-      <c r="AP34" s="80"/>
-      <c r="AQ34" s="77"/>
-      <c r="AR34" s="81"/>
-      <c r="AS34" s="82"/>
-      <c r="AT34" s="83"/>
-      <c r="AU34" s="67"/>
+      <c r="AE34" s="78"/>
+      <c r="AF34" s="80"/>
+      <c r="AG34" s="78"/>
+      <c r="AH34" s="81"/>
+      <c r="AI34" s="78"/>
+      <c r="AJ34" s="80"/>
+      <c r="AK34" s="78"/>
+      <c r="AL34" s="81"/>
+      <c r="AM34" s="78"/>
+      <c r="AN34" s="80"/>
+      <c r="AO34" s="78"/>
+      <c r="AP34" s="81"/>
+      <c r="AQ34" s="78"/>
+      <c r="AR34" s="82"/>
+      <c r="AS34" s="83"/>
+      <c r="AT34" s="84"/>
+      <c r="AU34" s="68"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="70" t="s">
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="71" t="s">
+      <c r="E35" s="88"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="M35" s="72"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="77"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="78"/>
-      <c r="V35" s="78"/>
-      <c r="W35" s="78"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="78"/>
-      <c r="Z35" s="78"/>
-      <c r="AA35" s="78"/>
-      <c r="AB35" s="79"/>
-      <c r="AC35" s="77"/>
-      <c r="AD35" s="80"/>
-      <c r="AE35" s="77"/>
-      <c r="AF35" s="79"/>
-      <c r="AG35" s="77"/>
-      <c r="AH35" s="80"/>
-      <c r="AI35" s="77"/>
-      <c r="AJ35" s="79"/>
-      <c r="AK35" s="77"/>
-      <c r="AL35" s="80"/>
-      <c r="AM35" s="77"/>
-      <c r="AN35" s="79"/>
-      <c r="AO35" s="77"/>
-      <c r="AP35" s="80"/>
-      <c r="AQ35" s="77"/>
-      <c r="AR35" s="81"/>
-      <c r="AS35" s="82"/>
-      <c r="AT35" s="83"/>
-      <c r="AU35" s="67"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="80"/>
+      <c r="AC35" s="78"/>
+      <c r="AD35" s="81"/>
+      <c r="AE35" s="78"/>
+      <c r="AF35" s="80"/>
+      <c r="AG35" s="78"/>
+      <c r="AH35" s="81"/>
+      <c r="AI35" s="78"/>
+      <c r="AJ35" s="80"/>
+      <c r="AK35" s="78"/>
+      <c r="AL35" s="81"/>
+      <c r="AM35" s="78"/>
+      <c r="AN35" s="80"/>
+      <c r="AO35" s="78"/>
+      <c r="AP35" s="81"/>
+      <c r="AQ35" s="78"/>
+      <c r="AR35" s="82"/>
+      <c r="AS35" s="83"/>
+      <c r="AT35" s="84"/>
+      <c r="AU35" s="68"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="89" t="s">
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="77"/>
-      <c r="S36" s="78"/>
-      <c r="T36" s="78"/>
-      <c r="U36" s="78"/>
-      <c r="V36" s="78"/>
-      <c r="W36" s="78"/>
-      <c r="X36" s="78"/>
-      <c r="Y36" s="78"/>
-      <c r="Z36" s="78"/>
-      <c r="AA36" s="78"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="77"/>
-      <c r="AD36" s="80"/>
-      <c r="AE36" s="77"/>
-      <c r="AF36" s="79"/>
-      <c r="AG36" s="77"/>
-      <c r="AH36" s="80"/>
-      <c r="AI36" s="77"/>
-      <c r="AJ36" s="79"/>
-      <c r="AK36" s="77"/>
-      <c r="AL36" s="80"/>
-      <c r="AM36" s="77"/>
-      <c r="AN36" s="79"/>
-      <c r="AO36" s="77"/>
-      <c r="AP36" s="80"/>
-      <c r="AQ36" s="77"/>
-      <c r="AR36" s="81"/>
-      <c r="AS36" s="82"/>
-      <c r="AT36" s="83"/>
-      <c r="AU36" s="67"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="79"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="79"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="79"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="79"/>
+      <c r="AB36" s="80"/>
+      <c r="AC36" s="78"/>
+      <c r="AD36" s="81"/>
+      <c r="AE36" s="78"/>
+      <c r="AF36" s="80"/>
+      <c r="AG36" s="78"/>
+      <c r="AH36" s="81"/>
+      <c r="AI36" s="78"/>
+      <c r="AJ36" s="80"/>
+      <c r="AK36" s="78"/>
+      <c r="AL36" s="81"/>
+      <c r="AM36" s="78"/>
+      <c r="AN36" s="80"/>
+      <c r="AO36" s="78"/>
+      <c r="AP36" s="81"/>
+      <c r="AQ36" s="78"/>
+      <c r="AR36" s="82"/>
+      <c r="AS36" s="83"/>
+      <c r="AT36" s="84"/>
+      <c r="AU36" s="68"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="77"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
-      <c r="V37" s="78"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="78"/>
-      <c r="Z37" s="78"/>
-      <c r="AA37" s="78"/>
-      <c r="AB37" s="79"/>
-      <c r="AC37" s="77"/>
-      <c r="AD37" s="80"/>
-      <c r="AE37" s="77"/>
-      <c r="AF37" s="79"/>
-      <c r="AG37" s="77"/>
-      <c r="AH37" s="80"/>
-      <c r="AI37" s="77"/>
-      <c r="AJ37" s="79"/>
-      <c r="AK37" s="77"/>
-      <c r="AL37" s="80"/>
-      <c r="AM37" s="77"/>
-      <c r="AN37" s="79"/>
-      <c r="AO37" s="77"/>
-      <c r="AP37" s="80"/>
-      <c r="AQ37" s="77"/>
-      <c r="AR37" s="81"/>
-      <c r="AS37" s="82"/>
-      <c r="AT37" s="83"/>
-      <c r="AU37" s="67"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="78"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="80"/>
+      <c r="AC37" s="78"/>
+      <c r="AD37" s="81"/>
+      <c r="AE37" s="78"/>
+      <c r="AF37" s="80"/>
+      <c r="AG37" s="78"/>
+      <c r="AH37" s="81"/>
+      <c r="AI37" s="78"/>
+      <c r="AJ37" s="80"/>
+      <c r="AK37" s="78"/>
+      <c r="AL37" s="81"/>
+      <c r="AM37" s="78"/>
+      <c r="AN37" s="80"/>
+      <c r="AO37" s="78"/>
+      <c r="AP37" s="81"/>
+      <c r="AQ37" s="78"/>
+      <c r="AR37" s="82"/>
+      <c r="AS37" s="83"/>
+      <c r="AT37" s="84"/>
+      <c r="AU37" s="68"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="68"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="77"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="78"/>
-      <c r="U38" s="78"/>
-      <c r="V38" s="78"/>
-      <c r="W38" s="78"/>
-      <c r="X38" s="78"/>
-      <c r="Y38" s="78"/>
-      <c r="Z38" s="78"/>
-      <c r="AA38" s="78"/>
-      <c r="AB38" s="79"/>
-      <c r="AC38" s="77"/>
-      <c r="AD38" s="80"/>
-      <c r="AE38" s="77"/>
-      <c r="AF38" s="79"/>
-      <c r="AG38" s="77"/>
-      <c r="AH38" s="80"/>
-      <c r="AI38" s="77"/>
-      <c r="AJ38" s="79"/>
-      <c r="AK38" s="77"/>
-      <c r="AL38" s="80"/>
-      <c r="AM38" s="77"/>
-      <c r="AN38" s="79"/>
-      <c r="AO38" s="77"/>
-      <c r="AP38" s="80"/>
-      <c r="AQ38" s="77"/>
-      <c r="AR38" s="81"/>
-      <c r="AS38" s="82"/>
-      <c r="AT38" s="83"/>
-      <c r="AU38" s="67"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="80"/>
+      <c r="AC38" s="78"/>
+      <c r="AD38" s="81"/>
+      <c r="AE38" s="78"/>
+      <c r="AF38" s="80"/>
+      <c r="AG38" s="78"/>
+      <c r="AH38" s="81"/>
+      <c r="AI38" s="78"/>
+      <c r="AJ38" s="80"/>
+      <c r="AK38" s="78"/>
+      <c r="AL38" s="81"/>
+      <c r="AM38" s="78"/>
+      <c r="AN38" s="80"/>
+      <c r="AO38" s="78"/>
+      <c r="AP38" s="81"/>
+      <c r="AQ38" s="78"/>
+      <c r="AR38" s="82"/>
+      <c r="AS38" s="83"/>
+      <c r="AT38" s="84"/>
+      <c r="AU38" s="68"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="91" t="n">
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="E39" s="91" t="n">
+      <c r="E39" s="92" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="91" t="n">
+      <c r="F39" s="92" t="n">
         <v>2</v>
       </c>
-      <c r="G39" s="91" t="n">
+      <c r="G39" s="92" t="n">
         <v>3</v>
       </c>
-      <c r="H39" s="91" t="n">
+      <c r="H39" s="92" t="n">
         <v>4</v>
       </c>
-      <c r="I39" s="91" t="n">
+      <c r="I39" s="92" t="n">
         <v>5</v>
       </c>
-      <c r="J39" s="91" t="n">
+      <c r="J39" s="92" t="n">
         <v>6</v>
       </c>
-      <c r="K39" s="91" t="n">
+      <c r="K39" s="92" t="n">
         <v>7</v>
       </c>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="90"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="94"/>
-      <c r="S39" s="91" t="n">
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="91"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="T39" s="91" t="n">
+      <c r="T39" s="92" t="n">
         <v>1</v>
       </c>
-      <c r="U39" s="91" t="n">
+      <c r="U39" s="92" t="n">
         <v>2</v>
       </c>
-      <c r="V39" s="91" t="n">
+      <c r="V39" s="92" t="n">
         <v>3</v>
       </c>
-      <c r="W39" s="91" t="n">
+      <c r="W39" s="92" t="n">
         <v>4</v>
       </c>
-      <c r="X39" s="91" t="n">
+      <c r="X39" s="92" t="n">
         <v>5</v>
       </c>
-      <c r="Y39" s="91" t="n">
+      <c r="Y39" s="92" t="n">
         <v>6</v>
       </c>
-      <c r="Z39" s="91" t="n">
+      <c r="Z39" s="92" t="n">
         <v>7</v>
       </c>
-      <c r="AA39" s="91" t="n">
+      <c r="AA39" s="92" t="n">
         <v>8</v>
       </c>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
-      <c r="AD39" s="67"/>
-      <c r="AE39" s="95"/>
-      <c r="AF39" s="67"/>
-      <c r="AG39" s="67"/>
-      <c r="AH39" s="67"/>
-      <c r="AI39" s="95"/>
-      <c r="AJ39" s="67"/>
-      <c r="AK39" s="67"/>
-      <c r="AL39" s="67"/>
-      <c r="AM39" s="95"/>
-      <c r="AN39" s="67"/>
-      <c r="AO39" s="67"/>
-      <c r="AP39" s="67"/>
-      <c r="AQ39" s="95"/>
-      <c r="AR39" s="94"/>
-      <c r="AS39" s="67"/>
-      <c r="AT39" s="95"/>
-      <c r="AU39" s="67"/>
+      <c r="AB39" s="68"/>
+      <c r="AC39" s="68"/>
+      <c r="AD39" s="68"/>
+      <c r="AE39" s="96"/>
+      <c r="AF39" s="68"/>
+      <c r="AG39" s="68"/>
+      <c r="AH39" s="68"/>
+      <c r="AI39" s="96"/>
+      <c r="AJ39" s="68"/>
+      <c r="AK39" s="68"/>
+      <c r="AL39" s="68"/>
+      <c r="AM39" s="96"/>
+      <c r="AN39" s="68"/>
+      <c r="AO39" s="68"/>
+      <c r="AP39" s="68"/>
+      <c r="AQ39" s="96"/>
+      <c r="AR39" s="95"/>
+      <c r="AS39" s="68"/>
+      <c r="AT39" s="96"/>
+      <c r="AU39" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="28">

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -1425,7 +1425,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2936,7 +2936,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="1" width="3.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="4.91"/>
@@ -2944,11 +2944,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="16" style="1" width="4.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="19" style="1" width="3.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="8.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="24.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="24.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="5.71"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -9,11 +9,14 @@
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="VERS" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="VIEW" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="VERS" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="VIEW" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">VINE!$N$4:$O$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$W$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE!$A$1:$W$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE!$A$4:$W$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE!$A$1:$W$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -1425,7 +1428,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="A1:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2202,7 +2205,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="A1:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2929,7 +2932,7 @@
   <dimension ref="A1:AU39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O41" activeCellId="0" sqref="O41"/>
+      <selection pane="topLeft" activeCell="O41" activeCellId="1" sqref="A1:W15 O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="A1:W15"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2205,7 +2205,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="A1:W15"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2932,7 +2932,7 @@
   <dimension ref="A1:AU39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O41" activeCellId="1" sqref="A1:W15 O41"/>
+      <selection pane="topLeft" activeCell="O41" activeCellId="0" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -14,6 +14,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$W$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0" vbProcedure="false">VINE!$C$1:$I$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_SUBSET" vbProcedure="false">VINE!$M$1:$M$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_SUPSET" vbProcedure="false">VINE!$L$1:$L$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE!$A$1:$W$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE!$A$4:$W$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE!$A$1:$W$3</definedName>
@@ -1428,7 +1431,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L2:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2205,7 +2208,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="L2:L15 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2932,7 +2935,7 @@
   <dimension ref="A1:AU39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O41" activeCellId="0" sqref="O41"/>
+      <selection pane="topLeft" activeCell="O41" activeCellId="1" sqref="L2:L15 O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -482,7 +482,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -504,34 +503,29 @@
       <sz val="10"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -539,27 +533,23 @@
       <color rgb="FFFFFF00"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="8"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="32">
@@ -881,7 +871,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1431,7 +1421,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L2:L15"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1570,7 +1560,6 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
-        <f aca="false">ROW() - 4</f>
         <v>0</v>
       </c>
       <c r="B4" s="6"/>
@@ -2208,7 +2197,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="L2:L15 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2935,7 +2924,7 @@
   <dimension ref="A1:AU39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O41" activeCellId="1" sqref="L2:L15 O41"/>
+      <selection pane="topLeft" activeCell="O41" activeCellId="0" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -21,6 +21,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE!$A$1:$X$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE!$A$4:$X$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE!$A$1:$X$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VERS!$A$1:$U$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VERS!$A$1:$U$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VERS!$A$4:$U$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VERS!$A$1:$U$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -2262,10 +2266,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="R30" activeCellId="0" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2278,8 +2282,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="4.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="13" style="1" width="2.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="60.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="60.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,8 +2313,9 @@
       <c r="R1" s="51"/>
       <c r="S1" s="51"/>
       <c r="T1" s="51"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="52"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="52"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="49" t="s">
@@ -2341,8 +2346,9 @@
       <c r="R2" s="51"/>
       <c r="S2" s="51"/>
       <c r="T2" s="51"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="52"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="52"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="49"/>
@@ -2381,8 +2387,9 @@
       <c r="T3" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="52"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="52"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
@@ -2412,9 +2419,10 @@
       <c r="Q4" s="59"/>
       <c r="R4" s="60"/>
       <c r="S4" s="62"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="52"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="52"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
@@ -2444,9 +2452,10 @@
       <c r="Q5" s="59"/>
       <c r="R5" s="60"/>
       <c r="S5" s="62"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="52"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="52"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
@@ -2476,9 +2485,10 @@
       <c r="S6" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="T6" s="63"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="52"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="52"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
@@ -2508,9 +2518,10 @@
       <c r="S7" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="63"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="52"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="52"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
@@ -2540,9 +2551,10 @@
       <c r="S8" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="T8" s="63"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="52"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="52"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
@@ -2570,9 +2582,10 @@
       <c r="S9" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="T9" s="63"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="52"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="52"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
@@ -2602,9 +2615,10 @@
       <c r="S10" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="T10" s="63"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="52" t="s">
+      <c r="T10" s="62"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="52" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2636,9 +2650,10 @@
       <c r="S11" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="T11" s="63"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="52" t="s">
+      <c r="T11" s="62"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="52" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2670,9 +2685,10 @@
       <c r="S12" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="T12" s="63"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="52" t="s">
+      <c r="T12" s="62"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="52" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2704,9 +2720,10 @@
       <c r="Q13" s="59"/>
       <c r="R13" s="60"/>
       <c r="S13" s="62"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="52"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="52"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
@@ -2736,9 +2753,10 @@
       <c r="S14" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="T14" s="63"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="52"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="52"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
@@ -2768,9 +2786,10 @@
       <c r="S15" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="T15" s="63"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="52"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="52"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
@@ -2800,9 +2819,10 @@
       <c r="S16" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="T16" s="63"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="52"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="52"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
@@ -2830,9 +2850,10 @@
       <c r="S17" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="T17" s="63"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="52"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="52"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
@@ -2860,9 +2881,10 @@
       <c r="Q18" s="59"/>
       <c r="R18" s="60"/>
       <c r="S18" s="62"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="52" t="s">
+      <c r="T18" s="62"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="52" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2886,9 +2908,10 @@
       <c r="Q19" s="59"/>
       <c r="R19" s="60"/>
       <c r="S19" s="62"/>
-      <c r="T19" s="63"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="52"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="52"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
@@ -2910,9 +2933,10 @@
       <c r="Q20" s="59"/>
       <c r="R20" s="60"/>
       <c r="S20" s="62"/>
-      <c r="T20" s="63"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="52"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="52"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
@@ -2960,17 +2984,18 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="52"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:K1"/>
-    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="L1:U1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:K2"/>
-    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L2:U2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="M3:R3"/>
   </mergeCells>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="VERS" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="VERS" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="VIEW" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -1450,7 +1450,7 @@
   </sheetPr>
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -2268,7 +2268,7 @@
   </sheetPr>
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R30" activeCellId="0" sqref="R30"/>
     </sheetView>
   </sheetViews>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -1208,7 +1208,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1216,8 +1216,8 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1308,7 +1308,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="30" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="30" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1774,7 +1774,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="W11" activeCellId="0" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2698,7 +2698,7 @@
       <c r="P3" s="56"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="57" t="n">
         <f aca="false">[1]VINE_0!$A$54</f>
         <v>54</v>
@@ -3146,7 +3146,7 @@
       <c r="P21" s="87"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="57" t="n">
         <f aca="false">[1]VINE_0!$A$55</f>
         <v>55</v>
@@ -3618,7 +3618,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="48" width="8.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="48" width="12.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="48" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="48" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="1" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="94" width="4.48"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="VERS" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="VIEW" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="VERS" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="VIEW" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -1773,7 +1773,7 @@
   </sheetPr>
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W11" activeCellId="0" sqref="W11"/>
     </sheetView>
   </sheetViews>
@@ -2698,7 +2698,7 @@
       <c r="P3" s="56"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="57" t="n">
         <f aca="false">[1]VINE_0!$A$54</f>
         <v>54</v>
@@ -3146,7 +3146,7 @@
       <c r="P21" s="87"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="57" t="n">
         <f aca="false">[1]VINE_0!$A$55</f>
         <v>55</v>
@@ -3608,7 +3608,7 @@
   </sheetPr>
   <dimension ref="A1:AX45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="VERS" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="VIEW" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="VIEW" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -1773,7 +1773,7 @@
   </sheetPr>
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W11" activeCellId="0" sqref="W11"/>
     </sheetView>
   </sheetViews>
@@ -3608,14 +3608,14 @@
   </sheetPr>
   <dimension ref="A1:AX45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="48" width="8.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="48" width="12.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="48" width="7.16"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
@@ -1773,7 +1773,7 @@
   </sheetPr>
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W11" activeCellId="0" sqref="W11"/>
     </sheetView>
   </sheetViews>
@@ -3608,8 +3608,8 @@
   </sheetPr>
   <dimension ref="A1:AX45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="VERS" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="VERS" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="VIEW" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <externalReferences>
@@ -1773,7 +1773,7 @@
   </sheetPr>
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W11" activeCellId="0" sqref="W11"/>
     </sheetView>
   </sheetViews>
@@ -2591,8 +2591,8 @@
   </sheetPr>
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="VERS" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="VERS" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="VIEW" sheetId="3" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2399,7 +2399,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
@@ -1602,7 +1602,7 @@
   </sheetPr>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2398,7 +2398,7 @@
   </sheetPr>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
     </sheetView>
   </sheetViews>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="VERS" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="VIEW" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="VERS_2" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="VIEW" sheetId="4" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$W$15</definedName>
@@ -26,14 +27,19 @@
     <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VERS!$A$1:$P$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VERS!$A$4:$P$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VERS!$A$1:$P$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VIEW!$A$1:$AX$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VIEW!$F$1:$M$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0_SUBSET" vbProcedure="false">VIEW!$A$3:$D$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0_SUPSET" vbProcedure="false">VIEW!$C$1:$C$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="LMN_1" vbProcedure="false">VIEW!$U$1:$AC$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0" vbProcedure="false">VIEW!$A$1:$R$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_COM" vbProcedure="false">VIEW!$A$5:$AW$37</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_SUP" vbProcedure="false">VIEW!$A$1:$AX$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VERS_2!$A$1:$P$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VERS_2!$D$1:$I$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0" vbProcedure="false">VERS_2!$A$1:$P$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_COM" vbProcedure="false">VERS_2!$A$4:$P$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_SUP" vbProcedure="false">VERS_2!$A$1:$P$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="AREA" vbProcedure="false">VIEW!$A$1:$AX$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="LMN_0" vbProcedure="false">VIEW!$F$1:$M$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="LMN_0_SUBSET" vbProcedure="false">VIEW!$A$3:$D$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="LMN_0_SUPSET" vbProcedure="false">VIEW!$C$1:$C$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="LMN_1" vbProcedure="false">VIEW!$U$1:$AC$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="MOD_0" vbProcedure="false">VIEW!$A$1:$R$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="MOD_0_COM" vbProcedure="false">VIEW!$A$5:$AW$37</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="MOD_0_SUP" vbProcedure="false">VIEW!$A$1:$AX$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -45,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="150">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -143,15 +149,12 @@
     <t xml:space="preserve">package.json</t>
   </si>
   <si>
-    <t xml:space="preserve">npm_module</t>
+    <t xml:space="preserve">json_file</t>
   </si>
   <si>
     <t xml:space="preserve">ecosystem.config.cjs</t>
   </si>
   <si>
-    <t xml:space="preserve">json_file</t>
-  </si>
-  <si>
     <t xml:space="preserve">devicebase</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
     <t xml:space="preserve">ple</t>
   </si>
   <si>
+    <t xml:space="preserve">:json</t>
+  </si>
+  <si>
     <t xml:space="preserve">{}</t>
   </si>
   <si>
@@ -215,6 +221,9 @@
     <t xml:space="preserve">dfc-configurator-devicebase</t>
   </si>
   <si>
+    <t xml:space="preserve">dfc-configurator-database</t>
+  </si>
+  <si>
     <t xml:space="preserve">mongoose</t>
   </si>
   <si>
@@ -233,7 +242,25 @@
     <t xml:space="preserve">^3.1.10</t>
   </si>
   <si>
-    <t xml:space="preserve">dfc-configurator-database</t>
+    <t xml:space="preserve">:anonymousArguments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$argumentA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$argumentB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:anonymousFunction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">console.log</t>
   </si>
   <si>
     <t xml:space="preserve">element</t>
@@ -377,9 +404,6 @@
     <t xml:space="preserve">:PhotosIterator</t>
   </si>
   <si>
-    <t xml:space="preserve">()</t>
-  </si>
-  <si>
     <t xml:space="preserve">$photo</t>
   </si>
   <si>
@@ -474,9 +498,6 @@
   </si>
   <si>
     <t xml:space="preserve">footer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">console.log</t>
   </si>
   <si>
     <t xml:space="preserve">"done"</t>
@@ -944,7 +965,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1169,7 +1190,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1255,6 +1276,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1602,8 +1627,8 @@
   </sheetPr>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1959,7 +1984,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K8" s="26" t="s">
         <v>27</v>
@@ -2000,7 +2025,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -2151,7 +2176,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -2398,8 +2423,8 @@
   </sheetPr>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K29" activeCellId="0" sqref="K29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2424,7 +2449,7 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
@@ -2435,7 +2460,7 @@
       <c r="J1" s="50"/>
       <c r="K1" s="50"/>
       <c r="L1" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M1" s="51"/>
       <c r="N1" s="51"/>
@@ -2451,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
@@ -2462,7 +2487,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
       <c r="L2" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
@@ -2474,10 +2499,10 @@
       <c r="A3" s="49"/>
       <c r="B3" s="52"/>
       <c r="C3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>41</v>
       </c>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
@@ -2485,37 +2510,39 @@
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
       <c r="J3" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="53" t="s">
-        <v>43</v>
-      </c>
       <c r="L3" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="N3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="O3" s="54" t="s">
         <v>42</v>
-      </c>
-      <c r="O3" s="54" t="s">
-        <v>43</v>
       </c>
       <c r="P3" s="54"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="55" t="n">
-        <f aca="false">VINE!$A$5</f>
-        <v>1</v>
+        <f aca="false">VINE!$A$7</f>
+        <v>3</v>
       </c>
       <c r="B4" s="56" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$B$7)</f>
         <v>package.json</v>
       </c>
       <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="D4" s="58" t="s">
+        <v>43</v>
+      </c>
       <c r="E4" s="59"/>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
@@ -2536,10 +2563,10 @@
       <c r="A5" s="67"/>
       <c r="B5" s="68"/>
       <c r="C5" s="57"/>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="59"/>
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
@@ -2563,10 +2590,10 @@
       <c r="A6" s="67"/>
       <c r="B6" s="68"/>
       <c r="C6" s="57"/>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="58"/>
+      <c r="E6" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="59"/>
       <c r="F6" s="59"/>
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
@@ -2590,10 +2617,10 @@
       <c r="A7" s="67"/>
       <c r="B7" s="68"/>
       <c r="C7" s="57"/>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="59"/>
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
@@ -2616,10 +2643,10 @@
       <c r="B8" s="68"/>
       <c r="C8" s="57"/>
       <c r="D8" s="58"/>
-      <c r="E8" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59" t="s">
+        <v>34</v>
+      </c>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
       <c r="I8" s="60"/>
@@ -2639,10 +2666,10 @@
       <c r="B9" s="68"/>
       <c r="C9" s="57"/>
       <c r="D9" s="58"/>
-      <c r="E9" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59" t="s">
+        <v>35</v>
+      </c>
       <c r="G9" s="59"/>
       <c r="H9" s="59"/>
       <c r="I9" s="60"/>
@@ -2659,10 +2686,10 @@
       <c r="A10" s="67"/>
       <c r="B10" s="68"/>
       <c r="C10" s="57"/>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="59"/>
       <c r="F10" s="59"/>
       <c r="G10" s="59"/>
       <c r="H10" s="59"/>
@@ -2685,10 +2712,10 @@
       <c r="B11" s="68"/>
       <c r="C11" s="57"/>
       <c r="D11" s="58"/>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="59"/>
+      <c r="F11" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="59"/>
       <c r="G11" s="59"/>
       <c r="H11" s="59"/>
       <c r="I11" s="60"/>
@@ -2726,15 +2753,17 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="55" t="n">
-        <f aca="false">VINE!$A$9</f>
-        <v>5</v>
+        <f aca="false">VINE!$A$11</f>
+        <v>7</v>
       </c>
       <c r="B13" s="56" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/",0,VINE!$B$9,VINE!$C$11)</f>
         <v>devicebase/package.json</v>
       </c>
       <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="D13" s="58" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" s="59"/>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
@@ -2755,10 +2784,10 @@
       <c r="A14" s="67"/>
       <c r="B14" s="68"/>
       <c r="C14" s="57"/>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="59"/>
       <c r="F14" s="59"/>
       <c r="G14" s="59"/>
       <c r="H14" s="59"/>
@@ -2782,10 +2811,10 @@
       <c r="A15" s="67"/>
       <c r="B15" s="68"/>
       <c r="C15" s="57"/>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="59"/>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
@@ -2809,10 +2838,10 @@
       <c r="A16" s="67"/>
       <c r="B16" s="68"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="58"/>
+      <c r="E16" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="59"/>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="H16" s="59"/>
@@ -2835,48 +2864,44 @@
       <c r="B17" s="68"/>
       <c r="C17" s="57"/>
       <c r="D17" s="58"/>
-      <c r="E17" s="59" t="s">
-        <v>56</v>
-      </c>
+      <c r="E17" s="59"/>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
       <c r="I17" s="60"/>
-      <c r="J17" s="61" t="s">
-        <v>45</v>
-      </c>
+      <c r="J17" s="61"/>
       <c r="K17" s="62"/>
       <c r="L17" s="63"/>
-      <c r="M17" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="65" t="s">
-        <v>47</v>
-      </c>
+      <c r="M17" s="64"/>
+      <c r="N17" s="65"/>
       <c r="O17" s="66"/>
       <c r="P17" s="66"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
+      <c r="A18" s="55" t="n">
+        <f aca="false">VINE!$A$14</f>
+        <v>10</v>
+      </c>
+      <c r="B18" s="56" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/",0,VINE!$B$12,VINE!$C$14)</f>
+        <v>database/package.json</v>
+      </c>
       <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59" t="s">
-        <v>58</v>
-      </c>
+      <c r="D18" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="59"/>
       <c r="F18" s="59"/>
       <c r="G18" s="59"/>
       <c r="H18" s="59"/>
       <c r="I18" s="60"/>
       <c r="J18" s="61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18" s="62"/>
       <c r="L18" s="63"/>
-      <c r="M18" s="64" t="s">
-        <v>59</v>
-      </c>
+      <c r="M18" s="64"/>
       <c r="N18" s="65"/>
       <c r="O18" s="66"/>
       <c r="P18" s="66"/>
@@ -2888,7 +2913,7 @@
       <c r="C19" s="57"/>
       <c r="D19" s="58"/>
       <c r="E19" s="59" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="59"/>
@@ -2900,9 +2925,11 @@
       <c r="K19" s="62"/>
       <c r="L19" s="63"/>
       <c r="M19" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" s="65"/>
+        <v>56</v>
+      </c>
+      <c r="N19" s="65" t="s">
+        <v>47</v>
+      </c>
       <c r="O19" s="66"/>
       <c r="P19" s="66"/>
       <c r="Q19" s="3"/>
@@ -2912,43 +2939,49 @@
       <c r="B20" s="68"/>
       <c r="C20" s="57"/>
       <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
+      <c r="E20" s="59" t="s">
+        <v>48</v>
+      </c>
       <c r="F20" s="59"/>
       <c r="G20" s="59"/>
       <c r="H20" s="59"/>
       <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
+      <c r="J20" s="61" t="s">
+        <v>45</v>
+      </c>
       <c r="K20" s="62"/>
       <c r="L20" s="63"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="65"/>
+      <c r="M20" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="65" t="s">
+        <v>47</v>
+      </c>
       <c r="O20" s="66"/>
       <c r="P20" s="66"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="55" t="n">
-        <f aca="false">VINE!$A$14</f>
-        <v>10</v>
-      </c>
-      <c r="B21" s="56" t="str">
-        <f aca="false">_xlfn.TEXTJOIN("/",0,VINE!$B$12,VINE!$C$14)</f>
-        <v>database/package.json</v>
-      </c>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="57"/>
       <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
+      <c r="E21" s="59" t="s">
+        <v>52</v>
+      </c>
       <c r="F21" s="59"/>
       <c r="G21" s="59"/>
       <c r="H21" s="59"/>
       <c r="I21" s="60"/>
       <c r="J21" s="61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21" s="62"/>
       <c r="L21" s="63"/>
       <c r="M21" s="64"/>
-      <c r="N21" s="65"/>
+      <c r="N21" s="65" t="s">
+        <v>44</v>
+      </c>
       <c r="O21" s="66"/>
       <c r="P21" s="66"/>
       <c r="Q21" s="3"/>
@@ -2957,11 +2990,11 @@
       <c r="A22" s="67"/>
       <c r="B22" s="68"/>
       <c r="C22" s="57"/>
-      <c r="D22" s="58" t="s">
-        <v>3</v>
-      </c>
+      <c r="D22" s="58"/>
       <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
+      <c r="F22" s="59" t="s">
+        <v>57</v>
+      </c>
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="60"/>
@@ -2971,7 +3004,7 @@
       <c r="K22" s="62"/>
       <c r="L22" s="63"/>
       <c r="M22" s="64" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N22" s="65" t="s">
         <v>47</v>
@@ -2984,11 +3017,11 @@
       <c r="A23" s="67"/>
       <c r="B23" s="68"/>
       <c r="C23" s="57"/>
-      <c r="D23" s="58" t="s">
-        <v>48</v>
-      </c>
+      <c r="D23" s="58"/>
       <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
+      <c r="F23" s="59" t="s">
+        <v>59</v>
+      </c>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
       <c r="I23" s="60"/>
@@ -2998,11 +3031,9 @@
       <c r="K23" s="62"/>
       <c r="L23" s="63"/>
       <c r="M23" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="N23" s="65" t="s">
-        <v>47</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="N23" s="65"/>
       <c r="O23" s="66"/>
       <c r="P23" s="66"/>
       <c r="Q23" s="3"/>
@@ -3011,11 +3042,11 @@
       <c r="A24" s="67"/>
       <c r="B24" s="68"/>
       <c r="C24" s="57"/>
-      <c r="D24" s="58" t="s">
-        <v>52</v>
-      </c>
+      <c r="D24" s="58"/>
       <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="F24" s="59" t="s">
+        <v>61</v>
+      </c>
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
       <c r="I24" s="60"/>
@@ -3024,10 +3055,10 @@
       </c>
       <c r="K24" s="62"/>
       <c r="L24" s="63"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="65" t="s">
-        <v>44</v>
-      </c>
+      <c r="M24" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="N24" s="65"/>
       <c r="O24" s="66"/>
       <c r="P24" s="66"/>
       <c r="Q24" s="3"/>
@@ -3195,6 +3226,443 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="46" width="27.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="47" width="3.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="47" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="32.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="48" width="4.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="49"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="55" t="n">
+        <f aca="false">VINE!$A$7</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="56" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$B$7)</f>
+        <v>package.json</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="62"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="62"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="62"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" s="44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="D3:I3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AX45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3210,43 +3678,43 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="46" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="1" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="78" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="78" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="79" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="80" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="78" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="78" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="79" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="79" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="80" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="81" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="79" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="79" width="4.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="21" style="1" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="81" width="5.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="82" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="81" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="82" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="4.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="81" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="82" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="8.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="81" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="78" width="4.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="81" width="30.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="81" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="82" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="79" width="4.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="82" width="30.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="82" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="9.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
+      <c r="B1" s="83"/>
       <c r="C1" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
@@ -3261,56 +3729,56 @@
       <c r="N1" s="53"/>
       <c r="O1" s="53"/>
       <c r="P1" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
       <c r="S1" s="51"/>
-      <c r="T1" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
-      <c r="AM1" s="83"/>
-      <c r="AN1" s="83"/>
-      <c r="AO1" s="83"/>
-      <c r="AP1" s="83"/>
-      <c r="AQ1" s="83"/>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
+      <c r="T1" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="84"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
       <c r="AX1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="53"/>
       <c r="E2" s="53"/>
@@ -3325,65 +3793,65 @@
       <c r="N2" s="53"/>
       <c r="O2" s="53"/>
       <c r="P2" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
       <c r="S2" s="51"/>
-      <c r="T2" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="83"/>
-      <c r="AK2" s="83"/>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="83"/>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
+      <c r="T2" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="85"/>
       <c r="AX2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="85" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>40</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>41</v>
       </c>
       <c r="G3" s="50"/>
       <c r="H3" s="50"/>
@@ -3393,75 +3861,75 @@
       <c r="L3" s="50"/>
       <c r="M3" s="50"/>
       <c r="N3" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="86" t="s">
-        <v>43</v>
-      </c>
       <c r="P3" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="R3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="S3" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="83" t="s">
+      <c r="T3" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="84" t="n">
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84" t="n">
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84" t="n">
+      <c r="AI3" s="85"/>
+      <c r="AJ3" s="85"/>
+      <c r="AK3" s="85"/>
+      <c r="AL3" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84" t="n">
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="85"/>
+      <c r="AP3" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84" t="n">
+      <c r="AQ3" s="85"/>
+      <c r="AR3" s="85"/>
+      <c r="AS3" s="85"/>
+      <c r="AT3" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="AU3" s="84"/>
-      <c r="AV3" s="84"/>
-      <c r="AW3" s="84"/>
+      <c r="AU3" s="85"/>
+      <c r="AV3" s="85"/>
+      <c r="AW3" s="85"/>
       <c r="AX3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
@@ -3471,99 +3939,99 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
       <c r="N4" s="53"/>
-      <c r="O4" s="86"/>
+      <c r="O4" s="87"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
       <c r="R4" s="51"/>
       <c r="S4" s="54"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE4" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF4" s="83" t="s">
+      <c r="T4" s="88"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="84"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE4" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH4" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI4" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ4" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK4" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL4" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM4" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN4" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO4" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP4" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ4" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AG4" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH4" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI4" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ4" s="83" t="s">
+      <c r="AR4" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS4" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="AK4" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL4" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM4" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN4" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO4" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP4" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ4" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR4" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS4" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT4" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU4" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV4" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW4" s="83"/>
-      <c r="AX4" s="88"/>
+      <c r="AT4" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU4" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV4" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW4" s="84"/>
+      <c r="AX4" s="89"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="89" t="n">
+      <c r="A5" s="90" t="n">
         <v>64</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>74</v>
+      <c r="B5" s="91" t="s">
+        <v>81</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="91" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>84</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
@@ -3572,62 +4040,62 @@
       <c r="K5" s="59"/>
       <c r="L5" s="59"/>
       <c r="M5" s="59"/>
-      <c r="N5" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" s="93"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="R5" s="96"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="99"/>
-      <c r="AC5" s="99"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="101"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="100"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="101"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="100"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="101"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="100"/>
-      <c r="AQ5" s="98"/>
-      <c r="AR5" s="101"/>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="102"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-      <c r="AX5" s="88"/>
+      <c r="N5" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="94"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" s="97"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="100"/>
+      <c r="AB5" s="100"/>
+      <c r="AC5" s="100"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="99"/>
+      <c r="AF5" s="102"/>
+      <c r="AG5" s="99"/>
+      <c r="AH5" s="101"/>
+      <c r="AI5" s="99"/>
+      <c r="AJ5" s="102"/>
+      <c r="AK5" s="99"/>
+      <c r="AL5" s="101"/>
+      <c r="AM5" s="99"/>
+      <c r="AN5" s="102"/>
+      <c r="AO5" s="99"/>
+      <c r="AP5" s="101"/>
+      <c r="AQ5" s="99"/>
+      <c r="AR5" s="102"/>
+      <c r="AS5" s="99"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="104"/>
+      <c r="AV5" s="105"/>
+      <c r="AW5" s="105"/>
+      <c r="AX5" s="89"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="91" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>84</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
@@ -3636,62 +4104,62 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
       <c r="M6" s="59"/>
-      <c r="N6" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" s="93"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="95" t="s">
+      <c r="N6" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="94"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="97"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="100"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="100"/>
+      <c r="Z6" s="100"/>
+      <c r="AA6" s="100"/>
+      <c r="AB6" s="100"/>
+      <c r="AC6" s="100"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="101"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="102"/>
+      <c r="AK6" s="99"/>
+      <c r="AL6" s="101"/>
+      <c r="AM6" s="99"/>
+      <c r="AN6" s="102"/>
+      <c r="AO6" s="99"/>
+      <c r="AP6" s="101"/>
+      <c r="AQ6" s="99"/>
+      <c r="AR6" s="102"/>
+      <c r="AS6" s="99"/>
+      <c r="AT6" s="103"/>
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="105"/>
+      <c r="AW6" s="105"/>
+      <c r="AX6" s="89"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="R6" s="96"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="99"/>
-      <c r="AD6" s="100"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="101"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="100"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="101"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="100"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="101"/>
-      <c r="AO6" s="98"/>
-      <c r="AP6" s="100"/>
-      <c r="AQ6" s="98"/>
-      <c r="AR6" s="101"/>
-      <c r="AS6" s="98"/>
-      <c r="AT6" s="102"/>
-      <c r="AU6" s="103"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="88"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="57" t="s">
-        <v>75</v>
-      </c>
       <c r="D7" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="91" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>84</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
@@ -3700,62 +4168,62 @@
       <c r="K7" s="59"/>
       <c r="L7" s="59"/>
       <c r="M7" s="59"/>
-      <c r="N7" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="O7" s="93"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="95" t="s">
+      <c r="N7" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="94"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" s="97"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="99"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="99"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="99"/>
+      <c r="AJ7" s="102"/>
+      <c r="AK7" s="99"/>
+      <c r="AL7" s="101"/>
+      <c r="AM7" s="99"/>
+      <c r="AN7" s="102"/>
+      <c r="AO7" s="99"/>
+      <c r="AP7" s="101"/>
+      <c r="AQ7" s="99"/>
+      <c r="AR7" s="102"/>
+      <c r="AS7" s="99"/>
+      <c r="AT7" s="103"/>
+      <c r="AU7" s="104"/>
+      <c r="AV7" s="105"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="89"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="R7" s="96"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="99"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="99"/>
-      <c r="X7" s="99"/>
-      <c r="Y7" s="99"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="99"/>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="101"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="100"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="101"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="100"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="101"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="100"/>
-      <c r="AQ7" s="98"/>
-      <c r="AR7" s="101"/>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="102"/>
-      <c r="AU7" s="103"/>
-      <c r="AV7" s="104"/>
-      <c r="AW7" s="104"/>
-      <c r="AX7" s="88"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="91" t="s">
-        <v>77</v>
-      </c>
       <c r="F8" s="59" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
@@ -3764,58 +4232,58 @@
       <c r="K8" s="59"/>
       <c r="L8" s="59"/>
       <c r="M8" s="59"/>
-      <c r="N8" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="O8" s="93"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="95" t="s">
+      <c r="N8" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="96"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="100"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="100"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="101"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="100"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="101"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="100"/>
-      <c r="AQ8" s="98"/>
-      <c r="AR8" s="101"/>
-      <c r="AS8" s="98"/>
-      <c r="AT8" s="102"/>
-      <c r="AU8" s="103"/>
-      <c r="AV8" s="104"/>
-      <c r="AW8" s="104"/>
-      <c r="AX8" s="88"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="R8" s="97"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="100"/>
+      <c r="Y8" s="100"/>
+      <c r="Z8" s="100"/>
+      <c r="AA8" s="100"/>
+      <c r="AB8" s="100"/>
+      <c r="AC8" s="100"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="99"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="102"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="99"/>
+      <c r="AN8" s="102"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="101"/>
+      <c r="AQ8" s="99"/>
+      <c r="AR8" s="102"/>
+      <c r="AS8" s="99"/>
+      <c r="AT8" s="103"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="105"/>
+      <c r="AX8" s="89"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="89"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E9" s="92"/>
       <c r="F9" s="59"/>
       <c r="G9" s="59"/>
       <c r="H9" s="59"/>
@@ -3824,62 +4292,62 @@
       <c r="K9" s="59"/>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U9" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="100" t="s">
+      <c r="N9" s="93"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" s="100"/>
+      <c r="W9" s="100"/>
+      <c r="X9" s="100"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="100"/>
+      <c r="AA9" s="100"/>
+      <c r="AB9" s="100"/>
+      <c r="AC9" s="100"/>
+      <c r="AD9" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG9" s="98"/>
-      <c r="AH9" s="100"/>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="98"/>
-      <c r="AL9" s="100"/>
-      <c r="AM9" s="98"/>
-      <c r="AN9" s="101"/>
-      <c r="AO9" s="98"/>
-      <c r="AP9" s="100"/>
-      <c r="AQ9" s="98"/>
-      <c r="AR9" s="101"/>
-      <c r="AS9" s="98"/>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="103"/>
-      <c r="AV9" s="104"/>
-      <c r="AW9" s="104"/>
-      <c r="AX9" s="88"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="101"/>
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="102"/>
+      <c r="AK9" s="99"/>
+      <c r="AL9" s="101"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="102"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="101"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="102"/>
+      <c r="AS9" s="99"/>
+      <c r="AT9" s="103"/>
+      <c r="AU9" s="104"/>
+      <c r="AV9" s="105"/>
+      <c r="AW9" s="105"/>
+      <c r="AX9" s="89"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E10" s="92"/>
       <c r="F10" s="59"/>
       <c r="G10" s="59"/>
       <c r="H10" s="59"/>
@@ -3888,62 +4356,62 @@
       <c r="K10" s="59"/>
       <c r="L10" s="59"/>
       <c r="M10" s="59"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99" t="s">
-        <v>90</v>
-      </c>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="100"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="101"/>
-      <c r="AK10" s="98"/>
-      <c r="AL10" s="100"/>
-      <c r="AM10" s="98"/>
-      <c r="AN10" s="101"/>
-      <c r="AO10" s="98"/>
-      <c r="AP10" s="100"/>
-      <c r="AQ10" s="98"/>
-      <c r="AR10" s="101"/>
-      <c r="AS10" s="98"/>
-      <c r="AT10" s="102"/>
-      <c r="AU10" s="103"/>
-      <c r="AV10" s="104"/>
-      <c r="AW10" s="104"/>
-      <c r="AX10" s="88"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="W10" s="100"/>
+      <c r="X10" s="100"/>
+      <c r="Y10" s="100"/>
+      <c r="Z10" s="100"/>
+      <c r="AA10" s="100"/>
+      <c r="AB10" s="100"/>
+      <c r="AC10" s="100"/>
+      <c r="AD10" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="101"/>
+      <c r="AI10" s="99"/>
+      <c r="AJ10" s="102"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="101"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="101"/>
+      <c r="AQ10" s="99"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="99"/>
+      <c r="AT10" s="103"/>
+      <c r="AU10" s="104"/>
+      <c r="AV10" s="105"/>
+      <c r="AW10" s="105"/>
+      <c r="AX10" s="89"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E11" s="92"/>
       <c r="F11" s="59"/>
       <c r="G11" s="59"/>
       <c r="H11" s="59"/>
@@ -3952,62 +4420,62 @@
       <c r="K11" s="59"/>
       <c r="L11" s="59"/>
       <c r="M11" s="59"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE11" s="98"/>
-      <c r="AF11" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG11" s="98"/>
-      <c r="AH11" s="100"/>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="101"/>
-      <c r="AK11" s="98"/>
-      <c r="AL11" s="100"/>
-      <c r="AM11" s="98"/>
-      <c r="AN11" s="101"/>
-      <c r="AO11" s="98"/>
-      <c r="AP11" s="100"/>
-      <c r="AQ11" s="98"/>
-      <c r="AR11" s="101"/>
-      <c r="AS11" s="98"/>
-      <c r="AT11" s="102"/>
-      <c r="AU11" s="103"/>
-      <c r="AV11" s="104"/>
-      <c r="AW11" s="104"/>
-      <c r="AX11" s="88"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" s="100"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="100"/>
+      <c r="Z11" s="100"/>
+      <c r="AA11" s="100"/>
+      <c r="AB11" s="100"/>
+      <c r="AC11" s="100"/>
+      <c r="AD11" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="102"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="101"/>
+      <c r="AM11" s="99"/>
+      <c r="AN11" s="102"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="101"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="102"/>
+      <c r="AS11" s="99"/>
+      <c r="AT11" s="103"/>
+      <c r="AU11" s="104"/>
+      <c r="AV11" s="105"/>
+      <c r="AW11" s="105"/>
+      <c r="AX11" s="89"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E12" s="92"/>
       <c r="F12" s="59"/>
       <c r="G12" s="59"/>
       <c r="H12" s="59"/>
@@ -4016,74 +4484,74 @@
       <c r="K12" s="59"/>
       <c r="L12" s="59"/>
       <c r="M12" s="59"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="98" t="s">
-        <v>94</v>
-      </c>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE12" s="105" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF12" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG12" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH12" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI12" s="105" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ12" s="101" t="s">
+      <c r="N12" s="93"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="AK12" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL12" s="100"/>
-      <c r="AM12" s="105"/>
-      <c r="AN12" s="101"/>
-      <c r="AO12" s="105"/>
-      <c r="AP12" s="100"/>
-      <c r="AQ12" s="105"/>
-      <c r="AR12" s="101"/>
-      <c r="AS12" s="105"/>
-      <c r="AT12" s="102"/>
-      <c r="AU12" s="103"/>
-      <c r="AV12" s="104"/>
-      <c r="AW12" s="104"/>
-      <c r="AX12" s="88"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="100"/>
+      <c r="AA12" s="100"/>
+      <c r="AB12" s="100"/>
+      <c r="AC12" s="100"/>
+      <c r="AD12" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE12" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF12" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG12" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH12" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI12" s="106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ12" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK12" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL12" s="101"/>
+      <c r="AM12" s="106"/>
+      <c r="AN12" s="102"/>
+      <c r="AO12" s="106"/>
+      <c r="AP12" s="101"/>
+      <c r="AQ12" s="106"/>
+      <c r="AR12" s="102"/>
+      <c r="AS12" s="106"/>
+      <c r="AT12" s="103"/>
+      <c r="AU12" s="104"/>
+      <c r="AV12" s="105"/>
+      <c r="AW12" s="105"/>
+      <c r="AX12" s="89"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E13" s="92"/>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
       <c r="H13" s="59"/>
@@ -4092,62 +4560,62 @@
       <c r="K13" s="59"/>
       <c r="L13" s="59"/>
       <c r="M13" s="59"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="X13" s="99"/>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="99"/>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE13" s="98"/>
-      <c r="AF13" s="101" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG13" s="98"/>
-      <c r="AH13" s="100"/>
-      <c r="AI13" s="98"/>
-      <c r="AJ13" s="101"/>
-      <c r="AK13" s="98"/>
-      <c r="AL13" s="100"/>
-      <c r="AM13" s="98"/>
-      <c r="AN13" s="101"/>
-      <c r="AO13" s="98"/>
-      <c r="AP13" s="100"/>
-      <c r="AQ13" s="98"/>
-      <c r="AR13" s="101"/>
-      <c r="AS13" s="98"/>
-      <c r="AT13" s="102"/>
-      <c r="AU13" s="103"/>
-      <c r="AV13" s="104"/>
-      <c r="AW13" s="104"/>
-      <c r="AX13" s="88"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U13" s="100"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="X13" s="100"/>
+      <c r="Y13" s="100"/>
+      <c r="Z13" s="100"/>
+      <c r="AA13" s="100"/>
+      <c r="AB13" s="100"/>
+      <c r="AC13" s="100"/>
+      <c r="AD13" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="101"/>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="102"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="101"/>
+      <c r="AM13" s="99"/>
+      <c r="AN13" s="102"/>
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="101"/>
+      <c r="AQ13" s="99"/>
+      <c r="AR13" s="102"/>
+      <c r="AS13" s="99"/>
+      <c r="AT13" s="103"/>
+      <c r="AU13" s="104"/>
+      <c r="AV13" s="105"/>
+      <c r="AW13" s="105"/>
+      <c r="AX13" s="89"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E14" s="92"/>
       <c r="F14" s="59"/>
       <c r="G14" s="59"/>
       <c r="H14" s="59"/>
@@ -4156,64 +4624,64 @@
       <c r="K14" s="59"/>
       <c r="L14" s="59"/>
       <c r="M14" s="59"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="99" t="s">
+      <c r="N14" s="93"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U14" s="100"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y14" s="100"/>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="100"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="100"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="102"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="101"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="101"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="102"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="101"/>
+      <c r="AQ14" s="99"/>
+      <c r="AR14" s="102"/>
+      <c r="AS14" s="99"/>
+      <c r="AT14" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="100"/>
-      <c r="AE14" s="98"/>
-      <c r="AF14" s="101"/>
-      <c r="AG14" s="98"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="98"/>
-      <c r="AJ14" s="101"/>
-      <c r="AK14" s="98"/>
-      <c r="AL14" s="100"/>
-      <c r="AM14" s="98"/>
-      <c r="AN14" s="101"/>
-      <c r="AO14" s="98"/>
-      <c r="AP14" s="100"/>
-      <c r="AQ14" s="98"/>
-      <c r="AR14" s="101"/>
-      <c r="AS14" s="98"/>
-      <c r="AT14" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU14" s="103" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV14" s="107" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW14" s="107"/>
-      <c r="AX14" s="88"/>
+      <c r="AU14" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV14" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW14" s="108"/>
+      <c r="AX14" s="89"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E15" s="92"/>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
@@ -4222,508 +4690,508 @@
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
       <c r="M15" s="59"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U15" s="99"/>
-      <c r="V15" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="W15" s="99"/>
-      <c r="X15" s="99"/>
-      <c r="Y15" s="99"/>
-      <c r="Z15" s="99"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="100" t="s">
+      <c r="N15" s="93"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U15" s="100"/>
+      <c r="V15" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="W15" s="100"/>
+      <c r="X15" s="100"/>
+      <c r="Y15" s="100"/>
+      <c r="Z15" s="100"/>
+      <c r="AA15" s="100"/>
+      <c r="AB15" s="100"/>
+      <c r="AC15" s="100"/>
+      <c r="AD15" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="AE15" s="98"/>
-      <c r="AF15" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG15" s="98"/>
-      <c r="AH15" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI15" s="98"/>
-      <c r="AJ15" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK15" s="98"/>
-      <c r="AL15" s="100"/>
-      <c r="AM15" s="98"/>
-      <c r="AN15" s="101"/>
-      <c r="AO15" s="98"/>
-      <c r="AP15" s="100"/>
-      <c r="AQ15" s="98"/>
-      <c r="AR15" s="101"/>
-      <c r="AS15" s="98"/>
-      <c r="AT15" s="106"/>
-      <c r="AU15" s="103"/>
-      <c r="AV15" s="104"/>
-      <c r="AW15" s="104"/>
-      <c r="AX15" s="88"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI15" s="99"/>
+      <c r="AJ15" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK15" s="99"/>
+      <c r="AL15" s="101"/>
+      <c r="AM15" s="99"/>
+      <c r="AN15" s="102"/>
+      <c r="AO15" s="99"/>
+      <c r="AP15" s="101"/>
+      <c r="AQ15" s="99"/>
+      <c r="AR15" s="102"/>
+      <c r="AS15" s="99"/>
+      <c r="AT15" s="107"/>
+      <c r="AU15" s="104"/>
+      <c r="AV15" s="105"/>
+      <c r="AW15" s="105"/>
+      <c r="AX15" s="89"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="89"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108" t="s">
-        <v>109</v>
+        <v>83</v>
+      </c>
+      <c r="E16" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109" t="s">
+        <v>116</v>
       </c>
       <c r="I16" s="59"/>
       <c r="J16" s="59"/>
       <c r="K16" s="59"/>
       <c r="L16" s="59"/>
       <c r="M16" s="59"/>
-      <c r="N16" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="O16" s="93"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="100"/>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="101"/>
-      <c r="AG16" s="98"/>
-      <c r="AH16" s="100"/>
-      <c r="AI16" s="98"/>
-      <c r="AJ16" s="101"/>
-      <c r="AK16" s="98"/>
-      <c r="AL16" s="100"/>
-      <c r="AM16" s="98"/>
-      <c r="AN16" s="101"/>
-      <c r="AO16" s="98"/>
-      <c r="AP16" s="100"/>
-      <c r="AQ16" s="98"/>
-      <c r="AR16" s="101"/>
-      <c r="AS16" s="98"/>
-      <c r="AT16" s="102"/>
-      <c r="AU16" s="103"/>
-      <c r="AV16" s="104"/>
-      <c r="AW16" s="104"/>
-      <c r="AX16" s="88"/>
+      <c r="N16" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="94"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="100"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="100"/>
+      <c r="Z16" s="100"/>
+      <c r="AA16" s="100"/>
+      <c r="AB16" s="100"/>
+      <c r="AC16" s="100"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="102"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="99"/>
+      <c r="AJ16" s="102"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="101"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="102"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="101"/>
+      <c r="AQ16" s="99"/>
+      <c r="AR16" s="102"/>
+      <c r="AS16" s="99"/>
+      <c r="AT16" s="103"/>
+      <c r="AU16" s="104"/>
+      <c r="AV16" s="105"/>
+      <c r="AW16" s="105"/>
+      <c r="AX16" s="89"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="91" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>84</v>
       </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
       <c r="I17" s="59" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J17" s="59"/>
       <c r="K17" s="59"/>
       <c r="L17" s="59"/>
       <c r="M17" s="59"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="R17" s="96"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="99"/>
-      <c r="Z17" s="99"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="99"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="100"/>
-      <c r="AE17" s="98"/>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="98"/>
-      <c r="AH17" s="100"/>
-      <c r="AI17" s="98"/>
-      <c r="AJ17" s="101"/>
-      <c r="AK17" s="98"/>
-      <c r="AL17" s="100"/>
-      <c r="AM17" s="98"/>
-      <c r="AN17" s="101"/>
-      <c r="AO17" s="98"/>
-      <c r="AP17" s="100"/>
-      <c r="AQ17" s="98"/>
-      <c r="AR17" s="101"/>
-      <c r="AS17" s="98"/>
-      <c r="AT17" s="102"/>
-      <c r="AU17" s="103"/>
-      <c r="AV17" s="104"/>
-      <c r="AW17" s="104"/>
-      <c r="AX17" s="88"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="97"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="100"/>
+      <c r="V17" s="100"/>
+      <c r="W17" s="100"/>
+      <c r="X17" s="100"/>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="100"/>
+      <c r="AB17" s="100"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="102"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="101"/>
+      <c r="AI17" s="99"/>
+      <c r="AJ17" s="102"/>
+      <c r="AK17" s="99"/>
+      <c r="AL17" s="101"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="102"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="101"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="102"/>
+      <c r="AS17" s="99"/>
+      <c r="AT17" s="103"/>
+      <c r="AU17" s="104"/>
+      <c r="AV17" s="105"/>
+      <c r="AW17" s="105"/>
+      <c r="AX17" s="89"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
       <c r="C18" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E18" s="92"/>
       <c r="F18" s="59"/>
       <c r="G18" s="59"/>
-      <c r="H18" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="108"/>
+      <c r="H18" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="109"/>
       <c r="J18" s="59"/>
       <c r="K18" s="59"/>
       <c r="L18" s="59"/>
       <c r="M18" s="59"/>
-      <c r="N18" s="92" t="s">
+      <c r="N18" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="99"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="99"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="100"/>
-      <c r="AE18" s="98"/>
-      <c r="AF18" s="101"/>
-      <c r="AG18" s="98"/>
-      <c r="AH18" s="100"/>
-      <c r="AI18" s="98"/>
-      <c r="AJ18" s="101"/>
-      <c r="AK18" s="98"/>
-      <c r="AL18" s="100"/>
-      <c r="AM18" s="98"/>
-      <c r="AN18" s="101"/>
-      <c r="AO18" s="98"/>
-      <c r="AP18" s="100"/>
-      <c r="AQ18" s="98"/>
-      <c r="AR18" s="101"/>
-      <c r="AS18" s="98"/>
-      <c r="AT18" s="102"/>
-      <c r="AU18" s="103"/>
-      <c r="AV18" s="104"/>
-      <c r="AW18" s="104"/>
-      <c r="AX18" s="88"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="100"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="100"/>
+      <c r="AB18" s="100"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="101"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="102"/>
+      <c r="AG18" s="99"/>
+      <c r="AH18" s="101"/>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="102"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="101"/>
+      <c r="AM18" s="99"/>
+      <c r="AN18" s="102"/>
+      <c r="AO18" s="99"/>
+      <c r="AP18" s="101"/>
+      <c r="AQ18" s="99"/>
+      <c r="AR18" s="102"/>
+      <c r="AS18" s="99"/>
+      <c r="AT18" s="103"/>
+      <c r="AU18" s="104"/>
+      <c r="AV18" s="105"/>
+      <c r="AW18" s="105"/>
+      <c r="AX18" s="89"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="91" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>84</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="59"/>
       <c r="H19" s="59"/>
       <c r="I19" s="59" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="J19" s="59"/>
       <c r="K19" s="59"/>
       <c r="L19" s="59"/>
       <c r="M19" s="59"/>
-      <c r="N19" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="O19" s="93"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="R19" s="96"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="99"/>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="100"/>
-      <c r="AE19" s="98"/>
-      <c r="AF19" s="101"/>
-      <c r="AG19" s="98"/>
-      <c r="AH19" s="100"/>
-      <c r="AI19" s="98"/>
-      <c r="AJ19" s="101"/>
-      <c r="AK19" s="98"/>
-      <c r="AL19" s="100"/>
-      <c r="AM19" s="98"/>
-      <c r="AN19" s="101"/>
-      <c r="AO19" s="98"/>
-      <c r="AP19" s="100"/>
-      <c r="AQ19" s="98"/>
-      <c r="AR19" s="101"/>
-      <c r="AS19" s="98"/>
-      <c r="AT19" s="102"/>
-      <c r="AU19" s="103"/>
-      <c r="AV19" s="104"/>
-      <c r="AW19" s="104"/>
-      <c r="AX19" s="88"/>
+      <c r="N19" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" s="94"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" s="97"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="100"/>
+      <c r="V19" s="100"/>
+      <c r="W19" s="100"/>
+      <c r="X19" s="100"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="100"/>
+      <c r="AB19" s="100"/>
+      <c r="AC19" s="100"/>
+      <c r="AD19" s="101"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="102"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="101"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="102"/>
+      <c r="AK19" s="99"/>
+      <c r="AL19" s="101"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="102"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="101"/>
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="102"/>
+      <c r="AS19" s="99"/>
+      <c r="AT19" s="103"/>
+      <c r="AU19" s="104"/>
+      <c r="AV19" s="105"/>
+      <c r="AW19" s="105"/>
+      <c r="AX19" s="89"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="91" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>84</v>
       </c>
       <c r="F20" s="59"/>
       <c r="G20" s="59"/>
       <c r="H20" s="59"/>
       <c r="I20" s="59" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J20" s="59"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
       <c r="M20" s="59"/>
-      <c r="N20" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="O20" s="93"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="R20" s="96"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="99"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="100"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="101"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="100"/>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="101"/>
-      <c r="AK20" s="98"/>
-      <c r="AL20" s="100"/>
-      <c r="AM20" s="98"/>
-      <c r="AN20" s="101"/>
-      <c r="AO20" s="98"/>
-      <c r="AP20" s="100"/>
-      <c r="AQ20" s="98"/>
-      <c r="AR20" s="101"/>
-      <c r="AS20" s="98"/>
-      <c r="AT20" s="102"/>
-      <c r="AU20" s="103"/>
-      <c r="AV20" s="104"/>
-      <c r="AW20" s="104"/>
-      <c r="AX20" s="88"/>
+      <c r="N20" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" s="94"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="R20" s="97"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="100"/>
+      <c r="AB20" s="100"/>
+      <c r="AC20" s="100"/>
+      <c r="AD20" s="101"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="102"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="101"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="102"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="101"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="102"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="101"/>
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="102"/>
+      <c r="AS20" s="99"/>
+      <c r="AT20" s="103"/>
+      <c r="AU20" s="104"/>
+      <c r="AV20" s="105"/>
+      <c r="AW20" s="105"/>
+      <c r="AX20" s="89"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E21" s="92"/>
       <c r="F21" s="59"/>
       <c r="G21" s="59"/>
       <c r="H21" s="59"/>
       <c r="I21" s="59"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
       <c r="M21" s="59"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="94"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U21" s="99"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="99"/>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="101" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG21" s="98"/>
-      <c r="AH21" s="100"/>
-      <c r="AI21" s="98"/>
-      <c r="AJ21" s="101"/>
-      <c r="AK21" s="98"/>
-      <c r="AL21" s="100"/>
-      <c r="AM21" s="98"/>
-      <c r="AN21" s="101"/>
-      <c r="AO21" s="98"/>
-      <c r="AP21" s="100"/>
-      <c r="AQ21" s="98"/>
-      <c r="AR21" s="101"/>
-      <c r="AS21" s="98"/>
-      <c r="AT21" s="102"/>
-      <c r="AU21" s="103"/>
-      <c r="AV21" s="104"/>
-      <c r="AW21" s="104"/>
-      <c r="AX21" s="88"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U21" s="100"/>
+      <c r="V21" s="100"/>
+      <c r="W21" s="100"/>
+      <c r="X21" s="100"/>
+      <c r="Y21" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z21" s="100"/>
+      <c r="AA21" s="100"/>
+      <c r="AB21" s="100"/>
+      <c r="AC21" s="100"/>
+      <c r="AD21" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="102"/>
+      <c r="AK21" s="99"/>
+      <c r="AL21" s="101"/>
+      <c r="AM21" s="99"/>
+      <c r="AN21" s="102"/>
+      <c r="AO21" s="99"/>
+      <c r="AP21" s="101"/>
+      <c r="AQ21" s="99"/>
+      <c r="AR21" s="102"/>
+      <c r="AS21" s="99"/>
+      <c r="AT21" s="103"/>
+      <c r="AU21" s="104"/>
+      <c r="AV21" s="105"/>
+      <c r="AW21" s="105"/>
+      <c r="AX21" s="89"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E22" s="92"/>
       <c r="F22" s="59"/>
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
       <c r="J22" s="59"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U22" s="99"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="99"/>
-      <c r="AC22" s="99"/>
-      <c r="AD22" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE22" s="98"/>
-      <c r="AF22" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG22" s="98"/>
-      <c r="AH22" s="100"/>
-      <c r="AI22" s="98"/>
-      <c r="AJ22" s="101"/>
-      <c r="AK22" s="98"/>
-      <c r="AL22" s="100"/>
-      <c r="AM22" s="98"/>
-      <c r="AN22" s="101"/>
-      <c r="AO22" s="98"/>
-      <c r="AP22" s="100"/>
-      <c r="AQ22" s="98"/>
-      <c r="AR22" s="101"/>
-      <c r="AS22" s="98"/>
-      <c r="AT22" s="102"/>
-      <c r="AU22" s="103"/>
-      <c r="AV22" s="104"/>
-      <c r="AW22" s="104"/>
-      <c r="AX22" s="88"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U22" s="100"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA22" s="100"/>
+      <c r="AB22" s="100"/>
+      <c r="AC22" s="100"/>
+      <c r="AD22" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="101"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="102"/>
+      <c r="AK22" s="99"/>
+      <c r="AL22" s="101"/>
+      <c r="AM22" s="99"/>
+      <c r="AN22" s="102"/>
+      <c r="AO22" s="99"/>
+      <c r="AP22" s="101"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="102"/>
+      <c r="AS22" s="99"/>
+      <c r="AT22" s="103"/>
+      <c r="AU22" s="104"/>
+      <c r="AV22" s="105"/>
+      <c r="AW22" s="105"/>
+      <c r="AX22" s="89"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="89"/>
-      <c r="B23" s="89"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E23" s="92"/>
       <c r="F23" s="59"/>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
@@ -4732,86 +5200,86 @@
       <c r="K23" s="59"/>
       <c r="L23" s="59"/>
       <c r="M23" s="59"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="98" t="s">
-        <v>94</v>
-      </c>
-      <c r="U23" s="99"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB23" s="99"/>
-      <c r="AC23" s="99"/>
-      <c r="AD23" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="101" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG23" s="98"/>
-      <c r="AH23" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI23" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ23" s="101" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK23" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL23" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM23" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN23" s="101" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO23" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP23" s="100" t="s">
+      <c r="N23" s="93"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI23" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ23" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK23" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL23" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM23" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN23" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO23" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP23" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="AQ23" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR23" s="101" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS23" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT23" s="102"/>
-      <c r="AU23" s="103"/>
-      <c r="AV23" s="104"/>
-      <c r="AW23" s="104"/>
-      <c r="AX23" s="88"/>
+      <c r="AQ23" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR23" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS23" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT23" s="103"/>
+      <c r="AU23" s="104"/>
+      <c r="AV23" s="105"/>
+      <c r="AW23" s="105"/>
+      <c r="AX23" s="89"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E24" s="92"/>
       <c r="F24" s="59"/>
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
@@ -4820,62 +5288,62 @@
       <c r="K24" s="59"/>
       <c r="L24" s="59"/>
       <c r="M24" s="59"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U24" s="99"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="99"/>
-      <c r="X24" s="99"/>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="99"/>
-      <c r="AD24" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE24" s="98"/>
-      <c r="AF24" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG24" s="98"/>
-      <c r="AH24" s="100"/>
-      <c r="AI24" s="98"/>
-      <c r="AJ24" s="101"/>
-      <c r="AK24" s="98"/>
-      <c r="AL24" s="100"/>
-      <c r="AM24" s="98"/>
-      <c r="AN24" s="101"/>
-      <c r="AO24" s="98"/>
-      <c r="AP24" s="100"/>
-      <c r="AQ24" s="98"/>
-      <c r="AR24" s="101"/>
-      <c r="AS24" s="98"/>
-      <c r="AT24" s="102"/>
-      <c r="AU24" s="103"/>
-      <c r="AV24" s="104"/>
-      <c r="AW24" s="104"/>
-      <c r="AX24" s="88"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U24" s="100"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="101"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="102"/>
+      <c r="AK24" s="99"/>
+      <c r="AL24" s="101"/>
+      <c r="AM24" s="99"/>
+      <c r="AN24" s="102"/>
+      <c r="AO24" s="99"/>
+      <c r="AP24" s="101"/>
+      <c r="AQ24" s="99"/>
+      <c r="AR24" s="102"/>
+      <c r="AS24" s="99"/>
+      <c r="AT24" s="103"/>
+      <c r="AU24" s="104"/>
+      <c r="AV24" s="105"/>
+      <c r="AW24" s="105"/>
+      <c r="AX24" s="89"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E25" s="92"/>
       <c r="F25" s="59"/>
       <c r="G25" s="59"/>
       <c r="H25" s="59"/>
@@ -4884,68 +5352,68 @@
       <c r="K25" s="59"/>
       <c r="L25" s="59"/>
       <c r="M25" s="59"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="97"/>
-      <c r="T25" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U25" s="99"/>
-      <c r="V25" s="99"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="99"/>
-      <c r="Y25" s="99"/>
-      <c r="Z25" s="99"/>
-      <c r="AA25" s="99" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB25" s="99"/>
-      <c r="AC25" s="99"/>
-      <c r="AD25" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE25" s="98"/>
-      <c r="AF25" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG25" s="98"/>
-      <c r="AH25" s="100"/>
-      <c r="AI25" s="98"/>
-      <c r="AJ25" s="101"/>
-      <c r="AK25" s="98"/>
-      <c r="AL25" s="100"/>
-      <c r="AM25" s="98"/>
-      <c r="AN25" s="101"/>
-      <c r="AO25" s="98"/>
-      <c r="AP25" s="100"/>
-      <c r="AQ25" s="98"/>
-      <c r="AR25" s="101"/>
-      <c r="AS25" s="98"/>
-      <c r="AT25" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU25" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV25" s="107" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW25" s="107"/>
-      <c r="AX25" s="88"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB25" s="100"/>
+      <c r="AC25" s="100"/>
+      <c r="AD25" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="101"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="102"/>
+      <c r="AK25" s="99"/>
+      <c r="AL25" s="101"/>
+      <c r="AM25" s="99"/>
+      <c r="AN25" s="102"/>
+      <c r="AO25" s="99"/>
+      <c r="AP25" s="101"/>
+      <c r="AQ25" s="99"/>
+      <c r="AR25" s="102"/>
+      <c r="AS25" s="99"/>
+      <c r="AT25" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU25" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV25" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW25" s="108"/>
+      <c r="AX25" s="89"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D26" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E26" s="92"/>
       <c r="F26" s="59"/>
       <c r="G26" s="59"/>
       <c r="H26" s="59"/>
@@ -4954,68 +5422,68 @@
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
       <c r="M26" s="59"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="94"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
-      <c r="X26" s="99"/>
-      <c r="Y26" s="99"/>
-      <c r="Z26" s="99"/>
-      <c r="AA26" s="99" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB26" s="99"/>
-      <c r="AC26" s="99"/>
-      <c r="AD26" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE26" s="98"/>
-      <c r="AF26" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG26" s="98"/>
-      <c r="AH26" s="100"/>
-      <c r="AI26" s="98"/>
-      <c r="AJ26" s="101"/>
-      <c r="AK26" s="98"/>
-      <c r="AL26" s="100"/>
-      <c r="AM26" s="98"/>
-      <c r="AN26" s="101"/>
-      <c r="AO26" s="98"/>
-      <c r="AP26" s="100"/>
-      <c r="AQ26" s="98"/>
-      <c r="AR26" s="101"/>
-      <c r="AS26" s="98"/>
-      <c r="AT26" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU26" s="103" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV26" s="107" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW26" s="107"/>
-      <c r="AX26" s="88"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U26" s="100"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="100"/>
+      <c r="Z26" s="100"/>
+      <c r="AA26" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG26" s="99"/>
+      <c r="AH26" s="101"/>
+      <c r="AI26" s="99"/>
+      <c r="AJ26" s="102"/>
+      <c r="AK26" s="99"/>
+      <c r="AL26" s="101"/>
+      <c r="AM26" s="99"/>
+      <c r="AN26" s="102"/>
+      <c r="AO26" s="99"/>
+      <c r="AP26" s="101"/>
+      <c r="AQ26" s="99"/>
+      <c r="AR26" s="102"/>
+      <c r="AS26" s="99"/>
+      <c r="AT26" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU26" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV26" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW26" s="108"/>
+      <c r="AX26" s="89"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E27" s="92"/>
       <c r="F27" s="59"/>
       <c r="G27" s="59"/>
       <c r="H27" s="59"/>
@@ -5024,68 +5492,68 @@
       <c r="K27" s="59"/>
       <c r="L27" s="59"/>
       <c r="M27" s="59"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U27" s="99"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="99"/>
-      <c r="X27" s="99"/>
-      <c r="Y27" s="99"/>
-      <c r="Z27" s="99"/>
-      <c r="AA27" s="99" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="99"/>
-      <c r="AD27" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE27" s="98"/>
-      <c r="AF27" s="101" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG27" s="98"/>
-      <c r="AH27" s="100"/>
-      <c r="AI27" s="98"/>
-      <c r="AJ27" s="101"/>
-      <c r="AK27" s="98"/>
-      <c r="AL27" s="100"/>
-      <c r="AM27" s="98"/>
-      <c r="AN27" s="101"/>
-      <c r="AO27" s="98"/>
-      <c r="AP27" s="100"/>
-      <c r="AQ27" s="98"/>
-      <c r="AR27" s="101"/>
-      <c r="AS27" s="98"/>
-      <c r="AT27" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU27" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="AV27" s="107" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW27" s="107"/>
-      <c r="AX27" s="88"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="100"/>
+      <c r="AA27" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB27" s="100"/>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="101"/>
+      <c r="AI27" s="99"/>
+      <c r="AJ27" s="102"/>
+      <c r="AK27" s="99"/>
+      <c r="AL27" s="101"/>
+      <c r="AM27" s="99"/>
+      <c r="AN27" s="102"/>
+      <c r="AO27" s="99"/>
+      <c r="AP27" s="101"/>
+      <c r="AQ27" s="99"/>
+      <c r="AR27" s="102"/>
+      <c r="AS27" s="99"/>
+      <c r="AT27" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU27" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV27" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW27" s="108"/>
+      <c r="AX27" s="89"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E28" s="92"/>
       <c r="F28" s="59"/>
       <c r="G28" s="59"/>
       <c r="H28" s="59"/>
@@ -5094,195 +5562,195 @@
       <c r="K28" s="59"/>
       <c r="L28" s="59"/>
       <c r="M28" s="59"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U28" s="99"/>
-      <c r="V28" s="99"/>
-      <c r="W28" s="99"/>
-      <c r="X28" s="99"/>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="99"/>
-      <c r="AA28" s="99" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB28" s="99"/>
-      <c r="AC28" s="99"/>
-      <c r="AD28" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE28" s="98"/>
-      <c r="AF28" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG28" s="98"/>
-      <c r="AH28" s="100"/>
-      <c r="AI28" s="98"/>
-      <c r="AJ28" s="101"/>
-      <c r="AK28" s="98"/>
-      <c r="AL28" s="100"/>
-      <c r="AM28" s="98"/>
-      <c r="AN28" s="101"/>
-      <c r="AO28" s="98"/>
-      <c r="AP28" s="100"/>
-      <c r="AQ28" s="98"/>
-      <c r="AR28" s="101"/>
-      <c r="AS28" s="98"/>
-      <c r="AT28" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU28" s="103" t="s">
+      <c r="N28" s="93"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="AV28" s="107" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW28" s="107"/>
-      <c r="AX28" s="88"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="102" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="101"/>
+      <c r="AI28" s="99"/>
+      <c r="AJ28" s="102"/>
+      <c r="AK28" s="99"/>
+      <c r="AL28" s="101"/>
+      <c r="AM28" s="99"/>
+      <c r="AN28" s="102"/>
+      <c r="AO28" s="99"/>
+      <c r="AP28" s="101"/>
+      <c r="AQ28" s="99"/>
+      <c r="AR28" s="102"/>
+      <c r="AS28" s="99"/>
+      <c r="AT28" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU28" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV28" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW28" s="108"/>
+      <c r="AX28" s="89"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E29" s="92"/>
       <c r="F29" s="59"/>
-      <c r="G29" s="108"/>
+      <c r="G29" s="109"/>
       <c r="H29" s="59"/>
       <c r="I29" s="59"/>
       <c r="J29" s="59"/>
       <c r="K29" s="59"/>
       <c r="L29" s="59"/>
       <c r="M29" s="59"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U29" s="99"/>
-      <c r="V29" s="99"/>
-      <c r="W29" s="99"/>
-      <c r="X29" s="99"/>
-      <c r="Y29" s="99"/>
-      <c r="Z29" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA29" s="99"/>
-      <c r="AB29" s="99"/>
-      <c r="AC29" s="99"/>
-      <c r="AD29" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE29" s="98"/>
-      <c r="AF29" s="101" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG29" s="98"/>
-      <c r="AH29" s="100"/>
-      <c r="AI29" s="98"/>
-      <c r="AJ29" s="101"/>
-      <c r="AK29" s="98"/>
-      <c r="AL29" s="100"/>
-      <c r="AM29" s="98"/>
-      <c r="AN29" s="101"/>
-      <c r="AO29" s="98"/>
-      <c r="AP29" s="100"/>
-      <c r="AQ29" s="98"/>
-      <c r="AR29" s="101"/>
-      <c r="AS29" s="98"/>
-      <c r="AT29" s="102"/>
-      <c r="AU29" s="103"/>
-      <c r="AV29" s="104"/>
-      <c r="AW29" s="104"/>
-      <c r="AX29" s="88"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="97"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA29" s="100"/>
+      <c r="AB29" s="100"/>
+      <c r="AC29" s="100"/>
+      <c r="AD29" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG29" s="99"/>
+      <c r="AH29" s="101"/>
+      <c r="AI29" s="99"/>
+      <c r="AJ29" s="102"/>
+      <c r="AK29" s="99"/>
+      <c r="AL29" s="101"/>
+      <c r="AM29" s="99"/>
+      <c r="AN29" s="102"/>
+      <c r="AO29" s="99"/>
+      <c r="AP29" s="101"/>
+      <c r="AQ29" s="99"/>
+      <c r="AR29" s="102"/>
+      <c r="AS29" s="99"/>
+      <c r="AT29" s="103"/>
+      <c r="AU29" s="104"/>
+      <c r="AV29" s="105"/>
+      <c r="AW29" s="105"/>
+      <c r="AX29" s="89"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="108"/>
+        <v>83</v>
+      </c>
+      <c r="E30" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="109"/>
       <c r="G30" s="59"/>
       <c r="H30" s="59"/>
-      <c r="I30" s="108"/>
+      <c r="I30" s="109"/>
       <c r="J30" s="59"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108" t="s">
-        <v>135</v>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109" t="s">
+        <v>141</v>
       </c>
       <c r="M30" s="59"/>
-      <c r="N30" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="O30" s="93"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="97"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="99"/>
-      <c r="V30" s="99"/>
-      <c r="W30" s="99"/>
-      <c r="X30" s="99"/>
-      <c r="Y30" s="99"/>
-      <c r="Z30" s="99"/>
-      <c r="AA30" s="99"/>
-      <c r="AB30" s="99"/>
-      <c r="AC30" s="99"/>
-      <c r="AD30" s="100"/>
-      <c r="AE30" s="98"/>
-      <c r="AF30" s="101"/>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="100"/>
-      <c r="AI30" s="98"/>
-      <c r="AJ30" s="101"/>
-      <c r="AK30" s="98"/>
-      <c r="AL30" s="100"/>
-      <c r="AM30" s="98"/>
-      <c r="AN30" s="101"/>
-      <c r="AO30" s="98"/>
-      <c r="AP30" s="100"/>
-      <c r="AQ30" s="98"/>
-      <c r="AR30" s="101"/>
-      <c r="AS30" s="98"/>
-      <c r="AT30" s="102"/>
-      <c r="AU30" s="103"/>
-      <c r="AV30" s="104"/>
-      <c r="AW30" s="104"/>
-      <c r="AX30" s="88"/>
+      <c r="N30" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="O30" s="94"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="100"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="100"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="101"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="102"/>
+      <c r="AG30" s="99"/>
+      <c r="AH30" s="101"/>
+      <c r="AI30" s="99"/>
+      <c r="AJ30" s="102"/>
+      <c r="AK30" s="99"/>
+      <c r="AL30" s="101"/>
+      <c r="AM30" s="99"/>
+      <c r="AN30" s="102"/>
+      <c r="AO30" s="99"/>
+      <c r="AP30" s="101"/>
+      <c r="AQ30" s="99"/>
+      <c r="AR30" s="102"/>
+      <c r="AS30" s="99"/>
+      <c r="AT30" s="103"/>
+      <c r="AU30" s="104"/>
+      <c r="AV30" s="105"/>
+      <c r="AW30" s="105"/>
+      <c r="AX30" s="89"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="90"/>
       <c r="C31" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D31" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="91" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="E31" s="92" t="s">
+        <v>84</v>
       </c>
       <c r="F31" s="59"/>
       <c r="G31" s="59"/>
@@ -5292,321 +5760,321 @@
       <c r="K31" s="59"/>
       <c r="L31" s="59"/>
       <c r="M31" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="N31" s="92"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q31" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="R31" s="96"/>
-      <c r="S31" s="97"/>
-      <c r="T31" s="98"/>
-      <c r="U31" s="99"/>
-      <c r="V31" s="99"/>
-      <c r="W31" s="99"/>
-      <c r="X31" s="99"/>
-      <c r="Y31" s="99"/>
-      <c r="Z31" s="99"/>
-      <c r="AA31" s="99"/>
-      <c r="AB31" s="99"/>
-      <c r="AC31" s="99"/>
-      <c r="AD31" s="100"/>
-      <c r="AE31" s="98"/>
-      <c r="AF31" s="101"/>
-      <c r="AG31" s="98"/>
-      <c r="AH31" s="100"/>
-      <c r="AI31" s="98"/>
-      <c r="AJ31" s="101"/>
-      <c r="AK31" s="98"/>
-      <c r="AL31" s="100"/>
-      <c r="AM31" s="98"/>
-      <c r="AN31" s="101"/>
-      <c r="AO31" s="98"/>
-      <c r="AP31" s="100"/>
-      <c r="AQ31" s="98"/>
-      <c r="AR31" s="101"/>
-      <c r="AS31" s="98"/>
-      <c r="AT31" s="102"/>
-      <c r="AU31" s="103"/>
-      <c r="AV31" s="104"/>
-      <c r="AW31" s="104"/>
-      <c r="AX31" s="88"/>
+        <v>142</v>
+      </c>
+      <c r="N31" s="93"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q31" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="R31" s="97"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="100"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="100"/>
+      <c r="AB31" s="100"/>
+      <c r="AC31" s="100"/>
+      <c r="AD31" s="101"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="102"/>
+      <c r="AG31" s="99"/>
+      <c r="AH31" s="101"/>
+      <c r="AI31" s="99"/>
+      <c r="AJ31" s="102"/>
+      <c r="AK31" s="99"/>
+      <c r="AL31" s="101"/>
+      <c r="AM31" s="99"/>
+      <c r="AN31" s="102"/>
+      <c r="AO31" s="99"/>
+      <c r="AP31" s="101"/>
+      <c r="AQ31" s="99"/>
+      <c r="AR31" s="102"/>
+      <c r="AS31" s="99"/>
+      <c r="AT31" s="103"/>
+      <c r="AU31" s="104"/>
+      <c r="AV31" s="105"/>
+      <c r="AW31" s="105"/>
+      <c r="AX31" s="89"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
       <c r="C32" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D32" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E32" s="92"/>
       <c r="F32" s="59"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
       <c r="I32" s="59"/>
-      <c r="J32" s="108"/>
+      <c r="J32" s="109"/>
       <c r="K32" s="59"/>
-      <c r="L32" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="M32" s="108"/>
-      <c r="N32" s="92" t="s">
+      <c r="L32" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="M32" s="109"/>
+      <c r="N32" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="O32" s="93"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="97"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="99"/>
-      <c r="V32" s="99"/>
-      <c r="W32" s="99"/>
-      <c r="X32" s="99"/>
-      <c r="Y32" s="99"/>
-      <c r="Z32" s="99"/>
-      <c r="AA32" s="99"/>
-      <c r="AB32" s="99"/>
-      <c r="AC32" s="99"/>
-      <c r="AD32" s="100"/>
-      <c r="AE32" s="98"/>
-      <c r="AF32" s="101"/>
-      <c r="AG32" s="98"/>
-      <c r="AH32" s="100"/>
-      <c r="AI32" s="98"/>
-      <c r="AJ32" s="101"/>
-      <c r="AK32" s="98"/>
-      <c r="AL32" s="100"/>
-      <c r="AM32" s="98"/>
-      <c r="AN32" s="101"/>
-      <c r="AO32" s="98"/>
-      <c r="AP32" s="100"/>
-      <c r="AQ32" s="98"/>
-      <c r="AR32" s="101"/>
-      <c r="AS32" s="98"/>
-      <c r="AT32" s="102"/>
-      <c r="AU32" s="103"/>
-      <c r="AV32" s="104"/>
-      <c r="AW32" s="104"/>
-      <c r="AX32" s="88"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="99"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="100"/>
+      <c r="AB32" s="100"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="101"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="102"/>
+      <c r="AG32" s="99"/>
+      <c r="AH32" s="101"/>
+      <c r="AI32" s="99"/>
+      <c r="AJ32" s="102"/>
+      <c r="AK32" s="99"/>
+      <c r="AL32" s="101"/>
+      <c r="AM32" s="99"/>
+      <c r="AN32" s="102"/>
+      <c r="AO32" s="99"/>
+      <c r="AP32" s="101"/>
+      <c r="AQ32" s="99"/>
+      <c r="AR32" s="102"/>
+      <c r="AS32" s="99"/>
+      <c r="AT32" s="103"/>
+      <c r="AU32" s="104"/>
+      <c r="AV32" s="105"/>
+      <c r="AW32" s="105"/>
+      <c r="AX32" s="89"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="89"/>
-      <c r="B33" s="89"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D33" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E33" s="92"/>
       <c r="F33" s="59"/>
-      <c r="G33" s="108"/>
+      <c r="G33" s="109"/>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
       <c r="L33" s="59"/>
       <c r="M33" s="59"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="97"/>
-      <c r="T33" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U33" s="99"/>
-      <c r="V33" s="99"/>
-      <c r="W33" s="99"/>
-      <c r="X33" s="99"/>
-      <c r="Y33" s="99"/>
-      <c r="Z33" s="99"/>
-      <c r="AA33" s="99"/>
-      <c r="AB33" s="99"/>
-      <c r="AC33" s="99" t="s">
+      <c r="N33" s="93"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U33" s="100"/>
+      <c r="V33" s="100"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="100"/>
+      <c r="Y33" s="100"/>
+      <c r="Z33" s="100"/>
+      <c r="AA33" s="100"/>
+      <c r="AB33" s="100"/>
+      <c r="AC33" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD33" s="101"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="102"/>
+      <c r="AG33" s="99"/>
+      <c r="AH33" s="101"/>
+      <c r="AI33" s="99"/>
+      <c r="AJ33" s="102"/>
+      <c r="AK33" s="99"/>
+      <c r="AL33" s="101"/>
+      <c r="AM33" s="99"/>
+      <c r="AN33" s="102"/>
+      <c r="AO33" s="99"/>
+      <c r="AP33" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ33" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="AD33" s="100"/>
-      <c r="AE33" s="98"/>
-      <c r="AF33" s="101"/>
-      <c r="AG33" s="98"/>
-      <c r="AH33" s="100"/>
-      <c r="AI33" s="98"/>
-      <c r="AJ33" s="101"/>
-      <c r="AK33" s="98"/>
-      <c r="AL33" s="100"/>
-      <c r="AM33" s="98"/>
-      <c r="AN33" s="101"/>
-      <c r="AO33" s="98"/>
-      <c r="AP33" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ33" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR33" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS33" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT33" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU33" s="103" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV33" s="107" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW33" s="107"/>
-      <c r="AX33" s="88"/>
+      <c r="AR33" s="102" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS33" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT33" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU33" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV33" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW33" s="108"/>
+      <c r="AX33" s="89"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="89"/>
-      <c r="B34" s="89"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
       <c r="C34" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D34" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E34" s="92"/>
       <c r="F34" s="59"/>
-      <c r="G34" s="108"/>
+      <c r="G34" s="109"/>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
       <c r="J34" s="59"/>
       <c r="K34" s="59"/>
       <c r="L34" s="59"/>
       <c r="M34" s="59"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="96"/>
-      <c r="S34" s="97"/>
-      <c r="T34" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="U34" s="99"/>
-      <c r="V34" s="99" t="s">
-        <v>141</v>
-      </c>
-      <c r="W34" s="99"/>
-      <c r="X34" s="99"/>
-      <c r="Y34" s="99"/>
-      <c r="Z34" s="99"/>
-      <c r="AA34" s="99"/>
-      <c r="AB34" s="99"/>
-      <c r="AC34" s="99"/>
-      <c r="AD34" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE34" s="98"/>
-      <c r="AF34" s="101" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG34" s="98"/>
-      <c r="AH34" s="100"/>
-      <c r="AI34" s="98"/>
-      <c r="AJ34" s="101"/>
-      <c r="AK34" s="98"/>
-      <c r="AL34" s="100"/>
-      <c r="AM34" s="98"/>
-      <c r="AN34" s="101"/>
-      <c r="AO34" s="98"/>
-      <c r="AP34" s="100"/>
-      <c r="AQ34" s="98"/>
-      <c r="AR34" s="101"/>
-      <c r="AS34" s="98"/>
-      <c r="AT34" s="102"/>
-      <c r="AU34" s="103"/>
-      <c r="AV34" s="104"/>
-      <c r="AW34" s="104"/>
-      <c r="AX34" s="88"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="96"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="98"/>
+      <c r="T34" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="U34" s="100"/>
+      <c r="V34" s="100" t="s">
+        <v>147</v>
+      </c>
+      <c r="W34" s="100"/>
+      <c r="X34" s="100"/>
+      <c r="Y34" s="100"/>
+      <c r="Z34" s="100"/>
+      <c r="AA34" s="100"/>
+      <c r="AB34" s="100"/>
+      <c r="AC34" s="100"/>
+      <c r="AD34" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE34" s="99"/>
+      <c r="AF34" s="102" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG34" s="99"/>
+      <c r="AH34" s="101"/>
+      <c r="AI34" s="99"/>
+      <c r="AJ34" s="102"/>
+      <c r="AK34" s="99"/>
+      <c r="AL34" s="101"/>
+      <c r="AM34" s="99"/>
+      <c r="AN34" s="102"/>
+      <c r="AO34" s="99"/>
+      <c r="AP34" s="101"/>
+      <c r="AQ34" s="99"/>
+      <c r="AR34" s="102"/>
+      <c r="AS34" s="99"/>
+      <c r="AT34" s="103"/>
+      <c r="AU34" s="104"/>
+      <c r="AV34" s="105"/>
+      <c r="AW34" s="105"/>
+      <c r="AX34" s="89"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E35" s="92"/>
       <c r="F35" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" s="108"/>
+        <v>69</v>
+      </c>
+      <c r="G35" s="109"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
       <c r="J35" s="59"/>
       <c r="K35" s="59"/>
       <c r="L35" s="59"/>
       <c r="M35" s="59"/>
-      <c r="N35" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="O35" s="93"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="96"/>
-      <c r="S35" s="97"/>
-      <c r="T35" s="98"/>
-      <c r="U35" s="99"/>
-      <c r="V35" s="99"/>
-      <c r="W35" s="99"/>
-      <c r="X35" s="99"/>
-      <c r="Y35" s="99"/>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="99"/>
-      <c r="AC35" s="99"/>
-      <c r="AD35" s="100"/>
-      <c r="AE35" s="98"/>
-      <c r="AF35" s="101"/>
-      <c r="AG35" s="98"/>
-      <c r="AH35" s="100"/>
-      <c r="AI35" s="98"/>
-      <c r="AJ35" s="101"/>
-      <c r="AK35" s="98"/>
-      <c r="AL35" s="100"/>
-      <c r="AM35" s="98"/>
-      <c r="AN35" s="101"/>
-      <c r="AO35" s="98"/>
-      <c r="AP35" s="100"/>
-      <c r="AQ35" s="98"/>
-      <c r="AR35" s="101"/>
-      <c r="AS35" s="98"/>
-      <c r="AT35" s="102"/>
-      <c r="AU35" s="103"/>
-      <c r="AV35" s="104"/>
-      <c r="AW35" s="104"/>
-      <c r="AX35" s="88"/>
+      <c r="N35" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="O35" s="94"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="96"/>
+      <c r="R35" s="97"/>
+      <c r="S35" s="98"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="100"/>
+      <c r="AB35" s="100"/>
+      <c r="AC35" s="100"/>
+      <c r="AD35" s="101"/>
+      <c r="AE35" s="99"/>
+      <c r="AF35" s="102"/>
+      <c r="AG35" s="99"/>
+      <c r="AH35" s="101"/>
+      <c r="AI35" s="99"/>
+      <c r="AJ35" s="102"/>
+      <c r="AK35" s="99"/>
+      <c r="AL35" s="101"/>
+      <c r="AM35" s="99"/>
+      <c r="AN35" s="102"/>
+      <c r="AO35" s="99"/>
+      <c r="AP35" s="101"/>
+      <c r="AQ35" s="99"/>
+      <c r="AR35" s="102"/>
+      <c r="AS35" s="99"/>
+      <c r="AT35" s="103"/>
+      <c r="AU35" s="104"/>
+      <c r="AV35" s="105"/>
+      <c r="AW35" s="105"/>
+      <c r="AX35" s="89"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="89"/>
-      <c r="B36" s="89"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="90"/>
       <c r="C36" s="57" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="91"/>
+        <v>83</v>
+      </c>
+      <c r="E36" s="92"/>
       <c r="F36" s="59"/>
-      <c r="G36" s="110" t="s">
-        <v>144</v>
+      <c r="G36" s="111" t="s">
+        <v>149</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
@@ -5614,184 +6082,184 @@
       <c r="K36" s="59"/>
       <c r="L36" s="59"/>
       <c r="M36" s="59"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="96"/>
-      <c r="S36" s="97"/>
-      <c r="T36" s="98"/>
-      <c r="U36" s="99"/>
-      <c r="V36" s="99"/>
-      <c r="W36" s="99"/>
-      <c r="X36" s="99"/>
-      <c r="Y36" s="99"/>
-      <c r="Z36" s="99"/>
-      <c r="AA36" s="99"/>
-      <c r="AB36" s="99"/>
-      <c r="AC36" s="99"/>
-      <c r="AD36" s="100"/>
-      <c r="AE36" s="98"/>
-      <c r="AF36" s="101"/>
-      <c r="AG36" s="98"/>
-      <c r="AH36" s="100"/>
-      <c r="AI36" s="98"/>
-      <c r="AJ36" s="101"/>
-      <c r="AK36" s="98"/>
-      <c r="AL36" s="100"/>
-      <c r="AM36" s="98"/>
-      <c r="AN36" s="101"/>
-      <c r="AO36" s="98"/>
-      <c r="AP36" s="100"/>
-      <c r="AQ36" s="98"/>
-      <c r="AR36" s="101"/>
-      <c r="AS36" s="98"/>
-      <c r="AT36" s="102"/>
-      <c r="AU36" s="103"/>
-      <c r="AV36" s="104"/>
-      <c r="AW36" s="104"/>
-      <c r="AX36" s="88"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="97"/>
+      <c r="S36" s="98"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="100"/>
+      <c r="V36" s="100"/>
+      <c r="W36" s="100"/>
+      <c r="X36" s="100"/>
+      <c r="Y36" s="100"/>
+      <c r="Z36" s="100"/>
+      <c r="AA36" s="100"/>
+      <c r="AB36" s="100"/>
+      <c r="AC36" s="100"/>
+      <c r="AD36" s="101"/>
+      <c r="AE36" s="99"/>
+      <c r="AF36" s="102"/>
+      <c r="AG36" s="99"/>
+      <c r="AH36" s="101"/>
+      <c r="AI36" s="99"/>
+      <c r="AJ36" s="102"/>
+      <c r="AK36" s="99"/>
+      <c r="AL36" s="101"/>
+      <c r="AM36" s="99"/>
+      <c r="AN36" s="102"/>
+      <c r="AO36" s="99"/>
+      <c r="AP36" s="101"/>
+      <c r="AQ36" s="99"/>
+      <c r="AR36" s="102"/>
+      <c r="AS36" s="99"/>
+      <c r="AT36" s="103"/>
+      <c r="AU36" s="104"/>
+      <c r="AV36" s="105"/>
+      <c r="AW36" s="105"/>
+      <c r="AX36" s="89"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="89"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
       <c r="F37" s="59"/>
-      <c r="G37" s="110"/>
+      <c r="G37" s="111"/>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
       <c r="J37" s="59"/>
       <c r="K37" s="59"/>
       <c r="L37" s="59"/>
       <c r="M37" s="59"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="94"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="97"/>
-      <c r="T37" s="98"/>
-      <c r="U37" s="99"/>
-      <c r="V37" s="99"/>
-      <c r="W37" s="99"/>
-      <c r="X37" s="99"/>
-      <c r="Y37" s="99"/>
-      <c r="Z37" s="99"/>
-      <c r="AA37" s="99"/>
-      <c r="AB37" s="99"/>
-      <c r="AC37" s="99"/>
-      <c r="AD37" s="100"/>
-      <c r="AE37" s="98"/>
-      <c r="AF37" s="101"/>
-      <c r="AG37" s="98"/>
-      <c r="AH37" s="100"/>
-      <c r="AI37" s="98"/>
-      <c r="AJ37" s="101"/>
-      <c r="AK37" s="98"/>
-      <c r="AL37" s="100"/>
-      <c r="AM37" s="98"/>
-      <c r="AN37" s="101"/>
-      <c r="AO37" s="98"/>
-      <c r="AP37" s="100"/>
-      <c r="AQ37" s="98"/>
-      <c r="AR37" s="101"/>
-      <c r="AS37" s="98"/>
-      <c r="AT37" s="102"/>
-      <c r="AU37" s="103"/>
-      <c r="AV37" s="104"/>
-      <c r="AW37" s="104"/>
-      <c r="AX37" s="88"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="98"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="100"/>
+      <c r="V37" s="100"/>
+      <c r="W37" s="100"/>
+      <c r="X37" s="100"/>
+      <c r="Y37" s="100"/>
+      <c r="Z37" s="100"/>
+      <c r="AA37" s="100"/>
+      <c r="AB37" s="100"/>
+      <c r="AC37" s="100"/>
+      <c r="AD37" s="101"/>
+      <c r="AE37" s="99"/>
+      <c r="AF37" s="102"/>
+      <c r="AG37" s="99"/>
+      <c r="AH37" s="101"/>
+      <c r="AI37" s="99"/>
+      <c r="AJ37" s="102"/>
+      <c r="AK37" s="99"/>
+      <c r="AL37" s="101"/>
+      <c r="AM37" s="99"/>
+      <c r="AN37" s="102"/>
+      <c r="AO37" s="99"/>
+      <c r="AP37" s="101"/>
+      <c r="AQ37" s="99"/>
+      <c r="AR37" s="102"/>
+      <c r="AS37" s="99"/>
+      <c r="AT37" s="103"/>
+      <c r="AU37" s="104"/>
+      <c r="AV37" s="105"/>
+      <c r="AW37" s="105"/>
+      <c r="AX37" s="89"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="112" t="n">
+      <c r="A38" s="89"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="G38" s="112" t="n">
+      <c r="G38" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="112" t="n">
+      <c r="H38" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="I38" s="112" t="n">
+      <c r="I38" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="J38" s="112" t="n">
+      <c r="J38" s="113" t="n">
         <v>4</v>
       </c>
-      <c r="K38" s="112" t="n">
+      <c r="K38" s="113" t="n">
         <v>5</v>
       </c>
-      <c r="L38" s="112" t="n">
+      <c r="L38" s="113" t="n">
         <v>6</v>
       </c>
-      <c r="M38" s="112" t="n">
+      <c r="M38" s="113" t="n">
         <v>7</v>
       </c>
-      <c r="N38" s="113"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="114"/>
-      <c r="S38" s="114"/>
-      <c r="T38" s="115"/>
-      <c r="U38" s="112" t="n">
+      <c r="N38" s="114"/>
+      <c r="O38" s="114"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="115"/>
+      <c r="S38" s="115"/>
+      <c r="T38" s="116"/>
+      <c r="U38" s="113" t="n">
         <v>0</v>
       </c>
-      <c r="V38" s="112" t="n">
+      <c r="V38" s="113" t="n">
         <v>1</v>
       </c>
-      <c r="W38" s="112" t="n">
+      <c r="W38" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="X38" s="112" t="n">
+      <c r="X38" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="Y38" s="112" t="n">
+      <c r="Y38" s="113" t="n">
         <v>4</v>
       </c>
-      <c r="Z38" s="112" t="n">
+      <c r="Z38" s="113" t="n">
         <v>5</v>
       </c>
-      <c r="AA38" s="112" t="n">
+      <c r="AA38" s="113" t="n">
         <v>6</v>
       </c>
-      <c r="AB38" s="112" t="n">
+      <c r="AB38" s="113" t="n">
         <v>7</v>
       </c>
-      <c r="AC38" s="112" t="n">
+      <c r="AC38" s="113" t="n">
         <v>8</v>
       </c>
-      <c r="AD38" s="88"/>
-      <c r="AE38" s="88"/>
-      <c r="AF38" s="88"/>
-      <c r="AG38" s="116"/>
-      <c r="AH38" s="88"/>
-      <c r="AI38" s="88"/>
-      <c r="AJ38" s="88"/>
-      <c r="AK38" s="116"/>
-      <c r="AL38" s="88"/>
-      <c r="AM38" s="88"/>
-      <c r="AN38" s="88"/>
-      <c r="AO38" s="116"/>
-      <c r="AP38" s="88"/>
-      <c r="AQ38" s="88"/>
-      <c r="AR38" s="88"/>
-      <c r="AS38" s="116"/>
-      <c r="AT38" s="115"/>
-      <c r="AU38" s="88"/>
-      <c r="AV38" s="116"/>
-      <c r="AW38" s="116"/>
-      <c r="AX38" s="88"/>
+      <c r="AD38" s="89"/>
+      <c r="AE38" s="89"/>
+      <c r="AF38" s="89"/>
+      <c r="AG38" s="117"/>
+      <c r="AH38" s="89"/>
+      <c r="AI38" s="89"/>
+      <c r="AJ38" s="89"/>
+      <c r="AK38" s="117"/>
+      <c r="AL38" s="89"/>
+      <c r="AM38" s="89"/>
+      <c r="AN38" s="89"/>
+      <c r="AO38" s="117"/>
+      <c r="AP38" s="89"/>
+      <c r="AQ38" s="89"/>
+      <c r="AR38" s="89"/>
+      <c r="AS38" s="117"/>
+      <c r="AT38" s="116"/>
+      <c r="AU38" s="89"/>
+      <c r="AV38" s="117"/>
+      <c r="AW38" s="117"/>
+      <c r="AX38" s="89"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V45" s="117"/>
+      <c r="V45" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,11 +22,11 @@
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE!$A$1:$W$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE!$A$4:$W$15</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE!$A$1:$W$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VERS!$A$1:$P$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VERS!$A$1:$R$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VERS!$D$1:$I$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VERS!$A$1:$P$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VERS!$A$4:$P$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VERS!$A$1:$P$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VERS!$A$1:$R$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VERS!$A$4:$R$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VERS!$A$1:$R$3</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VERS_2!$A$1:$P$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VERS_2!$D$1:$I$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="MOD_0" vbProcedure="false">VERS_2!$A$1:$P$12</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="151">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -179,10 +179,13 @@
     <t xml:space="preserve">per</t>
   </si>
   <si>
+    <t xml:space="preserve">pos</t>
+  </si>
+  <si>
     <t xml:space="preserve">ple</t>
   </si>
   <si>
-    <t xml:space="preserve">:json</t>
+    <t xml:space="preserve">// package.json</t>
   </si>
   <si>
     <t xml:space="preserve">{}</t>
@@ -965,7 +968,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1240,6 +1243,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="30" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1627,7 +1634,7 @@
   </sheetPr>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2421,10 +2428,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2434,13 +2441,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="47" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="47" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="32.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="48" width="4.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="47" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="47" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="32.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="3.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="48" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="48" width="4.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2459,14 +2468,16 @@
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="50"/>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="50"/>
+      <c r="M1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="51"/>
       <c r="N1" s="51"/>
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="49" t="s">
@@ -2486,14 +2497,16 @@
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="51"/>
       <c r="N2" s="51"/>
       <c r="O2" s="51"/>
       <c r="P2" s="51"/>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="49"/>
@@ -2515,20 +2528,26 @@
       <c r="K3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="N3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="O3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="54" t="s">
+      <c r="P3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="54"/>
+      <c r="S3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="55" t="n">
@@ -2541,23 +2560,25 @@
       </c>
       <c r="C4" s="57"/>
       <c r="D4" s="58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="59"/>
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
       <c r="H4" s="59"/>
       <c r="I4" s="60"/>
-      <c r="J4" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="3"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="67"/>
@@ -2572,19 +2593,21 @@
       <c r="H5" s="59"/>
       <c r="I5" s="60"/>
       <c r="J5" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="K5" s="61"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="3"/>
+      <c r="O5" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="67"/>
@@ -2592,26 +2615,28 @@
       <c r="C6" s="57"/>
       <c r="D6" s="58"/>
       <c r="E6" s="59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
       <c r="I6" s="60"/>
       <c r="J6" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="K6" s="61"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="67"/>
@@ -2619,24 +2644,26 @@
       <c r="C7" s="57"/>
       <c r="D7" s="58"/>
       <c r="E7" s="59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
       <c r="I7" s="60"/>
       <c r="J7" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="67"/>
@@ -2651,15 +2678,17 @@
       <c r="H8" s="59"/>
       <c r="I8" s="60"/>
       <c r="J8" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="67"/>
@@ -2674,13 +2703,15 @@
       <c r="H9" s="59"/>
       <c r="I9" s="60"/>
       <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="3"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="67"/>
@@ -2688,24 +2719,26 @@
       <c r="C10" s="57"/>
       <c r="D10" s="58"/>
       <c r="E10" s="59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="59"/>
       <c r="G10" s="59"/>
       <c r="H10" s="59"/>
       <c r="I10" s="60"/>
       <c r="J10" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="3"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="67"/>
@@ -2714,23 +2747,25 @@
       <c r="D11" s="58"/>
       <c r="E11" s="59"/>
       <c r="F11" s="59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="59"/>
       <c r="H11" s="59"/>
       <c r="I11" s="60"/>
       <c r="J11" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="62"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="67"/>
@@ -2743,13 +2778,15 @@
       <c r="H12" s="59"/>
       <c r="I12" s="60"/>
       <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="3"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="55" t="n">
@@ -2762,23 +2799,25 @@
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="59"/>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
       <c r="H13" s="59"/>
       <c r="I13" s="60"/>
-      <c r="J13" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="62"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="3"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="67"/>
@@ -2793,19 +2832,21 @@
       <c r="H14" s="59"/>
       <c r="I14" s="60"/>
       <c r="J14" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="62"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="67"/>
@@ -2813,26 +2854,28 @@
       <c r="C15" s="57"/>
       <c r="D15" s="58"/>
       <c r="E15" s="59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
       <c r="I15" s="60"/>
       <c r="J15" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="62"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="K15" s="61"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="67"/>
@@ -2840,24 +2883,26 @@
       <c r="C16" s="57"/>
       <c r="D16" s="58"/>
       <c r="E16" s="59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="H16" s="59"/>
       <c r="I16" s="60"/>
       <c r="J16" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="62"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="3"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="67"/>
@@ -2870,13 +2915,15 @@
       <c r="H17" s="59"/>
       <c r="I17" s="60"/>
       <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="3"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="55" t="n">
@@ -2889,23 +2936,25 @@
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="59"/>
       <c r="F18" s="59"/>
       <c r="G18" s="59"/>
       <c r="H18" s="59"/>
       <c r="I18" s="60"/>
-      <c r="J18" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="62"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="3"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="67"/>
@@ -2920,19 +2969,21 @@
       <c r="H19" s="59"/>
       <c r="I19" s="60"/>
       <c r="J19" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="62"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="K19" s="61"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="67"/>
@@ -2940,26 +2991,28 @@
       <c r="C20" s="57"/>
       <c r="D20" s="58"/>
       <c r="E20" s="59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" s="59"/>
       <c r="G20" s="59"/>
       <c r="H20" s="59"/>
       <c r="I20" s="60"/>
       <c r="J20" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="62"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="K20" s="61"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="67"/>
@@ -2967,24 +3020,26 @@
       <c r="C21" s="57"/>
       <c r="D21" s="58"/>
       <c r="E21" s="59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="59"/>
       <c r="G21" s="59"/>
       <c r="H21" s="59"/>
       <c r="I21" s="60"/>
       <c r="J21" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="62"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="3"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="67"/>
@@ -2993,25 +3048,27 @@
       <c r="D22" s="58"/>
       <c r="E22" s="59"/>
       <c r="F22" s="59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="60"/>
       <c r="J22" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="62"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="N22" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="K22" s="61"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="67"/>
@@ -3020,23 +3077,27 @@
       <c r="D23" s="58"/>
       <c r="E23" s="59"/>
       <c r="F23" s="59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
       <c r="I23" s="60"/>
       <c r="J23" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="62"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="N23" s="65"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="K23" s="61"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="67"/>
@@ -3045,23 +3106,25 @@
       <c r="D24" s="58"/>
       <c r="E24" s="59"/>
       <c r="F24" s="59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
       <c r="I24" s="60"/>
       <c r="J24" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="N24" s="65"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="K24" s="61"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="67"/>
@@ -3073,37 +3136,41 @@
       <c r="G25" s="59"/>
       <c r="H25" s="59"/>
       <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="3"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="69"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
       <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
       <c r="O26" s="76"/>
       <c r="P26" s="76"/>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
-      <c r="B27" s="77"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="3"/>
       <c r="D27" s="42" t="n">
         <v>0</v>
@@ -3128,87 +3195,106 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="M1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:R2"/>
     <mergeCell ref="D3:I3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3318,7 +3404,7 @@
         <v>41</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="51" t="s">
         <v>39</v>
@@ -3330,7 +3416,7 @@
         <v>41</v>
       </c>
       <c r="O3" s="54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="54"/>
       <c r="Q3" s="3"/>
@@ -3346,7 +3432,7 @@
       </c>
       <c r="C4" s="57"/>
       <c r="D4" s="58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="59"/>
       <c r="F4" s="59"/>
@@ -3354,13 +3440,13 @@
       <c r="H4" s="59"/>
       <c r="I4" s="60"/>
       <c r="J4" s="61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" s="62"/>
       <c r="L4" s="63"/>
       <c r="M4" s="64"/>
       <c r="N4" s="65"/>
-      <c r="O4" s="78"/>
+      <c r="O4" s="79"/>
       <c r="P4" s="66"/>
       <c r="Q4" s="3"/>
     </row>
@@ -3370,20 +3456,20 @@
       <c r="C5" s="57"/>
       <c r="D5" s="58"/>
       <c r="E5" s="59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="60"/>
       <c r="J5" s="61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5" s="62"/>
       <c r="L5" s="63"/>
       <c r="M5" s="64"/>
       <c r="N5" s="65"/>
-      <c r="O5" s="78"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="66"/>
       <c r="Q5" s="3"/>
     </row>
@@ -3393,7 +3479,7 @@
       <c r="C6" s="57"/>
       <c r="D6" s="58"/>
       <c r="E6" s="59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" s="59"/>
       <c r="G6" s="59"/>
@@ -3404,7 +3490,7 @@
       <c r="L6" s="63"/>
       <c r="M6" s="64"/>
       <c r="N6" s="65"/>
-      <c r="O6" s="78"/>
+      <c r="O6" s="79"/>
       <c r="P6" s="66"/>
       <c r="Q6" s="3"/>
     </row>
@@ -3413,7 +3499,7 @@
       <c r="B7" s="68"/>
       <c r="C7" s="57"/>
       <c r="D7" s="58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="59"/>
       <c r="F7" s="59"/>
@@ -3421,14 +3507,14 @@
       <c r="H7" s="59"/>
       <c r="I7" s="60"/>
       <c r="J7" s="61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K7" s="62"/>
       <c r="L7" s="63"/>
       <c r="M7" s="64"/>
       <c r="N7" s="65"/>
-      <c r="O7" s="78" t="s">
-        <v>44</v>
+      <c r="O7" s="79" t="s">
+        <v>45</v>
       </c>
       <c r="P7" s="66"/>
       <c r="Q7" s="3"/>
@@ -3439,20 +3525,20 @@
       <c r="C8" s="57"/>
       <c r="D8" s="58"/>
       <c r="E8" s="59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" s="59"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
       <c r="I8" s="60"/>
       <c r="J8" s="61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K8" s="62"/>
       <c r="L8" s="63"/>
       <c r="M8" s="64"/>
       <c r="N8" s="65"/>
-      <c r="O8" s="78"/>
+      <c r="O8" s="79"/>
       <c r="P8" s="66"/>
       <c r="Q8" s="3"/>
     </row>
@@ -3463,19 +3549,19 @@
       <c r="D9" s="58"/>
       <c r="E9" s="59"/>
       <c r="F9" s="59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="59"/>
       <c r="H9" s="59"/>
       <c r="I9" s="60"/>
       <c r="J9" s="61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" s="62"/>
       <c r="L9" s="63"/>
       <c r="M9" s="64"/>
       <c r="N9" s="65"/>
-      <c r="O9" s="78"/>
+      <c r="O9" s="79"/>
       <c r="P9" s="66"/>
       <c r="Q9" s="3"/>
     </row>
@@ -3486,7 +3572,7 @@
       <c r="D10" s="58"/>
       <c r="E10" s="59"/>
       <c r="F10" s="59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="59"/>
       <c r="H10" s="59"/>
@@ -3496,7 +3582,7 @@
       <c r="L10" s="63"/>
       <c r="M10" s="64"/>
       <c r="N10" s="65"/>
-      <c r="O10" s="78"/>
+      <c r="O10" s="79"/>
       <c r="P10" s="66"/>
       <c r="Q10" s="3"/>
     </row>
@@ -3515,32 +3601,32 @@
       <c r="L11" s="63"/>
       <c r="M11" s="64"/>
       <c r="N11" s="65"/>
-      <c r="O11" s="78"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="66"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="76"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="77"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
-      <c r="B13" s="77"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="3"/>
       <c r="D13" s="42" t="n">
         <v>0</v>
@@ -3678,41 +3764,41 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="46" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="1" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="79" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="79" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="80" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="81" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="79" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="79" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="80" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="80" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="81" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="82" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="80" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="80" width="4.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="21" style="1" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="82" width="5.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="83" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="82" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="83" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="4.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="82" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="83" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="8.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="82" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="79" width="4.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="82" width="30.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="82" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="83" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="80" width="4.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="83" width="30.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="83" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="9.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="84"/>
       <c r="C1" s="53" t="s">
         <v>36</v>
       </c>
@@ -3734,47 +3820,47 @@
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
       <c r="S1" s="51"/>
-      <c r="T1" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
+      <c r="T1" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
       <c r="AX1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="84" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="53" t="s">
@@ -3798,56 +3884,56 @@
       <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
       <c r="S2" s="51"/>
-      <c r="T2" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="84" t="s">
+      <c r="T2" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84" t="s">
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="85" t="s">
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
-      <c r="AW2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
       <c r="AX2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="86" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="D3" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="87" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="50" t="s">
@@ -3863,8 +3949,8 @@
       <c r="N3" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="87" t="s">
-        <v>42</v>
+      <c r="O3" s="88" t="s">
+        <v>43</v>
       </c>
       <c r="P3" s="51" t="s">
         <v>39</v>
@@ -3876,60 +3962,60 @@
         <v>41</v>
       </c>
       <c r="S3" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="84" t="s">
+      <c r="U3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="85" t="n">
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85" t="n">
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85" t="n">
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AP3" s="85" t="n">
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86"/>
+      <c r="AP3" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AQ3" s="85"/>
-      <c r="AR3" s="85"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="85" t="n">
+      <c r="AQ3" s="86"/>
+      <c r="AR3" s="86"/>
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="85"/>
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="86"/>
       <c r="AX3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
@@ -3939,99 +4025,99 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
       <c r="N4" s="53"/>
-      <c r="O4" s="87"/>
+      <c r="O4" s="88"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
       <c r="R4" s="51"/>
       <c r="S4" s="54"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE4" s="84" t="s">
+      <c r="T4" s="89"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="AF4" s="84" t="s">
+      <c r="AE4" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF4" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="84" t="s">
+      <c r="AG4" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH4" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI4" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="AH4" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI4" s="84" t="s">
+      <c r="AJ4" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK4" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL4" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="AJ4" s="84" t="s">
+      <c r="AM4" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN4" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="AK4" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL4" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM4" s="84" t="s">
+      <c r="AO4" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP4" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="AN4" s="84" t="s">
+      <c r="AQ4" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR4" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="AO4" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP4" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ4" s="84" t="s">
+      <c r="AS4" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="AR4" s="84" t="s">
+      <c r="AT4" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU4" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="AS4" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT4" s="88" t="s">
+      <c r="AV4" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="AU4" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV4" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="89"/>
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="90"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="90" t="n">
+      <c r="A5" s="91" t="n">
         <v>64</v>
       </c>
-      <c r="B5" s="91" t="s">
-        <v>81</v>
+      <c r="B5" s="92" t="s">
+        <v>82</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="92" t="s">
         <v>84</v>
       </c>
+      <c r="E5" s="93" t="s">
+        <v>85</v>
+      </c>
       <c r="F5" s="59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
@@ -4040,62 +4126,62 @@
       <c r="K5" s="59"/>
       <c r="L5" s="59"/>
       <c r="M5" s="59"/>
-      <c r="N5" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" s="94"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="96" t="s">
+      <c r="N5" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="R5" s="97"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="101"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="102"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="101"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="102"/>
-      <c r="AK5" s="99"/>
-      <c r="AL5" s="101"/>
-      <c r="AM5" s="99"/>
-      <c r="AN5" s="102"/>
-      <c r="AO5" s="99"/>
-      <c r="AP5" s="101"/>
-      <c r="AQ5" s="99"/>
-      <c r="AR5" s="102"/>
-      <c r="AS5" s="99"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="105"/>
-      <c r="AW5" s="105"/>
-      <c r="AX5" s="89"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="98"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="102"/>
+      <c r="AE5" s="100"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="100"/>
+      <c r="AH5" s="102"/>
+      <c r="AI5" s="100"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="100"/>
+      <c r="AL5" s="102"/>
+      <c r="AM5" s="100"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="100"/>
+      <c r="AP5" s="102"/>
+      <c r="AQ5" s="100"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="100"/>
+      <c r="AT5" s="104"/>
+      <c r="AU5" s="105"/>
+      <c r="AV5" s="106"/>
+      <c r="AW5" s="106"/>
+      <c r="AX5" s="90"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="92" t="s">
         <v>84</v>
       </c>
+      <c r="E6" s="93" t="s">
+        <v>85</v>
+      </c>
       <c r="F6" s="59" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
@@ -4104,62 +4190,62 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
       <c r="M6" s="59"/>
-      <c r="N6" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="94"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="R6" s="97"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="101"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="101"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="102"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="101"/>
-      <c r="AM6" s="99"/>
-      <c r="AN6" s="102"/>
-      <c r="AO6" s="99"/>
-      <c r="AP6" s="101"/>
-      <c r="AQ6" s="99"/>
-      <c r="AR6" s="102"/>
-      <c r="AS6" s="99"/>
-      <c r="AT6" s="103"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="105"/>
-      <c r="AW6" s="105"/>
-      <c r="AX6" s="89"/>
+      <c r="N6" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="95"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="R6" s="98"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="101"/>
+      <c r="Y6" s="101"/>
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="101"/>
+      <c r="AB6" s="101"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="100"/>
+      <c r="AF6" s="103"/>
+      <c r="AG6" s="100"/>
+      <c r="AH6" s="102"/>
+      <c r="AI6" s="100"/>
+      <c r="AJ6" s="103"/>
+      <c r="AK6" s="100"/>
+      <c r="AL6" s="102"/>
+      <c r="AM6" s="100"/>
+      <c r="AN6" s="103"/>
+      <c r="AO6" s="100"/>
+      <c r="AP6" s="102"/>
+      <c r="AQ6" s="100"/>
+      <c r="AR6" s="103"/>
+      <c r="AS6" s="100"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="106"/>
+      <c r="AW6" s="106"/>
+      <c r="AX6" s="90"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="92" t="s">
         <v>84</v>
       </c>
+      <c r="E7" s="93" t="s">
+        <v>85</v>
+      </c>
       <c r="F7" s="59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
@@ -4168,62 +4254,62 @@
       <c r="K7" s="59"/>
       <c r="L7" s="59"/>
       <c r="M7" s="59"/>
-      <c r="N7" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="O7" s="94"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="R7" s="97"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="99"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="99"/>
-      <c r="AF7" s="102"/>
-      <c r="AG7" s="99"/>
-      <c r="AH7" s="101"/>
-      <c r="AI7" s="99"/>
-      <c r="AJ7" s="102"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="101"/>
-      <c r="AM7" s="99"/>
-      <c r="AN7" s="102"/>
-      <c r="AO7" s="99"/>
-      <c r="AP7" s="101"/>
-      <c r="AQ7" s="99"/>
-      <c r="AR7" s="102"/>
-      <c r="AS7" s="99"/>
-      <c r="AT7" s="103"/>
-      <c r="AU7" s="104"/>
-      <c r="AV7" s="105"/>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="89"/>
+      <c r="N7" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="95"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" s="98"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="103"/>
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="102"/>
+      <c r="AI7" s="100"/>
+      <c r="AJ7" s="103"/>
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="102"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="103"/>
+      <c r="AO7" s="100"/>
+      <c r="AP7" s="102"/>
+      <c r="AQ7" s="100"/>
+      <c r="AR7" s="103"/>
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="104"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="106"/>
+      <c r="AW7" s="106"/>
+      <c r="AX7" s="90"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="92" t="s">
         <v>84</v>
       </c>
+      <c r="E8" s="93" t="s">
+        <v>85</v>
+      </c>
       <c r="F8" s="59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
@@ -4232,58 +4318,58 @@
       <c r="K8" s="59"/>
       <c r="L8" s="59"/>
       <c r="M8" s="59"/>
-      <c r="N8" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="94"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="R8" s="97"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="100"/>
-      <c r="Z8" s="100"/>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="100"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="102"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="99"/>
-      <c r="AJ8" s="102"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="101"/>
-      <c r="AM8" s="99"/>
-      <c r="AN8" s="102"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="101"/>
-      <c r="AQ8" s="99"/>
-      <c r="AR8" s="102"/>
-      <c r="AS8" s="99"/>
-      <c r="AT8" s="103"/>
-      <c r="AU8" s="104"/>
-      <c r="AV8" s="105"/>
-      <c r="AW8" s="105"/>
-      <c r="AX8" s="89"/>
+      <c r="N8" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="95"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" s="98"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="100"/>
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="100"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="100"/>
+      <c r="AJ8" s="103"/>
+      <c r="AK8" s="100"/>
+      <c r="AL8" s="102"/>
+      <c r="AM8" s="100"/>
+      <c r="AN8" s="103"/>
+      <c r="AO8" s="100"/>
+      <c r="AP8" s="102"/>
+      <c r="AQ8" s="100"/>
+      <c r="AR8" s="103"/>
+      <c r="AS8" s="100"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="106"/>
+      <c r="AW8" s="106"/>
+      <c r="AX8" s="90"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E9" s="93"/>
       <c r="F9" s="59"/>
       <c r="G9" s="59"/>
       <c r="H9" s="59"/>
@@ -4292,62 +4378,62 @@
       <c r="K9" s="59"/>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U9" s="100" t="s">
+      <c r="N9" s="94"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="V9" s="100"/>
-      <c r="W9" s="100"/>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="100"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="101" t="s">
+      <c r="U9" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="101"/>
-      <c r="AI9" s="99"/>
-      <c r="AJ9" s="102"/>
-      <c r="AK9" s="99"/>
-      <c r="AL9" s="101"/>
-      <c r="AM9" s="99"/>
-      <c r="AN9" s="102"/>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="101"/>
-      <c r="AQ9" s="99"/>
-      <c r="AR9" s="102"/>
-      <c r="AS9" s="99"/>
-      <c r="AT9" s="103"/>
-      <c r="AU9" s="104"/>
-      <c r="AV9" s="105"/>
-      <c r="AW9" s="105"/>
-      <c r="AX9" s="89"/>
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="100"/>
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="100"/>
+      <c r="AN9" s="103"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="102"/>
+      <c r="AQ9" s="100"/>
+      <c r="AR9" s="103"/>
+      <c r="AS9" s="100"/>
+      <c r="AT9" s="104"/>
+      <c r="AU9" s="105"/>
+      <c r="AV9" s="106"/>
+      <c r="AW9" s="106"/>
+      <c r="AX9" s="90"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E10" s="93"/>
       <c r="F10" s="59"/>
       <c r="G10" s="59"/>
       <c r="H10" s="59"/>
@@ -4356,62 +4442,62 @@
       <c r="K10" s="59"/>
       <c r="L10" s="59"/>
       <c r="M10" s="59"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="W10" s="100"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="100"/>
-      <c r="Z10" s="100"/>
-      <c r="AA10" s="100"/>
-      <c r="AB10" s="100"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="101" t="s">
+      <c r="N10" s="94"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="102" t="s">
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="101"/>
-      <c r="AI10" s="99"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="101"/>
-      <c r="AM10" s="99"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="101"/>
-      <c r="AQ10" s="99"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="99"/>
-      <c r="AT10" s="103"/>
-      <c r="AU10" s="104"/>
-      <c r="AV10" s="105"/>
-      <c r="AW10" s="105"/>
-      <c r="AX10" s="89"/>
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG10" s="100"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="100"/>
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="100"/>
+      <c r="AN10" s="103"/>
+      <c r="AO10" s="100"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="100"/>
+      <c r="AR10" s="103"/>
+      <c r="AS10" s="100"/>
+      <c r="AT10" s="104"/>
+      <c r="AU10" s="105"/>
+      <c r="AV10" s="106"/>
+      <c r="AW10" s="106"/>
+      <c r="AX10" s="90"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="90"/>
-      <c r="B11" s="90"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E11" s="93"/>
       <c r="F11" s="59"/>
       <c r="G11" s="59"/>
       <c r="H11" s="59"/>
@@ -4420,62 +4506,62 @@
       <c r="K11" s="59"/>
       <c r="L11" s="59"/>
       <c r="M11" s="59"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U11" s="100"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100" t="s">
+      <c r="N11" s="94"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="100"/>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="100"/>
-      <c r="AB11" s="100"/>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="101"/>
-      <c r="AI11" s="99"/>
-      <c r="AJ11" s="102"/>
-      <c r="AK11" s="99"/>
-      <c r="AL11" s="101"/>
-      <c r="AM11" s="99"/>
-      <c r="AN11" s="102"/>
-      <c r="AO11" s="99"/>
-      <c r="AP11" s="101"/>
-      <c r="AQ11" s="99"/>
-      <c r="AR11" s="102"/>
-      <c r="AS11" s="99"/>
-      <c r="AT11" s="103"/>
-      <c r="AU11" s="104"/>
-      <c r="AV11" s="105"/>
-      <c r="AW11" s="105"/>
-      <c r="AX11" s="89"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG11" s="100"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="100"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="100"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="100"/>
+      <c r="AN11" s="103"/>
+      <c r="AO11" s="100"/>
+      <c r="AP11" s="102"/>
+      <c r="AQ11" s="100"/>
+      <c r="AR11" s="103"/>
+      <c r="AS11" s="100"/>
+      <c r="AT11" s="104"/>
+      <c r="AU11" s="105"/>
+      <c r="AV11" s="106"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="90"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E12" s="93"/>
       <c r="F12" s="59"/>
       <c r="G12" s="59"/>
       <c r="H12" s="59"/>
@@ -4484,74 +4570,74 @@
       <c r="K12" s="59"/>
       <c r="L12" s="59"/>
       <c r="M12" s="59"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100" t="s">
+      <c r="N12" s="94"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="100"/>
-      <c r="AA12" s="100"/>
-      <c r="AB12" s="100"/>
-      <c r="AC12" s="100"/>
-      <c r="AD12" s="101" t="s">
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="AE12" s="106" t="s">
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="101"/>
+      <c r="AB12" s="101"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="AF12" s="102" t="s">
+      <c r="AE12" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="AG12" s="106" t="s">
+      <c r="AF12" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="AH12" s="101" t="s">
+      <c r="AG12" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="AI12" s="106" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ12" s="102" t="s">
+      <c r="AH12" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="AK12" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL12" s="101"/>
-      <c r="AM12" s="106"/>
-      <c r="AN12" s="102"/>
-      <c r="AO12" s="106"/>
-      <c r="AP12" s="101"/>
-      <c r="AQ12" s="106"/>
-      <c r="AR12" s="102"/>
-      <c r="AS12" s="106"/>
-      <c r="AT12" s="103"/>
-      <c r="AU12" s="104"/>
-      <c r="AV12" s="105"/>
-      <c r="AW12" s="105"/>
-      <c r="AX12" s="89"/>
+      <c r="AI12" s="107" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ12" s="103" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK12" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL12" s="102"/>
+      <c r="AM12" s="107"/>
+      <c r="AN12" s="103"/>
+      <c r="AO12" s="107"/>
+      <c r="AP12" s="102"/>
+      <c r="AQ12" s="107"/>
+      <c r="AR12" s="103"/>
+      <c r="AS12" s="107"/>
+      <c r="AT12" s="104"/>
+      <c r="AU12" s="105"/>
+      <c r="AV12" s="106"/>
+      <c r="AW12" s="106"/>
+      <c r="AX12" s="90"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E13" s="93"/>
       <c r="F13" s="59"/>
       <c r="G13" s="59"/>
       <c r="H13" s="59"/>
@@ -4560,62 +4646,62 @@
       <c r="K13" s="59"/>
       <c r="L13" s="59"/>
       <c r="M13" s="59"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U13" s="100"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="100"/>
-      <c r="Z13" s="100"/>
-      <c r="AA13" s="100"/>
-      <c r="AB13" s="100"/>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="102" t="s">
+      <c r="N13" s="94"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="101"/>
-      <c r="AI13" s="99"/>
-      <c r="AJ13" s="102"/>
-      <c r="AK13" s="99"/>
-      <c r="AL13" s="101"/>
-      <c r="AM13" s="99"/>
-      <c r="AN13" s="102"/>
-      <c r="AO13" s="99"/>
-      <c r="AP13" s="101"/>
-      <c r="AQ13" s="99"/>
-      <c r="AR13" s="102"/>
-      <c r="AS13" s="99"/>
-      <c r="AT13" s="103"/>
-      <c r="AU13" s="104"/>
-      <c r="AV13" s="105"/>
-      <c r="AW13" s="105"/>
-      <c r="AX13" s="89"/>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="101"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE13" s="100"/>
+      <c r="AF13" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG13" s="100"/>
+      <c r="AH13" s="102"/>
+      <c r="AI13" s="100"/>
+      <c r="AJ13" s="103"/>
+      <c r="AK13" s="100"/>
+      <c r="AL13" s="102"/>
+      <c r="AM13" s="100"/>
+      <c r="AN13" s="103"/>
+      <c r="AO13" s="100"/>
+      <c r="AP13" s="102"/>
+      <c r="AQ13" s="100"/>
+      <c r="AR13" s="103"/>
+      <c r="AS13" s="100"/>
+      <c r="AT13" s="104"/>
+      <c r="AU13" s="105"/>
+      <c r="AV13" s="106"/>
+      <c r="AW13" s="106"/>
+      <c r="AX13" s="90"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E14" s="93"/>
       <c r="F14" s="59"/>
       <c r="G14" s="59"/>
       <c r="H14" s="59"/>
@@ -4624,64 +4710,64 @@
       <c r="K14" s="59"/>
       <c r="L14" s="59"/>
       <c r="M14" s="59"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="100"/>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="102"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="101"/>
-      <c r="AI14" s="99"/>
-      <c r="AJ14" s="102"/>
-      <c r="AK14" s="99"/>
-      <c r="AL14" s="101"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="102"/>
-      <c r="AO14" s="99"/>
-      <c r="AP14" s="101"/>
-      <c r="AQ14" s="99"/>
-      <c r="AR14" s="102"/>
-      <c r="AS14" s="99"/>
-      <c r="AT14" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU14" s="104" t="s">
+      <c r="N14" s="94"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="AV14" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW14" s="108"/>
-      <c r="AX14" s="89"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="101"/>
+      <c r="AA14" s="101"/>
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="103"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="102"/>
+      <c r="AI14" s="100"/>
+      <c r="AJ14" s="103"/>
+      <c r="AK14" s="100"/>
+      <c r="AL14" s="102"/>
+      <c r="AM14" s="100"/>
+      <c r="AN14" s="103"/>
+      <c r="AO14" s="100"/>
+      <c r="AP14" s="102"/>
+      <c r="AQ14" s="100"/>
+      <c r="AR14" s="103"/>
+      <c r="AS14" s="100"/>
+      <c r="AT14" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU14" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV14" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW14" s="109"/>
+      <c r="AX14" s="90"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E15" s="93"/>
       <c r="F15" s="59"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
@@ -4690,508 +4776,508 @@
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
       <c r="M15" s="59"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U15" s="100"/>
-      <c r="V15" s="100" t="s">
-        <v>113</v>
-      </c>
-      <c r="W15" s="100"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="100"/>
-      <c r="Z15" s="100"/>
-      <c r="AA15" s="100"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="100"/>
-      <c r="AD15" s="101" t="s">
+      <c r="N15" s="94"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="U15" s="101"/>
+      <c r="V15" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="W15" s="101"/>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="101"/>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="101"/>
+      <c r="AB15" s="101"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG15" s="99"/>
-      <c r="AH15" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI15" s="99"/>
-      <c r="AJ15" s="102" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK15" s="99"/>
-      <c r="AL15" s="101"/>
-      <c r="AM15" s="99"/>
-      <c r="AN15" s="102"/>
-      <c r="AO15" s="99"/>
-      <c r="AP15" s="101"/>
-      <c r="AQ15" s="99"/>
-      <c r="AR15" s="102"/>
-      <c r="AS15" s="99"/>
-      <c r="AT15" s="107"/>
-      <c r="AU15" s="104"/>
-      <c r="AV15" s="105"/>
-      <c r="AW15" s="105"/>
-      <c r="AX15" s="89"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI15" s="100"/>
+      <c r="AJ15" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK15" s="100"/>
+      <c r="AL15" s="102"/>
+      <c r="AM15" s="100"/>
+      <c r="AN15" s="103"/>
+      <c r="AO15" s="100"/>
+      <c r="AP15" s="102"/>
+      <c r="AQ15" s="100"/>
+      <c r="AR15" s="103"/>
+      <c r="AS15" s="100"/>
+      <c r="AT15" s="108"/>
+      <c r="AU15" s="105"/>
+      <c r="AV15" s="106"/>
+      <c r="AW15" s="106"/>
+      <c r="AX15" s="90"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="93" t="s">
         <v>116</v>
+      </c>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110" t="s">
+        <v>117</v>
       </c>
       <c r="I16" s="59"/>
       <c r="J16" s="59"/>
       <c r="K16" s="59"/>
       <c r="L16" s="59"/>
       <c r="M16" s="59"/>
-      <c r="N16" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="O16" s="94"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="100"/>
-      <c r="Z16" s="100"/>
-      <c r="AA16" s="100"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="100"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="102"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="101"/>
-      <c r="AI16" s="99"/>
-      <c r="AJ16" s="102"/>
-      <c r="AK16" s="99"/>
-      <c r="AL16" s="101"/>
-      <c r="AM16" s="99"/>
-      <c r="AN16" s="102"/>
-      <c r="AO16" s="99"/>
-      <c r="AP16" s="101"/>
-      <c r="AQ16" s="99"/>
-      <c r="AR16" s="102"/>
-      <c r="AS16" s="99"/>
-      <c r="AT16" s="103"/>
-      <c r="AU16" s="104"/>
-      <c r="AV16" s="105"/>
-      <c r="AW16" s="105"/>
-      <c r="AX16" s="89"/>
+      <c r="N16" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="100"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="103"/>
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="102"/>
+      <c r="AI16" s="100"/>
+      <c r="AJ16" s="103"/>
+      <c r="AK16" s="100"/>
+      <c r="AL16" s="102"/>
+      <c r="AM16" s="100"/>
+      <c r="AN16" s="103"/>
+      <c r="AO16" s="100"/>
+      <c r="AP16" s="102"/>
+      <c r="AQ16" s="100"/>
+      <c r="AR16" s="103"/>
+      <c r="AS16" s="100"/>
+      <c r="AT16" s="104"/>
+      <c r="AU16" s="105"/>
+      <c r="AV16" s="106"/>
+      <c r="AW16" s="106"/>
+      <c r="AX16" s="90"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="92" t="s">
         <v>84</v>
+      </c>
+      <c r="E17" s="93" t="s">
+        <v>85</v>
       </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
       <c r="I17" s="59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J17" s="59"/>
       <c r="K17" s="59"/>
       <c r="L17" s="59"/>
       <c r="M17" s="59"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q17" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="R17" s="97"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="100"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="100"/>
-      <c r="X17" s="100"/>
-      <c r="Y17" s="100"/>
-      <c r="Z17" s="100"/>
-      <c r="AA17" s="100"/>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="101"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="102"/>
-      <c r="AG17" s="99"/>
-      <c r="AH17" s="101"/>
-      <c r="AI17" s="99"/>
-      <c r="AJ17" s="102"/>
-      <c r="AK17" s="99"/>
-      <c r="AL17" s="101"/>
-      <c r="AM17" s="99"/>
-      <c r="AN17" s="102"/>
-      <c r="AO17" s="99"/>
-      <c r="AP17" s="101"/>
-      <c r="AQ17" s="99"/>
-      <c r="AR17" s="102"/>
-      <c r="AS17" s="99"/>
-      <c r="AT17" s="103"/>
-      <c r="AU17" s="104"/>
-      <c r="AV17" s="105"/>
-      <c r="AW17" s="105"/>
-      <c r="AX17" s="89"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="R17" s="98"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="101"/>
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="103"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="102"/>
+      <c r="AI17" s="100"/>
+      <c r="AJ17" s="103"/>
+      <c r="AK17" s="100"/>
+      <c r="AL17" s="102"/>
+      <c r="AM17" s="100"/>
+      <c r="AN17" s="103"/>
+      <c r="AO17" s="100"/>
+      <c r="AP17" s="102"/>
+      <c r="AQ17" s="100"/>
+      <c r="AR17" s="103"/>
+      <c r="AS17" s="100"/>
+      <c r="AT17" s="104"/>
+      <c r="AU17" s="105"/>
+      <c r="AV17" s="106"/>
+      <c r="AW17" s="106"/>
+      <c r="AX17" s="90"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E18" s="93"/>
       <c r="F18" s="59"/>
       <c r="G18" s="59"/>
-      <c r="H18" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="109"/>
+      <c r="H18" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="110"/>
       <c r="J18" s="59"/>
       <c r="K18" s="59"/>
       <c r="L18" s="59"/>
       <c r="M18" s="59"/>
-      <c r="N18" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="94"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="100"/>
-      <c r="V18" s="100"/>
-      <c r="W18" s="100"/>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="100"/>
-      <c r="Z18" s="100"/>
-      <c r="AA18" s="100"/>
-      <c r="AB18" s="100"/>
-      <c r="AC18" s="100"/>
-      <c r="AD18" s="101"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="102"/>
-      <c r="AG18" s="99"/>
-      <c r="AH18" s="101"/>
-      <c r="AI18" s="99"/>
-      <c r="AJ18" s="102"/>
-      <c r="AK18" s="99"/>
-      <c r="AL18" s="101"/>
-      <c r="AM18" s="99"/>
-      <c r="AN18" s="102"/>
-      <c r="AO18" s="99"/>
-      <c r="AP18" s="101"/>
-      <c r="AQ18" s="99"/>
-      <c r="AR18" s="102"/>
-      <c r="AS18" s="99"/>
-      <c r="AT18" s="103"/>
-      <c r="AU18" s="104"/>
-      <c r="AV18" s="105"/>
-      <c r="AW18" s="105"/>
-      <c r="AX18" s="89"/>
+      <c r="N18" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="101"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="101"/>
+      <c r="AA18" s="101"/>
+      <c r="AB18" s="101"/>
+      <c r="AC18" s="101"/>
+      <c r="AD18" s="102"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="103"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="102"/>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="103"/>
+      <c r="AK18" s="100"/>
+      <c r="AL18" s="102"/>
+      <c r="AM18" s="100"/>
+      <c r="AN18" s="103"/>
+      <c r="AO18" s="100"/>
+      <c r="AP18" s="102"/>
+      <c r="AQ18" s="100"/>
+      <c r="AR18" s="103"/>
+      <c r="AS18" s="100"/>
+      <c r="AT18" s="104"/>
+      <c r="AU18" s="105"/>
+      <c r="AV18" s="106"/>
+      <c r="AW18" s="106"/>
+      <c r="AX18" s="90"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="92" t="s">
         <v>84</v>
+      </c>
+      <c r="E19" s="93" t="s">
+        <v>85</v>
       </c>
       <c r="F19" s="59"/>
       <c r="G19" s="59"/>
       <c r="H19" s="59"/>
       <c r="I19" s="59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J19" s="59"/>
       <c r="K19" s="59"/>
       <c r="L19" s="59"/>
       <c r="M19" s="59"/>
-      <c r="N19" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="O19" s="94"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="R19" s="97"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="100"/>
-      <c r="V19" s="100"/>
-      <c r="W19" s="100"/>
-      <c r="X19" s="100"/>
-      <c r="Y19" s="100"/>
-      <c r="Z19" s="100"/>
-      <c r="AA19" s="100"/>
-      <c r="AB19" s="100"/>
-      <c r="AC19" s="100"/>
-      <c r="AD19" s="101"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="102"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="101"/>
-      <c r="AI19" s="99"/>
-      <c r="AJ19" s="102"/>
-      <c r="AK19" s="99"/>
-      <c r="AL19" s="101"/>
-      <c r="AM19" s="99"/>
-      <c r="AN19" s="102"/>
-      <c r="AO19" s="99"/>
-      <c r="AP19" s="101"/>
-      <c r="AQ19" s="99"/>
-      <c r="AR19" s="102"/>
-      <c r="AS19" s="99"/>
-      <c r="AT19" s="103"/>
-      <c r="AU19" s="104"/>
-      <c r="AV19" s="105"/>
-      <c r="AW19" s="105"/>
-      <c r="AX19" s="89"/>
+      <c r="N19" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" s="98"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="101"/>
+      <c r="X19" s="101"/>
+      <c r="Y19" s="101"/>
+      <c r="Z19" s="101"/>
+      <c r="AA19" s="101"/>
+      <c r="AB19" s="101"/>
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="100"/>
+      <c r="AF19" s="103"/>
+      <c r="AG19" s="100"/>
+      <c r="AH19" s="102"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="103"/>
+      <c r="AK19" s="100"/>
+      <c r="AL19" s="102"/>
+      <c r="AM19" s="100"/>
+      <c r="AN19" s="103"/>
+      <c r="AO19" s="100"/>
+      <c r="AP19" s="102"/>
+      <c r="AQ19" s="100"/>
+      <c r="AR19" s="103"/>
+      <c r="AS19" s="100"/>
+      <c r="AT19" s="104"/>
+      <c r="AU19" s="105"/>
+      <c r="AV19" s="106"/>
+      <c r="AW19" s="106"/>
+      <c r="AX19" s="90"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="92" t="s">
         <v>84</v>
+      </c>
+      <c r="E20" s="93" t="s">
+        <v>85</v>
       </c>
       <c r="F20" s="59"/>
       <c r="G20" s="59"/>
       <c r="H20" s="59"/>
       <c r="I20" s="59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J20" s="59"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
       <c r="M20" s="59"/>
-      <c r="N20" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="O20" s="94"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="R20" s="97"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="100"/>
-      <c r="Z20" s="100"/>
-      <c r="AA20" s="100"/>
-      <c r="AB20" s="100"/>
-      <c r="AC20" s="100"/>
-      <c r="AD20" s="101"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="102"/>
-      <c r="AG20" s="99"/>
-      <c r="AH20" s="101"/>
-      <c r="AI20" s="99"/>
-      <c r="AJ20" s="102"/>
-      <c r="AK20" s="99"/>
-      <c r="AL20" s="101"/>
-      <c r="AM20" s="99"/>
-      <c r="AN20" s="102"/>
-      <c r="AO20" s="99"/>
-      <c r="AP20" s="101"/>
-      <c r="AQ20" s="99"/>
-      <c r="AR20" s="102"/>
-      <c r="AS20" s="99"/>
-      <c r="AT20" s="103"/>
-      <c r="AU20" s="104"/>
-      <c r="AV20" s="105"/>
-      <c r="AW20" s="105"/>
-      <c r="AX20" s="89"/>
+      <c r="N20" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="R20" s="98"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="101"/>
+      <c r="AA20" s="101"/>
+      <c r="AB20" s="101"/>
+      <c r="AC20" s="101"/>
+      <c r="AD20" s="102"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="103"/>
+      <c r="AG20" s="100"/>
+      <c r="AH20" s="102"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="103"/>
+      <c r="AK20" s="100"/>
+      <c r="AL20" s="102"/>
+      <c r="AM20" s="100"/>
+      <c r="AN20" s="103"/>
+      <c r="AO20" s="100"/>
+      <c r="AP20" s="102"/>
+      <c r="AQ20" s="100"/>
+      <c r="AR20" s="103"/>
+      <c r="AS20" s="100"/>
+      <c r="AT20" s="104"/>
+      <c r="AU20" s="105"/>
+      <c r="AV20" s="106"/>
+      <c r="AW20" s="106"/>
+      <c r="AX20" s="90"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E21" s="93"/>
       <c r="F21" s="59"/>
       <c r="G21" s="59"/>
       <c r="H21" s="59"/>
       <c r="I21" s="59"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
       <c r="M21" s="59"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U21" s="100"/>
-      <c r="V21" s="100"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="100"/>
-      <c r="Y21" s="100" t="s">
+      <c r="N21" s="94"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="Z21" s="100"/>
-      <c r="AA21" s="100"/>
-      <c r="AB21" s="100"/>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG21" s="99"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="99"/>
-      <c r="AJ21" s="102"/>
-      <c r="AK21" s="99"/>
-      <c r="AL21" s="101"/>
-      <c r="AM21" s="99"/>
-      <c r="AN21" s="102"/>
-      <c r="AO21" s="99"/>
-      <c r="AP21" s="101"/>
-      <c r="AQ21" s="99"/>
-      <c r="AR21" s="102"/>
-      <c r="AS21" s="99"/>
-      <c r="AT21" s="103"/>
-      <c r="AU21" s="104"/>
-      <c r="AV21" s="105"/>
-      <c r="AW21" s="105"/>
-      <c r="AX21" s="89"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="101"/>
+      <c r="AB21" s="101"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG21" s="100"/>
+      <c r="AH21" s="102"/>
+      <c r="AI21" s="100"/>
+      <c r="AJ21" s="103"/>
+      <c r="AK21" s="100"/>
+      <c r="AL21" s="102"/>
+      <c r="AM21" s="100"/>
+      <c r="AN21" s="103"/>
+      <c r="AO21" s="100"/>
+      <c r="AP21" s="102"/>
+      <c r="AQ21" s="100"/>
+      <c r="AR21" s="103"/>
+      <c r="AS21" s="100"/>
+      <c r="AT21" s="104"/>
+      <c r="AU21" s="105"/>
+      <c r="AV21" s="106"/>
+      <c r="AW21" s="106"/>
+      <c r="AX21" s="90"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E22" s="93"/>
       <c r="F22" s="59"/>
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
       <c r="J22" s="59"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U22" s="100"/>
-      <c r="V22" s="100"/>
-      <c r="W22" s="100"/>
-      <c r="X22" s="100"/>
-      <c r="Y22" s="100"/>
-      <c r="Z22" s="100" t="s">
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="AA22" s="100"/>
-      <c r="AB22" s="100"/>
-      <c r="AC22" s="100"/>
-      <c r="AD22" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG22" s="99"/>
-      <c r="AH22" s="101"/>
-      <c r="AI22" s="99"/>
-      <c r="AJ22" s="102"/>
-      <c r="AK22" s="99"/>
-      <c r="AL22" s="101"/>
-      <c r="AM22" s="99"/>
-      <c r="AN22" s="102"/>
-      <c r="AO22" s="99"/>
-      <c r="AP22" s="101"/>
-      <c r="AQ22" s="99"/>
-      <c r="AR22" s="102"/>
-      <c r="AS22" s="99"/>
-      <c r="AT22" s="103"/>
-      <c r="AU22" s="104"/>
-      <c r="AV22" s="105"/>
-      <c r="AW22" s="105"/>
-      <c r="AX22" s="89"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="101"/>
+      <c r="Z22" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA22" s="101"/>
+      <c r="AB22" s="101"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG22" s="100"/>
+      <c r="AH22" s="102"/>
+      <c r="AI22" s="100"/>
+      <c r="AJ22" s="103"/>
+      <c r="AK22" s="100"/>
+      <c r="AL22" s="102"/>
+      <c r="AM22" s="100"/>
+      <c r="AN22" s="103"/>
+      <c r="AO22" s="100"/>
+      <c r="AP22" s="102"/>
+      <c r="AQ22" s="100"/>
+      <c r="AR22" s="103"/>
+      <c r="AS22" s="100"/>
+      <c r="AT22" s="104"/>
+      <c r="AU22" s="105"/>
+      <c r="AV22" s="106"/>
+      <c r="AW22" s="106"/>
+      <c r="AX22" s="90"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="90"/>
-      <c r="B23" s="90"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E23" s="93"/>
       <c r="F23" s="59"/>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
@@ -5200,86 +5286,86 @@
       <c r="K23" s="59"/>
       <c r="L23" s="59"/>
       <c r="M23" s="59"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="U23" s="100"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="100"/>
-      <c r="Y23" s="100"/>
-      <c r="Z23" s="100"/>
-      <c r="AA23" s="100" t="s">
+      <c r="N23" s="94"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="AB23" s="100"/>
-      <c r="AC23" s="100"/>
-      <c r="AD23" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG23" s="99"/>
-      <c r="AH23" s="101" t="s">
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="101"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="101"/>
+      <c r="AA23" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="AI23" s="99" t="s">
+      <c r="AB23" s="101"/>
+      <c r="AC23" s="101"/>
+      <c r="AD23" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG23" s="100"/>
+      <c r="AH23" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="AJ23" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK23" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL23" s="101" t="s">
+      <c r="AI23" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ23" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK23" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="AM23" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN23" s="102" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO23" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP23" s="101" t="s">
+      <c r="AL23" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM23" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN23" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO23" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP23" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="AQ23" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR23" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS23" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT23" s="103"/>
-      <c r="AU23" s="104"/>
-      <c r="AV23" s="105"/>
-      <c r="AW23" s="105"/>
-      <c r="AX23" s="89"/>
+      <c r="AQ23" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR23" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS23" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT23" s="104"/>
+      <c r="AU23" s="105"/>
+      <c r="AV23" s="106"/>
+      <c r="AW23" s="106"/>
+      <c r="AX23" s="90"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="90"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E24" s="93"/>
       <c r="F24" s="59"/>
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
@@ -5288,62 +5374,62 @@
       <c r="K24" s="59"/>
       <c r="L24" s="59"/>
       <c r="M24" s="59"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100" t="s">
+      <c r="N24" s="94"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="100"/>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="101"/>
-      <c r="AI24" s="99"/>
-      <c r="AJ24" s="102"/>
-      <c r="AK24" s="99"/>
-      <c r="AL24" s="101"/>
-      <c r="AM24" s="99"/>
-      <c r="AN24" s="102"/>
-      <c r="AO24" s="99"/>
-      <c r="AP24" s="101"/>
-      <c r="AQ24" s="99"/>
-      <c r="AR24" s="102"/>
-      <c r="AS24" s="99"/>
-      <c r="AT24" s="103"/>
-      <c r="AU24" s="104"/>
-      <c r="AV24" s="105"/>
-      <c r="AW24" s="105"/>
-      <c r="AX24" s="89"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="101"/>
+      <c r="Z24" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA24" s="101"/>
+      <c r="AB24" s="101"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG24" s="100"/>
+      <c r="AH24" s="102"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="103"/>
+      <c r="AK24" s="100"/>
+      <c r="AL24" s="102"/>
+      <c r="AM24" s="100"/>
+      <c r="AN24" s="103"/>
+      <c r="AO24" s="100"/>
+      <c r="AP24" s="102"/>
+      <c r="AQ24" s="100"/>
+      <c r="AR24" s="103"/>
+      <c r="AS24" s="100"/>
+      <c r="AT24" s="104"/>
+      <c r="AU24" s="105"/>
+      <c r="AV24" s="106"/>
+      <c r="AW24" s="106"/>
+      <c r="AX24" s="90"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="90"/>
-      <c r="B25" s="90"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E25" s="93"/>
       <c r="F25" s="59"/>
       <c r="G25" s="59"/>
       <c r="H25" s="59"/>
@@ -5352,68 +5438,68 @@
       <c r="K25" s="59"/>
       <c r="L25" s="59"/>
       <c r="M25" s="59"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U25" s="100"/>
-      <c r="V25" s="100"/>
-      <c r="W25" s="100"/>
-      <c r="X25" s="100"/>
-      <c r="Y25" s="100"/>
-      <c r="Z25" s="100"/>
-      <c r="AA25" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB25" s="100"/>
-      <c r="AC25" s="100"/>
-      <c r="AD25" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="102" t="s">
+      <c r="N25" s="94"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="101"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="101"/>
+      <c r="AA25" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="101"/>
-      <c r="AI25" s="99"/>
-      <c r="AJ25" s="102"/>
-      <c r="AK25" s="99"/>
-      <c r="AL25" s="101"/>
-      <c r="AM25" s="99"/>
-      <c r="AN25" s="102"/>
-      <c r="AO25" s="99"/>
-      <c r="AP25" s="101"/>
-      <c r="AQ25" s="99"/>
-      <c r="AR25" s="102"/>
-      <c r="AS25" s="99"/>
-      <c r="AT25" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU25" s="104" t="s">
+      <c r="AB25" s="101"/>
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE25" s="100"/>
+      <c r="AF25" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="AV25" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW25" s="108"/>
-      <c r="AX25" s="89"/>
+      <c r="AG25" s="100"/>
+      <c r="AH25" s="102"/>
+      <c r="AI25" s="100"/>
+      <c r="AJ25" s="103"/>
+      <c r="AK25" s="100"/>
+      <c r="AL25" s="102"/>
+      <c r="AM25" s="100"/>
+      <c r="AN25" s="103"/>
+      <c r="AO25" s="100"/>
+      <c r="AP25" s="102"/>
+      <c r="AQ25" s="100"/>
+      <c r="AR25" s="103"/>
+      <c r="AS25" s="100"/>
+      <c r="AT25" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU25" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV25" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW25" s="109"/>
+      <c r="AX25" s="90"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="90"/>
-      <c r="B26" s="90"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E26" s="93"/>
       <c r="F26" s="59"/>
       <c r="G26" s="59"/>
       <c r="H26" s="59"/>
@@ -5422,68 +5508,68 @@
       <c r="K26" s="59"/>
       <c r="L26" s="59"/>
       <c r="M26" s="59"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U26" s="100"/>
-      <c r="V26" s="100"/>
-      <c r="W26" s="100"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="100"/>
-      <c r="Z26" s="100"/>
-      <c r="AA26" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB26" s="100"/>
-      <c r="AC26" s="100"/>
-      <c r="AD26" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="102" t="s">
+      <c r="N26" s="94"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="U26" s="101"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="AG26" s="99"/>
-      <c r="AH26" s="101"/>
-      <c r="AI26" s="99"/>
-      <c r="AJ26" s="102"/>
-      <c r="AK26" s="99"/>
-      <c r="AL26" s="101"/>
-      <c r="AM26" s="99"/>
-      <c r="AN26" s="102"/>
-      <c r="AO26" s="99"/>
-      <c r="AP26" s="101"/>
-      <c r="AQ26" s="99"/>
-      <c r="AR26" s="102"/>
-      <c r="AS26" s="99"/>
-      <c r="AT26" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU26" s="104" t="s">
+      <c r="AB26" s="101"/>
+      <c r="AC26" s="101"/>
+      <c r="AD26" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="AV26" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW26" s="108"/>
-      <c r="AX26" s="89"/>
+      <c r="AG26" s="100"/>
+      <c r="AH26" s="102"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="103"/>
+      <c r="AK26" s="100"/>
+      <c r="AL26" s="102"/>
+      <c r="AM26" s="100"/>
+      <c r="AN26" s="103"/>
+      <c r="AO26" s="100"/>
+      <c r="AP26" s="102"/>
+      <c r="AQ26" s="100"/>
+      <c r="AR26" s="103"/>
+      <c r="AS26" s="100"/>
+      <c r="AT26" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU26" s="105" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV26" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW26" s="109"/>
+      <c r="AX26" s="90"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="90"/>
-      <c r="B27" s="90"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E27" s="93"/>
       <c r="F27" s="59"/>
       <c r="G27" s="59"/>
       <c r="H27" s="59"/>
@@ -5492,68 +5578,68 @@
       <c r="K27" s="59"/>
       <c r="L27" s="59"/>
       <c r="M27" s="59"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="100"/>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB27" s="100"/>
-      <c r="AC27" s="100"/>
-      <c r="AD27" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG27" s="99"/>
-      <c r="AH27" s="101"/>
-      <c r="AI27" s="99"/>
-      <c r="AJ27" s="102"/>
-      <c r="AK27" s="99"/>
-      <c r="AL27" s="101"/>
-      <c r="AM27" s="99"/>
-      <c r="AN27" s="102"/>
-      <c r="AO27" s="99"/>
-      <c r="AP27" s="101"/>
-      <c r="AQ27" s="99"/>
-      <c r="AR27" s="102"/>
-      <c r="AS27" s="99"/>
-      <c r="AT27" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU27" s="104" t="s">
+      <c r="N27" s="94"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB27" s="101"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="AV27" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW27" s="108"/>
-      <c r="AX27" s="89"/>
+      <c r="AG27" s="100"/>
+      <c r="AH27" s="102"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="103"/>
+      <c r="AK27" s="100"/>
+      <c r="AL27" s="102"/>
+      <c r="AM27" s="100"/>
+      <c r="AN27" s="103"/>
+      <c r="AO27" s="100"/>
+      <c r="AP27" s="102"/>
+      <c r="AQ27" s="100"/>
+      <c r="AR27" s="103"/>
+      <c r="AS27" s="100"/>
+      <c r="AT27" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU27" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV27" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW27" s="109"/>
+      <c r="AX27" s="90"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E28" s="93"/>
       <c r="F28" s="59"/>
       <c r="G28" s="59"/>
       <c r="H28" s="59"/>
@@ -5562,195 +5648,195 @@
       <c r="K28" s="59"/>
       <c r="L28" s="59"/>
       <c r="M28" s="59"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U28" s="100"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="100"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB28" s="100"/>
-      <c r="AC28" s="100"/>
-      <c r="AD28" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="102" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG28" s="99"/>
-      <c r="AH28" s="101"/>
-      <c r="AI28" s="99"/>
-      <c r="AJ28" s="102"/>
-      <c r="AK28" s="99"/>
-      <c r="AL28" s="101"/>
-      <c r="AM28" s="99"/>
-      <c r="AN28" s="102"/>
-      <c r="AO28" s="99"/>
-      <c r="AP28" s="101"/>
-      <c r="AQ28" s="99"/>
-      <c r="AR28" s="102"/>
-      <c r="AS28" s="99"/>
-      <c r="AT28" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU28" s="104" t="s">
+      <c r="N28" s="94"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB28" s="101"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="AV28" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW28" s="108"/>
-      <c r="AX28" s="89"/>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="102"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="103"/>
+      <c r="AK28" s="100"/>
+      <c r="AL28" s="102"/>
+      <c r="AM28" s="100"/>
+      <c r="AN28" s="103"/>
+      <c r="AO28" s="100"/>
+      <c r="AP28" s="102"/>
+      <c r="AQ28" s="100"/>
+      <c r="AR28" s="103"/>
+      <c r="AS28" s="100"/>
+      <c r="AT28" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU28" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV28" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW28" s="109"/>
+      <c r="AX28" s="90"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="90"/>
-      <c r="B29" s="90"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E29" s="93"/>
       <c r="F29" s="59"/>
-      <c r="G29" s="109"/>
+      <c r="G29" s="110"/>
       <c r="H29" s="59"/>
       <c r="I29" s="59"/>
       <c r="J29" s="59"/>
       <c r="K29" s="59"/>
       <c r="L29" s="59"/>
       <c r="M29" s="59"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U29" s="100"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="100"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="100" t="s">
+      <c r="N29" s="94"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="AA29" s="100"/>
-      <c r="AB29" s="100"/>
-      <c r="AC29" s="100"/>
-      <c r="AD29" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="102" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="101"/>
-      <c r="AI29" s="99"/>
-      <c r="AJ29" s="102"/>
-      <c r="AK29" s="99"/>
-      <c r="AL29" s="101"/>
-      <c r="AM29" s="99"/>
-      <c r="AN29" s="102"/>
-      <c r="AO29" s="99"/>
-      <c r="AP29" s="101"/>
-      <c r="AQ29" s="99"/>
-      <c r="AR29" s="102"/>
-      <c r="AS29" s="99"/>
-      <c r="AT29" s="103"/>
-      <c r="AU29" s="104"/>
-      <c r="AV29" s="105"/>
-      <c r="AW29" s="105"/>
-      <c r="AX29" s="89"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA29" s="101"/>
+      <c r="AB29" s="101"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG29" s="100"/>
+      <c r="AH29" s="102"/>
+      <c r="AI29" s="100"/>
+      <c r="AJ29" s="103"/>
+      <c r="AK29" s="100"/>
+      <c r="AL29" s="102"/>
+      <c r="AM29" s="100"/>
+      <c r="AN29" s="103"/>
+      <c r="AO29" s="100"/>
+      <c r="AP29" s="102"/>
+      <c r="AQ29" s="100"/>
+      <c r="AR29" s="103"/>
+      <c r="AS29" s="100"/>
+      <c r="AT29" s="104"/>
+      <c r="AU29" s="105"/>
+      <c r="AV29" s="106"/>
+      <c r="AW29" s="106"/>
+      <c r="AX29" s="90"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="90"/>
-      <c r="B30" s="90"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="109"/>
+        <v>84</v>
+      </c>
+      <c r="E30" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="110"/>
       <c r="G30" s="59"/>
       <c r="H30" s="59"/>
-      <c r="I30" s="109"/>
+      <c r="I30" s="110"/>
       <c r="J30" s="59"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109" t="s">
-        <v>141</v>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110" t="s">
+        <v>142</v>
       </c>
       <c r="M30" s="59"/>
-      <c r="N30" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="O30" s="94"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="97"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="99"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="100"/>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="100"/>
-      <c r="Z30" s="100"/>
-      <c r="AA30" s="100"/>
-      <c r="AB30" s="100"/>
-      <c r="AC30" s="100"/>
-      <c r="AD30" s="101"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="102"/>
-      <c r="AG30" s="99"/>
-      <c r="AH30" s="101"/>
-      <c r="AI30" s="99"/>
-      <c r="AJ30" s="102"/>
-      <c r="AK30" s="99"/>
-      <c r="AL30" s="101"/>
-      <c r="AM30" s="99"/>
-      <c r="AN30" s="102"/>
-      <c r="AO30" s="99"/>
-      <c r="AP30" s="101"/>
-      <c r="AQ30" s="99"/>
-      <c r="AR30" s="102"/>
-      <c r="AS30" s="99"/>
-      <c r="AT30" s="103"/>
-      <c r="AU30" s="104"/>
-      <c r="AV30" s="105"/>
-      <c r="AW30" s="105"/>
-      <c r="AX30" s="89"/>
+      <c r="N30" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="101"/>
+      <c r="AA30" s="101"/>
+      <c r="AB30" s="101"/>
+      <c r="AC30" s="101"/>
+      <c r="AD30" s="102"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="103"/>
+      <c r="AG30" s="100"/>
+      <c r="AH30" s="102"/>
+      <c r="AI30" s="100"/>
+      <c r="AJ30" s="103"/>
+      <c r="AK30" s="100"/>
+      <c r="AL30" s="102"/>
+      <c r="AM30" s="100"/>
+      <c r="AN30" s="103"/>
+      <c r="AO30" s="100"/>
+      <c r="AP30" s="102"/>
+      <c r="AQ30" s="100"/>
+      <c r="AR30" s="103"/>
+      <c r="AS30" s="100"/>
+      <c r="AT30" s="104"/>
+      <c r="AU30" s="105"/>
+      <c r="AV30" s="106"/>
+      <c r="AW30" s="106"/>
+      <c r="AX30" s="90"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="90"/>
-      <c r="B31" s="90"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="92" t="s">
         <v>84</v>
+      </c>
+      <c r="E31" s="93" t="s">
+        <v>85</v>
       </c>
       <c r="F31" s="59"/>
       <c r="G31" s="59"/>
@@ -5760,321 +5846,321 @@
       <c r="K31" s="59"/>
       <c r="L31" s="59"/>
       <c r="M31" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="N31" s="94"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q31" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="R31" s="98"/>
+      <c r="S31" s="99"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="101"/>
+      <c r="AA31" s="101"/>
+      <c r="AB31" s="101"/>
+      <c r="AC31" s="101"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="100"/>
+      <c r="AF31" s="103"/>
+      <c r="AG31" s="100"/>
+      <c r="AH31" s="102"/>
+      <c r="AI31" s="100"/>
+      <c r="AJ31" s="103"/>
+      <c r="AK31" s="100"/>
+      <c r="AL31" s="102"/>
+      <c r="AM31" s="100"/>
+      <c r="AN31" s="103"/>
+      <c r="AO31" s="100"/>
+      <c r="AP31" s="102"/>
+      <c r="AQ31" s="100"/>
+      <c r="AR31" s="103"/>
+      <c r="AS31" s="100"/>
+      <c r="AT31" s="104"/>
+      <c r="AU31" s="105"/>
+      <c r="AV31" s="106"/>
+      <c r="AW31" s="106"/>
+      <c r="AX31" s="90"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="93"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="N31" s="93"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q31" s="96" t="s">
-        <v>143</v>
-      </c>
-      <c r="R31" s="97"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="99"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="100"/>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="100"/>
-      <c r="Z31" s="100"/>
-      <c r="AA31" s="100"/>
-      <c r="AB31" s="100"/>
-      <c r="AC31" s="100"/>
-      <c r="AD31" s="101"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="102"/>
-      <c r="AG31" s="99"/>
-      <c r="AH31" s="101"/>
-      <c r="AI31" s="99"/>
-      <c r="AJ31" s="102"/>
-      <c r="AK31" s="99"/>
-      <c r="AL31" s="101"/>
-      <c r="AM31" s="99"/>
-      <c r="AN31" s="102"/>
-      <c r="AO31" s="99"/>
-      <c r="AP31" s="101"/>
-      <c r="AQ31" s="99"/>
-      <c r="AR31" s="102"/>
-      <c r="AS31" s="99"/>
-      <c r="AT31" s="103"/>
-      <c r="AU31" s="104"/>
-      <c r="AV31" s="105"/>
-      <c r="AW31" s="105"/>
-      <c r="AX31" s="89"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="57" t="s">
+      <c r="M32" s="110"/>
+      <c r="N32" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="101"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="101"/>
+      <c r="Z32" s="101"/>
+      <c r="AA32" s="101"/>
+      <c r="AB32" s="101"/>
+      <c r="AC32" s="101"/>
+      <c r="AD32" s="102"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="103"/>
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="102"/>
+      <c r="AI32" s="100"/>
+      <c r="AJ32" s="103"/>
+      <c r="AK32" s="100"/>
+      <c r="AL32" s="102"/>
+      <c r="AM32" s="100"/>
+      <c r="AN32" s="103"/>
+      <c r="AO32" s="100"/>
+      <c r="AP32" s="102"/>
+      <c r="AQ32" s="100"/>
+      <c r="AR32" s="103"/>
+      <c r="AS32" s="100"/>
+      <c r="AT32" s="104"/>
+      <c r="AU32" s="105"/>
+      <c r="AV32" s="106"/>
+      <c r="AW32" s="106"/>
+      <c r="AX32" s="90"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="91"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="92"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="M32" s="109"/>
-      <c r="N32" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="O32" s="94"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="110"/>
-      <c r="R32" s="97"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="99"/>
-      <c r="U32" s="100"/>
-      <c r="V32" s="100"/>
-      <c r="W32" s="100"/>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="100"/>
-      <c r="Z32" s="100"/>
-      <c r="AA32" s="100"/>
-      <c r="AB32" s="100"/>
-      <c r="AC32" s="100"/>
-      <c r="AD32" s="101"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="102"/>
-      <c r="AG32" s="99"/>
-      <c r="AH32" s="101"/>
-      <c r="AI32" s="99"/>
-      <c r="AJ32" s="102"/>
-      <c r="AK32" s="99"/>
-      <c r="AL32" s="101"/>
-      <c r="AM32" s="99"/>
-      <c r="AN32" s="102"/>
-      <c r="AO32" s="99"/>
-      <c r="AP32" s="101"/>
-      <c r="AQ32" s="99"/>
-      <c r="AR32" s="102"/>
-      <c r="AS32" s="99"/>
-      <c r="AT32" s="103"/>
-      <c r="AU32" s="104"/>
-      <c r="AV32" s="105"/>
-      <c r="AW32" s="105"/>
-      <c r="AX32" s="89"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="90"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="57" t="s">
-        <v>82</v>
-      </c>
       <c r="D33" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E33" s="93"/>
       <c r="F33" s="59"/>
-      <c r="G33" s="109"/>
+      <c r="G33" s="110"/>
       <c r="H33" s="59"/>
       <c r="I33" s="59"/>
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
       <c r="L33" s="59"/>
       <c r="M33" s="59"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U33" s="100"/>
-      <c r="V33" s="100"/>
-      <c r="W33" s="100"/>
-      <c r="X33" s="100"/>
-      <c r="Y33" s="100"/>
-      <c r="Z33" s="100"/>
-      <c r="AA33" s="100"/>
-      <c r="AB33" s="100"/>
-      <c r="AC33" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD33" s="101"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="102"/>
-      <c r="AG33" s="99"/>
-      <c r="AH33" s="101"/>
-      <c r="AI33" s="99"/>
-      <c r="AJ33" s="102"/>
-      <c r="AK33" s="99"/>
-      <c r="AL33" s="101"/>
-      <c r="AM33" s="99"/>
-      <c r="AN33" s="102"/>
-      <c r="AO33" s="99"/>
-      <c r="AP33" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ33" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR33" s="102" t="s">
+      <c r="N33" s="94"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="101"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="101"/>
+      <c r="AA33" s="101"/>
+      <c r="AB33" s="101"/>
+      <c r="AC33" s="101" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD33" s="102"/>
+      <c r="AE33" s="100"/>
+      <c r="AF33" s="103"/>
+      <c r="AG33" s="100"/>
+      <c r="AH33" s="102"/>
+      <c r="AI33" s="100"/>
+      <c r="AJ33" s="103"/>
+      <c r="AK33" s="100"/>
+      <c r="AL33" s="102"/>
+      <c r="AM33" s="100"/>
+      <c r="AN33" s="103"/>
+      <c r="AO33" s="100"/>
+      <c r="AP33" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="AS33" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT33" s="103" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU33" s="104" t="s">
+      <c r="AQ33" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR33" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="AV33" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW33" s="108"/>
-      <c r="AX33" s="89"/>
+      <c r="AS33" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT33" s="104" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU33" s="105" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV33" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW33" s="109"/>
+      <c r="AX33" s="90"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="90"/>
-      <c r="B34" s="90"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D34" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E34" s="93"/>
       <c r="F34" s="59"/>
-      <c r="G34" s="109"/>
+      <c r="G34" s="110"/>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
       <c r="J34" s="59"/>
       <c r="K34" s="59"/>
       <c r="L34" s="59"/>
       <c r="M34" s="59"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="97"/>
-      <c r="S34" s="98"/>
-      <c r="T34" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="U34" s="100"/>
-      <c r="V34" s="100" t="s">
-        <v>147</v>
-      </c>
-      <c r="W34" s="100"/>
-      <c r="X34" s="100"/>
-      <c r="Y34" s="100"/>
-      <c r="Z34" s="100"/>
-      <c r="AA34" s="100"/>
-      <c r="AB34" s="100"/>
-      <c r="AC34" s="100"/>
-      <c r="AD34" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE34" s="99"/>
-      <c r="AF34" s="102" t="s">
+      <c r="N34" s="94"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="98"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="U34" s="101"/>
+      <c r="V34" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="AG34" s="99"/>
-      <c r="AH34" s="101"/>
-      <c r="AI34" s="99"/>
-      <c r="AJ34" s="102"/>
-      <c r="AK34" s="99"/>
-      <c r="AL34" s="101"/>
-      <c r="AM34" s="99"/>
-      <c r="AN34" s="102"/>
-      <c r="AO34" s="99"/>
-      <c r="AP34" s="101"/>
-      <c r="AQ34" s="99"/>
-      <c r="AR34" s="102"/>
-      <c r="AS34" s="99"/>
-      <c r="AT34" s="103"/>
-      <c r="AU34" s="104"/>
-      <c r="AV34" s="105"/>
-      <c r="AW34" s="105"/>
-      <c r="AX34" s="89"/>
+      <c r="W34" s="101"/>
+      <c r="X34" s="101"/>
+      <c r="Y34" s="101"/>
+      <c r="Z34" s="101"/>
+      <c r="AA34" s="101"/>
+      <c r="AB34" s="101"/>
+      <c r="AC34" s="101"/>
+      <c r="AD34" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE34" s="100"/>
+      <c r="AF34" s="103" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG34" s="100"/>
+      <c r="AH34" s="102"/>
+      <c r="AI34" s="100"/>
+      <c r="AJ34" s="103"/>
+      <c r="AK34" s="100"/>
+      <c r="AL34" s="102"/>
+      <c r="AM34" s="100"/>
+      <c r="AN34" s="103"/>
+      <c r="AO34" s="100"/>
+      <c r="AP34" s="102"/>
+      <c r="AQ34" s="100"/>
+      <c r="AR34" s="103"/>
+      <c r="AS34" s="100"/>
+      <c r="AT34" s="104"/>
+      <c r="AU34" s="105"/>
+      <c r="AV34" s="106"/>
+      <c r="AW34" s="106"/>
+      <c r="AX34" s="90"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="90"/>
-      <c r="B35" s="90"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E35" s="93"/>
       <c r="F35" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="109"/>
+        <v>70</v>
+      </c>
+      <c r="G35" s="110"/>
       <c r="H35" s="59"/>
       <c r="I35" s="59"/>
       <c r="J35" s="59"/>
       <c r="K35" s="59"/>
       <c r="L35" s="59"/>
       <c r="M35" s="59"/>
-      <c r="N35" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="O35" s="94"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="97"/>
-      <c r="S35" s="98"/>
-      <c r="T35" s="99"/>
-      <c r="U35" s="100"/>
-      <c r="V35" s="100"/>
-      <c r="W35" s="100"/>
-      <c r="X35" s="100"/>
-      <c r="Y35" s="100"/>
-      <c r="Z35" s="100"/>
-      <c r="AA35" s="100"/>
-      <c r="AB35" s="100"/>
-      <c r="AC35" s="100"/>
-      <c r="AD35" s="101"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="102"/>
-      <c r="AG35" s="99"/>
-      <c r="AH35" s="101"/>
-      <c r="AI35" s="99"/>
-      <c r="AJ35" s="102"/>
-      <c r="AK35" s="99"/>
-      <c r="AL35" s="101"/>
-      <c r="AM35" s="99"/>
-      <c r="AN35" s="102"/>
-      <c r="AO35" s="99"/>
-      <c r="AP35" s="101"/>
-      <c r="AQ35" s="99"/>
-      <c r="AR35" s="102"/>
-      <c r="AS35" s="99"/>
-      <c r="AT35" s="103"/>
-      <c r="AU35" s="104"/>
-      <c r="AV35" s="105"/>
-      <c r="AW35" s="105"/>
-      <c r="AX35" s="89"/>
+      <c r="N35" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="O35" s="95"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="98"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="101"/>
+      <c r="W35" s="101"/>
+      <c r="X35" s="101"/>
+      <c r="Y35" s="101"/>
+      <c r="Z35" s="101"/>
+      <c r="AA35" s="101"/>
+      <c r="AB35" s="101"/>
+      <c r="AC35" s="101"/>
+      <c r="AD35" s="102"/>
+      <c r="AE35" s="100"/>
+      <c r="AF35" s="103"/>
+      <c r="AG35" s="100"/>
+      <c r="AH35" s="102"/>
+      <c r="AI35" s="100"/>
+      <c r="AJ35" s="103"/>
+      <c r="AK35" s="100"/>
+      <c r="AL35" s="102"/>
+      <c r="AM35" s="100"/>
+      <c r="AN35" s="103"/>
+      <c r="AO35" s="100"/>
+      <c r="AP35" s="102"/>
+      <c r="AQ35" s="100"/>
+      <c r="AR35" s="103"/>
+      <c r="AS35" s="100"/>
+      <c r="AT35" s="104"/>
+      <c r="AU35" s="105"/>
+      <c r="AV35" s="106"/>
+      <c r="AW35" s="106"/>
+      <c r="AX35" s="90"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="90"/>
-      <c r="B36" s="90"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="92"/>
+        <v>84</v>
+      </c>
+      <c r="E36" s="93"/>
       <c r="F36" s="59"/>
-      <c r="G36" s="111" t="s">
-        <v>149</v>
+      <c r="G36" s="112" t="s">
+        <v>150</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
@@ -6082,184 +6168,184 @@
       <c r="K36" s="59"/>
       <c r="L36" s="59"/>
       <c r="M36" s="59"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="97"/>
-      <c r="S36" s="98"/>
-      <c r="T36" s="99"/>
-      <c r="U36" s="100"/>
-      <c r="V36" s="100"/>
-      <c r="W36" s="100"/>
-      <c r="X36" s="100"/>
-      <c r="Y36" s="100"/>
-      <c r="Z36" s="100"/>
-      <c r="AA36" s="100"/>
-      <c r="AB36" s="100"/>
-      <c r="AC36" s="100"/>
-      <c r="AD36" s="101"/>
-      <c r="AE36" s="99"/>
-      <c r="AF36" s="102"/>
-      <c r="AG36" s="99"/>
-      <c r="AH36" s="101"/>
-      <c r="AI36" s="99"/>
-      <c r="AJ36" s="102"/>
-      <c r="AK36" s="99"/>
-      <c r="AL36" s="101"/>
-      <c r="AM36" s="99"/>
-      <c r="AN36" s="102"/>
-      <c r="AO36" s="99"/>
-      <c r="AP36" s="101"/>
-      <c r="AQ36" s="99"/>
-      <c r="AR36" s="102"/>
-      <c r="AS36" s="99"/>
-      <c r="AT36" s="103"/>
-      <c r="AU36" s="104"/>
-      <c r="AV36" s="105"/>
-      <c r="AW36" s="105"/>
-      <c r="AX36" s="89"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="100"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="101"/>
+      <c r="X36" s="101"/>
+      <c r="Y36" s="101"/>
+      <c r="Z36" s="101"/>
+      <c r="AA36" s="101"/>
+      <c r="AB36" s="101"/>
+      <c r="AC36" s="101"/>
+      <c r="AD36" s="102"/>
+      <c r="AE36" s="100"/>
+      <c r="AF36" s="103"/>
+      <c r="AG36" s="100"/>
+      <c r="AH36" s="102"/>
+      <c r="AI36" s="100"/>
+      <c r="AJ36" s="103"/>
+      <c r="AK36" s="100"/>
+      <c r="AL36" s="102"/>
+      <c r="AM36" s="100"/>
+      <c r="AN36" s="103"/>
+      <c r="AO36" s="100"/>
+      <c r="AP36" s="102"/>
+      <c r="AQ36" s="100"/>
+      <c r="AR36" s="103"/>
+      <c r="AS36" s="100"/>
+      <c r="AT36" s="104"/>
+      <c r="AU36" s="105"/>
+      <c r="AV36" s="106"/>
+      <c r="AW36" s="106"/>
+      <c r="AX36" s="90"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="90"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="59"/>
-      <c r="G37" s="111"/>
+      <c r="G37" s="112"/>
       <c r="H37" s="59"/>
       <c r="I37" s="59"/>
       <c r="J37" s="59"/>
       <c r="K37" s="59"/>
       <c r="L37" s="59"/>
       <c r="M37" s="59"/>
-      <c r="N37" s="93"/>
-      <c r="O37" s="94"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="97"/>
-      <c r="S37" s="98"/>
-      <c r="T37" s="99"/>
-      <c r="U37" s="100"/>
-      <c r="V37" s="100"/>
-      <c r="W37" s="100"/>
-      <c r="X37" s="100"/>
-      <c r="Y37" s="100"/>
-      <c r="Z37" s="100"/>
-      <c r="AA37" s="100"/>
-      <c r="AB37" s="100"/>
-      <c r="AC37" s="100"/>
-      <c r="AD37" s="101"/>
-      <c r="AE37" s="99"/>
-      <c r="AF37" s="102"/>
-      <c r="AG37" s="99"/>
-      <c r="AH37" s="101"/>
-      <c r="AI37" s="99"/>
-      <c r="AJ37" s="102"/>
-      <c r="AK37" s="99"/>
-      <c r="AL37" s="101"/>
-      <c r="AM37" s="99"/>
-      <c r="AN37" s="102"/>
-      <c r="AO37" s="99"/>
-      <c r="AP37" s="101"/>
-      <c r="AQ37" s="99"/>
-      <c r="AR37" s="102"/>
-      <c r="AS37" s="99"/>
-      <c r="AT37" s="103"/>
-      <c r="AU37" s="104"/>
-      <c r="AV37" s="105"/>
-      <c r="AW37" s="105"/>
-      <c r="AX37" s="89"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="98"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="100"/>
+      <c r="U37" s="101"/>
+      <c r="V37" s="101"/>
+      <c r="W37" s="101"/>
+      <c r="X37" s="101"/>
+      <c r="Y37" s="101"/>
+      <c r="Z37" s="101"/>
+      <c r="AA37" s="101"/>
+      <c r="AB37" s="101"/>
+      <c r="AC37" s="101"/>
+      <c r="AD37" s="102"/>
+      <c r="AE37" s="100"/>
+      <c r="AF37" s="103"/>
+      <c r="AG37" s="100"/>
+      <c r="AH37" s="102"/>
+      <c r="AI37" s="100"/>
+      <c r="AJ37" s="103"/>
+      <c r="AK37" s="100"/>
+      <c r="AL37" s="102"/>
+      <c r="AM37" s="100"/>
+      <c r="AN37" s="103"/>
+      <c r="AO37" s="100"/>
+      <c r="AP37" s="102"/>
+      <c r="AQ37" s="100"/>
+      <c r="AR37" s="103"/>
+      <c r="AS37" s="100"/>
+      <c r="AT37" s="104"/>
+      <c r="AU37" s="105"/>
+      <c r="AV37" s="106"/>
+      <c r="AW37" s="106"/>
+      <c r="AX37" s="90"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="89"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="113" t="n">
+      <c r="A38" s="90"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="G38" s="113" t="n">
+      <c r="G38" s="114" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="113" t="n">
+      <c r="H38" s="114" t="n">
         <v>2</v>
       </c>
-      <c r="I38" s="113" t="n">
+      <c r="I38" s="114" t="n">
         <v>3</v>
       </c>
-      <c r="J38" s="113" t="n">
+      <c r="J38" s="114" t="n">
         <v>4</v>
       </c>
-      <c r="K38" s="113" t="n">
+      <c r="K38" s="114" t="n">
         <v>5</v>
       </c>
-      <c r="L38" s="113" t="n">
+      <c r="L38" s="114" t="n">
         <v>6</v>
       </c>
-      <c r="M38" s="113" t="n">
+      <c r="M38" s="114" t="n">
         <v>7</v>
       </c>
-      <c r="N38" s="114"/>
-      <c r="O38" s="114"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="115"/>
-      <c r="S38" s="115"/>
-      <c r="T38" s="116"/>
-      <c r="U38" s="113" t="n">
+      <c r="N38" s="115"/>
+      <c r="O38" s="115"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="116"/>
+      <c r="S38" s="116"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="V38" s="113" t="n">
+      <c r="V38" s="114" t="n">
         <v>1</v>
       </c>
-      <c r="W38" s="113" t="n">
+      <c r="W38" s="114" t="n">
         <v>2</v>
       </c>
-      <c r="X38" s="113" t="n">
+      <c r="X38" s="114" t="n">
         <v>3</v>
       </c>
-      <c r="Y38" s="113" t="n">
+      <c r="Y38" s="114" t="n">
         <v>4</v>
       </c>
-      <c r="Z38" s="113" t="n">
+      <c r="Z38" s="114" t="n">
         <v>5</v>
       </c>
-      <c r="AA38" s="113" t="n">
+      <c r="AA38" s="114" t="n">
         <v>6</v>
       </c>
-      <c r="AB38" s="113" t="n">
+      <c r="AB38" s="114" t="n">
         <v>7</v>
       </c>
-      <c r="AC38" s="113" t="n">
+      <c r="AC38" s="114" t="n">
         <v>8</v>
       </c>
-      <c r="AD38" s="89"/>
-      <c r="AE38" s="89"/>
-      <c r="AF38" s="89"/>
-      <c r="AG38" s="117"/>
-      <c r="AH38" s="89"/>
-      <c r="AI38" s="89"/>
-      <c r="AJ38" s="89"/>
-      <c r="AK38" s="117"/>
-      <c r="AL38" s="89"/>
-      <c r="AM38" s="89"/>
-      <c r="AN38" s="89"/>
-      <c r="AO38" s="117"/>
-      <c r="AP38" s="89"/>
-      <c r="AQ38" s="89"/>
-      <c r="AR38" s="89"/>
-      <c r="AS38" s="117"/>
-      <c r="AT38" s="116"/>
-      <c r="AU38" s="89"/>
-      <c r="AV38" s="117"/>
-      <c r="AW38" s="117"/>
-      <c r="AX38" s="89"/>
+      <c r="AD38" s="90"/>
+      <c r="AE38" s="90"/>
+      <c r="AF38" s="90"/>
+      <c r="AG38" s="118"/>
+      <c r="AH38" s="90"/>
+      <c r="AI38" s="90"/>
+      <c r="AJ38" s="90"/>
+      <c r="AK38" s="118"/>
+      <c r="AL38" s="90"/>
+      <c r="AM38" s="90"/>
+      <c r="AN38" s="90"/>
+      <c r="AO38" s="118"/>
+      <c r="AP38" s="90"/>
+      <c r="AQ38" s="90"/>
+      <c r="AR38" s="90"/>
+      <c r="AS38" s="118"/>
+      <c r="AT38" s="117"/>
+      <c r="AU38" s="90"/>
+      <c r="AV38" s="118"/>
+      <c r="AW38" s="118"/>
+      <c r="AX38" s="90"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V45" s="118"/>
+      <c r="V45" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -1634,7 +1634,7 @@
   </sheetPr>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2430,7 +2430,7 @@
   </sheetPr>
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
@@ -3314,7 +3314,7 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -3751,7 +3751,7 @@
   </sheetPr>
   <dimension ref="A1:AX45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -185,7 +185,7 @@
     <t xml:space="preserve">ple</t>
   </si>
   <si>
-    <t xml:space="preserve">// package.json</t>
+    <t xml:space="preserve">#: package.json</t>
   </si>
   <si>
     <t xml:space="preserve">{}</t>
@@ -519,7 +519,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -541,34 +540,29 @@
       <sz val="10"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -576,40 +570,34 @@
       <color rgb="FFFFFF00"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="8"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -968,7 +956,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1177,6 +1165,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1243,6 +1235,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2431,7 +2427,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2477,13 +2473,13 @@
       <c r="P1" s="51"/>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
-      <c r="S1" s="3"/>
+      <c r="S1" s="52"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -2510,7 +2506,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="49"/>
-      <c r="B3" s="52"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="50" t="s">
         <v>39</v>
       </c>
@@ -2522,13 +2518,13 @@
       <c r="G3" s="50"/>
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="54" t="s">
         <v>43</v>
       </c>
       <c r="M3" s="51" t="s">
@@ -2543,634 +2539,634 @@
       <c r="P3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="54" t="s">
+      <c r="Q3" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="54"/>
+      <c r="R3" s="55"/>
       <c r="S3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="55" t="n">
+      <c r="A4" s="56" t="n">
         <f aca="false">VINE!$A$7</f>
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="str">
+      <c r="B4" s="57" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$B$7)</f>
         <v>package.json</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
       <c r="S4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="64" t="s">
+      <c r="K5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="65" t="s">
+      <c r="O5" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
       <c r="S5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61" t="s">
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="64" t="s">
+      <c r="K6" s="62"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="65" t="s">
+      <c r="O6" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
       <c r="S6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61" t="s">
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="61" t="s">
+      <c r="K7" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
       <c r="S7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
       <c r="S8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
       <c r="S9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61" t="s">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="61" t="s">
+      <c r="K10" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
       <c r="S10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61" t="s">
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="64" t="s">
+      <c r="K11" s="62"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
       <c r="S11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="67"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
       <c r="S12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="55" t="n">
+      <c r="A13" s="56" t="n">
         <f aca="false">VINE!$A$11</f>
         <v>7</v>
       </c>
-      <c r="B13" s="56" t="str">
+      <c r="B13" s="57" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/",0,VINE!$B$9,VINE!$C$11)</f>
         <v>devicebase/package.json</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58" t="s">
+      <c r="C13" s="58"/>
+      <c r="D13" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61" t="s">
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61" t="s">
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="61"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="64" t="s">
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="65" t="s">
+      <c r="O14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
       <c r="S14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="67"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61" t="s">
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="61"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64" t="s">
+      <c r="K15" s="62"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="O15" s="65" t="s">
+      <c r="O15" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
       <c r="S15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="67"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59" t="s">
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61" t="s">
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="61" t="s">
+      <c r="K16" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
       <c r="S16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
       <c r="S17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="55" t="n">
+      <c r="A18" s="56" t="n">
         <f aca="false">VINE!$A$14</f>
         <v>10</v>
       </c>
-      <c r="B18" s="56" t="str">
+      <c r="B18" s="57" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/",0,VINE!$B$12,VINE!$C$14)</f>
         <v>database/package.json</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58" t="s">
+      <c r="C18" s="58"/>
+      <c r="D18" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61" t="s">
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61" t="s">
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="61"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64" t="s">
+      <c r="K19" s="62"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="65" t="s">
+      <c r="O19" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
       <c r="S19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61" t="s">
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="61"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="64" t="s">
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="O20" s="65" t="s">
+      <c r="O20" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="67"/>
       <c r="S20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59" t="s">
+      <c r="A21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61" t="s">
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="61" t="s">
+      <c r="K21" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="62"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
       <c r="S21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59" t="s">
+      <c r="A22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61" t="s">
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="61"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="64" t="s">
+      <c r="K22" s="62"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="O22" s="65" t="s">
+      <c r="O22" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
       <c r="S22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="67"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59" t="s">
+      <c r="A23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61" t="s">
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="61"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="64" t="s">
+      <c r="K23" s="62"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="O23" s="65" t="s">
+      <c r="O23" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
       <c r="S23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59" t="s">
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61" t="s">
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="64" t="s">
+      <c r="K24" s="62"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
       <c r="S24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="67"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
       <c r="S25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
       <c r="S26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
-      <c r="B27" s="78"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="3"/>
       <c r="D27" s="42" t="n">
         <v>0</v>
@@ -3363,7 +3359,7 @@
       <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="50" t="s">
@@ -3388,7 +3384,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="49"/>
-      <c r="B3" s="52"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="50" t="s">
         <v>39</v>
       </c>
@@ -3400,10 +3396,10 @@
       <c r="G3" s="50"/>
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="54" t="s">
         <v>43</v>
       </c>
       <c r="L3" s="51" t="s">
@@ -3415,218 +3411,218 @@
       <c r="N3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="54" t="s">
+      <c r="O3" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="54"/>
+      <c r="P3" s="55"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="55" t="n">
+      <c r="A4" s="56" t="n">
         <f aca="false">VINE!$A$7</f>
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="str">
+      <c r="B4" s="57" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$B$7)</f>
         <v>package.json</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="66"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="67"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61" t="s">
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="66"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="67"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="66"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="67"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="67"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="79" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="66"/>
+      <c r="P7" s="67"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61" t="s">
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="66"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="67"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="67"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59" t="s">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61" t="s">
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="62"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="66"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="67"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="66"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="67"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="66"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="67"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="77"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="79"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
-      <c r="B13" s="78"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="3"/>
       <c r="D13" s="42" t="n">
         <v>0</v>
@@ -3764,176 +3760,176 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="46" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="1" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="80" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="80" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="81" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="82" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="80" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="80" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="82" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="82" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="83" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="84" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="82" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="82" width="4.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="21" style="1" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="83" width="5.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="85" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="83" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="85" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="4.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="83" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="85" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="8.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="83" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="80" width="4.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="83" width="30.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="83" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="85" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="82" width="4.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="85" width="30.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="85" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="9.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="51" t="s">
         <v>36</v>
       </c>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
       <c r="S1" s="51"/>
-      <c r="T1" s="85" t="s">
+      <c r="T1" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85" t="s">
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
-      <c r="AW1" s="85"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="87"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="87"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="87"/>
       <c r="AX1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
       <c r="P2" s="51" t="s">
         <v>38</v>
       </c>
       <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
       <c r="S2" s="51"/>
-      <c r="T2" s="86" t="s">
+      <c r="T2" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="85" t="s">
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85"/>
-      <c r="AP2" s="85" t="s">
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="85"/>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="86" t="s">
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="87"/>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
       <c r="AX2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="87" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="89" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="50" t="s">
@@ -3946,10 +3942,10 @@
       <c r="K3" s="50"/>
       <c r="L3" s="50"/>
       <c r="M3" s="50"/>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="90" t="s">
         <v>43</v>
       </c>
       <c r="P3" s="51" t="s">
@@ -3961,61 +3957,61 @@
       <c r="R3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="54" t="s">
+      <c r="S3" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="89" t="s">
+      <c r="T3" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="85" t="s">
+      <c r="U3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86" t="n">
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86" t="n">
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88" t="n">
         <v>1</v>
       </c>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="86" t="n">
+      <c r="AI3" s="88"/>
+      <c r="AJ3" s="88"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="88" t="n">
         <v>2</v>
       </c>
-      <c r="AM3" s="86"/>
-      <c r="AN3" s="86"/>
-      <c r="AO3" s="86"/>
-      <c r="AP3" s="86" t="n">
+      <c r="AM3" s="88"/>
+      <c r="AN3" s="88"/>
+      <c r="AO3" s="88"/>
+      <c r="AP3" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="AQ3" s="86"/>
-      <c r="AR3" s="86"/>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="86" t="n">
+      <c r="AQ3" s="88"/>
+      <c r="AR3" s="88"/>
+      <c r="AS3" s="88"/>
+      <c r="AT3" s="88" t="n">
         <v>0</v>
       </c>
-      <c r="AU3" s="86"/>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
+      <c r="AU3" s="88"/>
+      <c r="AV3" s="88"/>
+      <c r="AW3" s="88"/>
       <c r="AX3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="84"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
@@ -4024,2328 +4020,2328 @@
       <c r="K4" s="50"/>
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="88"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="90"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
       <c r="R4" s="51"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85" t="s">
+      <c r="S4" s="55"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="AE4" s="85" t="s">
+      <c r="AE4" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="AF4" s="85" t="s">
+      <c r="AF4" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="85" t="s">
+      <c r="AG4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="AH4" s="85" t="s">
+      <c r="AH4" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="AI4" s="85" t="s">
+      <c r="AI4" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="AJ4" s="85" t="s">
+      <c r="AJ4" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AK4" s="85" t="s">
+      <c r="AK4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="AL4" s="85" t="s">
+      <c r="AL4" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="AM4" s="85" t="s">
+      <c r="AM4" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="AN4" s="85" t="s">
+      <c r="AN4" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AO4" s="85" t="s">
+      <c r="AO4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="AP4" s="85" t="s">
+      <c r="AP4" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="AQ4" s="85" t="s">
+      <c r="AQ4" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AR4" s="85" t="s">
+      <c r="AR4" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AS4" s="85" t="s">
+      <c r="AS4" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AT4" s="89" t="s">
+      <c r="AT4" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="AU4" s="85" t="s">
+      <c r="AU4" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AV4" s="85" t="s">
+      <c r="AV4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="90"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="92"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="91" t="n">
+      <c r="A5" s="93" t="n">
         <v>64</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="94" t="s">
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97" t="s">
+      <c r="O5" s="97"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="R5" s="98"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="101"/>
-      <c r="AB5" s="101"/>
-      <c r="AC5" s="101"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="100"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="100"/>
-      <c r="AH5" s="102"/>
-      <c r="AI5" s="100"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="100"/>
-      <c r="AL5" s="102"/>
-      <c r="AM5" s="100"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="100"/>
-      <c r="AP5" s="102"/>
-      <c r="AQ5" s="100"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="100"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="105"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="106"/>
-      <c r="AX5" s="90"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="102"/>
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="102"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="102"/>
+      <c r="AJ5" s="105"/>
+      <c r="AK5" s="102"/>
+      <c r="AL5" s="104"/>
+      <c r="AM5" s="102"/>
+      <c r="AN5" s="105"/>
+      <c r="AO5" s="102"/>
+      <c r="AP5" s="104"/>
+      <c r="AQ5" s="102"/>
+      <c r="AR5" s="105"/>
+      <c r="AS5" s="102"/>
+      <c r="AT5" s="106"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="108"/>
+      <c r="AW5" s="108"/>
+      <c r="AX5" s="92"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="91"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="57" t="s">
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="94" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="95"/>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="97" t="s">
+      <c r="O6" s="97"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="R6" s="98"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="101"/>
-      <c r="Y6" s="101"/>
-      <c r="Z6" s="101"/>
-      <c r="AA6" s="101"/>
-      <c r="AB6" s="101"/>
-      <c r="AC6" s="101"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="100"/>
-      <c r="AF6" s="103"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="100"/>
-      <c r="AJ6" s="103"/>
-      <c r="AK6" s="100"/>
-      <c r="AL6" s="102"/>
-      <c r="AM6" s="100"/>
-      <c r="AN6" s="103"/>
-      <c r="AO6" s="100"/>
-      <c r="AP6" s="102"/>
-      <c r="AQ6" s="100"/>
-      <c r="AR6" s="103"/>
-      <c r="AS6" s="100"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="105"/>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="106"/>
-      <c r="AX6" s="90"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="103"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="102"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="102"/>
+      <c r="AJ6" s="105"/>
+      <c r="AK6" s="102"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="102"/>
+      <c r="AN6" s="105"/>
+      <c r="AO6" s="102"/>
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="102"/>
+      <c r="AR6" s="105"/>
+      <c r="AS6" s="102"/>
+      <c r="AT6" s="106"/>
+      <c r="AU6" s="107"/>
+      <c r="AV6" s="108"/>
+      <c r="AW6" s="108"/>
+      <c r="AX6" s="92"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="91"/>
-      <c r="B7" s="91"/>
-      <c r="C7" s="57" t="s">
+      <c r="A7" s="93"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="94" t="s">
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="95"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="97" t="s">
+      <c r="O7" s="97"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="R7" s="98"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="101"/>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="101"/>
-      <c r="AD7" s="102"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="103"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="102"/>
-      <c r="AI7" s="100"/>
-      <c r="AJ7" s="103"/>
-      <c r="AK7" s="100"/>
-      <c r="AL7" s="102"/>
-      <c r="AM7" s="100"/>
-      <c r="AN7" s="103"/>
-      <c r="AO7" s="100"/>
-      <c r="AP7" s="102"/>
-      <c r="AQ7" s="100"/>
-      <c r="AR7" s="103"/>
-      <c r="AS7" s="100"/>
-      <c r="AT7" s="104"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="106"/>
-      <c r="AW7" s="106"/>
-      <c r="AX7" s="90"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="104"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="102"/>
+      <c r="AH7" s="104"/>
+      <c r="AI7" s="102"/>
+      <c r="AJ7" s="105"/>
+      <c r="AK7" s="102"/>
+      <c r="AL7" s="104"/>
+      <c r="AM7" s="102"/>
+      <c r="AN7" s="105"/>
+      <c r="AO7" s="102"/>
+      <c r="AP7" s="104"/>
+      <c r="AQ7" s="102"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="102"/>
+      <c r="AT7" s="106"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="108"/>
+      <c r="AW7" s="108"/>
+      <c r="AX7" s="92"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="91"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="57" t="s">
+      <c r="A8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="94" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="O8" s="95"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="97" t="s">
+      <c r="O8" s="97"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="R8" s="98"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="100"/>
-      <c r="AF8" s="103"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="102"/>
-      <c r="AI8" s="100"/>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="100"/>
-      <c r="AL8" s="102"/>
-      <c r="AM8" s="100"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="100"/>
-      <c r="AP8" s="102"/>
-      <c r="AQ8" s="100"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="100"/>
-      <c r="AT8" s="104"/>
-      <c r="AU8" s="105"/>
-      <c r="AV8" s="106"/>
-      <c r="AW8" s="106"/>
-      <c r="AX8" s="90"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="103"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="102"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="102"/>
+      <c r="AL8" s="104"/>
+      <c r="AM8" s="102"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="102"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="102"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="102"/>
+      <c r="AT8" s="106"/>
+      <c r="AU8" s="107"/>
+      <c r="AV8" s="108"/>
+      <c r="AW8" s="108"/>
+      <c r="AX8" s="92"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="91"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="57" t="s">
+      <c r="A9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="100" t="s">
+      <c r="E9" s="95"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U9" s="101" t="s">
+      <c r="U9" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="102" t="s">
+      <c r="V9" s="103"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="103" t="s">
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="100"/>
-      <c r="AJ9" s="103"/>
-      <c r="AK9" s="100"/>
-      <c r="AL9" s="102"/>
-      <c r="AM9" s="100"/>
-      <c r="AN9" s="103"/>
-      <c r="AO9" s="100"/>
-      <c r="AP9" s="102"/>
-      <c r="AQ9" s="100"/>
-      <c r="AR9" s="103"/>
-      <c r="AS9" s="100"/>
-      <c r="AT9" s="104"/>
-      <c r="AU9" s="105"/>
-      <c r="AV9" s="106"/>
-      <c r="AW9" s="106"/>
-      <c r="AX9" s="90"/>
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="104"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="105"/>
+      <c r="AK9" s="102"/>
+      <c r="AL9" s="104"/>
+      <c r="AM9" s="102"/>
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="102"/>
+      <c r="AP9" s="104"/>
+      <c r="AQ9" s="102"/>
+      <c r="AR9" s="105"/>
+      <c r="AS9" s="102"/>
+      <c r="AT9" s="106"/>
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="108"/>
+      <c r="AW9" s="108"/>
+      <c r="AX9" s="92"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="57" t="s">
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="100" t="s">
+      <c r="E10" s="95"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="100"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U10" s="101"/>
-      <c r="V10" s="101" t="s">
+      <c r="U10" s="103"/>
+      <c r="V10" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="W10" s="101"/>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="101"/>
-      <c r="Z10" s="101"/>
-      <c r="AA10" s="101"/>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="101"/>
-      <c r="AD10" s="102" t="s">
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AE10" s="100"/>
-      <c r="AF10" s="103" t="s">
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="AG10" s="100"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="100"/>
-      <c r="AJ10" s="103"/>
-      <c r="AK10" s="100"/>
-      <c r="AL10" s="102"/>
-      <c r="AM10" s="100"/>
-      <c r="AN10" s="103"/>
-      <c r="AO10" s="100"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="100"/>
-      <c r="AR10" s="103"/>
-      <c r="AS10" s="100"/>
-      <c r="AT10" s="104"/>
-      <c r="AU10" s="105"/>
-      <c r="AV10" s="106"/>
-      <c r="AW10" s="106"/>
-      <c r="AX10" s="90"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="102"/>
+      <c r="AJ10" s="105"/>
+      <c r="AK10" s="102"/>
+      <c r="AL10" s="104"/>
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="105"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="104"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="105"/>
+      <c r="AS10" s="102"/>
+      <c r="AT10" s="106"/>
+      <c r="AU10" s="107"/>
+      <c r="AV10" s="108"/>
+      <c r="AW10" s="108"/>
+      <c r="AX10" s="92"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="91"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="57" t="s">
+      <c r="A11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="100" t="s">
+      <c r="E11" s="95"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101" t="s">
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="101"/>
-      <c r="AB11" s="101"/>
-      <c r="AC11" s="101"/>
-      <c r="AD11" s="102" t="s">
+      <c r="X11" s="103"/>
+      <c r="Y11" s="103"/>
+      <c r="Z11" s="103"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AE11" s="100"/>
-      <c r="AF11" s="103" t="s">
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="100"/>
-      <c r="AJ11" s="103"/>
-      <c r="AK11" s="100"/>
-      <c r="AL11" s="102"/>
-      <c r="AM11" s="100"/>
-      <c r="AN11" s="103"/>
-      <c r="AO11" s="100"/>
-      <c r="AP11" s="102"/>
-      <c r="AQ11" s="100"/>
-      <c r="AR11" s="103"/>
-      <c r="AS11" s="100"/>
-      <c r="AT11" s="104"/>
-      <c r="AU11" s="105"/>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="90"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="104"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="105"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="104"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="105"/>
+      <c r="AO11" s="102"/>
+      <c r="AP11" s="104"/>
+      <c r="AQ11" s="102"/>
+      <c r="AR11" s="105"/>
+      <c r="AS11" s="102"/>
+      <c r="AT11" s="106"/>
+      <c r="AU11" s="107"/>
+      <c r="AV11" s="108"/>
+      <c r="AW11" s="108"/>
+      <c r="AX11" s="92"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="91"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="57" t="s">
+      <c r="A12" s="93"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="93"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="100" t="s">
+      <c r="E12" s="95"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="100"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="U12" s="101"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101" t="s">
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" s="101"/>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="101"/>
-      <c r="AB12" s="101"/>
-      <c r="AC12" s="101"/>
-      <c r="AD12" s="102" t="s">
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="103"/>
+      <c r="AA12" s="103"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="AE12" s="107" t="s">
+      <c r="AE12" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="AF12" s="103" t="s">
+      <c r="AF12" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="AG12" s="107" t="s">
+      <c r="AG12" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="AH12" s="102" t="s">
+      <c r="AH12" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="AI12" s="107" t="s">
+      <c r="AI12" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="AJ12" s="103" t="s">
+      <c r="AJ12" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="AK12" s="107" t="s">
+      <c r="AK12" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="AL12" s="102"/>
-      <c r="AM12" s="107"/>
-      <c r="AN12" s="103"/>
-      <c r="AO12" s="107"/>
-      <c r="AP12" s="102"/>
-      <c r="AQ12" s="107"/>
-      <c r="AR12" s="103"/>
-      <c r="AS12" s="107"/>
-      <c r="AT12" s="104"/>
-      <c r="AU12" s="105"/>
-      <c r="AV12" s="106"/>
-      <c r="AW12" s="106"/>
-      <c r="AX12" s="90"/>
+      <c r="AL12" s="104"/>
+      <c r="AM12" s="109"/>
+      <c r="AN12" s="105"/>
+      <c r="AO12" s="109"/>
+      <c r="AP12" s="104"/>
+      <c r="AQ12" s="109"/>
+      <c r="AR12" s="105"/>
+      <c r="AS12" s="109"/>
+      <c r="AT12" s="106"/>
+      <c r="AU12" s="107"/>
+      <c r="AV12" s="108"/>
+      <c r="AW12" s="108"/>
+      <c r="AX12" s="92"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="91"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="57" t="s">
+      <c r="A13" s="93"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="100" t="s">
+      <c r="E13" s="95"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101" t="s">
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="102" t="s">
+      <c r="X13" s="103"/>
+      <c r="Y13" s="103"/>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
+      <c r="AD13" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AE13" s="100"/>
-      <c r="AF13" s="103" t="s">
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="AG13" s="100"/>
-      <c r="AH13" s="102"/>
-      <c r="AI13" s="100"/>
-      <c r="AJ13" s="103"/>
-      <c r="AK13" s="100"/>
-      <c r="AL13" s="102"/>
-      <c r="AM13" s="100"/>
-      <c r="AN13" s="103"/>
-      <c r="AO13" s="100"/>
-      <c r="AP13" s="102"/>
-      <c r="AQ13" s="100"/>
-      <c r="AR13" s="103"/>
-      <c r="AS13" s="100"/>
-      <c r="AT13" s="104"/>
-      <c r="AU13" s="105"/>
-      <c r="AV13" s="106"/>
-      <c r="AW13" s="106"/>
-      <c r="AX13" s="90"/>
+      <c r="AG13" s="102"/>
+      <c r="AH13" s="104"/>
+      <c r="AI13" s="102"/>
+      <c r="AJ13" s="105"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="104"/>
+      <c r="AM13" s="102"/>
+      <c r="AN13" s="105"/>
+      <c r="AO13" s="102"/>
+      <c r="AP13" s="104"/>
+      <c r="AQ13" s="102"/>
+      <c r="AR13" s="105"/>
+      <c r="AS13" s="102"/>
+      <c r="AT13" s="106"/>
+      <c r="AU13" s="107"/>
+      <c r="AV13" s="108"/>
+      <c r="AW13" s="108"/>
+      <c r="AX13" s="92"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="91"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="57" t="s">
+      <c r="A14" s="93"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="100" t="s">
+      <c r="E14" s="95"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101" t="s">
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="102"/>
-      <c r="AE14" s="100"/>
-      <c r="AF14" s="103"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="102"/>
-      <c r="AI14" s="100"/>
-      <c r="AJ14" s="103"/>
-      <c r="AK14" s="100"/>
-      <c r="AL14" s="102"/>
-      <c r="AM14" s="100"/>
-      <c r="AN14" s="103"/>
-      <c r="AO14" s="100"/>
-      <c r="AP14" s="102"/>
-      <c r="AQ14" s="100"/>
-      <c r="AR14" s="103"/>
-      <c r="AS14" s="100"/>
-      <c r="AT14" s="108" t="s">
+      <c r="Y14" s="103"/>
+      <c r="Z14" s="103"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="103"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="102"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="105"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="104"/>
+      <c r="AM14" s="102"/>
+      <c r="AN14" s="105"/>
+      <c r="AO14" s="102"/>
+      <c r="AP14" s="104"/>
+      <c r="AQ14" s="102"/>
+      <c r="AR14" s="105"/>
+      <c r="AS14" s="102"/>
+      <c r="AT14" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="AU14" s="105" t="s">
+      <c r="AU14" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="AV14" s="109" t="s">
+      <c r="AV14" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="AW14" s="109"/>
-      <c r="AX14" s="90"/>
+      <c r="AW14" s="111"/>
+      <c r="AX14" s="92"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="57" t="s">
+      <c r="A15" s="93"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="100" t="s">
+      <c r="E15" s="95"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101" t="s">
+      <c r="U15" s="103"/>
+      <c r="V15" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="102" t="s">
+      <c r="W15" s="103"/>
+      <c r="X15" s="103"/>
+      <c r="Y15" s="103"/>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="AE15" s="100"/>
-      <c r="AF15" s="103" t="s">
+      <c r="AE15" s="102"/>
+      <c r="AF15" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="AG15" s="100"/>
-      <c r="AH15" s="102" t="s">
+      <c r="AG15" s="102"/>
+      <c r="AH15" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AI15" s="100"/>
-      <c r="AJ15" s="103" t="s">
+      <c r="AI15" s="102"/>
+      <c r="AJ15" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="AK15" s="100"/>
-      <c r="AL15" s="102"/>
-      <c r="AM15" s="100"/>
-      <c r="AN15" s="103"/>
-      <c r="AO15" s="100"/>
-      <c r="AP15" s="102"/>
-      <c r="AQ15" s="100"/>
-      <c r="AR15" s="103"/>
-      <c r="AS15" s="100"/>
-      <c r="AT15" s="108"/>
-      <c r="AU15" s="105"/>
-      <c r="AV15" s="106"/>
-      <c r="AW15" s="106"/>
-      <c r="AX15" s="90"/>
+      <c r="AK15" s="102"/>
+      <c r="AL15" s="104"/>
+      <c r="AM15" s="102"/>
+      <c r="AN15" s="105"/>
+      <c r="AO15" s="102"/>
+      <c r="AP15" s="104"/>
+      <c r="AQ15" s="102"/>
+      <c r="AR15" s="105"/>
+      <c r="AS15" s="102"/>
+      <c r="AT15" s="110"/>
+      <c r="AU15" s="107"/>
+      <c r="AV15" s="108"/>
+      <c r="AW15" s="108"/>
+      <c r="AX15" s="92"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="91"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="57" t="s">
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110" t="s">
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="94" t="s">
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="95"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="101"/>
-      <c r="AA16" s="101"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="102"/>
-      <c r="AE16" s="100"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="100"/>
-      <c r="AH16" s="102"/>
-      <c r="AI16" s="100"/>
-      <c r="AJ16" s="103"/>
-      <c r="AK16" s="100"/>
-      <c r="AL16" s="102"/>
-      <c r="AM16" s="100"/>
-      <c r="AN16" s="103"/>
-      <c r="AO16" s="100"/>
-      <c r="AP16" s="102"/>
-      <c r="AQ16" s="100"/>
-      <c r="AR16" s="103"/>
-      <c r="AS16" s="100"/>
-      <c r="AT16" s="104"/>
-      <c r="AU16" s="105"/>
-      <c r="AV16" s="106"/>
-      <c r="AW16" s="106"/>
-      <c r="AX16" s="90"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="103"/>
+      <c r="AA16" s="103"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="103"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="102"/>
+      <c r="AH16" s="104"/>
+      <c r="AI16" s="102"/>
+      <c r="AJ16" s="105"/>
+      <c r="AK16" s="102"/>
+      <c r="AL16" s="104"/>
+      <c r="AM16" s="102"/>
+      <c r="AN16" s="105"/>
+      <c r="AO16" s="102"/>
+      <c r="AP16" s="104"/>
+      <c r="AQ16" s="102"/>
+      <c r="AR16" s="105"/>
+      <c r="AS16" s="102"/>
+      <c r="AT16" s="106"/>
+      <c r="AU16" s="107"/>
+      <c r="AV16" s="108"/>
+      <c r="AW16" s="108"/>
+      <c r="AX16" s="92"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="57" t="s">
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59" t="s">
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="96" t="s">
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="Q17" s="97" t="s">
+      <c r="Q17" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="R17" s="98"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="102"/>
-      <c r="AE17" s="100"/>
-      <c r="AF17" s="103"/>
-      <c r="AG17" s="100"/>
-      <c r="AH17" s="102"/>
-      <c r="AI17" s="100"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="100"/>
-      <c r="AL17" s="102"/>
-      <c r="AM17" s="100"/>
-      <c r="AN17" s="103"/>
-      <c r="AO17" s="100"/>
-      <c r="AP17" s="102"/>
-      <c r="AQ17" s="100"/>
-      <c r="AR17" s="103"/>
-      <c r="AS17" s="100"/>
-      <c r="AT17" s="104"/>
-      <c r="AU17" s="105"/>
-      <c r="AV17" s="106"/>
-      <c r="AW17" s="106"/>
-      <c r="AX17" s="90"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="102"/>
+      <c r="AF17" s="105"/>
+      <c r="AG17" s="102"/>
+      <c r="AH17" s="104"/>
+      <c r="AI17" s="102"/>
+      <c r="AJ17" s="105"/>
+      <c r="AK17" s="102"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="102"/>
+      <c r="AN17" s="105"/>
+      <c r="AO17" s="102"/>
+      <c r="AP17" s="104"/>
+      <c r="AQ17" s="102"/>
+      <c r="AR17" s="105"/>
+      <c r="AS17" s="102"/>
+      <c r="AT17" s="106"/>
+      <c r="AU17" s="107"/>
+      <c r="AV17" s="108"/>
+      <c r="AW17" s="108"/>
+      <c r="AX17" s="92"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="57" t="s">
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="110" t="s">
+      <c r="E18" s="95"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="110"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="94" t="s">
+      <c r="I18" s="112"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="O18" s="95"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="100"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="101"/>
-      <c r="AB18" s="101"/>
-      <c r="AC18" s="101"/>
-      <c r="AD18" s="102"/>
-      <c r="AE18" s="100"/>
-      <c r="AF18" s="103"/>
-      <c r="AG18" s="100"/>
-      <c r="AH18" s="102"/>
-      <c r="AI18" s="100"/>
-      <c r="AJ18" s="103"/>
-      <c r="AK18" s="100"/>
-      <c r="AL18" s="102"/>
-      <c r="AM18" s="100"/>
-      <c r="AN18" s="103"/>
-      <c r="AO18" s="100"/>
-      <c r="AP18" s="102"/>
-      <c r="AQ18" s="100"/>
-      <c r="AR18" s="103"/>
-      <c r="AS18" s="100"/>
-      <c r="AT18" s="104"/>
-      <c r="AU18" s="105"/>
-      <c r="AV18" s="106"/>
-      <c r="AW18" s="106"/>
-      <c r="AX18" s="90"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="103"/>
+      <c r="Y18" s="103"/>
+      <c r="Z18" s="103"/>
+      <c r="AA18" s="103"/>
+      <c r="AB18" s="103"/>
+      <c r="AC18" s="103"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="102"/>
+      <c r="AF18" s="105"/>
+      <c r="AG18" s="102"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="102"/>
+      <c r="AJ18" s="105"/>
+      <c r="AK18" s="102"/>
+      <c r="AL18" s="104"/>
+      <c r="AM18" s="102"/>
+      <c r="AN18" s="105"/>
+      <c r="AO18" s="102"/>
+      <c r="AP18" s="104"/>
+      <c r="AQ18" s="102"/>
+      <c r="AR18" s="105"/>
+      <c r="AS18" s="102"/>
+      <c r="AT18" s="106"/>
+      <c r="AU18" s="107"/>
+      <c r="AV18" s="108"/>
+      <c r="AW18" s="108"/>
+      <c r="AX18" s="92"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="91"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="57" t="s">
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59" t="s">
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="94" t="s">
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="O19" s="95"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97" t="s">
+      <c r="O19" s="97"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="R19" s="98"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="101"/>
-      <c r="Z19" s="101"/>
-      <c r="AA19" s="101"/>
-      <c r="AB19" s="101"/>
-      <c r="AC19" s="101"/>
-      <c r="AD19" s="102"/>
-      <c r="AE19" s="100"/>
-      <c r="AF19" s="103"/>
-      <c r="AG19" s="100"/>
-      <c r="AH19" s="102"/>
-      <c r="AI19" s="100"/>
-      <c r="AJ19" s="103"/>
-      <c r="AK19" s="100"/>
-      <c r="AL19" s="102"/>
-      <c r="AM19" s="100"/>
-      <c r="AN19" s="103"/>
-      <c r="AO19" s="100"/>
-      <c r="AP19" s="102"/>
-      <c r="AQ19" s="100"/>
-      <c r="AR19" s="103"/>
-      <c r="AS19" s="100"/>
-      <c r="AT19" s="104"/>
-      <c r="AU19" s="105"/>
-      <c r="AV19" s="106"/>
-      <c r="AW19" s="106"/>
-      <c r="AX19" s="90"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="103"/>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="103"/>
+      <c r="AB19" s="103"/>
+      <c r="AC19" s="103"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="102"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="102"/>
+      <c r="AH19" s="104"/>
+      <c r="AI19" s="102"/>
+      <c r="AJ19" s="105"/>
+      <c r="AK19" s="102"/>
+      <c r="AL19" s="104"/>
+      <c r="AM19" s="102"/>
+      <c r="AN19" s="105"/>
+      <c r="AO19" s="102"/>
+      <c r="AP19" s="104"/>
+      <c r="AQ19" s="102"/>
+      <c r="AR19" s="105"/>
+      <c r="AS19" s="102"/>
+      <c r="AT19" s="106"/>
+      <c r="AU19" s="107"/>
+      <c r="AV19" s="108"/>
+      <c r="AW19" s="108"/>
+      <c r="AX19" s="92"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="57" t="s">
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59" t="s">
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="94" t="s">
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="O20" s="95"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="97" t="s">
+      <c r="O20" s="97"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="R20" s="98"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="101"/>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="101"/>
-      <c r="AD20" s="102"/>
-      <c r="AE20" s="100"/>
-      <c r="AF20" s="103"/>
-      <c r="AG20" s="100"/>
-      <c r="AH20" s="102"/>
-      <c r="AI20" s="100"/>
-      <c r="AJ20" s="103"/>
-      <c r="AK20" s="100"/>
-      <c r="AL20" s="102"/>
-      <c r="AM20" s="100"/>
-      <c r="AN20" s="103"/>
-      <c r="AO20" s="100"/>
-      <c r="AP20" s="102"/>
-      <c r="AQ20" s="100"/>
-      <c r="AR20" s="103"/>
-      <c r="AS20" s="100"/>
-      <c r="AT20" s="104"/>
-      <c r="AU20" s="105"/>
-      <c r="AV20" s="106"/>
-      <c r="AW20" s="106"/>
-      <c r="AX20" s="90"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="103"/>
+      <c r="AB20" s="103"/>
+      <c r="AC20" s="103"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="102"/>
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="102"/>
+      <c r="AH20" s="104"/>
+      <c r="AI20" s="102"/>
+      <c r="AJ20" s="105"/>
+      <c r="AK20" s="102"/>
+      <c r="AL20" s="104"/>
+      <c r="AM20" s="102"/>
+      <c r="AN20" s="105"/>
+      <c r="AO20" s="102"/>
+      <c r="AP20" s="104"/>
+      <c r="AQ20" s="102"/>
+      <c r="AR20" s="105"/>
+      <c r="AS20" s="102"/>
+      <c r="AT20" s="106"/>
+      <c r="AU20" s="107"/>
+      <c r="AV20" s="108"/>
+      <c r="AW20" s="108"/>
+      <c r="AX20" s="92"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="91"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="57" t="s">
+      <c r="A21" s="93"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="93"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="100" t="s">
+      <c r="E21" s="95"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U21" s="101"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="101"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101" t="s">
+      <c r="U21" s="103"/>
+      <c r="V21" s="103"/>
+      <c r="W21" s="103"/>
+      <c r="X21" s="103"/>
+      <c r="Y21" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="101"/>
-      <c r="AB21" s="101"/>
-      <c r="AC21" s="101"/>
-      <c r="AD21" s="102" t="s">
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="103"/>
+      <c r="AB21" s="103"/>
+      <c r="AC21" s="103"/>
+      <c r="AD21" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AE21" s="100"/>
-      <c r="AF21" s="103" t="s">
+      <c r="AE21" s="102"/>
+      <c r="AF21" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="102"/>
-      <c r="AI21" s="100"/>
-      <c r="AJ21" s="103"/>
-      <c r="AK21" s="100"/>
-      <c r="AL21" s="102"/>
-      <c r="AM21" s="100"/>
-      <c r="AN21" s="103"/>
-      <c r="AO21" s="100"/>
-      <c r="AP21" s="102"/>
-      <c r="AQ21" s="100"/>
-      <c r="AR21" s="103"/>
-      <c r="AS21" s="100"/>
-      <c r="AT21" s="104"/>
-      <c r="AU21" s="105"/>
-      <c r="AV21" s="106"/>
-      <c r="AW21" s="106"/>
-      <c r="AX21" s="90"/>
+      <c r="AG21" s="102"/>
+      <c r="AH21" s="104"/>
+      <c r="AI21" s="102"/>
+      <c r="AJ21" s="105"/>
+      <c r="AK21" s="102"/>
+      <c r="AL21" s="104"/>
+      <c r="AM21" s="102"/>
+      <c r="AN21" s="105"/>
+      <c r="AO21" s="102"/>
+      <c r="AP21" s="104"/>
+      <c r="AQ21" s="102"/>
+      <c r="AR21" s="105"/>
+      <c r="AS21" s="102"/>
+      <c r="AT21" s="106"/>
+      <c r="AU21" s="107"/>
+      <c r="AV21" s="108"/>
+      <c r="AW21" s="108"/>
+      <c r="AX21" s="92"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="91"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="57" t="s">
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="93"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="100" t="s">
+      <c r="E22" s="95"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U22" s="101"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="101" t="s">
+      <c r="U22" s="103"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="103"/>
+      <c r="X22" s="103"/>
+      <c r="Y22" s="103"/>
+      <c r="Z22" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="AA22" s="101"/>
-      <c r="AB22" s="101"/>
-      <c r="AC22" s="101"/>
-      <c r="AD22" s="102" t="s">
+      <c r="AA22" s="103"/>
+      <c r="AB22" s="103"/>
+      <c r="AC22" s="103"/>
+      <c r="AD22" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AE22" s="100"/>
-      <c r="AF22" s="103" t="s">
+      <c r="AE22" s="102"/>
+      <c r="AF22" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="AG22" s="100"/>
-      <c r="AH22" s="102"/>
-      <c r="AI22" s="100"/>
-      <c r="AJ22" s="103"/>
-      <c r="AK22" s="100"/>
-      <c r="AL22" s="102"/>
-      <c r="AM22" s="100"/>
-      <c r="AN22" s="103"/>
-      <c r="AO22" s="100"/>
-      <c r="AP22" s="102"/>
-      <c r="AQ22" s="100"/>
-      <c r="AR22" s="103"/>
-      <c r="AS22" s="100"/>
-      <c r="AT22" s="104"/>
-      <c r="AU22" s="105"/>
-      <c r="AV22" s="106"/>
-      <c r="AW22" s="106"/>
-      <c r="AX22" s="90"/>
+      <c r="AG22" s="102"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="102"/>
+      <c r="AJ22" s="105"/>
+      <c r="AK22" s="102"/>
+      <c r="AL22" s="104"/>
+      <c r="AM22" s="102"/>
+      <c r="AN22" s="105"/>
+      <c r="AO22" s="102"/>
+      <c r="AP22" s="104"/>
+      <c r="AQ22" s="102"/>
+      <c r="AR22" s="105"/>
+      <c r="AS22" s="102"/>
+      <c r="AT22" s="106"/>
+      <c r="AU22" s="107"/>
+      <c r="AV22" s="108"/>
+      <c r="AW22" s="108"/>
+      <c r="AX22" s="92"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="91"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="57" t="s">
+      <c r="A23" s="93"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="93"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="100" t="s">
+      <c r="E23" s="95"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="101"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="101"/>
-      <c r="AA23" s="101" t="s">
+      <c r="U23" s="103"/>
+      <c r="V23" s="103"/>
+      <c r="W23" s="103"/>
+      <c r="X23" s="103"/>
+      <c r="Y23" s="103"/>
+      <c r="Z23" s="103"/>
+      <c r="AA23" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="102" t="s">
+      <c r="AB23" s="103"/>
+      <c r="AC23" s="103"/>
+      <c r="AD23" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AE23" s="100"/>
-      <c r="AF23" s="103" t="s">
+      <c r="AE23" s="102"/>
+      <c r="AF23" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="AG23" s="100"/>
-      <c r="AH23" s="102" t="s">
+      <c r="AG23" s="102"/>
+      <c r="AH23" s="104" t="s">
         <v>104</v>
       </c>
-      <c r="AI23" s="100" t="s">
+      <c r="AI23" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="AJ23" s="103" t="s">
+      <c r="AJ23" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="AK23" s="100" t="s">
+      <c r="AK23" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="AL23" s="102" t="s">
+      <c r="AL23" s="104" t="s">
         <v>108</v>
       </c>
-      <c r="AM23" s="100" t="s">
+      <c r="AM23" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="AN23" s="103" t="s">
+      <c r="AN23" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="AO23" s="100" t="s">
+      <c r="AO23" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="AP23" s="102" t="s">
+      <c r="AP23" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="AQ23" s="100" t="s">
+      <c r="AQ23" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="AR23" s="103" t="s">
+      <c r="AR23" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="AS23" s="100" t="s">
+      <c r="AS23" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="AT23" s="104"/>
-      <c r="AU23" s="105"/>
-      <c r="AV23" s="106"/>
-      <c r="AW23" s="106"/>
-      <c r="AX23" s="90"/>
+      <c r="AT23" s="106"/>
+      <c r="AU23" s="107"/>
+      <c r="AV23" s="108"/>
+      <c r="AW23" s="108"/>
+      <c r="AX23" s="92"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="91"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="57" t="s">
+      <c r="A24" s="93"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="93"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="100" t="s">
+      <c r="E24" s="95"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="100"/>
+      <c r="S24" s="101"/>
+      <c r="T24" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="101"/>
-      <c r="Z24" s="101" t="s">
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="103"/>
+      <c r="Z24" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="101"/>
-      <c r="AD24" s="102" t="s">
+      <c r="AA24" s="103"/>
+      <c r="AB24" s="103"/>
+      <c r="AC24" s="103"/>
+      <c r="AD24" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AE24" s="100"/>
-      <c r="AF24" s="103" t="s">
+      <c r="AE24" s="102"/>
+      <c r="AF24" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="102"/>
-      <c r="AI24" s="100"/>
-      <c r="AJ24" s="103"/>
-      <c r="AK24" s="100"/>
-      <c r="AL24" s="102"/>
-      <c r="AM24" s="100"/>
-      <c r="AN24" s="103"/>
-      <c r="AO24" s="100"/>
-      <c r="AP24" s="102"/>
-      <c r="AQ24" s="100"/>
-      <c r="AR24" s="103"/>
-      <c r="AS24" s="100"/>
-      <c r="AT24" s="104"/>
-      <c r="AU24" s="105"/>
-      <c r="AV24" s="106"/>
-      <c r="AW24" s="106"/>
-      <c r="AX24" s="90"/>
+      <c r="AG24" s="102"/>
+      <c r="AH24" s="104"/>
+      <c r="AI24" s="102"/>
+      <c r="AJ24" s="105"/>
+      <c r="AK24" s="102"/>
+      <c r="AL24" s="104"/>
+      <c r="AM24" s="102"/>
+      <c r="AN24" s="105"/>
+      <c r="AO24" s="102"/>
+      <c r="AP24" s="104"/>
+      <c r="AQ24" s="102"/>
+      <c r="AR24" s="105"/>
+      <c r="AS24" s="102"/>
+      <c r="AT24" s="106"/>
+      <c r="AU24" s="107"/>
+      <c r="AV24" s="108"/>
+      <c r="AW24" s="108"/>
+      <c r="AX24" s="92"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="91"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="57" t="s">
+      <c r="A25" s="93"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="93"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="100" t="s">
+      <c r="E25" s="95"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="101" t="s">
+      <c r="U25" s="103"/>
+      <c r="V25" s="103"/>
+      <c r="W25" s="103"/>
+      <c r="X25" s="103"/>
+      <c r="Y25" s="103"/>
+      <c r="Z25" s="103"/>
+      <c r="AA25" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="AB25" s="101"/>
-      <c r="AC25" s="101"/>
-      <c r="AD25" s="102" t="s">
+      <c r="AB25" s="103"/>
+      <c r="AC25" s="103"/>
+      <c r="AD25" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AE25" s="100"/>
-      <c r="AF25" s="103" t="s">
+      <c r="AE25" s="102"/>
+      <c r="AF25" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="AG25" s="100"/>
-      <c r="AH25" s="102"/>
-      <c r="AI25" s="100"/>
-      <c r="AJ25" s="103"/>
-      <c r="AK25" s="100"/>
-      <c r="AL25" s="102"/>
-      <c r="AM25" s="100"/>
-      <c r="AN25" s="103"/>
-      <c r="AO25" s="100"/>
-      <c r="AP25" s="102"/>
-      <c r="AQ25" s="100"/>
-      <c r="AR25" s="103"/>
-      <c r="AS25" s="100"/>
-      <c r="AT25" s="104" t="s">
+      <c r="AG25" s="102"/>
+      <c r="AH25" s="104"/>
+      <c r="AI25" s="102"/>
+      <c r="AJ25" s="105"/>
+      <c r="AK25" s="102"/>
+      <c r="AL25" s="104"/>
+      <c r="AM25" s="102"/>
+      <c r="AN25" s="105"/>
+      <c r="AO25" s="102"/>
+      <c r="AP25" s="104"/>
+      <c r="AQ25" s="102"/>
+      <c r="AR25" s="105"/>
+      <c r="AS25" s="102"/>
+      <c r="AT25" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="AU25" s="105" t="s">
+      <c r="AU25" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="AV25" s="109" t="s">
+      <c r="AV25" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="AW25" s="109"/>
-      <c r="AX25" s="90"/>
+      <c r="AW25" s="111"/>
+      <c r="AX25" s="92"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="91"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="57" t="s">
+      <c r="A26" s="93"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="100" t="s">
+      <c r="E26" s="95"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="101"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="101" t="s">
+      <c r="U26" s="103"/>
+      <c r="V26" s="103"/>
+      <c r="W26" s="103"/>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="103"/>
+      <c r="Z26" s="103"/>
+      <c r="AA26" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="AB26" s="101"/>
-      <c r="AC26" s="101"/>
-      <c r="AD26" s="102" t="s">
+      <c r="AB26" s="103"/>
+      <c r="AC26" s="103"/>
+      <c r="AD26" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AE26" s="100"/>
-      <c r="AF26" s="103" t="s">
+      <c r="AE26" s="102"/>
+      <c r="AF26" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="AG26" s="100"/>
-      <c r="AH26" s="102"/>
-      <c r="AI26" s="100"/>
-      <c r="AJ26" s="103"/>
-      <c r="AK26" s="100"/>
-      <c r="AL26" s="102"/>
-      <c r="AM26" s="100"/>
-      <c r="AN26" s="103"/>
-      <c r="AO26" s="100"/>
-      <c r="AP26" s="102"/>
-      <c r="AQ26" s="100"/>
-      <c r="AR26" s="103"/>
-      <c r="AS26" s="100"/>
-      <c r="AT26" s="104" t="s">
+      <c r="AG26" s="102"/>
+      <c r="AH26" s="104"/>
+      <c r="AI26" s="102"/>
+      <c r="AJ26" s="105"/>
+      <c r="AK26" s="102"/>
+      <c r="AL26" s="104"/>
+      <c r="AM26" s="102"/>
+      <c r="AN26" s="105"/>
+      <c r="AO26" s="102"/>
+      <c r="AP26" s="104"/>
+      <c r="AQ26" s="102"/>
+      <c r="AR26" s="105"/>
+      <c r="AS26" s="102"/>
+      <c r="AT26" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="AU26" s="105" t="s">
+      <c r="AU26" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="AV26" s="109" t="s">
+      <c r="AV26" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="AW26" s="109"/>
-      <c r="AX26" s="90"/>
+      <c r="AW26" s="111"/>
+      <c r="AX26" s="92"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="91"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="57" t="s">
+      <c r="A27" s="93"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="100" t="s">
+      <c r="E27" s="95"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="101"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="101" t="s">
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="103"/>
+      <c r="Y27" s="103"/>
+      <c r="Z27" s="103"/>
+      <c r="AA27" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="AB27" s="101"/>
-      <c r="AC27" s="101"/>
-      <c r="AD27" s="102" t="s">
+      <c r="AB27" s="103"/>
+      <c r="AC27" s="103"/>
+      <c r="AD27" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AE27" s="100"/>
-      <c r="AF27" s="103" t="s">
+      <c r="AE27" s="102"/>
+      <c r="AF27" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="AG27" s="100"/>
-      <c r="AH27" s="102"/>
-      <c r="AI27" s="100"/>
-      <c r="AJ27" s="103"/>
-      <c r="AK27" s="100"/>
-      <c r="AL27" s="102"/>
-      <c r="AM27" s="100"/>
-      <c r="AN27" s="103"/>
-      <c r="AO27" s="100"/>
-      <c r="AP27" s="102"/>
-      <c r="AQ27" s="100"/>
-      <c r="AR27" s="103"/>
-      <c r="AS27" s="100"/>
-      <c r="AT27" s="104" t="s">
+      <c r="AG27" s="102"/>
+      <c r="AH27" s="104"/>
+      <c r="AI27" s="102"/>
+      <c r="AJ27" s="105"/>
+      <c r="AK27" s="102"/>
+      <c r="AL27" s="104"/>
+      <c r="AM27" s="102"/>
+      <c r="AN27" s="105"/>
+      <c r="AO27" s="102"/>
+      <c r="AP27" s="104"/>
+      <c r="AQ27" s="102"/>
+      <c r="AR27" s="105"/>
+      <c r="AS27" s="102"/>
+      <c r="AT27" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="AU27" s="105" t="s">
+      <c r="AU27" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="AV27" s="109" t="s">
+      <c r="AV27" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="AW27" s="109"/>
-      <c r="AX27" s="90"/>
+      <c r="AW27" s="111"/>
+      <c r="AX27" s="92"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="91"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="57" t="s">
+      <c r="A28" s="93"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="93"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="100" t="s">
+      <c r="E28" s="95"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
-      <c r="AA28" s="101" t="s">
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="103"/>
+      <c r="Z28" s="103"/>
+      <c r="AA28" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="AB28" s="101"/>
-      <c r="AC28" s="101"/>
-      <c r="AD28" s="102" t="s">
+      <c r="AB28" s="103"/>
+      <c r="AC28" s="103"/>
+      <c r="AD28" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AE28" s="100"/>
-      <c r="AF28" s="103" t="s">
+      <c r="AE28" s="102"/>
+      <c r="AF28" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="AG28" s="100"/>
-      <c r="AH28" s="102"/>
-      <c r="AI28" s="100"/>
-      <c r="AJ28" s="103"/>
-      <c r="AK28" s="100"/>
-      <c r="AL28" s="102"/>
-      <c r="AM28" s="100"/>
-      <c r="AN28" s="103"/>
-      <c r="AO28" s="100"/>
-      <c r="AP28" s="102"/>
-      <c r="AQ28" s="100"/>
-      <c r="AR28" s="103"/>
-      <c r="AS28" s="100"/>
-      <c r="AT28" s="104" t="s">
+      <c r="AG28" s="102"/>
+      <c r="AH28" s="104"/>
+      <c r="AI28" s="102"/>
+      <c r="AJ28" s="105"/>
+      <c r="AK28" s="102"/>
+      <c r="AL28" s="104"/>
+      <c r="AM28" s="102"/>
+      <c r="AN28" s="105"/>
+      <c r="AO28" s="102"/>
+      <c r="AP28" s="104"/>
+      <c r="AQ28" s="102"/>
+      <c r="AR28" s="105"/>
+      <c r="AS28" s="102"/>
+      <c r="AT28" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="AU28" s="105" t="s">
+      <c r="AU28" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="AV28" s="109" t="s">
+      <c r="AV28" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="AW28" s="109"/>
-      <c r="AX28" s="90"/>
+      <c r="AW28" s="111"/>
+      <c r="AX28" s="92"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="91"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="57" t="s">
+      <c r="A29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="93"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100" t="s">
+      <c r="E29" s="95"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101" t="s">
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="AA29" s="101"/>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="101"/>
-      <c r="AD29" s="102" t="s">
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="103"/>
+      <c r="AD29" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AE29" s="100"/>
-      <c r="AF29" s="103" t="s">
+      <c r="AE29" s="102"/>
+      <c r="AF29" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="AG29" s="100"/>
-      <c r="AH29" s="102"/>
-      <c r="AI29" s="100"/>
-      <c r="AJ29" s="103"/>
-      <c r="AK29" s="100"/>
-      <c r="AL29" s="102"/>
-      <c r="AM29" s="100"/>
-      <c r="AN29" s="103"/>
-      <c r="AO29" s="100"/>
-      <c r="AP29" s="102"/>
-      <c r="AQ29" s="100"/>
-      <c r="AR29" s="103"/>
-      <c r="AS29" s="100"/>
-      <c r="AT29" s="104"/>
-      <c r="AU29" s="105"/>
-      <c r="AV29" s="106"/>
-      <c r="AW29" s="106"/>
-      <c r="AX29" s="90"/>
+      <c r="AG29" s="102"/>
+      <c r="AH29" s="104"/>
+      <c r="AI29" s="102"/>
+      <c r="AJ29" s="105"/>
+      <c r="AK29" s="102"/>
+      <c r="AL29" s="104"/>
+      <c r="AM29" s="102"/>
+      <c r="AN29" s="105"/>
+      <c r="AO29" s="102"/>
+      <c r="AP29" s="104"/>
+      <c r="AQ29" s="102"/>
+      <c r="AR29" s="105"/>
+      <c r="AS29" s="102"/>
+      <c r="AT29" s="106"/>
+      <c r="AU29" s="107"/>
+      <c r="AV29" s="108"/>
+      <c r="AW29" s="108"/>
+      <c r="AX29" s="92"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="91"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="57" t="s">
+      <c r="A30" s="93"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="93" t="s">
+      <c r="E30" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="110"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110" t="s">
+      <c r="F30" s="112"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="M30" s="59"/>
-      <c r="N30" s="94" t="s">
+      <c r="M30" s="60"/>
+      <c r="N30" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="O30" s="95"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="101"/>
-      <c r="AB30" s="101"/>
-      <c r="AC30" s="101"/>
-      <c r="AD30" s="102"/>
-      <c r="AE30" s="100"/>
-      <c r="AF30" s="103"/>
-      <c r="AG30" s="100"/>
-      <c r="AH30" s="102"/>
-      <c r="AI30" s="100"/>
-      <c r="AJ30" s="103"/>
-      <c r="AK30" s="100"/>
-      <c r="AL30" s="102"/>
-      <c r="AM30" s="100"/>
-      <c r="AN30" s="103"/>
-      <c r="AO30" s="100"/>
-      <c r="AP30" s="102"/>
-      <c r="AQ30" s="100"/>
-      <c r="AR30" s="103"/>
-      <c r="AS30" s="100"/>
-      <c r="AT30" s="104"/>
-      <c r="AU30" s="105"/>
-      <c r="AV30" s="106"/>
-      <c r="AW30" s="106"/>
-      <c r="AX30" s="90"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="103"/>
+      <c r="AB30" s="103"/>
+      <c r="AC30" s="103"/>
+      <c r="AD30" s="104"/>
+      <c r="AE30" s="102"/>
+      <c r="AF30" s="105"/>
+      <c r="AG30" s="102"/>
+      <c r="AH30" s="104"/>
+      <c r="AI30" s="102"/>
+      <c r="AJ30" s="105"/>
+      <c r="AK30" s="102"/>
+      <c r="AL30" s="104"/>
+      <c r="AM30" s="102"/>
+      <c r="AN30" s="105"/>
+      <c r="AO30" s="102"/>
+      <c r="AP30" s="104"/>
+      <c r="AQ30" s="102"/>
+      <c r="AR30" s="105"/>
+      <c r="AS30" s="102"/>
+      <c r="AT30" s="106"/>
+      <c r="AU30" s="107"/>
+      <c r="AV30" s="108"/>
+      <c r="AW30" s="108"/>
+      <c r="AX30" s="92"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="91"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="57" t="s">
+      <c r="A31" s="93"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="93" t="s">
+      <c r="E31" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59" t="s">
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="N31" s="94"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="96" t="s">
+      <c r="N31" s="96"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="Q31" s="97" t="s">
+      <c r="Q31" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="R31" s="98"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="101"/>
-      <c r="AB31" s="101"/>
-      <c r="AC31" s="101"/>
-      <c r="AD31" s="102"/>
-      <c r="AE31" s="100"/>
-      <c r="AF31" s="103"/>
-      <c r="AG31" s="100"/>
-      <c r="AH31" s="102"/>
-      <c r="AI31" s="100"/>
-      <c r="AJ31" s="103"/>
-      <c r="AK31" s="100"/>
-      <c r="AL31" s="102"/>
-      <c r="AM31" s="100"/>
-      <c r="AN31" s="103"/>
-      <c r="AO31" s="100"/>
-      <c r="AP31" s="102"/>
-      <c r="AQ31" s="100"/>
-      <c r="AR31" s="103"/>
-      <c r="AS31" s="100"/>
-      <c r="AT31" s="104"/>
-      <c r="AU31" s="105"/>
-      <c r="AV31" s="106"/>
-      <c r="AW31" s="106"/>
-      <c r="AX31" s="90"/>
+      <c r="R31" s="100"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="103"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="103"/>
+      <c r="Y31" s="103"/>
+      <c r="Z31" s="103"/>
+      <c r="AA31" s="103"/>
+      <c r="AB31" s="103"/>
+      <c r="AC31" s="103"/>
+      <c r="AD31" s="104"/>
+      <c r="AE31" s="102"/>
+      <c r="AF31" s="105"/>
+      <c r="AG31" s="102"/>
+      <c r="AH31" s="104"/>
+      <c r="AI31" s="102"/>
+      <c r="AJ31" s="105"/>
+      <c r="AK31" s="102"/>
+      <c r="AL31" s="104"/>
+      <c r="AM31" s="102"/>
+      <c r="AN31" s="105"/>
+      <c r="AO31" s="102"/>
+      <c r="AP31" s="104"/>
+      <c r="AQ31" s="102"/>
+      <c r="AR31" s="105"/>
+      <c r="AS31" s="102"/>
+      <c r="AT31" s="106"/>
+      <c r="AU31" s="107"/>
+      <c r="AV31" s="108"/>
+      <c r="AW31" s="108"/>
+      <c r="AX31" s="92"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="57" t="s">
+      <c r="A32" s="93"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="93"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="110" t="s">
+      <c r="E32" s="95"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="M32" s="110"/>
-      <c r="N32" s="94" t="s">
+      <c r="M32" s="112"/>
+      <c r="N32" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="95"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="101"/>
-      <c r="Y32" s="101"/>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="101"/>
-      <c r="AB32" s="101"/>
-      <c r="AC32" s="101"/>
-      <c r="AD32" s="102"/>
-      <c r="AE32" s="100"/>
-      <c r="AF32" s="103"/>
-      <c r="AG32" s="100"/>
-      <c r="AH32" s="102"/>
-      <c r="AI32" s="100"/>
-      <c r="AJ32" s="103"/>
-      <c r="AK32" s="100"/>
-      <c r="AL32" s="102"/>
-      <c r="AM32" s="100"/>
-      <c r="AN32" s="103"/>
-      <c r="AO32" s="100"/>
-      <c r="AP32" s="102"/>
-      <c r="AQ32" s="100"/>
-      <c r="AR32" s="103"/>
-      <c r="AS32" s="100"/>
-      <c r="AT32" s="104"/>
-      <c r="AU32" s="105"/>
-      <c r="AV32" s="106"/>
-      <c r="AW32" s="106"/>
-      <c r="AX32" s="90"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="101"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="103"/>
+      <c r="W32" s="103"/>
+      <c r="X32" s="103"/>
+      <c r="Y32" s="103"/>
+      <c r="Z32" s="103"/>
+      <c r="AA32" s="103"/>
+      <c r="AB32" s="103"/>
+      <c r="AC32" s="103"/>
+      <c r="AD32" s="104"/>
+      <c r="AE32" s="102"/>
+      <c r="AF32" s="105"/>
+      <c r="AG32" s="102"/>
+      <c r="AH32" s="104"/>
+      <c r="AI32" s="102"/>
+      <c r="AJ32" s="105"/>
+      <c r="AK32" s="102"/>
+      <c r="AL32" s="104"/>
+      <c r="AM32" s="102"/>
+      <c r="AN32" s="105"/>
+      <c r="AO32" s="102"/>
+      <c r="AP32" s="104"/>
+      <c r="AQ32" s="102"/>
+      <c r="AR32" s="105"/>
+      <c r="AS32" s="102"/>
+      <c r="AT32" s="106"/>
+      <c r="AU32" s="107"/>
+      <c r="AV32" s="108"/>
+      <c r="AW32" s="108"/>
+      <c r="AX32" s="92"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="91"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="57" t="s">
+      <c r="A33" s="93"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E33" s="93"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="98"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="100" t="s">
+      <c r="E33" s="95"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U33" s="101"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101"/>
-      <c r="Z33" s="101"/>
-      <c r="AA33" s="101"/>
-      <c r="AB33" s="101"/>
-      <c r="AC33" s="101" t="s">
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="103"/>
+      <c r="Y33" s="103"/>
+      <c r="Z33" s="103"/>
+      <c r="AA33" s="103"/>
+      <c r="AB33" s="103"/>
+      <c r="AC33" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="AD33" s="102"/>
-      <c r="AE33" s="100"/>
-      <c r="AF33" s="103"/>
-      <c r="AG33" s="100"/>
-      <c r="AH33" s="102"/>
-      <c r="AI33" s="100"/>
-      <c r="AJ33" s="103"/>
-      <c r="AK33" s="100"/>
-      <c r="AL33" s="102"/>
-      <c r="AM33" s="100"/>
-      <c r="AN33" s="103"/>
-      <c r="AO33" s="100"/>
-      <c r="AP33" s="102" t="s">
+      <c r="AD33" s="104"/>
+      <c r="AE33" s="102"/>
+      <c r="AF33" s="105"/>
+      <c r="AG33" s="102"/>
+      <c r="AH33" s="104"/>
+      <c r="AI33" s="102"/>
+      <c r="AJ33" s="105"/>
+      <c r="AK33" s="102"/>
+      <c r="AL33" s="104"/>
+      <c r="AM33" s="102"/>
+      <c r="AN33" s="105"/>
+      <c r="AO33" s="102"/>
+      <c r="AP33" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="AQ33" s="100" t="s">
+      <c r="AQ33" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="AR33" s="103" t="s">
+      <c r="AR33" s="105" t="s">
         <v>146</v>
       </c>
-      <c r="AS33" s="100" t="s">
+      <c r="AS33" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="AT33" s="104" t="s">
+      <c r="AT33" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="AU33" s="105" t="s">
+      <c r="AU33" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="AV33" s="109" t="s">
+      <c r="AV33" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="AW33" s="109"/>
-      <c r="AX33" s="90"/>
+      <c r="AW33" s="111"/>
+      <c r="AX33" s="92"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="57" t="s">
+      <c r="A34" s="93"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="93"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="98"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="100" t="s">
+      <c r="E34" s="95"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="100"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="U34" s="101"/>
-      <c r="V34" s="101" t="s">
+      <c r="U34" s="103"/>
+      <c r="V34" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="W34" s="101"/>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="101"/>
-      <c r="Z34" s="101"/>
-      <c r="AA34" s="101"/>
-      <c r="AB34" s="101"/>
-      <c r="AC34" s="101"/>
-      <c r="AD34" s="102" t="s">
+      <c r="W34" s="103"/>
+      <c r="X34" s="103"/>
+      <c r="Y34" s="103"/>
+      <c r="Z34" s="103"/>
+      <c r="AA34" s="103"/>
+      <c r="AB34" s="103"/>
+      <c r="AC34" s="103"/>
+      <c r="AD34" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="AE34" s="100"/>
-      <c r="AF34" s="103" t="s">
+      <c r="AE34" s="102"/>
+      <c r="AF34" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="AG34" s="100"/>
-      <c r="AH34" s="102"/>
-      <c r="AI34" s="100"/>
-      <c r="AJ34" s="103"/>
-      <c r="AK34" s="100"/>
-      <c r="AL34" s="102"/>
-      <c r="AM34" s="100"/>
-      <c r="AN34" s="103"/>
-      <c r="AO34" s="100"/>
-      <c r="AP34" s="102"/>
-      <c r="AQ34" s="100"/>
-      <c r="AR34" s="103"/>
-      <c r="AS34" s="100"/>
-      <c r="AT34" s="104"/>
-      <c r="AU34" s="105"/>
-      <c r="AV34" s="106"/>
-      <c r="AW34" s="106"/>
-      <c r="AX34" s="90"/>
+      <c r="AG34" s="102"/>
+      <c r="AH34" s="104"/>
+      <c r="AI34" s="102"/>
+      <c r="AJ34" s="105"/>
+      <c r="AK34" s="102"/>
+      <c r="AL34" s="104"/>
+      <c r="AM34" s="102"/>
+      <c r="AN34" s="105"/>
+      <c r="AO34" s="102"/>
+      <c r="AP34" s="104"/>
+      <c r="AQ34" s="102"/>
+      <c r="AR34" s="105"/>
+      <c r="AS34" s="102"/>
+      <c r="AT34" s="106"/>
+      <c r="AU34" s="107"/>
+      <c r="AV34" s="108"/>
+      <c r="AW34" s="108"/>
+      <c r="AX34" s="92"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="57" t="s">
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="93"/>
-      <c r="F35" s="59" t="s">
+      <c r="E35" s="95"/>
+      <c r="F35" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="110"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="94" t="s">
+      <c r="G35" s="112"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="95"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="98"/>
-      <c r="S35" s="99"/>
-      <c r="T35" s="100"/>
-      <c r="U35" s="101"/>
-      <c r="V35" s="101"/>
-      <c r="W35" s="101"/>
-      <c r="X35" s="101"/>
-      <c r="Y35" s="101"/>
-      <c r="Z35" s="101"/>
-      <c r="AA35" s="101"/>
-      <c r="AB35" s="101"/>
-      <c r="AC35" s="101"/>
-      <c r="AD35" s="102"/>
-      <c r="AE35" s="100"/>
-      <c r="AF35" s="103"/>
-      <c r="AG35" s="100"/>
-      <c r="AH35" s="102"/>
-      <c r="AI35" s="100"/>
-      <c r="AJ35" s="103"/>
-      <c r="AK35" s="100"/>
-      <c r="AL35" s="102"/>
-      <c r="AM35" s="100"/>
-      <c r="AN35" s="103"/>
-      <c r="AO35" s="100"/>
-      <c r="AP35" s="102"/>
-      <c r="AQ35" s="100"/>
-      <c r="AR35" s="103"/>
-      <c r="AS35" s="100"/>
-      <c r="AT35" s="104"/>
-      <c r="AU35" s="105"/>
-      <c r="AV35" s="106"/>
-      <c r="AW35" s="106"/>
-      <c r="AX35" s="90"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="101"/>
+      <c r="T35" s="102"/>
+      <c r="U35" s="103"/>
+      <c r="V35" s="103"/>
+      <c r="W35" s="103"/>
+      <c r="X35" s="103"/>
+      <c r="Y35" s="103"/>
+      <c r="Z35" s="103"/>
+      <c r="AA35" s="103"/>
+      <c r="AB35" s="103"/>
+      <c r="AC35" s="103"/>
+      <c r="AD35" s="104"/>
+      <c r="AE35" s="102"/>
+      <c r="AF35" s="105"/>
+      <c r="AG35" s="102"/>
+      <c r="AH35" s="104"/>
+      <c r="AI35" s="102"/>
+      <c r="AJ35" s="105"/>
+      <c r="AK35" s="102"/>
+      <c r="AL35" s="104"/>
+      <c r="AM35" s="102"/>
+      <c r="AN35" s="105"/>
+      <c r="AO35" s="102"/>
+      <c r="AP35" s="104"/>
+      <c r="AQ35" s="102"/>
+      <c r="AR35" s="105"/>
+      <c r="AS35" s="102"/>
+      <c r="AT35" s="106"/>
+      <c r="AU35" s="107"/>
+      <c r="AV35" s="108"/>
+      <c r="AW35" s="108"/>
+      <c r="AX35" s="92"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="91"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="57" t="s">
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="93"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="112" t="s">
+      <c r="E36" s="95"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="98"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="100"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="101"/>
-      <c r="W36" s="101"/>
-      <c r="X36" s="101"/>
-      <c r="Y36" s="101"/>
-      <c r="Z36" s="101"/>
-      <c r="AA36" s="101"/>
-      <c r="AB36" s="101"/>
-      <c r="AC36" s="101"/>
-      <c r="AD36" s="102"/>
-      <c r="AE36" s="100"/>
-      <c r="AF36" s="103"/>
-      <c r="AG36" s="100"/>
-      <c r="AH36" s="102"/>
-      <c r="AI36" s="100"/>
-      <c r="AJ36" s="103"/>
-      <c r="AK36" s="100"/>
-      <c r="AL36" s="102"/>
-      <c r="AM36" s="100"/>
-      <c r="AN36" s="103"/>
-      <c r="AO36" s="100"/>
-      <c r="AP36" s="102"/>
-      <c r="AQ36" s="100"/>
-      <c r="AR36" s="103"/>
-      <c r="AS36" s="100"/>
-      <c r="AT36" s="104"/>
-      <c r="AU36" s="105"/>
-      <c r="AV36" s="106"/>
-      <c r="AW36" s="106"/>
-      <c r="AX36" s="90"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="100"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="102"/>
+      <c r="U36" s="103"/>
+      <c r="V36" s="103"/>
+      <c r="W36" s="103"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="103"/>
+      <c r="AA36" s="103"/>
+      <c r="AB36" s="103"/>
+      <c r="AC36" s="103"/>
+      <c r="AD36" s="104"/>
+      <c r="AE36" s="102"/>
+      <c r="AF36" s="105"/>
+      <c r="AG36" s="102"/>
+      <c r="AH36" s="104"/>
+      <c r="AI36" s="102"/>
+      <c r="AJ36" s="105"/>
+      <c r="AK36" s="102"/>
+      <c r="AL36" s="104"/>
+      <c r="AM36" s="102"/>
+      <c r="AN36" s="105"/>
+      <c r="AO36" s="102"/>
+      <c r="AP36" s="104"/>
+      <c r="AQ36" s="102"/>
+      <c r="AR36" s="105"/>
+      <c r="AS36" s="102"/>
+      <c r="AT36" s="106"/>
+      <c r="AU36" s="107"/>
+      <c r="AV36" s="108"/>
+      <c r="AW36" s="108"/>
+      <c r="AX36" s="92"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="91"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="94"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="97"/>
-      <c r="R37" s="98"/>
-      <c r="S37" s="99"/>
-      <c r="T37" s="100"/>
-      <c r="U37" s="101"/>
-      <c r="V37" s="101"/>
-      <c r="W37" s="101"/>
-      <c r="X37" s="101"/>
-      <c r="Y37" s="101"/>
-      <c r="Z37" s="101"/>
-      <c r="AA37" s="101"/>
-      <c r="AB37" s="101"/>
-      <c r="AC37" s="101"/>
-      <c r="AD37" s="102"/>
-      <c r="AE37" s="100"/>
-      <c r="AF37" s="103"/>
-      <c r="AG37" s="100"/>
-      <c r="AH37" s="102"/>
-      <c r="AI37" s="100"/>
-      <c r="AJ37" s="103"/>
-      <c r="AK37" s="100"/>
-      <c r="AL37" s="102"/>
-      <c r="AM37" s="100"/>
-      <c r="AN37" s="103"/>
-      <c r="AO37" s="100"/>
-      <c r="AP37" s="102"/>
-      <c r="AQ37" s="100"/>
-      <c r="AR37" s="103"/>
-      <c r="AS37" s="100"/>
-      <c r="AT37" s="104"/>
-      <c r="AU37" s="105"/>
-      <c r="AV37" s="106"/>
-      <c r="AW37" s="106"/>
-      <c r="AX37" s="90"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="100"/>
+      <c r="S37" s="101"/>
+      <c r="T37" s="102"/>
+      <c r="U37" s="103"/>
+      <c r="V37" s="103"/>
+      <c r="W37" s="103"/>
+      <c r="X37" s="103"/>
+      <c r="Y37" s="103"/>
+      <c r="Z37" s="103"/>
+      <c r="AA37" s="103"/>
+      <c r="AB37" s="103"/>
+      <c r="AC37" s="103"/>
+      <c r="AD37" s="104"/>
+      <c r="AE37" s="102"/>
+      <c r="AF37" s="105"/>
+      <c r="AG37" s="102"/>
+      <c r="AH37" s="104"/>
+      <c r="AI37" s="102"/>
+      <c r="AJ37" s="105"/>
+      <c r="AK37" s="102"/>
+      <c r="AL37" s="104"/>
+      <c r="AM37" s="102"/>
+      <c r="AN37" s="105"/>
+      <c r="AO37" s="102"/>
+      <c r="AP37" s="104"/>
+      <c r="AQ37" s="102"/>
+      <c r="AR37" s="105"/>
+      <c r="AS37" s="102"/>
+      <c r="AT37" s="106"/>
+      <c r="AU37" s="107"/>
+      <c r="AV37" s="108"/>
+      <c r="AW37" s="108"/>
+      <c r="AX37" s="92"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="90"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="114" t="n">
+      <c r="A38" s="92"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="G38" s="114" t="n">
+      <c r="G38" s="116" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="114" t="n">
+      <c r="H38" s="116" t="n">
         <v>2</v>
       </c>
-      <c r="I38" s="114" t="n">
+      <c r="I38" s="116" t="n">
         <v>3</v>
       </c>
-      <c r="J38" s="114" t="n">
+      <c r="J38" s="116" t="n">
         <v>4</v>
       </c>
-      <c r="K38" s="114" t="n">
+      <c r="K38" s="116" t="n">
         <v>5</v>
       </c>
-      <c r="L38" s="114" t="n">
+      <c r="L38" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="M38" s="114" t="n">
+      <c r="M38" s="116" t="n">
         <v>7</v>
       </c>
-      <c r="N38" s="115"/>
-      <c r="O38" s="115"/>
-      <c r="P38" s="113"/>
-      <c r="Q38" s="90"/>
-      <c r="R38" s="116"/>
-      <c r="S38" s="116"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="114" t="n">
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="115"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="118"/>
+      <c r="S38" s="118"/>
+      <c r="T38" s="119"/>
+      <c r="U38" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="V38" s="114" t="n">
+      <c r="V38" s="116" t="n">
         <v>1</v>
       </c>
-      <c r="W38" s="114" t="n">
+      <c r="W38" s="116" t="n">
         <v>2</v>
       </c>
-      <c r="X38" s="114" t="n">
+      <c r="X38" s="116" t="n">
         <v>3</v>
       </c>
-      <c r="Y38" s="114" t="n">
+      <c r="Y38" s="116" t="n">
         <v>4</v>
       </c>
-      <c r="Z38" s="114" t="n">
+      <c r="Z38" s="116" t="n">
         <v>5</v>
       </c>
-      <c r="AA38" s="114" t="n">
+      <c r="AA38" s="116" t="n">
         <v>6</v>
       </c>
-      <c r="AB38" s="114" t="n">
+      <c r="AB38" s="116" t="n">
         <v>7</v>
       </c>
-      <c r="AC38" s="114" t="n">
+      <c r="AC38" s="116" t="n">
         <v>8</v>
       </c>
-      <c r="AD38" s="90"/>
-      <c r="AE38" s="90"/>
-      <c r="AF38" s="90"/>
-      <c r="AG38" s="118"/>
-      <c r="AH38" s="90"/>
-      <c r="AI38" s="90"/>
-      <c r="AJ38" s="90"/>
-      <c r="AK38" s="118"/>
-      <c r="AL38" s="90"/>
-      <c r="AM38" s="90"/>
-      <c r="AN38" s="90"/>
-      <c r="AO38" s="118"/>
-      <c r="AP38" s="90"/>
-      <c r="AQ38" s="90"/>
-      <c r="AR38" s="90"/>
-      <c r="AS38" s="118"/>
-      <c r="AT38" s="117"/>
-      <c r="AU38" s="90"/>
-      <c r="AV38" s="118"/>
-      <c r="AW38" s="118"/>
-      <c r="AX38" s="90"/>
+      <c r="AD38" s="92"/>
+      <c r="AE38" s="92"/>
+      <c r="AF38" s="92"/>
+      <c r="AG38" s="120"/>
+      <c r="AH38" s="92"/>
+      <c r="AI38" s="92"/>
+      <c r="AJ38" s="92"/>
+      <c r="AK38" s="120"/>
+      <c r="AL38" s="92"/>
+      <c r="AM38" s="92"/>
+      <c r="AN38" s="92"/>
+      <c r="AO38" s="120"/>
+      <c r="AP38" s="92"/>
+      <c r="AQ38" s="92"/>
+      <c r="AR38" s="92"/>
+      <c r="AS38" s="120"/>
+      <c r="AT38" s="119"/>
+      <c r="AU38" s="92"/>
+      <c r="AV38" s="120"/>
+      <c r="AW38" s="120"/>
+      <c r="AX38" s="92"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V45" s="119"/>
+      <c r="V45" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="154">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">package.json</t>
   </si>
   <si>
-    <t xml:space="preserve">json_file</t>
+    <t xml:space="preserve">es_module</t>
   </si>
   <si>
     <t xml:space="preserve">ecosystem.config.cjs</t>
@@ -185,64 +185,397 @@
     <t xml:space="preserve">ple</t>
   </si>
   <si>
-    <t xml:space="preserve">#: package.json</t>
+    <t xml:space="preserve">#:package.json</t>
   </si>
   <si>
     <t xml:space="preserve">{}</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name"</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">:</t>
   </si>
   <si>
-    <t xml:space="preserve">dfc-configurator</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">dfc-configurator"</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">,</t>
   </si>
   <si>
-    <t xml:space="preserve">author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas Patrick Welborn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">workspaces</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">author"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Thomas Patrick Welborn"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">workspaces"</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">[]</t>
   </si>
   <si>
-    <t xml:space="preserve">devDependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yargs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^17.7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfc-configurator-devicebase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfc-configurator-database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mongoose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^8.4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^4.19.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ejs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^3.1.10</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">devicebase"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">database"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">devDependencies"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">yargs"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">^17.7.2"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">dfc-configurator-devicebase</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">dfc-configurator-database"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mongoose"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">^8.4.1"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">express"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">^4.19.2"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ejs"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="FreeMono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">^3.1.10"</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">:anonymousArguments</t>
@@ -514,11 +847,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -540,29 +874,34 @@
       <sz val="10"/>
       <name val="FreeMono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="FreeMono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="FreeMono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="FreeMono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="FreeMono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -570,34 +909,46 @@
       <color rgb="FFFFFF00"/>
       <name val="FreeMono"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="8"/>
       <name val="FreeMono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="FreeMono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="FreeMono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -956,7 +1307,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1237,10 +1588,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1285,7 +1632,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1297,7 +1644,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1345,7 +1692,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1357,11 +1704,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1397,7 +1744,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1405,11 +1752,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="23" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="23" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="31" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="31" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1425,11 +1772,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1437,11 +1784,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1631,7 +1978,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2427,7 +2774,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2582,23 +2929,23 @@
       <c r="C5" s="58"/>
       <c r="D5" s="59"/>
       <c r="E5" s="60" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="61"/>
       <c r="J5" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5" s="62"/>
       <c r="L5" s="63"/>
       <c r="M5" s="64"/>
       <c r="N5" s="65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O5" s="66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P5" s="66"/>
       <c r="Q5" s="67"/>
@@ -2611,23 +2958,23 @@
       <c r="C6" s="58"/>
       <c r="D6" s="59"/>
       <c r="E6" s="60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" s="60"/>
       <c r="G6" s="60"/>
       <c r="H6" s="60"/>
       <c r="I6" s="61"/>
       <c r="J6" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" s="62"/>
       <c r="L6" s="63"/>
       <c r="M6" s="64"/>
       <c r="N6" s="65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O6" s="66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P6" s="66"/>
       <c r="Q6" s="67"/>
@@ -2640,22 +2987,24 @@
       <c r="C7" s="58"/>
       <c r="D7" s="59"/>
       <c r="E7" s="60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
       <c r="H7" s="60"/>
       <c r="I7" s="61"/>
       <c r="J7" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" s="62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L7" s="63"/>
       <c r="M7" s="64"/>
       <c r="N7" s="65"/>
-      <c r="O7" s="66"/>
+      <c r="O7" s="66" t="s">
+        <v>49</v>
+      </c>
       <c r="P7" s="66"/>
       <c r="Q7" s="67"/>
       <c r="R7" s="67"/>
@@ -2668,13 +3017,13 @@
       <c r="D8" s="59"/>
       <c r="E8" s="60"/>
       <c r="F8" s="60" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="60"/>
       <c r="I8" s="61"/>
       <c r="J8" s="62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K8" s="62"/>
       <c r="L8" s="63"/>
@@ -2693,7 +3042,7 @@
       <c r="D9" s="59"/>
       <c r="E9" s="60"/>
       <c r="F9" s="60" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G9" s="60"/>
       <c r="H9" s="60"/>
@@ -2715,14 +3064,14 @@
       <c r="C10" s="58"/>
       <c r="D10" s="59"/>
       <c r="E10" s="60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
       <c r="I10" s="61"/>
       <c r="J10" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" s="62" t="s">
         <v>45</v>
@@ -2743,19 +3092,19 @@
       <c r="D11" s="59"/>
       <c r="E11" s="60"/>
       <c r="F11" s="60" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
       <c r="I11" s="61"/>
       <c r="J11" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11" s="62"/>
       <c r="L11" s="63"/>
       <c r="M11" s="64"/>
       <c r="N11" s="65" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O11" s="66"/>
       <c r="P11" s="66"/>
@@ -2794,7 +3143,7 @@
         <v>devicebase/package.json</v>
       </c>
       <c r="C13" s="58"/>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="59" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="60"/>
@@ -2821,23 +3170,23 @@
       <c r="C14" s="58"/>
       <c r="D14" s="59"/>
       <c r="E14" s="60" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
       <c r="H14" s="60"/>
       <c r="I14" s="61"/>
       <c r="J14" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" s="62"/>
       <c r="L14" s="63"/>
       <c r="M14" s="64"/>
       <c r="N14" s="65" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O14" s="66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P14" s="66"/>
       <c r="Q14" s="67"/>
@@ -2850,23 +3199,23 @@
       <c r="C15" s="58"/>
       <c r="D15" s="59"/>
       <c r="E15" s="60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
       <c r="H15" s="60"/>
       <c r="I15" s="61"/>
       <c r="J15" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" s="62"/>
       <c r="L15" s="63"/>
       <c r="M15" s="64"/>
       <c r="N15" s="65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O15" s="66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P15" s="66"/>
       <c r="Q15" s="67"/>
@@ -2879,14 +3228,14 @@
       <c r="C16" s="58"/>
       <c r="D16" s="59"/>
       <c r="E16" s="60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
       <c r="H16" s="60"/>
       <c r="I16" s="61"/>
       <c r="J16" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" s="62" t="s">
         <v>45</v>
@@ -2931,7 +3280,7 @@
         <v>database/package.json</v>
       </c>
       <c r="C18" s="58"/>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="59" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="60"/>
@@ -2958,23 +3307,23 @@
       <c r="C19" s="58"/>
       <c r="D19" s="59"/>
       <c r="E19" s="60" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
       <c r="I19" s="61"/>
       <c r="J19" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" s="62"/>
       <c r="L19" s="63"/>
       <c r="M19" s="64"/>
       <c r="N19" s="65" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O19" s="66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P19" s="66"/>
       <c r="Q19" s="67"/>
@@ -2987,23 +3336,23 @@
       <c r="C20" s="58"/>
       <c r="D20" s="59"/>
       <c r="E20" s="60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
       <c r="H20" s="60"/>
       <c r="I20" s="61"/>
       <c r="J20" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" s="62"/>
       <c r="L20" s="63"/>
       <c r="M20" s="64"/>
       <c r="N20" s="65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O20" s="66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P20" s="66"/>
       <c r="Q20" s="67"/>
@@ -3016,14 +3365,14 @@
       <c r="C21" s="58"/>
       <c r="D21" s="59"/>
       <c r="E21" s="60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
       <c r="H21" s="60"/>
       <c r="I21" s="61"/>
       <c r="J21" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" s="62" t="s">
         <v>45</v>
@@ -3044,22 +3393,22 @@
       <c r="D22" s="59"/>
       <c r="E22" s="60"/>
       <c r="F22" s="60" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G22" s="60"/>
       <c r="H22" s="60"/>
       <c r="I22" s="61"/>
       <c r="J22" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22" s="62"/>
       <c r="L22" s="63"/>
       <c r="M22" s="64"/>
       <c r="N22" s="65" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O22" s="66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P22" s="66"/>
       <c r="Q22" s="67"/>
@@ -3073,22 +3422,22 @@
       <c r="D23" s="59"/>
       <c r="E23" s="60"/>
       <c r="F23" s="60" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G23" s="60"/>
       <c r="H23" s="60"/>
       <c r="I23" s="61"/>
       <c r="J23" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="63"/>
       <c r="M23" s="64"/>
       <c r="N23" s="65" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O23" s="66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P23" s="66"/>
       <c r="Q23" s="67"/>
@@ -3102,19 +3451,19 @@
       <c r="D24" s="59"/>
       <c r="E24" s="60"/>
       <c r="F24" s="60" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G24" s="60"/>
       <c r="H24" s="60"/>
       <c r="I24" s="61"/>
       <c r="J24" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24" s="62"/>
       <c r="L24" s="63"/>
       <c r="M24" s="64"/>
       <c r="N24" s="65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O24" s="66"/>
       <c r="P24" s="66"/>
@@ -3132,7 +3481,7 @@
       <c r="G25" s="60"/>
       <c r="H25" s="60"/>
       <c r="I25" s="61"/>
-      <c r="J25" s="71"/>
+      <c r="J25" s="70"/>
       <c r="K25" s="62"/>
       <c r="L25" s="63"/>
       <c r="M25" s="64"/>
@@ -3144,29 +3493,29 @@
       <c r="S25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="72"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
       <c r="S26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
-      <c r="B27" s="80"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="3"/>
       <c r="D27" s="42" t="n">
         <v>0</v>
@@ -3428,7 +3777,7 @@
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="59" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
@@ -3436,13 +3785,13 @@
       <c r="H4" s="60"/>
       <c r="I4" s="61"/>
       <c r="J4" s="62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" s="63"/>
       <c r="L4" s="64"/>
       <c r="M4" s="65"/>
       <c r="N4" s="66"/>
-      <c r="O4" s="81"/>
+      <c r="O4" s="80"/>
       <c r="P4" s="67"/>
       <c r="Q4" s="3"/>
     </row>
@@ -3452,20 +3801,20 @@
       <c r="C5" s="58"/>
       <c r="D5" s="59"/>
       <c r="E5" s="60" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="61"/>
       <c r="J5" s="62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="63"/>
       <c r="L5" s="64"/>
       <c r="M5" s="65"/>
       <c r="N5" s="66"/>
-      <c r="O5" s="81"/>
+      <c r="O5" s="80"/>
       <c r="P5" s="67"/>
       <c r="Q5" s="3"/>
     </row>
@@ -3475,7 +3824,7 @@
       <c r="C6" s="58"/>
       <c r="D6" s="59"/>
       <c r="E6" s="60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F6" s="60"/>
       <c r="G6" s="60"/>
@@ -3486,7 +3835,7 @@
       <c r="L6" s="64"/>
       <c r="M6" s="65"/>
       <c r="N6" s="66"/>
-      <c r="O6" s="81"/>
+      <c r="O6" s="80"/>
       <c r="P6" s="67"/>
       <c r="Q6" s="3"/>
     </row>
@@ -3495,7 +3844,7 @@
       <c r="B7" s="69"/>
       <c r="C7" s="58"/>
       <c r="D7" s="59" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E7" s="60"/>
       <c r="F7" s="60"/>
@@ -3503,13 +3852,13 @@
       <c r="H7" s="60"/>
       <c r="I7" s="61"/>
       <c r="J7" s="62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K7" s="63"/>
       <c r="L7" s="64"/>
       <c r="M7" s="65"/>
       <c r="N7" s="66"/>
-      <c r="O7" s="81" t="s">
+      <c r="O7" s="80" t="s">
         <v>45</v>
       </c>
       <c r="P7" s="67"/>
@@ -3521,20 +3870,20 @@
       <c r="C8" s="58"/>
       <c r="D8" s="59"/>
       <c r="E8" s="60" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
       <c r="H8" s="60"/>
       <c r="I8" s="61"/>
       <c r="J8" s="62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K8" s="63"/>
       <c r="L8" s="64"/>
       <c r="M8" s="65"/>
       <c r="N8" s="66"/>
-      <c r="O8" s="81"/>
+      <c r="O8" s="80"/>
       <c r="P8" s="67"/>
       <c r="Q8" s="3"/>
     </row>
@@ -3545,19 +3894,19 @@
       <c r="D9" s="59"/>
       <c r="E9" s="60"/>
       <c r="F9" s="60" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G9" s="60"/>
       <c r="H9" s="60"/>
       <c r="I9" s="61"/>
       <c r="J9" s="62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="63"/>
       <c r="L9" s="64"/>
       <c r="M9" s="65"/>
       <c r="N9" s="66"/>
-      <c r="O9" s="81"/>
+      <c r="O9" s="80"/>
       <c r="P9" s="67"/>
       <c r="Q9" s="3"/>
     </row>
@@ -3568,7 +3917,7 @@
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
       <c r="F10" s="60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
@@ -3578,7 +3927,7 @@
       <c r="L10" s="64"/>
       <c r="M10" s="65"/>
       <c r="N10" s="66"/>
-      <c r="O10" s="81"/>
+      <c r="O10" s="80"/>
       <c r="P10" s="67"/>
       <c r="Q10" s="3"/>
     </row>
@@ -3597,32 +3946,32 @@
       <c r="L11" s="64"/>
       <c r="M11" s="65"/>
       <c r="N11" s="66"/>
-      <c r="O11" s="81"/>
+      <c r="O11" s="80"/>
       <c r="P11" s="67"/>
       <c r="Q11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="79"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="78"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
-      <c r="B13" s="80"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="3"/>
       <c r="D13" s="42" t="n">
         <v>0</v>
@@ -3760,41 +4109,41 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="46" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="1" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="82" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="82" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="83" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="84" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="82" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="82" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="81" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="81" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="82" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="83" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="81" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="81" width="4.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="21" style="1" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="85" width="5.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="84" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="85" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="84" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="4.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="85" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="84" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="8.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="85" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="82" width="4.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="85" width="30.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="85" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="84" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="81" width="4.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="84" width="30.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="84" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="9.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="85"/>
       <c r="C1" s="54" t="s">
         <v>36</v>
       </c>
@@ -3816,47 +4165,47 @@
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
       <c r="S1" s="51"/>
-      <c r="T1" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="87"/>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="87"/>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="87"/>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="87"/>
-      <c r="AW1" s="87"/>
+      <c r="T1" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="86"/>
+      <c r="AW1" s="86"/>
       <c r="AX1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="85" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="54" t="s">
@@ -3880,56 +4229,56 @@
       <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
       <c r="S2" s="51"/>
-      <c r="T2" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="88" t="s">
+      <c r="T2" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="87"/>
       <c r="AX2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="89" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="88" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="50" t="s">
@@ -3945,7 +4294,7 @@
       <c r="N3" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="90" t="s">
+      <c r="O3" s="89" t="s">
         <v>43</v>
       </c>
       <c r="P3" s="51" t="s">
@@ -3960,58 +4309,58 @@
       <c r="S3" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="91" t="s">
+      <c r="T3" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="87" t="s">
+      <c r="U3" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="88" t="n">
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88" t="n">
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="87"/>
+      <c r="AG3" s="87"/>
+      <c r="AH3" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="88"/>
-      <c r="AK3" s="88"/>
-      <c r="AL3" s="88" t="n">
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="AM3" s="88"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="88"/>
-      <c r="AP3" s="88" t="n">
+      <c r="AM3" s="87"/>
+      <c r="AN3" s="87"/>
+      <c r="AO3" s="87"/>
+      <c r="AP3" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="AQ3" s="88"/>
-      <c r="AR3" s="88"/>
-      <c r="AS3" s="88"/>
-      <c r="AT3" s="88" t="n">
+      <c r="AQ3" s="87"/>
+      <c r="AR3" s="87"/>
+      <c r="AS3" s="87"/>
+      <c r="AT3" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="AU3" s="88"/>
-      <c r="AV3" s="88"/>
-      <c r="AW3" s="88"/>
+      <c r="AU3" s="87"/>
+      <c r="AV3" s="87"/>
+      <c r="AW3" s="87"/>
       <c r="AX3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
@@ -4021,99 +4370,99 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
       <c r="N4" s="54"/>
-      <c r="O4" s="90"/>
+      <c r="O4" s="89"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
       <c r="R4" s="51"/>
       <c r="S4" s="55"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE4" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF4" s="87" t="s">
+      <c r="T4" s="90"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE4" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="AG4" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH4" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI4" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ4" s="87" t="s">
+      <c r="AG4" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH4" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI4" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="AK4" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL4" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM4" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN4" s="87" t="s">
+      <c r="AK4" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL4" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM4" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="AO4" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP4" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ4" s="87" t="s">
+      <c r="AO4" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP4" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="AR4" s="87" t="s">
+      <c r="AR4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="AS4" s="87" t="s">
+      <c r="AS4" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="AT4" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU4" s="87" t="s">
+      <c r="AT4" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU4" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="AV4" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="92"/>
+      <c r="AV4" s="86" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="91"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="93" t="n">
+      <c r="A5" s="92" t="n">
         <v>64</v>
       </c>
-      <c r="B5" s="94" t="s">
-        <v>82</v>
+      <c r="B5" s="93" t="s">
+        <v>85</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="95" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>88</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
@@ -4122,62 +4471,62 @@
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="96" t="s">
+      <c r="N5" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="96"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="99"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="102"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="102"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="101"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="101"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="101"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="101"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="101"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="101"/>
+      <c r="AR5" s="104"/>
+      <c r="AS5" s="101"/>
+      <c r="AT5" s="105"/>
+      <c r="AU5" s="106"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="91"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="97"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="99" t="s">
+      <c r="E6" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="R5" s="100"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="105"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="102"/>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="102"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="102"/>
-      <c r="AN5" s="105"/>
-      <c r="AO5" s="102"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="102"/>
-      <c r="AR5" s="105"/>
-      <c r="AS5" s="102"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="108"/>
-      <c r="AW5" s="108"/>
-      <c r="AX5" s="92"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="95" t="s">
-        <v>85</v>
-      </c>
       <c r="F6" s="60" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G6" s="60"/>
       <c r="H6" s="60"/>
@@ -4186,62 +4535,62 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="96" t="s">
+      <c r="N6" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="96"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="99"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="102"/>
+      <c r="AA6" s="102"/>
+      <c r="AB6" s="102"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="101"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="101"/>
+      <c r="AH6" s="103"/>
+      <c r="AI6" s="101"/>
+      <c r="AJ6" s="104"/>
+      <c r="AK6" s="101"/>
+      <c r="AL6" s="103"/>
+      <c r="AM6" s="101"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="101"/>
+      <c r="AP6" s="103"/>
+      <c r="AQ6" s="101"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="101"/>
+      <c r="AT6" s="105"/>
+      <c r="AU6" s="106"/>
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="107"/>
+      <c r="AX6" s="91"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="97"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="99" t="s">
-        <v>90</v>
-      </c>
-      <c r="R6" s="100"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="103"/>
-      <c r="AA6" s="103"/>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="102"/>
-      <c r="AN6" s="105"/>
-      <c r="AO6" s="102"/>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="102"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="102"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="107"/>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="108"/>
-      <c r="AX6" s="92"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="95" t="s">
-        <v>85</v>
+      <c r="E7" s="94" t="s">
+        <v>88</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G7" s="60"/>
       <c r="H7" s="60"/>
@@ -4250,62 +4599,62 @@
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
       <c r="M7" s="60"/>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="96"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="99"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="104"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="101"/>
+      <c r="AJ7" s="104"/>
+      <c r="AK7" s="101"/>
+      <c r="AL7" s="103"/>
+      <c r="AM7" s="101"/>
+      <c r="AN7" s="104"/>
+      <c r="AO7" s="101"/>
+      <c r="AP7" s="103"/>
+      <c r="AQ7" s="101"/>
+      <c r="AR7" s="104"/>
+      <c r="AS7" s="101"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="106"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="107"/>
+      <c r="AX7" s="91"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="97"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="99" t="s">
-        <v>92</v>
-      </c>
-      <c r="R7" s="100"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="104"/>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="102"/>
-      <c r="AH7" s="104"/>
-      <c r="AI7" s="102"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="102"/>
-      <c r="AL7" s="104"/>
-      <c r="AM7" s="102"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="102"/>
-      <c r="AP7" s="104"/>
-      <c r="AQ7" s="102"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="102"/>
-      <c r="AT7" s="106"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="108"/>
-      <c r="AW7" s="108"/>
-      <c r="AX7" s="92"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="95" t="s">
-        <v>85</v>
+      <c r="E8" s="94" t="s">
+        <v>88</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="60"/>
@@ -4314,58 +4663,58 @@
       <c r="K8" s="60"/>
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="96" t="s">
+      <c r="N8" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="96"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8" s="99"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="103"/>
+      <c r="AM8" s="101"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="101"/>
+      <c r="AP8" s="103"/>
+      <c r="AQ8" s="101"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="101"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="106"/>
+      <c r="AV8" s="107"/>
+      <c r="AW8" s="107"/>
+      <c r="AX8" s="91"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="O8" s="97"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="R8" s="100"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="102"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="102"/>
-      <c r="AL8" s="104"/>
-      <c r="AM8" s="102"/>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="102"/>
-      <c r="AP8" s="104"/>
-      <c r="AQ8" s="102"/>
-      <c r="AR8" s="105"/>
-      <c r="AS8" s="102"/>
-      <c r="AT8" s="106"/>
-      <c r="AU8" s="107"/>
-      <c r="AV8" s="108"/>
-      <c r="AW8" s="108"/>
-      <c r="AX8" s="92"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="95"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
       <c r="H9" s="60"/>
@@ -4374,62 +4723,62 @@
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U9" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="104" t="s">
+      <c r="N9" s="95"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="105" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="104"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="105"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="104"/>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="105"/>
-      <c r="AO9" s="102"/>
-      <c r="AP9" s="104"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="105"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="106"/>
-      <c r="AU9" s="107"/>
-      <c r="AV9" s="108"/>
-      <c r="AW9" s="108"/>
-      <c r="AX9" s="92"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="101"/>
+      <c r="AJ9" s="104"/>
+      <c r="AK9" s="101"/>
+      <c r="AL9" s="103"/>
+      <c r="AM9" s="101"/>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="101"/>
+      <c r="AP9" s="103"/>
+      <c r="AQ9" s="101"/>
+      <c r="AR9" s="104"/>
+      <c r="AS9" s="101"/>
+      <c r="AT9" s="105"/>
+      <c r="AU9" s="106"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="91"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E10" s="94"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
@@ -4438,62 +4787,62 @@
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
       <c r="M10" s="60"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103" t="s">
+      <c r="N10" s="95"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="99"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="W10" s="103"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="103"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="105"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="104"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="105"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="104"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="105"/>
-      <c r="AS10" s="102"/>
-      <c r="AT10" s="106"/>
-      <c r="AU10" s="107"/>
-      <c r="AV10" s="108"/>
-      <c r="AW10" s="108"/>
-      <c r="AX10" s="92"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE10" s="101"/>
+      <c r="AF10" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG10" s="101"/>
+      <c r="AH10" s="103"/>
+      <c r="AI10" s="101"/>
+      <c r="AJ10" s="104"/>
+      <c r="AK10" s="101"/>
+      <c r="AL10" s="103"/>
+      <c r="AM10" s="101"/>
+      <c r="AN10" s="104"/>
+      <c r="AO10" s="101"/>
+      <c r="AP10" s="103"/>
+      <c r="AQ10" s="101"/>
+      <c r="AR10" s="104"/>
+      <c r="AS10" s="101"/>
+      <c r="AT10" s="105"/>
+      <c r="AU10" s="106"/>
+      <c r="AV10" s="107"/>
+      <c r="AW10" s="107"/>
+      <c r="AX10" s="91"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="93"/>
-      <c r="B11" s="93"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E11" s="94"/>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -4502,62 +4851,62 @@
       <c r="K11" s="60"/>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="103"/>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="104" t="s">
+      <c r="N11" s="95"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="105" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="104"/>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="105"/>
-      <c r="AK11" s="102"/>
-      <c r="AL11" s="104"/>
-      <c r="AM11" s="102"/>
-      <c r="AN11" s="105"/>
-      <c r="AO11" s="102"/>
-      <c r="AP11" s="104"/>
-      <c r="AQ11" s="102"/>
-      <c r="AR11" s="105"/>
-      <c r="AS11" s="102"/>
-      <c r="AT11" s="106"/>
-      <c r="AU11" s="107"/>
-      <c r="AV11" s="108"/>
-      <c r="AW11" s="108"/>
-      <c r="AX11" s="92"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE11" s="101"/>
+      <c r="AF11" s="104" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="103"/>
+      <c r="AI11" s="101"/>
+      <c r="AJ11" s="104"/>
+      <c r="AK11" s="101"/>
+      <c r="AL11" s="103"/>
+      <c r="AM11" s="101"/>
+      <c r="AN11" s="104"/>
+      <c r="AO11" s="101"/>
+      <c r="AP11" s="103"/>
+      <c r="AQ11" s="101"/>
+      <c r="AR11" s="104"/>
+      <c r="AS11" s="101"/>
+      <c r="AT11" s="105"/>
+      <c r="AU11" s="106"/>
+      <c r="AV11" s="107"/>
+      <c r="AW11" s="107"/>
+      <c r="AX11" s="91"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E12" s="94"/>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
       <c r="H12" s="60"/>
@@ -4566,74 +4915,74 @@
       <c r="K12" s="60"/>
       <c r="L12" s="60"/>
       <c r="M12" s="60"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y12" s="103"/>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="104" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE12" s="109" t="s">
+      <c r="N12" s="95"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="AF12" s="105" t="s">
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="AG12" s="109" t="s">
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="AH12" s="104" t="s">
+      <c r="AE12" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="AI12" s="109" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ12" s="105" t="s">
+      <c r="AF12" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="AK12" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL12" s="104"/>
-      <c r="AM12" s="109"/>
-      <c r="AN12" s="105"/>
-      <c r="AO12" s="109"/>
-      <c r="AP12" s="104"/>
-      <c r="AQ12" s="109"/>
-      <c r="AR12" s="105"/>
-      <c r="AS12" s="109"/>
-      <c r="AT12" s="106"/>
-      <c r="AU12" s="107"/>
-      <c r="AV12" s="108"/>
-      <c r="AW12" s="108"/>
-      <c r="AX12" s="92"/>
+      <c r="AG12" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH12" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI12" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ12" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK12" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL12" s="103"/>
+      <c r="AM12" s="108"/>
+      <c r="AN12" s="104"/>
+      <c r="AO12" s="108"/>
+      <c r="AP12" s="103"/>
+      <c r="AQ12" s="108"/>
+      <c r="AR12" s="104"/>
+      <c r="AS12" s="108"/>
+      <c r="AT12" s="105"/>
+      <c r="AU12" s="106"/>
+      <c r="AV12" s="107"/>
+      <c r="AW12" s="107"/>
+      <c r="AX12" s="91"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E13" s="94"/>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
       <c r="H13" s="60"/>
@@ -4642,62 +4991,62 @@
       <c r="K13" s="60"/>
       <c r="L13" s="60"/>
       <c r="M13" s="60"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE13" s="102"/>
-      <c r="AF13" s="105" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG13" s="102"/>
-      <c r="AH13" s="104"/>
-      <c r="AI13" s="102"/>
-      <c r="AJ13" s="105"/>
-      <c r="AK13" s="102"/>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="102"/>
-      <c r="AN13" s="105"/>
-      <c r="AO13" s="102"/>
-      <c r="AP13" s="104"/>
-      <c r="AQ13" s="102"/>
-      <c r="AR13" s="105"/>
-      <c r="AS13" s="102"/>
-      <c r="AT13" s="106"/>
-      <c r="AU13" s="107"/>
-      <c r="AV13" s="108"/>
-      <c r="AW13" s="108"/>
-      <c r="AX13" s="92"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="100"/>
+      <c r="T13" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE13" s="101"/>
+      <c r="AF13" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG13" s="101"/>
+      <c r="AH13" s="103"/>
+      <c r="AI13" s="101"/>
+      <c r="AJ13" s="104"/>
+      <c r="AK13" s="101"/>
+      <c r="AL13" s="103"/>
+      <c r="AM13" s="101"/>
+      <c r="AN13" s="104"/>
+      <c r="AO13" s="101"/>
+      <c r="AP13" s="103"/>
+      <c r="AQ13" s="101"/>
+      <c r="AR13" s="104"/>
+      <c r="AS13" s="101"/>
+      <c r="AT13" s="105"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="107"/>
+      <c r="AW13" s="107"/>
+      <c r="AX13" s="91"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E14" s="94"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
       <c r="H14" s="60"/>
@@ -4706,64 +5055,64 @@
       <c r="K14" s="60"/>
       <c r="L14" s="60"/>
       <c r="M14" s="60"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="103"/>
-      <c r="X14" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="102"/>
-      <c r="AF14" s="105"/>
-      <c r="AG14" s="102"/>
-      <c r="AH14" s="104"/>
-      <c r="AI14" s="102"/>
-      <c r="AJ14" s="105"/>
-      <c r="AK14" s="102"/>
-      <c r="AL14" s="104"/>
-      <c r="AM14" s="102"/>
-      <c r="AN14" s="105"/>
-      <c r="AO14" s="102"/>
-      <c r="AP14" s="104"/>
-      <c r="AQ14" s="102"/>
-      <c r="AR14" s="105"/>
-      <c r="AS14" s="102"/>
-      <c r="AT14" s="110" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU14" s="107" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV14" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW14" s="111"/>
-      <c r="AX14" s="92"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="103"/>
+      <c r="AE14" s="101"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="103"/>
+      <c r="AI14" s="101"/>
+      <c r="AJ14" s="104"/>
+      <c r="AK14" s="101"/>
+      <c r="AL14" s="103"/>
+      <c r="AM14" s="101"/>
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="101"/>
+      <c r="AP14" s="103"/>
+      <c r="AQ14" s="101"/>
+      <c r="AR14" s="104"/>
+      <c r="AS14" s="101"/>
+      <c r="AT14" s="109" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU14" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV14" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW14" s="110"/>
+      <c r="AX14" s="91"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E15" s="94"/>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
       <c r="H15" s="60"/>
@@ -4772,508 +5121,508 @@
       <c r="K15" s="60"/>
       <c r="L15" s="60"/>
       <c r="M15" s="60"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="W15" s="103"/>
-      <c r="X15" s="103"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="104" t="s">
+      <c r="N15" s="95"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="105" t="s">
+      <c r="AE15" s="101"/>
+      <c r="AF15" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI15" s="101"/>
+      <c r="AJ15" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK15" s="101"/>
+      <c r="AL15" s="103"/>
+      <c r="AM15" s="101"/>
+      <c r="AN15" s="104"/>
+      <c r="AO15" s="101"/>
+      <c r="AP15" s="103"/>
+      <c r="AQ15" s="101"/>
+      <c r="AR15" s="104"/>
+      <c r="AS15" s="101"/>
+      <c r="AT15" s="109"/>
+      <c r="AU15" s="106"/>
+      <c r="AV15" s="107"/>
+      <c r="AW15" s="107"/>
+      <c r="AX15" s="91"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="AG15" s="102"/>
-      <c r="AH15" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI15" s="102"/>
-      <c r="AJ15" s="105" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK15" s="102"/>
-      <c r="AL15" s="104"/>
-      <c r="AM15" s="102"/>
-      <c r="AN15" s="105"/>
-      <c r="AO15" s="102"/>
-      <c r="AP15" s="104"/>
-      <c r="AQ15" s="102"/>
-      <c r="AR15" s="105"/>
-      <c r="AS15" s="102"/>
-      <c r="AT15" s="110"/>
-      <c r="AU15" s="107"/>
-      <c r="AV15" s="108"/>
-      <c r="AW15" s="108"/>
-      <c r="AX15" s="92"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="58" t="s">
-        <v>83</v>
-      </c>
       <c r="D16" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112" t="s">
-        <v>117</v>
+        <v>87</v>
+      </c>
+      <c r="E16" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111" t="s">
+        <v>120</v>
       </c>
       <c r="I16" s="60"/>
       <c r="J16" s="60"/>
       <c r="K16" s="60"/>
       <c r="L16" s="60"/>
       <c r="M16" s="60"/>
-      <c r="N16" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16" s="97"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="102"/>
-      <c r="AF16" s="105"/>
-      <c r="AG16" s="102"/>
-      <c r="AH16" s="104"/>
-      <c r="AI16" s="102"/>
-      <c r="AJ16" s="105"/>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="102"/>
-      <c r="AN16" s="105"/>
-      <c r="AO16" s="102"/>
-      <c r="AP16" s="104"/>
-      <c r="AQ16" s="102"/>
-      <c r="AR16" s="105"/>
-      <c r="AS16" s="102"/>
-      <c r="AT16" s="106"/>
-      <c r="AU16" s="107"/>
-      <c r="AV16" s="108"/>
-      <c r="AW16" s="108"/>
-      <c r="AX16" s="92"/>
+      <c r="N16" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="96"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="103"/>
+      <c r="AI16" s="101"/>
+      <c r="AJ16" s="104"/>
+      <c r="AK16" s="101"/>
+      <c r="AL16" s="103"/>
+      <c r="AM16" s="101"/>
+      <c r="AN16" s="104"/>
+      <c r="AO16" s="101"/>
+      <c r="AP16" s="103"/>
+      <c r="AQ16" s="101"/>
+      <c r="AR16" s="104"/>
+      <c r="AS16" s="101"/>
+      <c r="AT16" s="105"/>
+      <c r="AU16" s="106"/>
+      <c r="AV16" s="107"/>
+      <c r="AW16" s="107"/>
+      <c r="AX16" s="91"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="95" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>88</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
       <c r="H17" s="60"/>
       <c r="I17" s="60" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J17" s="60"/>
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
       <c r="M17" s="60"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q17" s="99" t="s">
+      <c r="N17" s="95"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" s="99"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="101"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="101"/>
+      <c r="AH17" s="103"/>
+      <c r="AI17" s="101"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="101"/>
+      <c r="AL17" s="103"/>
+      <c r="AM17" s="101"/>
+      <c r="AN17" s="104"/>
+      <c r="AO17" s="101"/>
+      <c r="AP17" s="103"/>
+      <c r="AQ17" s="101"/>
+      <c r="AR17" s="104"/>
+      <c r="AS17" s="101"/>
+      <c r="AT17" s="105"/>
+      <c r="AU17" s="106"/>
+      <c r="AV17" s="107"/>
+      <c r="AW17" s="107"/>
+      <c r="AX17" s="91"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="R17" s="100"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="102"/>
-      <c r="AF17" s="105"/>
-      <c r="AG17" s="102"/>
-      <c r="AH17" s="104"/>
-      <c r="AI17" s="102"/>
-      <c r="AJ17" s="105"/>
-      <c r="AK17" s="102"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="102"/>
-      <c r="AN17" s="105"/>
-      <c r="AO17" s="102"/>
-      <c r="AP17" s="104"/>
-      <c r="AQ17" s="102"/>
-      <c r="AR17" s="105"/>
-      <c r="AS17" s="102"/>
-      <c r="AT17" s="106"/>
-      <c r="AU17" s="107"/>
-      <c r="AV17" s="108"/>
-      <c r="AW17" s="108"/>
-      <c r="AX17" s="92"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="58" t="s">
-        <v>83</v>
-      </c>
       <c r="D18" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E18" s="94"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
-      <c r="H18" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="112"/>
+      <c r="H18" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="111"/>
       <c r="J18" s="60"/>
       <c r="K18" s="60"/>
       <c r="L18" s="60"/>
       <c r="M18" s="60"/>
-      <c r="N18" s="96" t="s">
+      <c r="N18" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="O18" s="97"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="103"/>
-      <c r="X18" s="103"/>
-      <c r="Y18" s="103"/>
-      <c r="Z18" s="103"/>
-      <c r="AA18" s="103"/>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="103"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="102"/>
-      <c r="AF18" s="105"/>
-      <c r="AG18" s="102"/>
-      <c r="AH18" s="104"/>
-      <c r="AI18" s="102"/>
-      <c r="AJ18" s="105"/>
-      <c r="AK18" s="102"/>
-      <c r="AL18" s="104"/>
-      <c r="AM18" s="102"/>
-      <c r="AN18" s="105"/>
-      <c r="AO18" s="102"/>
-      <c r="AP18" s="104"/>
-      <c r="AQ18" s="102"/>
-      <c r="AR18" s="105"/>
-      <c r="AS18" s="102"/>
-      <c r="AT18" s="106"/>
-      <c r="AU18" s="107"/>
-      <c r="AV18" s="108"/>
-      <c r="AW18" s="108"/>
-      <c r="AX18" s="92"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="102"/>
+      <c r="AB18" s="102"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="103"/>
+      <c r="AE18" s="101"/>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="101"/>
+      <c r="AH18" s="103"/>
+      <c r="AI18" s="101"/>
+      <c r="AJ18" s="104"/>
+      <c r="AK18" s="101"/>
+      <c r="AL18" s="103"/>
+      <c r="AM18" s="101"/>
+      <c r="AN18" s="104"/>
+      <c r="AO18" s="101"/>
+      <c r="AP18" s="103"/>
+      <c r="AQ18" s="101"/>
+      <c r="AR18" s="104"/>
+      <c r="AS18" s="101"/>
+      <c r="AT18" s="105"/>
+      <c r="AU18" s="106"/>
+      <c r="AV18" s="107"/>
+      <c r="AW18" s="107"/>
+      <c r="AX18" s="91"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="95" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="E19" s="94" t="s">
+        <v>88</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
       <c r="I19" s="60" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J19" s="60"/>
       <c r="K19" s="60"/>
       <c r="L19" s="60"/>
       <c r="M19" s="60"/>
-      <c r="N19" s="96" t="s">
+      <c r="N19" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="96"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="R19" s="99"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="103"/>
+      <c r="AE19" s="101"/>
+      <c r="AF19" s="104"/>
+      <c r="AG19" s="101"/>
+      <c r="AH19" s="103"/>
+      <c r="AI19" s="101"/>
+      <c r="AJ19" s="104"/>
+      <c r="AK19" s="101"/>
+      <c r="AL19" s="103"/>
+      <c r="AM19" s="101"/>
+      <c r="AN19" s="104"/>
+      <c r="AO19" s="101"/>
+      <c r="AP19" s="103"/>
+      <c r="AQ19" s="101"/>
+      <c r="AR19" s="104"/>
+      <c r="AS19" s="101"/>
+      <c r="AT19" s="105"/>
+      <c r="AU19" s="106"/>
+      <c r="AV19" s="107"/>
+      <c r="AW19" s="107"/>
+      <c r="AX19" s="91"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="O19" s="97"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="99" t="s">
-        <v>121</v>
-      </c>
-      <c r="R19" s="100"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="102"/>
-      <c r="AF19" s="105"/>
-      <c r="AG19" s="102"/>
-      <c r="AH19" s="104"/>
-      <c r="AI19" s="102"/>
-      <c r="AJ19" s="105"/>
-      <c r="AK19" s="102"/>
-      <c r="AL19" s="104"/>
-      <c r="AM19" s="102"/>
-      <c r="AN19" s="105"/>
-      <c r="AO19" s="102"/>
-      <c r="AP19" s="104"/>
-      <c r="AQ19" s="102"/>
-      <c r="AR19" s="105"/>
-      <c r="AS19" s="102"/>
-      <c r="AT19" s="106"/>
-      <c r="AU19" s="107"/>
-      <c r="AV19" s="108"/>
-      <c r="AW19" s="108"/>
-      <c r="AX19" s="92"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="95" t="s">
-        <v>85</v>
+      <c r="E20" s="94" t="s">
+        <v>88</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
       <c r="H20" s="60"/>
       <c r="I20" s="60" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J20" s="60"/>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
-      <c r="N20" s="96" t="s">
+      <c r="N20" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="96"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="R20" s="99"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="101"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="101"/>
+      <c r="AF20" s="104"/>
+      <c r="AG20" s="101"/>
+      <c r="AH20" s="103"/>
+      <c r="AI20" s="101"/>
+      <c r="AJ20" s="104"/>
+      <c r="AK20" s="101"/>
+      <c r="AL20" s="103"/>
+      <c r="AM20" s="101"/>
+      <c r="AN20" s="104"/>
+      <c r="AO20" s="101"/>
+      <c r="AP20" s="103"/>
+      <c r="AQ20" s="101"/>
+      <c r="AR20" s="104"/>
+      <c r="AS20" s="101"/>
+      <c r="AT20" s="105"/>
+      <c r="AU20" s="106"/>
+      <c r="AV20" s="107"/>
+      <c r="AW20" s="107"/>
+      <c r="AX20" s="91"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="O20" s="97"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="99" t="s">
-        <v>123</v>
-      </c>
-      <c r="R20" s="100"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="102"/>
-      <c r="AF20" s="105"/>
-      <c r="AG20" s="102"/>
-      <c r="AH20" s="104"/>
-      <c r="AI20" s="102"/>
-      <c r="AJ20" s="105"/>
-      <c r="AK20" s="102"/>
-      <c r="AL20" s="104"/>
-      <c r="AM20" s="102"/>
-      <c r="AN20" s="105"/>
-      <c r="AO20" s="102"/>
-      <c r="AP20" s="104"/>
-      <c r="AQ20" s="102"/>
-      <c r="AR20" s="105"/>
-      <c r="AS20" s="102"/>
-      <c r="AT20" s="106"/>
-      <c r="AU20" s="107"/>
-      <c r="AV20" s="108"/>
-      <c r="AW20" s="108"/>
-      <c r="AX20" s="92"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="95"/>
+      <c r="E21" s="94"/>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
       <c r="H21" s="60"/>
       <c r="I21" s="60"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
       <c r="M21" s="60"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="104" t="s">
+      <c r="N21" s="95"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="100"/>
+      <c r="T21" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="AE21" s="102"/>
-      <c r="AF21" s="105" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG21" s="102"/>
-      <c r="AH21" s="104"/>
-      <c r="AI21" s="102"/>
-      <c r="AJ21" s="105"/>
-      <c r="AK21" s="102"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="102"/>
-      <c r="AN21" s="105"/>
-      <c r="AO21" s="102"/>
-      <c r="AP21" s="104"/>
-      <c r="AQ21" s="102"/>
-      <c r="AR21" s="105"/>
-      <c r="AS21" s="102"/>
-      <c r="AT21" s="106"/>
-      <c r="AU21" s="107"/>
-      <c r="AV21" s="108"/>
-      <c r="AW21" s="108"/>
-      <c r="AX21" s="92"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE21" s="101"/>
+      <c r="AF21" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="103"/>
+      <c r="AI21" s="101"/>
+      <c r="AJ21" s="104"/>
+      <c r="AK21" s="101"/>
+      <c r="AL21" s="103"/>
+      <c r="AM21" s="101"/>
+      <c r="AN21" s="104"/>
+      <c r="AO21" s="101"/>
+      <c r="AP21" s="103"/>
+      <c r="AQ21" s="101"/>
+      <c r="AR21" s="104"/>
+      <c r="AS21" s="101"/>
+      <c r="AT21" s="105"/>
+      <c r="AU21" s="106"/>
+      <c r="AV21" s="107"/>
+      <c r="AW21" s="107"/>
+      <c r="AX21" s="91"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E22" s="94"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="100"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="103"/>
-      <c r="AD22" s="104" t="s">
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="AE22" s="102"/>
-      <c r="AF22" s="105" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG22" s="102"/>
-      <c r="AH22" s="104"/>
-      <c r="AI22" s="102"/>
-      <c r="AJ22" s="105"/>
-      <c r="AK22" s="102"/>
-      <c r="AL22" s="104"/>
-      <c r="AM22" s="102"/>
-      <c r="AN22" s="105"/>
-      <c r="AO22" s="102"/>
-      <c r="AP22" s="104"/>
-      <c r="AQ22" s="102"/>
-      <c r="AR22" s="105"/>
-      <c r="AS22" s="102"/>
-      <c r="AT22" s="106"/>
-      <c r="AU22" s="107"/>
-      <c r="AV22" s="108"/>
-      <c r="AW22" s="108"/>
-      <c r="AX22" s="92"/>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="102"/>
+      <c r="AD22" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE22" s="101"/>
+      <c r="AF22" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG22" s="101"/>
+      <c r="AH22" s="103"/>
+      <c r="AI22" s="101"/>
+      <c r="AJ22" s="104"/>
+      <c r="AK22" s="101"/>
+      <c r="AL22" s="103"/>
+      <c r="AM22" s="101"/>
+      <c r="AN22" s="104"/>
+      <c r="AO22" s="101"/>
+      <c r="AP22" s="103"/>
+      <c r="AQ22" s="101"/>
+      <c r="AR22" s="104"/>
+      <c r="AS22" s="101"/>
+      <c r="AT22" s="105"/>
+      <c r="AU22" s="106"/>
+      <c r="AV22" s="107"/>
+      <c r="AW22" s="107"/>
+      <c r="AX22" s="91"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="93"/>
-      <c r="B23" s="93"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E23" s="94"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
       <c r="H23" s="60"/>
@@ -5282,86 +5631,86 @@
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="60"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="102" t="s">
+      <c r="N23" s="95"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="103"/>
-      <c r="X23" s="103"/>
-      <c r="Y23" s="103"/>
-      <c r="Z23" s="103"/>
-      <c r="AA23" s="103" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="103"/>
-      <c r="AD23" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE23" s="102"/>
-      <c r="AF23" s="105" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG23" s="102"/>
-      <c r="AH23" s="104" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI23" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ23" s="105" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK23" s="102" t="s">
+      <c r="AE23" s="101"/>
+      <c r="AF23" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG23" s="101"/>
+      <c r="AH23" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="AL23" s="104" t="s">
+      <c r="AI23" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="AM23" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN23" s="105" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO23" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP23" s="104" t="s">
+      <c r="AJ23" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK23" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL23" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM23" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN23" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO23" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP23" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="AQ23" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR23" s="105" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS23" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT23" s="106"/>
-      <c r="AU23" s="107"/>
-      <c r="AV23" s="108"/>
-      <c r="AW23" s="108"/>
-      <c r="AX23" s="92"/>
+      <c r="AQ23" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR23" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS23" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT23" s="105"/>
+      <c r="AU23" s="106"/>
+      <c r="AV23" s="107"/>
+      <c r="AW23" s="107"/>
+      <c r="AX23" s="91"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="93"/>
-      <c r="B24" s="93"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E24" s="94"/>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
       <c r="H24" s="60"/>
@@ -5370,62 +5719,62 @@
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="103"/>
-      <c r="AD24" s="104" t="s">
+      <c r="N24" s="95"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="AE24" s="102"/>
-      <c r="AF24" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG24" s="102"/>
-      <c r="AH24" s="104"/>
-      <c r="AI24" s="102"/>
-      <c r="AJ24" s="105"/>
-      <c r="AK24" s="102"/>
-      <c r="AL24" s="104"/>
-      <c r="AM24" s="102"/>
-      <c r="AN24" s="105"/>
-      <c r="AO24" s="102"/>
-      <c r="AP24" s="104"/>
-      <c r="AQ24" s="102"/>
-      <c r="AR24" s="105"/>
-      <c r="AS24" s="102"/>
-      <c r="AT24" s="106"/>
-      <c r="AU24" s="107"/>
-      <c r="AV24" s="108"/>
-      <c r="AW24" s="108"/>
-      <c r="AX24" s="92"/>
+      <c r="AA24" s="102"/>
+      <c r="AB24" s="102"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE24" s="101"/>
+      <c r="AF24" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG24" s="101"/>
+      <c r="AH24" s="103"/>
+      <c r="AI24" s="101"/>
+      <c r="AJ24" s="104"/>
+      <c r="AK24" s="101"/>
+      <c r="AL24" s="103"/>
+      <c r="AM24" s="101"/>
+      <c r="AN24" s="104"/>
+      <c r="AO24" s="101"/>
+      <c r="AP24" s="103"/>
+      <c r="AQ24" s="101"/>
+      <c r="AR24" s="104"/>
+      <c r="AS24" s="101"/>
+      <c r="AT24" s="105"/>
+      <c r="AU24" s="106"/>
+      <c r="AV24" s="107"/>
+      <c r="AW24" s="107"/>
+      <c r="AX24" s="91"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="93"/>
-      <c r="B25" s="93"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E25" s="94"/>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
       <c r="H25" s="60"/>
@@ -5434,68 +5783,68 @@
       <c r="K25" s="60"/>
       <c r="L25" s="60"/>
       <c r="M25" s="60"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="103"/>
-      <c r="Z25" s="103"/>
-      <c r="AA25" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="103"/>
-      <c r="AD25" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE25" s="102"/>
-      <c r="AF25" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG25" s="102"/>
-      <c r="AH25" s="104"/>
-      <c r="AI25" s="102"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="102"/>
-      <c r="AL25" s="104"/>
-      <c r="AM25" s="102"/>
-      <c r="AN25" s="105"/>
-      <c r="AO25" s="102"/>
-      <c r="AP25" s="104"/>
-      <c r="AQ25" s="102"/>
-      <c r="AR25" s="105"/>
-      <c r="AS25" s="102"/>
-      <c r="AT25" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU25" s="107" t="s">
-        <v>133</v>
-      </c>
-      <c r="AV25" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW25" s="111"/>
-      <c r="AX25" s="92"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="102"/>
+      <c r="Z25" s="102"/>
+      <c r="AA25" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB25" s="102"/>
+      <c r="AC25" s="102"/>
+      <c r="AD25" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE25" s="101"/>
+      <c r="AF25" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="103"/>
+      <c r="AI25" s="101"/>
+      <c r="AJ25" s="104"/>
+      <c r="AK25" s="101"/>
+      <c r="AL25" s="103"/>
+      <c r="AM25" s="101"/>
+      <c r="AN25" s="104"/>
+      <c r="AO25" s="101"/>
+      <c r="AP25" s="103"/>
+      <c r="AQ25" s="101"/>
+      <c r="AR25" s="104"/>
+      <c r="AS25" s="101"/>
+      <c r="AT25" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU25" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV25" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW25" s="110"/>
+      <c r="AX25" s="91"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="93"/>
-      <c r="B26" s="93"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E26" s="94"/>
       <c r="F26" s="60"/>
       <c r="G26" s="60"/>
       <c r="H26" s="60"/>
@@ -5504,68 +5853,68 @@
       <c r="K26" s="60"/>
       <c r="L26" s="60"/>
       <c r="M26" s="60"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U26" s="103"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="103"/>
-      <c r="X26" s="103"/>
-      <c r="Y26" s="103"/>
-      <c r="Z26" s="103"/>
-      <c r="AA26" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB26" s="103"/>
-      <c r="AC26" s="103"/>
-      <c r="AD26" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE26" s="102"/>
-      <c r="AF26" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG26" s="102"/>
-      <c r="AH26" s="104"/>
-      <c r="AI26" s="102"/>
-      <c r="AJ26" s="105"/>
-      <c r="AK26" s="102"/>
-      <c r="AL26" s="104"/>
-      <c r="AM26" s="102"/>
-      <c r="AN26" s="105"/>
-      <c r="AO26" s="102"/>
-      <c r="AP26" s="104"/>
-      <c r="AQ26" s="102"/>
-      <c r="AR26" s="105"/>
-      <c r="AS26" s="102"/>
-      <c r="AT26" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU26" s="107" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV26" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW26" s="111"/>
-      <c r="AX26" s="92"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="100"/>
+      <c r="T26" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB26" s="102"/>
+      <c r="AC26" s="102"/>
+      <c r="AD26" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE26" s="101"/>
+      <c r="AF26" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG26" s="101"/>
+      <c r="AH26" s="103"/>
+      <c r="AI26" s="101"/>
+      <c r="AJ26" s="104"/>
+      <c r="AK26" s="101"/>
+      <c r="AL26" s="103"/>
+      <c r="AM26" s="101"/>
+      <c r="AN26" s="104"/>
+      <c r="AO26" s="101"/>
+      <c r="AP26" s="103"/>
+      <c r="AQ26" s="101"/>
+      <c r="AR26" s="104"/>
+      <c r="AS26" s="101"/>
+      <c r="AT26" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU26" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV26" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW26" s="110"/>
+      <c r="AX26" s="91"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="93"/>
-      <c r="B27" s="93"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E27" s="94"/>
       <c r="F27" s="60"/>
       <c r="G27" s="60"/>
       <c r="H27" s="60"/>
@@ -5574,68 +5923,68 @@
       <c r="K27" s="60"/>
       <c r="L27" s="60"/>
       <c r="M27" s="60"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="103"/>
-      <c r="AA27" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="103"/>
-      <c r="AD27" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE27" s="102"/>
-      <c r="AF27" s="105" t="s">
+      <c r="N27" s="95"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="102"/>
+      <c r="AA27" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="AG27" s="102"/>
-      <c r="AH27" s="104"/>
-      <c r="AI27" s="102"/>
-      <c r="AJ27" s="105"/>
-      <c r="AK27" s="102"/>
-      <c r="AL27" s="104"/>
-      <c r="AM27" s="102"/>
-      <c r="AN27" s="105"/>
-      <c r="AO27" s="102"/>
-      <c r="AP27" s="104"/>
-      <c r="AQ27" s="102"/>
-      <c r="AR27" s="105"/>
-      <c r="AS27" s="102"/>
-      <c r="AT27" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU27" s="107" t="s">
-        <v>138</v>
-      </c>
-      <c r="AV27" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW27" s="111"/>
-      <c r="AX27" s="92"/>
+      <c r="AB27" s="102"/>
+      <c r="AC27" s="102"/>
+      <c r="AD27" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE27" s="101"/>
+      <c r="AF27" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="103"/>
+      <c r="AI27" s="101"/>
+      <c r="AJ27" s="104"/>
+      <c r="AK27" s="101"/>
+      <c r="AL27" s="103"/>
+      <c r="AM27" s="101"/>
+      <c r="AN27" s="104"/>
+      <c r="AO27" s="101"/>
+      <c r="AP27" s="103"/>
+      <c r="AQ27" s="101"/>
+      <c r="AR27" s="104"/>
+      <c r="AS27" s="101"/>
+      <c r="AT27" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU27" s="106" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV27" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW27" s="110"/>
+      <c r="AX27" s="91"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="93"/>
-      <c r="B28" s="93"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E28" s="94"/>
       <c r="F28" s="60"/>
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
@@ -5644,195 +5993,195 @@
       <c r="K28" s="60"/>
       <c r="L28" s="60"/>
       <c r="M28" s="60"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="103"/>
-      <c r="AA28" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB28" s="103"/>
-      <c r="AC28" s="103"/>
-      <c r="AD28" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE28" s="102"/>
-      <c r="AF28" s="105" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG28" s="102"/>
-      <c r="AH28" s="104"/>
-      <c r="AI28" s="102"/>
-      <c r="AJ28" s="105"/>
-      <c r="AK28" s="102"/>
-      <c r="AL28" s="104"/>
-      <c r="AM28" s="102"/>
-      <c r="AN28" s="105"/>
-      <c r="AO28" s="102"/>
-      <c r="AP28" s="104"/>
-      <c r="AQ28" s="102"/>
-      <c r="AR28" s="105"/>
-      <c r="AS28" s="102"/>
-      <c r="AT28" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU28" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV28" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW28" s="111"/>
-      <c r="AX28" s="92"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="99"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="102"/>
+      <c r="AA28" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB28" s="102"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE28" s="101"/>
+      <c r="AF28" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG28" s="101"/>
+      <c r="AH28" s="103"/>
+      <c r="AI28" s="101"/>
+      <c r="AJ28" s="104"/>
+      <c r="AK28" s="101"/>
+      <c r="AL28" s="103"/>
+      <c r="AM28" s="101"/>
+      <c r="AN28" s="104"/>
+      <c r="AO28" s="101"/>
+      <c r="AP28" s="103"/>
+      <c r="AQ28" s="101"/>
+      <c r="AR28" s="104"/>
+      <c r="AS28" s="101"/>
+      <c r="AT28" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU28" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV28" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW28" s="110"/>
+      <c r="AX28" s="91"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="93"/>
-      <c r="B29" s="93"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E29" s="94"/>
       <c r="F29" s="60"/>
-      <c r="G29" s="112"/>
+      <c r="G29" s="111"/>
       <c r="H29" s="60"/>
       <c r="I29" s="60"/>
       <c r="J29" s="60"/>
       <c r="K29" s="60"/>
       <c r="L29" s="60"/>
       <c r="M29" s="60"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="103"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA29" s="103"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="103"/>
-      <c r="AD29" s="104" t="s">
+      <c r="N29" s="95"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U29" s="102"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="AE29" s="102"/>
-      <c r="AF29" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG29" s="102"/>
-      <c r="AH29" s="104"/>
-      <c r="AI29" s="102"/>
-      <c r="AJ29" s="105"/>
-      <c r="AK29" s="102"/>
-      <c r="AL29" s="104"/>
-      <c r="AM29" s="102"/>
-      <c r="AN29" s="105"/>
-      <c r="AO29" s="102"/>
-      <c r="AP29" s="104"/>
-      <c r="AQ29" s="102"/>
-      <c r="AR29" s="105"/>
-      <c r="AS29" s="102"/>
-      <c r="AT29" s="106"/>
-      <c r="AU29" s="107"/>
-      <c r="AV29" s="108"/>
-      <c r="AW29" s="108"/>
-      <c r="AX29" s="92"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE29" s="101"/>
+      <c r="AF29" s="104" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG29" s="101"/>
+      <c r="AH29" s="103"/>
+      <c r="AI29" s="101"/>
+      <c r="AJ29" s="104"/>
+      <c r="AK29" s="101"/>
+      <c r="AL29" s="103"/>
+      <c r="AM29" s="101"/>
+      <c r="AN29" s="104"/>
+      <c r="AO29" s="101"/>
+      <c r="AP29" s="103"/>
+      <c r="AQ29" s="101"/>
+      <c r="AR29" s="104"/>
+      <c r="AS29" s="101"/>
+      <c r="AT29" s="105"/>
+      <c r="AU29" s="106"/>
+      <c r="AV29" s="107"/>
+      <c r="AW29" s="107"/>
+      <c r="AX29" s="91"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="93"/>
-      <c r="B30" s="93"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="112"/>
+        <v>87</v>
+      </c>
+      <c r="E30" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="111"/>
       <c r="G30" s="60"/>
       <c r="H30" s="60"/>
-      <c r="I30" s="112"/>
+      <c r="I30" s="111"/>
       <c r="J30" s="60"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112" t="s">
-        <v>142</v>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111" t="s">
+        <v>145</v>
       </c>
       <c r="M30" s="60"/>
-      <c r="N30" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="O30" s="97"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="103"/>
-      <c r="AB30" s="103"/>
-      <c r="AC30" s="103"/>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="102"/>
-      <c r="AF30" s="105"/>
-      <c r="AG30" s="102"/>
-      <c r="AH30" s="104"/>
-      <c r="AI30" s="102"/>
-      <c r="AJ30" s="105"/>
-      <c r="AK30" s="102"/>
-      <c r="AL30" s="104"/>
-      <c r="AM30" s="102"/>
-      <c r="AN30" s="105"/>
-      <c r="AO30" s="102"/>
-      <c r="AP30" s="104"/>
-      <c r="AQ30" s="102"/>
-      <c r="AR30" s="105"/>
-      <c r="AS30" s="102"/>
-      <c r="AT30" s="106"/>
-      <c r="AU30" s="107"/>
-      <c r="AV30" s="108"/>
-      <c r="AW30" s="108"/>
-      <c r="AX30" s="92"/>
+      <c r="N30" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="O30" s="96"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="101"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="102"/>
+      <c r="AC30" s="102"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="101"/>
+      <c r="AF30" s="104"/>
+      <c r="AG30" s="101"/>
+      <c r="AH30" s="103"/>
+      <c r="AI30" s="101"/>
+      <c r="AJ30" s="104"/>
+      <c r="AK30" s="101"/>
+      <c r="AL30" s="103"/>
+      <c r="AM30" s="101"/>
+      <c r="AN30" s="104"/>
+      <c r="AO30" s="101"/>
+      <c r="AP30" s="103"/>
+      <c r="AQ30" s="101"/>
+      <c r="AR30" s="104"/>
+      <c r="AS30" s="101"/>
+      <c r="AT30" s="105"/>
+      <c r="AU30" s="106"/>
+      <c r="AV30" s="107"/>
+      <c r="AW30" s="107"/>
+      <c r="AX30" s="91"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="93"/>
-      <c r="B31" s="93"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="95" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="E31" s="94" t="s">
+        <v>88</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="60"/>
@@ -5842,321 +6191,321 @@
       <c r="K31" s="60"/>
       <c r="L31" s="60"/>
       <c r="M31" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="N31" s="96"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q31" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="R31" s="100"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="103"/>
-      <c r="Z31" s="103"/>
-      <c r="AA31" s="103"/>
-      <c r="AB31" s="103"/>
-      <c r="AC31" s="103"/>
-      <c r="AD31" s="104"/>
-      <c r="AE31" s="102"/>
-      <c r="AF31" s="105"/>
-      <c r="AG31" s="102"/>
-      <c r="AH31" s="104"/>
-      <c r="AI31" s="102"/>
-      <c r="AJ31" s="105"/>
-      <c r="AK31" s="102"/>
-      <c r="AL31" s="104"/>
-      <c r="AM31" s="102"/>
-      <c r="AN31" s="105"/>
-      <c r="AO31" s="102"/>
-      <c r="AP31" s="104"/>
-      <c r="AQ31" s="102"/>
-      <c r="AR31" s="105"/>
-      <c r="AS31" s="102"/>
-      <c r="AT31" s="106"/>
-      <c r="AU31" s="107"/>
-      <c r="AV31" s="108"/>
-      <c r="AW31" s="108"/>
-      <c r="AX31" s="92"/>
+        <v>146</v>
+      </c>
+      <c r="N31" s="95"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q31" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="R31" s="99"/>
+      <c r="S31" s="100"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="103"/>
+      <c r="AE31" s="101"/>
+      <c r="AF31" s="104"/>
+      <c r="AG31" s="101"/>
+      <c r="AH31" s="103"/>
+      <c r="AI31" s="101"/>
+      <c r="AJ31" s="104"/>
+      <c r="AK31" s="101"/>
+      <c r="AL31" s="103"/>
+      <c r="AM31" s="101"/>
+      <c r="AN31" s="104"/>
+      <c r="AO31" s="101"/>
+      <c r="AP31" s="103"/>
+      <c r="AQ31" s="101"/>
+      <c r="AR31" s="104"/>
+      <c r="AS31" s="101"/>
+      <c r="AT31" s="105"/>
+      <c r="AU31" s="106"/>
+      <c r="AV31" s="107"/>
+      <c r="AW31" s="107"/>
+      <c r="AX31" s="91"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="93"/>
-      <c r="B32" s="93"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E32" s="94"/>
       <c r="F32" s="60"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
       <c r="I32" s="60"/>
-      <c r="J32" s="112"/>
+      <c r="J32" s="111"/>
       <c r="K32" s="60"/>
-      <c r="L32" s="112" t="s">
-        <v>142</v>
-      </c>
-      <c r="M32" s="112"/>
-      <c r="N32" s="96" t="s">
+      <c r="L32" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="M32" s="111"/>
+      <c r="N32" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="97"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="103"/>
-      <c r="Y32" s="103"/>
-      <c r="Z32" s="103"/>
-      <c r="AA32" s="103"/>
-      <c r="AB32" s="103"/>
-      <c r="AC32" s="103"/>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="102"/>
-      <c r="AF32" s="105"/>
-      <c r="AG32" s="102"/>
-      <c r="AH32" s="104"/>
-      <c r="AI32" s="102"/>
-      <c r="AJ32" s="105"/>
-      <c r="AK32" s="102"/>
-      <c r="AL32" s="104"/>
-      <c r="AM32" s="102"/>
-      <c r="AN32" s="105"/>
-      <c r="AO32" s="102"/>
-      <c r="AP32" s="104"/>
-      <c r="AQ32" s="102"/>
-      <c r="AR32" s="105"/>
-      <c r="AS32" s="102"/>
-      <c r="AT32" s="106"/>
-      <c r="AU32" s="107"/>
-      <c r="AV32" s="108"/>
-      <c r="AW32" s="108"/>
-      <c r="AX32" s="92"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="99"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="101"/>
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+      <c r="AA32" s="102"/>
+      <c r="AB32" s="102"/>
+      <c r="AC32" s="102"/>
+      <c r="AD32" s="103"/>
+      <c r="AE32" s="101"/>
+      <c r="AF32" s="104"/>
+      <c r="AG32" s="101"/>
+      <c r="AH32" s="103"/>
+      <c r="AI32" s="101"/>
+      <c r="AJ32" s="104"/>
+      <c r="AK32" s="101"/>
+      <c r="AL32" s="103"/>
+      <c r="AM32" s="101"/>
+      <c r="AN32" s="104"/>
+      <c r="AO32" s="101"/>
+      <c r="AP32" s="103"/>
+      <c r="AQ32" s="101"/>
+      <c r="AR32" s="104"/>
+      <c r="AS32" s="101"/>
+      <c r="AT32" s="105"/>
+      <c r="AU32" s="106"/>
+      <c r="AV32" s="107"/>
+      <c r="AW32" s="107"/>
+      <c r="AX32" s="91"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="93"/>
-      <c r="B33" s="93"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E33" s="94"/>
       <c r="F33" s="60"/>
-      <c r="G33" s="112"/>
+      <c r="G33" s="111"/>
       <c r="H33" s="60"/>
       <c r="I33" s="60"/>
       <c r="J33" s="60"/>
       <c r="K33" s="60"/>
       <c r="L33" s="60"/>
       <c r="M33" s="60"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD33" s="104"/>
-      <c r="AE33" s="102"/>
-      <c r="AF33" s="105"/>
-      <c r="AG33" s="102"/>
-      <c r="AH33" s="104"/>
-      <c r="AI33" s="102"/>
-      <c r="AJ33" s="105"/>
-      <c r="AK33" s="102"/>
-      <c r="AL33" s="104"/>
-      <c r="AM33" s="102"/>
-      <c r="AN33" s="105"/>
-      <c r="AO33" s="102"/>
-      <c r="AP33" s="104" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ33" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR33" s="105" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS33" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT33" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU33" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="AV33" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW33" s="111"/>
-      <c r="AX33" s="92"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="99"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="102"/>
+      <c r="AB33" s="102"/>
+      <c r="AC33" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD33" s="103"/>
+      <c r="AE33" s="101"/>
+      <c r="AF33" s="104"/>
+      <c r="AG33" s="101"/>
+      <c r="AH33" s="103"/>
+      <c r="AI33" s="101"/>
+      <c r="AJ33" s="104"/>
+      <c r="AK33" s="101"/>
+      <c r="AL33" s="103"/>
+      <c r="AM33" s="101"/>
+      <c r="AN33" s="104"/>
+      <c r="AO33" s="101"/>
+      <c r="AP33" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ33" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR33" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS33" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT33" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU33" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV33" s="110" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW33" s="110"/>
+      <c r="AX33" s="91"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="93"/>
-      <c r="B34" s="93"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E34" s="94"/>
       <c r="F34" s="60"/>
-      <c r="G34" s="112"/>
+      <c r="G34" s="111"/>
       <c r="H34" s="60"/>
       <c r="I34" s="60"/>
       <c r="J34" s="60"/>
       <c r="K34" s="60"/>
       <c r="L34" s="60"/>
       <c r="M34" s="60"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="100"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="103"/>
-      <c r="AA34" s="103"/>
-      <c r="AB34" s="103"/>
-      <c r="AC34" s="103"/>
-      <c r="AD34" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE34" s="102"/>
-      <c r="AF34" s="105" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG34" s="102"/>
-      <c r="AH34" s="104"/>
-      <c r="AI34" s="102"/>
-      <c r="AJ34" s="105"/>
-      <c r="AK34" s="102"/>
-      <c r="AL34" s="104"/>
-      <c r="AM34" s="102"/>
-      <c r="AN34" s="105"/>
-      <c r="AO34" s="102"/>
-      <c r="AP34" s="104"/>
-      <c r="AQ34" s="102"/>
-      <c r="AR34" s="105"/>
-      <c r="AS34" s="102"/>
-      <c r="AT34" s="106"/>
-      <c r="AU34" s="107"/>
-      <c r="AV34" s="108"/>
-      <c r="AW34" s="108"/>
-      <c r="AX34" s="92"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="100"/>
+      <c r="T34" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="U34" s="102"/>
+      <c r="V34" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="W34" s="102"/>
+      <c r="X34" s="102"/>
+      <c r="Y34" s="102"/>
+      <c r="Z34" s="102"/>
+      <c r="AA34" s="102"/>
+      <c r="AB34" s="102"/>
+      <c r="AC34" s="102"/>
+      <c r="AD34" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE34" s="101"/>
+      <c r="AF34" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG34" s="101"/>
+      <c r="AH34" s="103"/>
+      <c r="AI34" s="101"/>
+      <c r="AJ34" s="104"/>
+      <c r="AK34" s="101"/>
+      <c r="AL34" s="103"/>
+      <c r="AM34" s="101"/>
+      <c r="AN34" s="104"/>
+      <c r="AO34" s="101"/>
+      <c r="AP34" s="103"/>
+      <c r="AQ34" s="101"/>
+      <c r="AR34" s="104"/>
+      <c r="AS34" s="101"/>
+      <c r="AT34" s="105"/>
+      <c r="AU34" s="106"/>
+      <c r="AV34" s="107"/>
+      <c r="AW34" s="107"/>
+      <c r="AX34" s="91"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="93"/>
-      <c r="B35" s="93"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E35" s="94"/>
       <c r="F35" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="112"/>
+        <v>73</v>
+      </c>
+      <c r="G35" s="111"/>
       <c r="H35" s="60"/>
       <c r="I35" s="60"/>
       <c r="J35" s="60"/>
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
       <c r="M35" s="60"/>
-      <c r="N35" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="O35" s="97"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="101"/>
-      <c r="T35" s="102"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="103"/>
-      <c r="AA35" s="103"/>
-      <c r="AB35" s="103"/>
-      <c r="AC35" s="103"/>
-      <c r="AD35" s="104"/>
-      <c r="AE35" s="102"/>
-      <c r="AF35" s="105"/>
-      <c r="AG35" s="102"/>
-      <c r="AH35" s="104"/>
-      <c r="AI35" s="102"/>
-      <c r="AJ35" s="105"/>
-      <c r="AK35" s="102"/>
-      <c r="AL35" s="104"/>
-      <c r="AM35" s="102"/>
-      <c r="AN35" s="105"/>
-      <c r="AO35" s="102"/>
-      <c r="AP35" s="104"/>
-      <c r="AQ35" s="102"/>
-      <c r="AR35" s="105"/>
-      <c r="AS35" s="102"/>
-      <c r="AT35" s="106"/>
-      <c r="AU35" s="107"/>
-      <c r="AV35" s="108"/>
-      <c r="AW35" s="108"/>
-      <c r="AX35" s="92"/>
+      <c r="N35" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="O35" s="96"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="101"/>
+      <c r="U35" s="102"/>
+      <c r="V35" s="102"/>
+      <c r="W35" s="102"/>
+      <c r="X35" s="102"/>
+      <c r="Y35" s="102"/>
+      <c r="Z35" s="102"/>
+      <c r="AA35" s="102"/>
+      <c r="AB35" s="102"/>
+      <c r="AC35" s="102"/>
+      <c r="AD35" s="103"/>
+      <c r="AE35" s="101"/>
+      <c r="AF35" s="104"/>
+      <c r="AG35" s="101"/>
+      <c r="AH35" s="103"/>
+      <c r="AI35" s="101"/>
+      <c r="AJ35" s="104"/>
+      <c r="AK35" s="101"/>
+      <c r="AL35" s="103"/>
+      <c r="AM35" s="101"/>
+      <c r="AN35" s="104"/>
+      <c r="AO35" s="101"/>
+      <c r="AP35" s="103"/>
+      <c r="AQ35" s="101"/>
+      <c r="AR35" s="104"/>
+      <c r="AS35" s="101"/>
+      <c r="AT35" s="105"/>
+      <c r="AU35" s="106"/>
+      <c r="AV35" s="107"/>
+      <c r="AW35" s="107"/>
+      <c r="AX35" s="91"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="93"/>
-      <c r="B36" s="93"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="E36" s="94"/>
       <c r="F36" s="60"/>
-      <c r="G36" s="114" t="s">
-        <v>150</v>
+      <c r="G36" s="113" t="s">
+        <v>153</v>
       </c>
       <c r="H36" s="60"/>
       <c r="I36" s="60"/>
@@ -6164,184 +6513,184 @@
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
       <c r="M36" s="60"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="98"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="102"/>
-      <c r="U36" s="103"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="103"/>
-      <c r="AA36" s="103"/>
-      <c r="AB36" s="103"/>
-      <c r="AC36" s="103"/>
-      <c r="AD36" s="104"/>
-      <c r="AE36" s="102"/>
-      <c r="AF36" s="105"/>
-      <c r="AG36" s="102"/>
-      <c r="AH36" s="104"/>
-      <c r="AI36" s="102"/>
-      <c r="AJ36" s="105"/>
-      <c r="AK36" s="102"/>
-      <c r="AL36" s="104"/>
-      <c r="AM36" s="102"/>
-      <c r="AN36" s="105"/>
-      <c r="AO36" s="102"/>
-      <c r="AP36" s="104"/>
-      <c r="AQ36" s="102"/>
-      <c r="AR36" s="105"/>
-      <c r="AS36" s="102"/>
-      <c r="AT36" s="106"/>
-      <c r="AU36" s="107"/>
-      <c r="AV36" s="108"/>
-      <c r="AW36" s="108"/>
-      <c r="AX36" s="92"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="98"/>
+      <c r="R36" s="99"/>
+      <c r="S36" s="100"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="102"/>
+      <c r="V36" s="102"/>
+      <c r="W36" s="102"/>
+      <c r="X36" s="102"/>
+      <c r="Y36" s="102"/>
+      <c r="Z36" s="102"/>
+      <c r="AA36" s="102"/>
+      <c r="AB36" s="102"/>
+      <c r="AC36" s="102"/>
+      <c r="AD36" s="103"/>
+      <c r="AE36" s="101"/>
+      <c r="AF36" s="104"/>
+      <c r="AG36" s="101"/>
+      <c r="AH36" s="103"/>
+      <c r="AI36" s="101"/>
+      <c r="AJ36" s="104"/>
+      <c r="AK36" s="101"/>
+      <c r="AL36" s="103"/>
+      <c r="AM36" s="101"/>
+      <c r="AN36" s="104"/>
+      <c r="AO36" s="101"/>
+      <c r="AP36" s="103"/>
+      <c r="AQ36" s="101"/>
+      <c r="AR36" s="104"/>
+      <c r="AS36" s="101"/>
+      <c r="AT36" s="105"/>
+      <c r="AU36" s="106"/>
+      <c r="AV36" s="107"/>
+      <c r="AW36" s="107"/>
+      <c r="AX36" s="91"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="93"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
       <c r="F37" s="60"/>
-      <c r="G37" s="114"/>
+      <c r="G37" s="113"/>
       <c r="H37" s="60"/>
       <c r="I37" s="60"/>
       <c r="J37" s="60"/>
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
       <c r="M37" s="60"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="100"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="102"/>
-      <c r="U37" s="103"/>
-      <c r="V37" s="103"/>
-      <c r="W37" s="103"/>
-      <c r="X37" s="103"/>
-      <c r="Y37" s="103"/>
-      <c r="Z37" s="103"/>
-      <c r="AA37" s="103"/>
-      <c r="AB37" s="103"/>
-      <c r="AC37" s="103"/>
-      <c r="AD37" s="104"/>
-      <c r="AE37" s="102"/>
-      <c r="AF37" s="105"/>
-      <c r="AG37" s="102"/>
-      <c r="AH37" s="104"/>
-      <c r="AI37" s="102"/>
-      <c r="AJ37" s="105"/>
-      <c r="AK37" s="102"/>
-      <c r="AL37" s="104"/>
-      <c r="AM37" s="102"/>
-      <c r="AN37" s="105"/>
-      <c r="AO37" s="102"/>
-      <c r="AP37" s="104"/>
-      <c r="AQ37" s="102"/>
-      <c r="AR37" s="105"/>
-      <c r="AS37" s="102"/>
-      <c r="AT37" s="106"/>
-      <c r="AU37" s="107"/>
-      <c r="AV37" s="108"/>
-      <c r="AW37" s="108"/>
-      <c r="AX37" s="92"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="100"/>
+      <c r="T37" s="101"/>
+      <c r="U37" s="102"/>
+      <c r="V37" s="102"/>
+      <c r="W37" s="102"/>
+      <c r="X37" s="102"/>
+      <c r="Y37" s="102"/>
+      <c r="Z37" s="102"/>
+      <c r="AA37" s="102"/>
+      <c r="AB37" s="102"/>
+      <c r="AC37" s="102"/>
+      <c r="AD37" s="103"/>
+      <c r="AE37" s="101"/>
+      <c r="AF37" s="104"/>
+      <c r="AG37" s="101"/>
+      <c r="AH37" s="103"/>
+      <c r="AI37" s="101"/>
+      <c r="AJ37" s="104"/>
+      <c r="AK37" s="101"/>
+      <c r="AL37" s="103"/>
+      <c r="AM37" s="101"/>
+      <c r="AN37" s="104"/>
+      <c r="AO37" s="101"/>
+      <c r="AP37" s="103"/>
+      <c r="AQ37" s="101"/>
+      <c r="AR37" s="104"/>
+      <c r="AS37" s="101"/>
+      <c r="AT37" s="105"/>
+      <c r="AU37" s="106"/>
+      <c r="AV37" s="107"/>
+      <c r="AW37" s="107"/>
+      <c r="AX37" s="91"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="116" t="n">
+      <c r="A38" s="91"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="115" t="n">
         <v>0</v>
       </c>
-      <c r="G38" s="116" t="n">
+      <c r="G38" s="115" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="116" t="n">
+      <c r="H38" s="115" t="n">
         <v>2</v>
       </c>
-      <c r="I38" s="116" t="n">
+      <c r="I38" s="115" t="n">
         <v>3</v>
       </c>
-      <c r="J38" s="116" t="n">
+      <c r="J38" s="115" t="n">
         <v>4</v>
       </c>
-      <c r="K38" s="116" t="n">
+      <c r="K38" s="115" t="n">
         <v>5</v>
       </c>
-      <c r="L38" s="116" t="n">
+      <c r="L38" s="115" t="n">
         <v>6</v>
       </c>
-      <c r="M38" s="116" t="n">
+      <c r="M38" s="115" t="n">
         <v>7</v>
       </c>
-      <c r="N38" s="117"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="115"/>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="118"/>
-      <c r="S38" s="118"/>
-      <c r="T38" s="119"/>
-      <c r="U38" s="116" t="n">
+      <c r="N38" s="116"/>
+      <c r="O38" s="116"/>
+      <c r="P38" s="114"/>
+      <c r="Q38" s="91"/>
+      <c r="R38" s="117"/>
+      <c r="S38" s="117"/>
+      <c r="T38" s="118"/>
+      <c r="U38" s="115" t="n">
         <v>0</v>
       </c>
-      <c r="V38" s="116" t="n">
+      <c r="V38" s="115" t="n">
         <v>1</v>
       </c>
-      <c r="W38" s="116" t="n">
+      <c r="W38" s="115" t="n">
         <v>2</v>
       </c>
-      <c r="X38" s="116" t="n">
+      <c r="X38" s="115" t="n">
         <v>3</v>
       </c>
-      <c r="Y38" s="116" t="n">
+      <c r="Y38" s="115" t="n">
         <v>4</v>
       </c>
-      <c r="Z38" s="116" t="n">
+      <c r="Z38" s="115" t="n">
         <v>5</v>
       </c>
-      <c r="AA38" s="116" t="n">
+      <c r="AA38" s="115" t="n">
         <v>6</v>
       </c>
-      <c r="AB38" s="116" t="n">
+      <c r="AB38" s="115" t="n">
         <v>7</v>
       </c>
-      <c r="AC38" s="116" t="n">
+      <c r="AC38" s="115" t="n">
         <v>8</v>
       </c>
-      <c r="AD38" s="92"/>
-      <c r="AE38" s="92"/>
-      <c r="AF38" s="92"/>
-      <c r="AG38" s="120"/>
-      <c r="AH38" s="92"/>
-      <c r="AI38" s="92"/>
-      <c r="AJ38" s="92"/>
-      <c r="AK38" s="120"/>
-      <c r="AL38" s="92"/>
-      <c r="AM38" s="92"/>
-      <c r="AN38" s="92"/>
-      <c r="AO38" s="120"/>
-      <c r="AP38" s="92"/>
-      <c r="AQ38" s="92"/>
-      <c r="AR38" s="92"/>
-      <c r="AS38" s="120"/>
-      <c r="AT38" s="119"/>
-      <c r="AU38" s="92"/>
-      <c r="AV38" s="120"/>
-      <c r="AW38" s="120"/>
-      <c r="AX38" s="92"/>
+      <c r="AD38" s="91"/>
+      <c r="AE38" s="91"/>
+      <c r="AF38" s="91"/>
+      <c r="AG38" s="119"/>
+      <c r="AH38" s="91"/>
+      <c r="AI38" s="91"/>
+      <c r="AJ38" s="91"/>
+      <c r="AK38" s="119"/>
+      <c r="AL38" s="91"/>
+      <c r="AM38" s="91"/>
+      <c r="AN38" s="91"/>
+      <c r="AO38" s="119"/>
+      <c r="AP38" s="91"/>
+      <c r="AQ38" s="91"/>
+      <c r="AR38" s="91"/>
+      <c r="AS38" s="119"/>
+      <c r="AT38" s="118"/>
+      <c r="AU38" s="91"/>
+      <c r="AV38" s="119"/>
+      <c r="AW38" s="119"/>
+      <c r="AX38" s="91"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V45" s="121"/>
+      <c r="V45" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -9,29 +9,29 @@
   </bookViews>
   <sheets>
     <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="VERS" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="VERS_2" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="VERS_0" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="VERS_1" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="VIEW" sheetId="4" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$W$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0" vbProcedure="false">VINE!$B$1:$H$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_PAT" vbProcedure="false">VINE!$I$1:$I$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_SUBSET" vbProcedure="false">VINE!$M$1:$M$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_SUPSET" vbProcedure="false">VINE!$L$1:$L$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE!$A$1:$W$15</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE!$A$4:$W$15</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="AREA" vbProcedure="false">VINE!$A$1:$W$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0" vbProcedure="false">VINE!$B$1:$H$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_PAT" vbProcedure="false">VINE!$I$1:$I$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_SUBSET" vbProcedure="false">VINE!$M$1:$M$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="LMN_0_SUPSET" vbProcedure="false">VINE!$L$1:$L$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0" vbProcedure="false">VINE!$A$1:$W$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_COM" vbProcedure="false">VINE!$A$4:$W$18</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="MOD_0_SUP" vbProcedure="false">VINE!$A$1:$W$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VERS!$A$1:$R$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VERS!$D$1:$I$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VERS!$A$1:$R$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VERS!$A$4:$R$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VERS!$A$1:$R$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VERS_2!$A$1:$P$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VERS_2!$D$1:$I$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0" vbProcedure="false">VERS_2!$A$1:$P$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_COM" vbProcedure="false">VERS_2!$A$4:$P$12</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_SUP" vbProcedure="false">VERS_2!$A$1:$P$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="AREA" vbProcedure="false">VERS_0!$A$1:$P$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="LMN_0" vbProcedure="false">VERS_0!$D$1:$I$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VERS_0!$A$1:$P$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VERS_0!$A$4:$P$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VERS_0!$A$1:$P$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VERS_1!$A$1:$P$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VERS_1!$D$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0" vbProcedure="false">VERS_1!$A$1:$P$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_COM" vbProcedure="false">VERS_1!$A$4:$P$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_SUP" vbProcedure="false">VERS_1!$A$1:$P$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="AREA" vbProcedure="false">VIEW!$A$1:$AX$37</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="LMN_0" vbProcedure="false">VIEW!$F$1:$M$37</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="LMN_0_SUBSET" vbProcedure="false">VIEW!$A$3:$D$37</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="154">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -155,6 +155,9 @@
     <t xml:space="preserve">ecosystem.config.cjs</t>
   </si>
   <si>
+    <t xml:space="preserve">index.js</t>
+  </si>
+  <si>
     <t xml:space="preserve">devicebase</t>
   </si>
   <si>
@@ -180,9 +183,6 @@
   </si>
   <si>
     <t xml:space="preserve">pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ple</t>
   </si>
   <si>
     <t xml:space="preserve">#:package.json</t>
@@ -410,6 +410,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">"main"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"index.js"</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -536,6 +542,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">"multer"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1.4.5-lts.1"</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -578,262 +590,250 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">:anonymousArguments</t>
+    <t xml:space="preserve">element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">development/device/application/views/index.ejs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ViewScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">const</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$data.photos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$data.business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$data.interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coutils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$data.coutils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEADER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header-logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">src</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business.logo.img.src</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">business.logo.img.alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header-nav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUTTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interface.nav.login.button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:PhotosIterator</t>
   </si>
   <si>
     <t xml:space="preserve">()</t>
   </si>
   <si>
-    <t xml:space="preserve">$argumentA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$argumentB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:anonymousFunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=&gt;</t>
+    <t xml:space="preserve">$photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoGraphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$photo.graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$photo.details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-graphic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoGraphic.src</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoGraphic.alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoGraphic.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoDetails.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-descript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoDetails.descript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoDetails.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoDetails.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo-button-panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:PhotoButtonsIterator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$photoButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$photo.buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photoButtonAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coutils(photoButtonText)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footer</t>
   </si>
   <si>
     <t xml:space="preserve">console.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">development/device/application/views/index.ejs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blocks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ViewScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">const</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$data.photos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$data.business</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$data.interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coutils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$data.coutils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEADER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">header-logo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">src</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">business.logo.img.src</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">business.logo.img.alt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">header-nav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUTTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interface.nav.login.button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:PhotosIterator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">of</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photoGraphic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$photo.graphic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photoDetails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$photo.details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photo-graphic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photo-img</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photoGraphic.src</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photoGraphic.alt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photoGraphic.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photo-details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photo-title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photoDetails.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photo-descript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photoDetails.descript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photo-author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photoDetails.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photo-date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photoDetails.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photo-button-panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:PhotoButtonsIterator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$photoButton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$photo.buttons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photoButtonAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coutils(photoButtonText)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOOTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">footer</t>
   </si>
   <si>
     <t xml:space="preserve">"done"</t>
@@ -918,6 +918,13 @@
       <family val="3"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -941,13 +948,6 @@
       <sz val="8"/>
       <name val="FreeMono"/>
       <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1098,12 +1098,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2A1"/>
-        <bgColor rgb="FFFFE994"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDEE6EF"/>
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
@@ -1130,6 +1124,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFE994"/>
       </patternFill>
     </fill>
     <fill>
@@ -1307,7 +1307,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="119">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1536,7 +1536,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1560,23 +1560,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="25" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1592,35 +1588,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="30" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="29" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="30" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="29" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="30" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="29" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="30" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="29" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="30" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="29" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="30" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="29" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="30" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="29" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="30" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="29" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1628,11 +1624,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1644,7 +1640,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1676,11 +1672,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1692,11 +1688,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1704,11 +1700,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1728,15 +1724,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1744,19 +1740,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="23" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="23" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="31" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="31" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1772,11 +1768,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1784,11 +1780,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1975,10 +1967,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2374,43 +2366,47 @@
         <f aca="false">ROW() - 4</f>
         <v>5</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="39" t="s">
+      <c r="J9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="40" t="s">
+      <c r="N9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="41" t="n">
-        <v>7</v>
-      </c>
-      <c r="R9" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" s="41" t="n">
-        <v>5</v>
+      <c r="P9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" s="30" t="n">
+        <v>4</v>
       </c>
       <c r="T9" s="19"/>
       <c r="U9" s="20"/>
@@ -2423,42 +2419,42 @@
         <f aca="false">ROW() - 4</f>
         <v>6</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10" t="s">
+      <c r="B10" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12" t="s">
+      <c r="J10" s="36"/>
+      <c r="K10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>25</v>
+      <c r="N10" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="P10" s="17"/>
-      <c r="Q10" s="18" t="n">
+      <c r="Q10" s="41" t="n">
         <v>7</v>
       </c>
-      <c r="R10" s="18" t="n">
+      <c r="R10" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="S10" s="18" t="n">
+      <c r="S10" s="41" t="n">
         <v>5</v>
       </c>
       <c r="T10" s="19"/>
@@ -2472,47 +2468,43 @@
         <f aca="false">ROW() - 4</f>
         <v>7</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="28" t="s">
+      <c r="J11" s="11"/>
+      <c r="K11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="R11" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" s="30" t="n">
-        <v>4</v>
+      <c r="N11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="R11" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" s="18" t="n">
+        <v>5</v>
       </c>
       <c r="T11" s="19"/>
       <c r="U11" s="20"/>
@@ -2525,43 +2517,47 @@
         <f aca="false">ROW() - 4</f>
         <v>8</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="39" t="s">
+      <c r="J12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="40" t="s">
+      <c r="N12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="40" t="s">
+      <c r="O12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="41" t="n">
-        <v>7</v>
-      </c>
-      <c r="R12" s="41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" s="41" t="n">
-        <v>5</v>
+      <c r="P12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" s="30" t="n">
+        <v>4</v>
       </c>
       <c r="T12" s="19"/>
       <c r="U12" s="20"/>
@@ -2574,43 +2570,47 @@
         <f aca="false">ROW() - 4</f>
         <v>9</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="14" t="s">
+      <c r="J13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="R13" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" s="18" t="n">
-        <v>5</v>
+      <c r="N13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="R13" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" s="30" t="n">
+        <v>4</v>
       </c>
       <c r="T13" s="19"/>
       <c r="U13" s="20"/>
@@ -2623,47 +2623,43 @@
         <f aca="false">ROW() - 4</f>
         <v>10</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24" t="s">
+      <c r="B14" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="28" t="s">
+      <c r="J14" s="36"/>
+      <c r="K14" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="29" t="s">
+      <c r="N14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="29" t="s">
+      <c r="O14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="R14" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" s="30" t="n">
-        <v>4</v>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="41" t="n">
+        <v>7</v>
+      </c>
+      <c r="R14" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" s="41" t="n">
+        <v>5</v>
       </c>
       <c r="T14" s="19"/>
       <c r="U14" s="20"/>
@@ -2672,25 +2668,48 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
+      <c r="A15" s="6" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>11</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="P15" s="17"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
+      <c r="Q15" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="R15" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" s="18" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" s="19"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
@@ -2698,47 +2717,179 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="42" t="n">
+      <c r="A16" s="6" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>12</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" s="19"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <f aca="false">ROW() - 4</f>
+        <v>13</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="R17" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="43" t="n">
+      <c r="C19" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="43" t="n">
+      <c r="D19" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="43" t="n">
+      <c r="E19" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="43" t="n">
+      <c r="F19" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="44" t="n">
+      <c r="G19" s="44" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="44" t="n">
+      <c r="H19" s="44" t="n">
         <v>6</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G21" s="46"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2771,10 +2922,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
+      <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2785,14 +2936,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="47" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="47" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="32.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="48" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="48" width="4.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="32.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="48" width="4.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2801,7 +2950,7 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
@@ -2811,16 +2960,14 @@
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51" t="s">
-        <v>36</v>
-      </c>
+      <c r="L1" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="51"/>
       <c r="N1" s="51"/>
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="49" t="s">
@@ -2830,7 +2977,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
@@ -2840,25 +2987,23 @@
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51" t="s">
-        <v>38</v>
-      </c>
+      <c r="L2" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="51"/>
       <c r="N2" s="51"/>
       <c r="O2" s="51"/>
       <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="49"/>
       <c r="B3" s="53"/>
       <c r="C3" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
@@ -2866,31 +3011,25 @@
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
       <c r="J3" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="N3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="O3" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="55"/>
-      <c r="S3" s="3"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="56" t="n">
@@ -2917,15 +3056,13 @@
       <c r="L4" s="63"/>
       <c r="M4" s="64"/>
       <c r="N4" s="65"/>
-      <c r="O4" s="66"/>
+      <c r="O4" s="65"/>
       <c r="P4" s="66"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="58"/>
       <c r="D5" s="59"/>
       <c r="E5" s="60" t="s">
@@ -2940,21 +3077,19 @@
       </c>
       <c r="K5" s="62"/>
       <c r="L5" s="63"/>
-      <c r="M5" s="64"/>
+      <c r="M5" s="64" t="s">
+        <v>48</v>
+      </c>
       <c r="N5" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="66" t="s">
         <v>49</v>
       </c>
+      <c r="O5" s="65"/>
       <c r="P5" s="66"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="58"/>
       <c r="D6" s="59"/>
       <c r="E6" s="60" t="s">
@@ -2969,21 +3104,19 @@
       </c>
       <c r="K6" s="62"/>
       <c r="L6" s="63"/>
-      <c r="M6" s="64"/>
+      <c r="M6" s="64" t="s">
+        <v>51</v>
+      </c>
       <c r="N6" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="66" t="s">
         <v>49</v>
       </c>
+      <c r="O6" s="65"/>
       <c r="P6" s="66"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="58"/>
       <c r="D7" s="59"/>
       <c r="E7" s="60" t="s">
@@ -3001,18 +3134,16 @@
       </c>
       <c r="L7" s="63"/>
       <c r="M7" s="64"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="66" t="s">
+      <c r="N7" s="65" t="s">
         <v>49</v>
       </c>
+      <c r="O7" s="65"/>
       <c r="P7" s="66"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="58"/>
       <c r="D8" s="59"/>
       <c r="E8" s="60"/>
@@ -3029,15 +3160,13 @@
       <c r="L8" s="63"/>
       <c r="M8" s="64"/>
       <c r="N8" s="65"/>
-      <c r="O8" s="66"/>
+      <c r="O8" s="65"/>
       <c r="P8" s="66"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="58"/>
       <c r="D9" s="59"/>
       <c r="E9" s="60"/>
@@ -3052,15 +3181,13 @@
       <c r="L9" s="63"/>
       <c r="M9" s="64"/>
       <c r="N9" s="65"/>
-      <c r="O9" s="66"/>
+      <c r="O9" s="65"/>
       <c r="P9" s="66"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="58"/>
       <c r="D10" s="59"/>
       <c r="E10" s="60" t="s">
@@ -3078,16 +3205,16 @@
       </c>
       <c r="L10" s="63"/>
       <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="66"/>
+      <c r="N10" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="65"/>
       <c r="P10" s="66"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="58"/>
       <c r="D11" s="59"/>
       <c r="E11" s="60"/>
@@ -3102,104 +3229,94 @@
       </c>
       <c r="K11" s="62"/>
       <c r="L11" s="63"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="65" t="s">
+      <c r="M11" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="66"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
       <c r="P11" s="66"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="58"/>
       <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
+      <c r="E12" s="60" t="s">
+        <v>59</v>
+      </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
+      <c r="J12" s="62" t="s">
+        <v>47</v>
+      </c>
       <c r="K12" s="62"/>
       <c r="L12" s="63"/>
-      <c r="M12" s="64"/>
+      <c r="M12" s="64" t="s">
+        <v>60</v>
+      </c>
       <c r="N12" s="65"/>
-      <c r="O12" s="66"/>
+      <c r="O12" s="65"/>
       <c r="P12" s="66"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="56" t="n">
-        <f aca="false">VINE!$A$11</f>
-        <v>7</v>
-      </c>
-      <c r="B13" s="57" t="str">
-        <f aca="false">_xlfn.TEXTJOIN("/",0,VINE!$B$9,VINE!$C$11)</f>
-        <v>devicebase/package.json</v>
-      </c>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="59" t="s">
-        <v>44</v>
-      </c>
+      <c r="D13" s="59"/>
       <c r="E13" s="60"/>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
       <c r="H13" s="60"/>
       <c r="I13" s="61"/>
       <c r="J13" s="62"/>
-      <c r="K13" s="62" t="s">
-        <v>45</v>
-      </c>
+      <c r="K13" s="62"/>
       <c r="L13" s="63"/>
       <c r="M13" s="64"/>
       <c r="N13" s="65"/>
-      <c r="O13" s="66"/>
+      <c r="O13" s="65"/>
       <c r="P13" s="66"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="3"/>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
+      <c r="A14" s="56" t="n">
+        <f aca="false">VINE!$A$12</f>
+        <v>8</v>
+      </c>
+      <c r="B14" s="57" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/",0,VINE!$B$10,VINE!$C$12)</f>
+        <v>devicebase/package.json</v>
+      </c>
       <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60" t="s">
-        <v>46</v>
-      </c>
+      <c r="D14" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="60"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
       <c r="H14" s="60"/>
       <c r="I14" s="61"/>
-      <c r="J14" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62" t="s">
+        <v>45</v>
+      </c>
       <c r="L14" s="63"/>
       <c r="M14" s="64"/>
-      <c r="N14" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="O14" s="66" t="s">
-        <v>49</v>
-      </c>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
       <c r="P14" s="66"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="58"/>
       <c r="D15" s="59"/>
       <c r="E15" s="60" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -3210,25 +3327,23 @@
       </c>
       <c r="K15" s="62"/>
       <c r="L15" s="63"/>
-      <c r="M15" s="64"/>
+      <c r="M15" s="64" t="s">
+        <v>61</v>
+      </c>
       <c r="N15" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="66" t="s">
         <v>49</v>
       </c>
+      <c r="O15" s="65"/>
       <c r="P15" s="66"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="3"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="58"/>
       <c r="D16" s="59"/>
       <c r="E16" s="60" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -3237,135 +3352,125 @@
       <c r="J16" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="62" t="s">
-        <v>45</v>
-      </c>
+      <c r="K16" s="62"/>
       <c r="L16" s="63"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="66"/>
+      <c r="M16" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="65"/>
       <c r="P16" s="66"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="3"/>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="58"/>
       <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
+      <c r="E17" s="60" t="s">
+        <v>56</v>
+      </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
       <c r="H17" s="60"/>
       <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
+      <c r="J17" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="62" t="s">
+        <v>45</v>
+      </c>
       <c r="L17" s="63"/>
       <c r="M17" s="64"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="66"/>
+      <c r="N17" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="65"/>
       <c r="P17" s="66"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="3"/>
+      <c r="Q17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="56" t="n">
-        <f aca="false">VINE!$A$14</f>
-        <v>10</v>
-      </c>
-      <c r="B18" s="57" t="str">
-        <f aca="false">_xlfn.TEXTJOIN("/",0,VINE!$B$12,VINE!$C$14)</f>
-        <v>database/package.json</v>
-      </c>
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="58"/>
-      <c r="D18" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="60"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60" t="s">
+        <v>59</v>
+      </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
       <c r="H18" s="60"/>
       <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62" t="s">
-        <v>45</v>
-      </c>
+      <c r="J18" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="62"/>
       <c r="L18" s="63"/>
-      <c r="M18" s="64"/>
+      <c r="M18" s="64" t="s">
+        <v>60</v>
+      </c>
       <c r="N18" s="65"/>
-      <c r="O18" s="66"/>
+      <c r="O18" s="65"/>
       <c r="P18" s="66"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="3"/>
+      <c r="Q18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="58"/>
       <c r="D19" s="59"/>
-      <c r="E19" s="60" t="s">
-        <v>46</v>
-      </c>
+      <c r="E19" s="60"/>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
       <c r="I19" s="61"/>
-      <c r="J19" s="62" t="s">
-        <v>47</v>
-      </c>
+      <c r="J19" s="62"/>
       <c r="K19" s="62"/>
       <c r="L19" s="63"/>
       <c r="M19" s="64"/>
-      <c r="N19" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" s="66" t="s">
-        <v>49</v>
-      </c>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
       <c r="P19" s="66"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="3"/>
+      <c r="Q19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="56" t="n">
+        <f aca="false">VINE!$A$16</f>
+        <v>12</v>
+      </c>
+      <c r="B20" s="57" t="str">
+        <f aca="false">_xlfn.TEXTJOIN("/",0,VINE!$B$14,VINE!$C$16)</f>
+        <v>database/package.json</v>
+      </c>
       <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60" t="s">
-        <v>50</v>
-      </c>
+      <c r="D20" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="60"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
       <c r="H20" s="60"/>
       <c r="I20" s="61"/>
-      <c r="J20" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62" t="s">
+        <v>45</v>
+      </c>
       <c r="L20" s="63"/>
       <c r="M20" s="64"/>
-      <c r="N20" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="O20" s="66" t="s">
-        <v>49</v>
-      </c>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
       <c r="P20" s="66"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="3"/>
+      <c r="Q20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="68"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="58"/>
       <c r="D21" s="59"/>
       <c r="E21" s="60" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -3374,27 +3479,27 @@
       <c r="J21" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="62" t="s">
-        <v>45</v>
-      </c>
+      <c r="K21" s="62"/>
       <c r="L21" s="63"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="66"/>
+      <c r="M21" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="65"/>
       <c r="P21" s="66"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="3"/>
+      <c r="Q21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="58"/>
       <c r="D22" s="59"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60" t="s">
-        <v>61</v>
-      </c>
+      <c r="E22" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="60"/>
       <c r="G22" s="60"/>
       <c r="H22" s="60"/>
       <c r="I22" s="61"/>
@@ -3403,55 +3508,51 @@
       </c>
       <c r="K22" s="62"/>
       <c r="L22" s="63"/>
-      <c r="M22" s="64"/>
+      <c r="M22" s="64" t="s">
+        <v>51</v>
+      </c>
       <c r="N22" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="O22" s="66" t="s">
         <v>49</v>
       </c>
+      <c r="O22" s="65"/>
       <c r="P22" s="66"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="3"/>
+      <c r="Q22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="58"/>
       <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60" t="s">
-        <v>63</v>
-      </c>
+      <c r="E23" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="60"/>
       <c r="G23" s="60"/>
       <c r="H23" s="60"/>
       <c r="I23" s="61"/>
       <c r="J23" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="62"/>
+      <c r="K23" s="62" t="s">
+        <v>45</v>
+      </c>
       <c r="L23" s="63"/>
       <c r="M23" s="64"/>
       <c r="N23" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="O23" s="66" t="s">
         <v>49</v>
       </c>
+      <c r="O23" s="65"/>
       <c r="P23" s="66"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="3"/>
+      <c r="Q23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="58"/>
       <c r="D24" s="59"/>
       <c r="E24" s="60"/>
       <c r="F24" s="60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G24" s="60"/>
       <c r="H24" s="60"/>
@@ -3461,185 +3562,266 @@
       </c>
       <c r="K24" s="62"/>
       <c r="L24" s="63"/>
-      <c r="M24" s="64"/>
+      <c r="M24" s="64" t="s">
+        <v>64</v>
+      </c>
       <c r="N24" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="O24" s="66"/>
+        <v>49</v>
+      </c>
+      <c r="O24" s="65"/>
       <c r="P24" s="66"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="3"/>
+      <c r="Q24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="58"/>
       <c r="D25" s="59"/>
       <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="F25" s="60" t="s">
+        <v>65</v>
+      </c>
       <c r="G25" s="60"/>
       <c r="H25" s="60"/>
       <c r="I25" s="61"/>
-      <c r="J25" s="70"/>
+      <c r="J25" s="62" t="s">
+        <v>47</v>
+      </c>
       <c r="K25" s="62"/>
       <c r="L25" s="63"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="66"/>
+      <c r="M25" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" s="65"/>
       <c r="P25" s="66"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="3"/>
+      <c r="Q25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="78"/>
-      <c r="R26" s="78"/>
-      <c r="S26" s="3"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="62"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="N26" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" s="65"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="42" t="n">
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="62"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="67"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="62"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="67"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="70"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="E27" s="43" t="n">
+      <c r="E31" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="F27" s="43" t="n">
+      <c r="F31" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="G27" s="43" t="n">
+      <c r="G31" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="H27" s="43" t="n">
+      <c r="H31" s="43" t="n">
         <v>4</v>
       </c>
-      <c r="I27" s="44" t="n">
+      <c r="I31" s="44" t="n">
         <v>5</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="L1:P1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="L2:P2"/>
     <mergeCell ref="D3:I3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3657,10 +3839,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3670,12 +3852,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="47" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="47" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="47" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="32.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="48" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="48" width="4.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -3685,7 +3867,7 @@
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
@@ -3696,13 +3878,13 @@
       <c r="J1" s="50"/>
       <c r="K1" s="50"/>
       <c r="L1" s="51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="51"/>
       <c r="N1" s="51"/>
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="49" t="s">
@@ -3712,7 +3894,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
@@ -3723,7 +3905,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
       <c r="L2" s="51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
@@ -3735,10 +3917,10 @@
       <c r="A3" s="49"/>
       <c r="B3" s="53"/>
       <c r="C3" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
@@ -3746,21 +3928,21 @@
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
       <c r="J3" s="54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="54" t="s">
         <v>43</v>
       </c>
       <c r="L3" s="51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" s="51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="51" t="s">
         <v>43</v>
       </c>
       <c r="P3" s="55"/>
@@ -3777,228 +3959,117 @@
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="59" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
       <c r="G4" s="60"/>
       <c r="H4" s="60"/>
       <c r="I4" s="61"/>
-      <c r="J4" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="67"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="58"/>
       <c r="D5" s="59"/>
-      <c r="E5" s="60" t="s">
-        <v>69</v>
-      </c>
+      <c r="E5" s="60"/>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
       <c r="I5" s="61"/>
-      <c r="J5" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="67"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="66"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="67"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="77"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="67"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="45"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="3"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="3"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="3"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="3"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="3"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" s="43" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" s="44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="3"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="1"/>
@@ -4043,30 +4114,6 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4097,7 +4144,7 @@
   <dimension ref="A1:AX45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4109,43 +4156,43 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="46" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="1" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="81" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="81" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="82" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="83" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="81" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="81" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="80" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="80" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="81" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="82" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="80" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="80" width="4.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="21" style="1" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="84" width="5.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="83" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="84" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="83" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="4.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="84" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="83" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="8.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="84" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="81" width="4.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="84" width="30.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="84" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="83" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="80" width="4.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="83" width="30.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="83" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="9.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
+      <c r="B1" s="84"/>
       <c r="C1" s="54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
@@ -4160,56 +4207,56 @@
       <c r="N1" s="54"/>
       <c r="O1" s="54"/>
       <c r="P1" s="51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="51"/>
       <c r="R1" s="51"/>
       <c r="S1" s="51"/>
-      <c r="T1" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="86"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="86"/>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="86"/>
-      <c r="AS1" s="86"/>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="86"/>
+      <c r="T1" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
       <c r="AX1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="84" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="54"/>
       <c r="E2" s="54"/>
@@ -4224,65 +4271,65 @@
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
       <c r="P2" s="51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
       <c r="S2" s="51"/>
-      <c r="T2" s="87" t="s">
+      <c r="T2" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="86" t="s">
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
+      <c r="AX2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86" t="s">
+      <c r="D3" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>39</v>
+      <c r="E3" s="87" t="s">
+        <v>40</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="50"/>
       <c r="H3" s="50"/>
@@ -4292,75 +4339,75 @@
       <c r="L3" s="50"/>
       <c r="M3" s="50"/>
       <c r="N3" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="51" t="s">
-        <v>40</v>
-      </c>
       <c r="R3" s="51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S3" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="87" t="n">
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="87"/>
-      <c r="AH3" s="87" t="n">
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87" t="n">
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="87"/>
-      <c r="AO3" s="87"/>
-      <c r="AP3" s="87" t="n">
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86"/>
+      <c r="AP3" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AQ3" s="87"/>
-      <c r="AR3" s="87"/>
-      <c r="AS3" s="87"/>
-      <c r="AT3" s="87" t="n">
+      <c r="AQ3" s="86"/>
+      <c r="AR3" s="86"/>
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="AU3" s="87"/>
-      <c r="AV3" s="87"/>
-      <c r="AW3" s="87"/>
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="86"/>
       <c r="AX3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
@@ -4370,99 +4417,99 @@
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
       <c r="N4" s="54"/>
-      <c r="O4" s="89"/>
+      <c r="O4" s="88"/>
       <c r="P4" s="51"/>
       <c r="Q4" s="51"/>
       <c r="R4" s="51"/>
       <c r="S4" s="55"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86" t="s">
+      <c r="T4" s="89"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF4" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG4" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="AE4" s="86" t="s">
+      <c r="AH4" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI4" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ4" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK4" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL4" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM4" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN4" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO4" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP4" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ4" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR4" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS4" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT4" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="AF4" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG4" s="86" t="s">
+      <c r="AU4" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV4" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="90"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="91" t="n">
+        <v>64</v>
+      </c>
+      <c r="B5" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="AH4" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI4" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ4" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK4" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL4" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM4" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN4" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO4" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP4" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ4" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR4" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS4" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT4" s="90" t="s">
+      <c r="C5" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="AU4" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="AV4" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="91"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="92" t="n">
-        <v>64</v>
-      </c>
-      <c r="B5" s="93" t="s">
+      <c r="D5" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="E5" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="F5" s="60" t="s">
         <v>87</v>
-      </c>
-      <c r="E5" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>89</v>
       </c>
       <c r="G5" s="60"/>
       <c r="H5" s="60"/>
@@ -4471,62 +4518,62 @@
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
       <c r="M5" s="60"/>
-      <c r="N5" s="95" t="s">
+      <c r="N5" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="95"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" s="98"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="102"/>
+      <c r="AE5" s="100"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="100"/>
+      <c r="AH5" s="102"/>
+      <c r="AI5" s="100"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="100"/>
+      <c r="AL5" s="102"/>
+      <c r="AM5" s="100"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="100"/>
+      <c r="AP5" s="102"/>
+      <c r="AQ5" s="100"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="100"/>
+      <c r="AT5" s="104"/>
+      <c r="AU5" s="105"/>
+      <c r="AV5" s="106"/>
+      <c r="AW5" s="106"/>
+      <c r="AX5" s="90"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="60" t="s">
         <v>90</v>
-      </c>
-      <c r="O5" s="96"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" s="99"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="102"/>
-      <c r="Y5" s="102"/>
-      <c r="Z5" s="102"/>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="102"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="101"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="101"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="101"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="101"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="101"/>
-      <c r="AN5" s="104"/>
-      <c r="AO5" s="101"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="101"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="101"/>
-      <c r="AT5" s="105"/>
-      <c r="AU5" s="106"/>
-      <c r="AV5" s="107"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="91"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>92</v>
       </c>
       <c r="G6" s="60"/>
       <c r="H6" s="60"/>
@@ -4535,62 +4582,62 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
       <c r="M6" s="60"/>
-      <c r="N6" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" s="96"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="R6" s="99"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
-      <c r="Z6" s="102"/>
-      <c r="AA6" s="102"/>
-      <c r="AB6" s="102"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="101"/>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="101"/>
-      <c r="AH6" s="103"/>
-      <c r="AI6" s="101"/>
-      <c r="AJ6" s="104"/>
-      <c r="AK6" s="101"/>
-      <c r="AL6" s="103"/>
-      <c r="AM6" s="101"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="101"/>
-      <c r="AP6" s="103"/>
-      <c r="AQ6" s="101"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="101"/>
-      <c r="AT6" s="105"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="107"/>
-      <c r="AW6" s="107"/>
-      <c r="AX6" s="91"/>
+      <c r="N6" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="95"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" s="98"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="101"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="101"/>
+      <c r="Y6" s="101"/>
+      <c r="Z6" s="101"/>
+      <c r="AA6" s="101"/>
+      <c r="AB6" s="101"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="100"/>
+      <c r="AF6" s="103"/>
+      <c r="AG6" s="100"/>
+      <c r="AH6" s="102"/>
+      <c r="AI6" s="100"/>
+      <c r="AJ6" s="103"/>
+      <c r="AK6" s="100"/>
+      <c r="AL6" s="102"/>
+      <c r="AM6" s="100"/>
+      <c r="AN6" s="103"/>
+      <c r="AO6" s="100"/>
+      <c r="AP6" s="102"/>
+      <c r="AQ6" s="100"/>
+      <c r="AR6" s="103"/>
+      <c r="AS6" s="100"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="106"/>
+      <c r="AW6" s="106"/>
+      <c r="AX6" s="90"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>88</v>
-      </c>
       <c r="F7" s="60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" s="60"/>
       <c r="H7" s="60"/>
@@ -4599,62 +4646,62 @@
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
       <c r="M7" s="60"/>
-      <c r="N7" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" s="96"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="R7" s="99"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="102"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="102"/>
-      <c r="AA7" s="102"/>
-      <c r="AB7" s="102"/>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="103"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="104"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="103"/>
-      <c r="AI7" s="101"/>
-      <c r="AJ7" s="104"/>
-      <c r="AK7" s="101"/>
-      <c r="AL7" s="103"/>
-      <c r="AM7" s="101"/>
-      <c r="AN7" s="104"/>
-      <c r="AO7" s="101"/>
-      <c r="AP7" s="103"/>
-      <c r="AQ7" s="101"/>
-      <c r="AR7" s="104"/>
-      <c r="AS7" s="101"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="106"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="91"/>
+      <c r="N7" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="95"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" s="98"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="103"/>
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="102"/>
+      <c r="AI7" s="100"/>
+      <c r="AJ7" s="103"/>
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="102"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="103"/>
+      <c r="AO7" s="100"/>
+      <c r="AP7" s="102"/>
+      <c r="AQ7" s="100"/>
+      <c r="AR7" s="103"/>
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="104"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="106"/>
+      <c r="AW7" s="106"/>
+      <c r="AX7" s="90"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="94" t="s">
-        <v>88</v>
-      </c>
       <c r="F8" s="60" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="60"/>
@@ -4663,58 +4710,58 @@
       <c r="K8" s="60"/>
       <c r="L8" s="60"/>
       <c r="M8" s="60"/>
-      <c r="N8" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="96"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="98" t="s">
-        <v>97</v>
-      </c>
-      <c r="R8" s="99"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
-      <c r="Y8" s="102"/>
-      <c r="Z8" s="102"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="102"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="104"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="104"/>
-      <c r="AK8" s="101"/>
-      <c r="AL8" s="103"/>
-      <c r="AM8" s="101"/>
-      <c r="AN8" s="104"/>
-      <c r="AO8" s="101"/>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="101"/>
-      <c r="AR8" s="104"/>
-      <c r="AS8" s="101"/>
-      <c r="AT8" s="105"/>
-      <c r="AU8" s="106"/>
-      <c r="AV8" s="107"/>
-      <c r="AW8" s="107"/>
-      <c r="AX8" s="91"/>
+      <c r="N8" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="95"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="98"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="100"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="100"/>
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="100"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="100"/>
+      <c r="AJ8" s="103"/>
+      <c r="AK8" s="100"/>
+      <c r="AL8" s="102"/>
+      <c r="AM8" s="100"/>
+      <c r="AN8" s="103"/>
+      <c r="AO8" s="100"/>
+      <c r="AP8" s="102"/>
+      <c r="AQ8" s="100"/>
+      <c r="AR8" s="103"/>
+      <c r="AS8" s="100"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="106"/>
+      <c r="AW8" s="106"/>
+      <c r="AX8" s="90"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E9" s="93"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
       <c r="H9" s="60"/>
@@ -4723,62 +4770,62 @@
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="101" t="s">
+      <c r="N9" s="94"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U9" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="V9" s="101"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="101"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="100"/>
+      <c r="AF9" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="U9" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="101"/>
-      <c r="AF9" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG9" s="101"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="101"/>
-      <c r="AJ9" s="104"/>
-      <c r="AK9" s="101"/>
-      <c r="AL9" s="103"/>
-      <c r="AM9" s="101"/>
-      <c r="AN9" s="104"/>
-      <c r="AO9" s="101"/>
-      <c r="AP9" s="103"/>
-      <c r="AQ9" s="101"/>
-      <c r="AR9" s="104"/>
-      <c r="AS9" s="101"/>
-      <c r="AT9" s="105"/>
-      <c r="AU9" s="106"/>
-      <c r="AV9" s="107"/>
-      <c r="AW9" s="107"/>
-      <c r="AX9" s="91"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="100"/>
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="100"/>
+      <c r="AL9" s="102"/>
+      <c r="AM9" s="100"/>
+      <c r="AN9" s="103"/>
+      <c r="AO9" s="100"/>
+      <c r="AP9" s="102"/>
+      <c r="AQ9" s="100"/>
+      <c r="AR9" s="103"/>
+      <c r="AS9" s="100"/>
+      <c r="AT9" s="104"/>
+      <c r="AU9" s="105"/>
+      <c r="AV9" s="106"/>
+      <c r="AW9" s="106"/>
+      <c r="AX9" s="90"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E10" s="93"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
       <c r="H10" s="60"/>
@@ -4787,62 +4834,62 @@
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
       <c r="M10" s="60"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102" t="s">
+      <c r="N10" s="94"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U10" s="101"/>
+      <c r="V10" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="W10" s="101"/>
+      <c r="X10" s="101"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="101"/>
+      <c r="AA10" s="101"/>
+      <c r="AB10" s="101"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="100"/>
+      <c r="AF10" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE10" s="101"/>
-      <c r="AF10" s="104" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG10" s="101"/>
-      <c r="AH10" s="103"/>
-      <c r="AI10" s="101"/>
-      <c r="AJ10" s="104"/>
-      <c r="AK10" s="101"/>
-      <c r="AL10" s="103"/>
-      <c r="AM10" s="101"/>
-      <c r="AN10" s="104"/>
-      <c r="AO10" s="101"/>
-      <c r="AP10" s="103"/>
-      <c r="AQ10" s="101"/>
-      <c r="AR10" s="104"/>
-      <c r="AS10" s="101"/>
-      <c r="AT10" s="105"/>
-      <c r="AU10" s="106"/>
-      <c r="AV10" s="107"/>
-      <c r="AW10" s="107"/>
-      <c r="AX10" s="91"/>
+      <c r="AG10" s="100"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="100"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="100"/>
+      <c r="AL10" s="102"/>
+      <c r="AM10" s="100"/>
+      <c r="AN10" s="103"/>
+      <c r="AO10" s="100"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="100"/>
+      <c r="AR10" s="103"/>
+      <c r="AS10" s="100"/>
+      <c r="AT10" s="104"/>
+      <c r="AU10" s="105"/>
+      <c r="AV10" s="106"/>
+      <c r="AW10" s="106"/>
+      <c r="AX10" s="90"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E11" s="93"/>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -4851,62 +4898,62 @@
       <c r="K11" s="60"/>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U11" s="102"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="103" t="s">
+      <c r="N11" s="94"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="AE11" s="101"/>
-      <c r="AF11" s="104" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG11" s="101"/>
-      <c r="AH11" s="103"/>
-      <c r="AI11" s="101"/>
-      <c r="AJ11" s="104"/>
-      <c r="AK11" s="101"/>
-      <c r="AL11" s="103"/>
-      <c r="AM11" s="101"/>
-      <c r="AN11" s="104"/>
-      <c r="AO11" s="101"/>
-      <c r="AP11" s="103"/>
-      <c r="AQ11" s="101"/>
-      <c r="AR11" s="104"/>
-      <c r="AS11" s="101"/>
-      <c r="AT11" s="105"/>
-      <c r="AU11" s="106"/>
-      <c r="AV11" s="107"/>
-      <c r="AW11" s="107"/>
-      <c r="AX11" s="91"/>
+      <c r="AG11" s="100"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="100"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="100"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="100"/>
+      <c r="AN11" s="103"/>
+      <c r="AO11" s="100"/>
+      <c r="AP11" s="102"/>
+      <c r="AQ11" s="100"/>
+      <c r="AR11" s="103"/>
+      <c r="AS11" s="100"/>
+      <c r="AT11" s="104"/>
+      <c r="AU11" s="105"/>
+      <c r="AV11" s="106"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="90"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E12" s="93"/>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
       <c r="H12" s="60"/>
@@ -4915,74 +4962,74 @@
       <c r="K12" s="60"/>
       <c r="L12" s="60"/>
       <c r="M12" s="60"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="101" t="s">
+      <c r="N12" s="94"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="101"/>
+      <c r="AB12" s="101"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="U12" s="102"/>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102" t="s">
+      <c r="AE12" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="102"/>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="102"/>
-      <c r="AC12" s="102"/>
-      <c r="AD12" s="103" t="s">
+      <c r="AF12" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="AE12" s="108" t="s">
+      <c r="AG12" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="AF12" s="104" t="s">
+      <c r="AH12" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="AG12" s="108" t="s">
+      <c r="AI12" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ12" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="AH12" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI12" s="108" t="s">
+      <c r="AK12" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="AJ12" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK12" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL12" s="103"/>
-      <c r="AM12" s="108"/>
-      <c r="AN12" s="104"/>
-      <c r="AO12" s="108"/>
-      <c r="AP12" s="103"/>
-      <c r="AQ12" s="108"/>
-      <c r="AR12" s="104"/>
-      <c r="AS12" s="108"/>
-      <c r="AT12" s="105"/>
-      <c r="AU12" s="106"/>
-      <c r="AV12" s="107"/>
-      <c r="AW12" s="107"/>
-      <c r="AX12" s="91"/>
+      <c r="AL12" s="102"/>
+      <c r="AM12" s="107"/>
+      <c r="AN12" s="103"/>
+      <c r="AO12" s="107"/>
+      <c r="AP12" s="102"/>
+      <c r="AQ12" s="107"/>
+      <c r="AR12" s="103"/>
+      <c r="AS12" s="107"/>
+      <c r="AT12" s="104"/>
+      <c r="AU12" s="105"/>
+      <c r="AV12" s="106"/>
+      <c r="AW12" s="106"/>
+      <c r="AX12" s="90"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="92"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E13" s="93"/>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
       <c r="H13" s="60"/>
@@ -4991,62 +5038,62 @@
       <c r="K13" s="60"/>
       <c r="L13" s="60"/>
       <c r="M13" s="60"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U13" s="102"/>
-      <c r="V13" s="102"/>
-      <c r="W13" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="102"/>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="102"/>
-      <c r="AB13" s="102"/>
-      <c r="AC13" s="102"/>
-      <c r="AD13" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE13" s="101"/>
-      <c r="AF13" s="104" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="103"/>
-      <c r="AI13" s="101"/>
-      <c r="AJ13" s="104"/>
-      <c r="AK13" s="101"/>
-      <c r="AL13" s="103"/>
-      <c r="AM13" s="101"/>
-      <c r="AN13" s="104"/>
-      <c r="AO13" s="101"/>
-      <c r="AP13" s="103"/>
-      <c r="AQ13" s="101"/>
-      <c r="AR13" s="104"/>
-      <c r="AS13" s="101"/>
-      <c r="AT13" s="105"/>
-      <c r="AU13" s="106"/>
-      <c r="AV13" s="107"/>
-      <c r="AW13" s="107"/>
-      <c r="AX13" s="91"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U13" s="101"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="X13" s="101"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="101"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE13" s="100"/>
+      <c r="AF13" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG13" s="100"/>
+      <c r="AH13" s="102"/>
+      <c r="AI13" s="100"/>
+      <c r="AJ13" s="103"/>
+      <c r="AK13" s="100"/>
+      <c r="AL13" s="102"/>
+      <c r="AM13" s="100"/>
+      <c r="AN13" s="103"/>
+      <c r="AO13" s="100"/>
+      <c r="AP13" s="102"/>
+      <c r="AQ13" s="100"/>
+      <c r="AR13" s="103"/>
+      <c r="AS13" s="100"/>
+      <c r="AT13" s="104"/>
+      <c r="AU13" s="105"/>
+      <c r="AV13" s="106"/>
+      <c r="AW13" s="106"/>
+      <c r="AX13" s="90"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="92"/>
-      <c r="B14" s="92"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E14" s="93"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
       <c r="H14" s="60"/>
@@ -5055,64 +5102,64 @@
       <c r="K14" s="60"/>
       <c r="L14" s="60"/>
       <c r="M14" s="60"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U14" s="102"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="102"/>
-      <c r="AC14" s="102"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="101"/>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="103"/>
-      <c r="AI14" s="101"/>
-      <c r="AJ14" s="104"/>
-      <c r="AK14" s="101"/>
-      <c r="AL14" s="103"/>
-      <c r="AM14" s="101"/>
-      <c r="AN14" s="104"/>
-      <c r="AO14" s="101"/>
-      <c r="AP14" s="103"/>
-      <c r="AQ14" s="101"/>
-      <c r="AR14" s="104"/>
-      <c r="AS14" s="101"/>
-      <c r="AT14" s="109" t="s">
+      <c r="N14" s="94"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U14" s="101"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="101"/>
+      <c r="AA14" s="101"/>
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="100"/>
+      <c r="AF14" s="103"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="102"/>
+      <c r="AI14" s="100"/>
+      <c r="AJ14" s="103"/>
+      <c r="AK14" s="100"/>
+      <c r="AL14" s="102"/>
+      <c r="AM14" s="100"/>
+      <c r="AN14" s="103"/>
+      <c r="AO14" s="100"/>
+      <c r="AP14" s="102"/>
+      <c r="AQ14" s="100"/>
+      <c r="AR14" s="103"/>
+      <c r="AS14" s="100"/>
+      <c r="AT14" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU14" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV14" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="AU14" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV14" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW14" s="110"/>
-      <c r="AX14" s="91"/>
+      <c r="AW14" s="109"/>
+      <c r="AX14" s="90"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="92"/>
-      <c r="B15" s="92"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E15" s="93"/>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
       <c r="H15" s="60"/>
@@ -5121,508 +5168,508 @@
       <c r="K15" s="60"/>
       <c r="L15" s="60"/>
       <c r="M15" s="60"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102" t="s">
+      <c r="N15" s="94"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U15" s="101"/>
+      <c r="V15" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="W15" s="101"/>
+      <c r="X15" s="101"/>
+      <c r="Y15" s="101"/>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="101"/>
+      <c r="AB15" s="101"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI15" s="100"/>
+      <c r="AJ15" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK15" s="100"/>
+      <c r="AL15" s="102"/>
+      <c r="AM15" s="100"/>
+      <c r="AN15" s="103"/>
+      <c r="AO15" s="100"/>
+      <c r="AP15" s="102"/>
+      <c r="AQ15" s="100"/>
+      <c r="AR15" s="103"/>
+      <c r="AS15" s="100"/>
+      <c r="AT15" s="108"/>
+      <c r="AU15" s="105"/>
+      <c r="AV15" s="106"/>
+      <c r="AW15" s="106"/>
+      <c r="AX15" s="90"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="W15" s="102"/>
-      <c r="X15" s="102"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE15" s="101"/>
-      <c r="AF15" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI15" s="101"/>
-      <c r="AJ15" s="104" t="s">
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110" t="s">
         <v>118</v>
-      </c>
-      <c r="AK15" s="101"/>
-      <c r="AL15" s="103"/>
-      <c r="AM15" s="101"/>
-      <c r="AN15" s="104"/>
-      <c r="AO15" s="101"/>
-      <c r="AP15" s="103"/>
-      <c r="AQ15" s="101"/>
-      <c r="AR15" s="104"/>
-      <c r="AS15" s="101"/>
-      <c r="AT15" s="109"/>
-      <c r="AU15" s="106"/>
-      <c r="AV15" s="107"/>
-      <c r="AW15" s="107"/>
-      <c r="AX15" s="91"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111" t="s">
-        <v>120</v>
       </c>
       <c r="I16" s="60"/>
       <c r="J16" s="60"/>
       <c r="K16" s="60"/>
       <c r="L16" s="60"/>
       <c r="M16" s="60"/>
-      <c r="N16" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="O16" s="96"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="102"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
-      <c r="AC16" s="102"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="101"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="101"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="101"/>
-      <c r="AJ16" s="104"/>
-      <c r="AK16" s="101"/>
-      <c r="AL16" s="103"/>
-      <c r="AM16" s="101"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="101"/>
-      <c r="AP16" s="103"/>
-      <c r="AQ16" s="101"/>
-      <c r="AR16" s="104"/>
-      <c r="AS16" s="101"/>
-      <c r="AT16" s="105"/>
-      <c r="AU16" s="106"/>
-      <c r="AV16" s="107"/>
-      <c r="AW16" s="107"/>
-      <c r="AX16" s="91"/>
+      <c r="N16" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="100"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="101"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="101"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="100"/>
+      <c r="AF16" s="103"/>
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="102"/>
+      <c r="AI16" s="100"/>
+      <c r="AJ16" s="103"/>
+      <c r="AK16" s="100"/>
+      <c r="AL16" s="102"/>
+      <c r="AM16" s="100"/>
+      <c r="AN16" s="103"/>
+      <c r="AO16" s="100"/>
+      <c r="AP16" s="102"/>
+      <c r="AQ16" s="100"/>
+      <c r="AR16" s="103"/>
+      <c r="AS16" s="100"/>
+      <c r="AT16" s="104"/>
+      <c r="AU16" s="105"/>
+      <c r="AV16" s="106"/>
+      <c r="AW16" s="106"/>
+      <c r="AX16" s="90"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="92"/>
-      <c r="B17" s="92"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="93" t="s">
         <v>86</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="94" t="s">
-        <v>88</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
       <c r="H17" s="60"/>
       <c r="I17" s="60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J17" s="60"/>
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
       <c r="M17" s="60"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="98" t="s">
-        <v>89</v>
-      </c>
-      <c r="R17" s="99"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="102"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="102"/>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="102"/>
-      <c r="AB17" s="102"/>
-      <c r="AC17" s="102"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="101"/>
-      <c r="AF17" s="104"/>
-      <c r="AG17" s="101"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="101"/>
-      <c r="AJ17" s="104"/>
-      <c r="AK17" s="101"/>
-      <c r="AL17" s="103"/>
-      <c r="AM17" s="101"/>
-      <c r="AN17" s="104"/>
-      <c r="AO17" s="101"/>
-      <c r="AP17" s="103"/>
-      <c r="AQ17" s="101"/>
-      <c r="AR17" s="104"/>
-      <c r="AS17" s="101"/>
-      <c r="AT17" s="105"/>
-      <c r="AU17" s="106"/>
-      <c r="AV17" s="107"/>
-      <c r="AW17" s="107"/>
-      <c r="AX17" s="91"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="R17" s="98"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="101"/>
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="103"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="102"/>
+      <c r="AI17" s="100"/>
+      <c r="AJ17" s="103"/>
+      <c r="AK17" s="100"/>
+      <c r="AL17" s="102"/>
+      <c r="AM17" s="100"/>
+      <c r="AN17" s="103"/>
+      <c r="AO17" s="100"/>
+      <c r="AP17" s="102"/>
+      <c r="AQ17" s="100"/>
+      <c r="AR17" s="103"/>
+      <c r="AS17" s="100"/>
+      <c r="AT17" s="104"/>
+      <c r="AU17" s="105"/>
+      <c r="AV17" s="106"/>
+      <c r="AW17" s="106"/>
+      <c r="AX17" s="90"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="92"/>
-      <c r="B18" s="92"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E18" s="93"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
-      <c r="H18" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" s="111"/>
+      <c r="H18" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="110"/>
       <c r="J18" s="60"/>
       <c r="K18" s="60"/>
       <c r="L18" s="60"/>
       <c r="M18" s="60"/>
-      <c r="N18" s="95" t="s">
+      <c r="N18" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="O18" s="96"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="102"/>
-      <c r="W18" s="102"/>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="102"/>
-      <c r="AB18" s="102"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="101"/>
-      <c r="AF18" s="104"/>
-      <c r="AG18" s="101"/>
-      <c r="AH18" s="103"/>
-      <c r="AI18" s="101"/>
-      <c r="AJ18" s="104"/>
-      <c r="AK18" s="101"/>
-      <c r="AL18" s="103"/>
-      <c r="AM18" s="101"/>
-      <c r="AN18" s="104"/>
-      <c r="AO18" s="101"/>
-      <c r="AP18" s="103"/>
-      <c r="AQ18" s="101"/>
-      <c r="AR18" s="104"/>
-      <c r="AS18" s="101"/>
-      <c r="AT18" s="105"/>
-      <c r="AU18" s="106"/>
-      <c r="AV18" s="107"/>
-      <c r="AW18" s="107"/>
-      <c r="AX18" s="91"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="101"/>
+      <c r="W18" s="101"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="101"/>
+      <c r="AA18" s="101"/>
+      <c r="AB18" s="101"/>
+      <c r="AC18" s="101"/>
+      <c r="AD18" s="102"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="103"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="102"/>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="103"/>
+      <c r="AK18" s="100"/>
+      <c r="AL18" s="102"/>
+      <c r="AM18" s="100"/>
+      <c r="AN18" s="103"/>
+      <c r="AO18" s="100"/>
+      <c r="AP18" s="102"/>
+      <c r="AQ18" s="100"/>
+      <c r="AR18" s="103"/>
+      <c r="AS18" s="100"/>
+      <c r="AT18" s="104"/>
+      <c r="AU18" s="105"/>
+      <c r="AV18" s="106"/>
+      <c r="AW18" s="106"/>
+      <c r="AX18" s="90"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="93" t="s">
         <v>86</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="94" t="s">
-        <v>88</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
       <c r="H19" s="60"/>
       <c r="I19" s="60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J19" s="60"/>
       <c r="K19" s="60"/>
       <c r="L19" s="60"/>
       <c r="M19" s="60"/>
-      <c r="N19" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="O19" s="96"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="R19" s="99"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="102"/>
-      <c r="W19" s="102"/>
-      <c r="X19" s="102"/>
-      <c r="Y19" s="102"/>
-      <c r="Z19" s="102"/>
-      <c r="AA19" s="102"/>
-      <c r="AB19" s="102"/>
-      <c r="AC19" s="102"/>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="101"/>
-      <c r="AF19" s="104"/>
-      <c r="AG19" s="101"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="101"/>
-      <c r="AJ19" s="104"/>
-      <c r="AK19" s="101"/>
-      <c r="AL19" s="103"/>
-      <c r="AM19" s="101"/>
-      <c r="AN19" s="104"/>
-      <c r="AO19" s="101"/>
-      <c r="AP19" s="103"/>
-      <c r="AQ19" s="101"/>
-      <c r="AR19" s="104"/>
-      <c r="AS19" s="101"/>
-      <c r="AT19" s="105"/>
-      <c r="AU19" s="106"/>
-      <c r="AV19" s="107"/>
-      <c r="AW19" s="107"/>
-      <c r="AX19" s="91"/>
+      <c r="N19" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="R19" s="98"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="101"/>
+      <c r="X19" s="101"/>
+      <c r="Y19" s="101"/>
+      <c r="Z19" s="101"/>
+      <c r="AA19" s="101"/>
+      <c r="AB19" s="101"/>
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="100"/>
+      <c r="AF19" s="103"/>
+      <c r="AG19" s="100"/>
+      <c r="AH19" s="102"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="103"/>
+      <c r="AK19" s="100"/>
+      <c r="AL19" s="102"/>
+      <c r="AM19" s="100"/>
+      <c r="AN19" s="103"/>
+      <c r="AO19" s="100"/>
+      <c r="AP19" s="102"/>
+      <c r="AQ19" s="100"/>
+      <c r="AR19" s="103"/>
+      <c r="AS19" s="100"/>
+      <c r="AT19" s="104"/>
+      <c r="AU19" s="105"/>
+      <c r="AV19" s="106"/>
+      <c r="AW19" s="106"/>
+      <c r="AX19" s="90"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="93" t="s">
         <v>86</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="94" t="s">
-        <v>88</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
       <c r="H20" s="60"/>
       <c r="I20" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J20" s="60"/>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
-      <c r="N20" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="O20" s="96"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="98" t="s">
-        <v>126</v>
-      </c>
-      <c r="R20" s="99"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="102"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="102"/>
-      <c r="AA20" s="102"/>
-      <c r="AB20" s="102"/>
-      <c r="AC20" s="102"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="101"/>
-      <c r="AF20" s="104"/>
-      <c r="AG20" s="101"/>
-      <c r="AH20" s="103"/>
-      <c r="AI20" s="101"/>
-      <c r="AJ20" s="104"/>
-      <c r="AK20" s="101"/>
-      <c r="AL20" s="103"/>
-      <c r="AM20" s="101"/>
-      <c r="AN20" s="104"/>
-      <c r="AO20" s="101"/>
-      <c r="AP20" s="103"/>
-      <c r="AQ20" s="101"/>
-      <c r="AR20" s="104"/>
-      <c r="AS20" s="101"/>
-      <c r="AT20" s="105"/>
-      <c r="AU20" s="106"/>
-      <c r="AV20" s="107"/>
-      <c r="AW20" s="107"/>
-      <c r="AX20" s="91"/>
+      <c r="N20" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="R20" s="98"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="101"/>
+      <c r="AA20" s="101"/>
+      <c r="AB20" s="101"/>
+      <c r="AC20" s="101"/>
+      <c r="AD20" s="102"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="103"/>
+      <c r="AG20" s="100"/>
+      <c r="AH20" s="102"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="103"/>
+      <c r="AK20" s="100"/>
+      <c r="AL20" s="102"/>
+      <c r="AM20" s="100"/>
+      <c r="AN20" s="103"/>
+      <c r="AO20" s="100"/>
+      <c r="AP20" s="102"/>
+      <c r="AQ20" s="100"/>
+      <c r="AR20" s="103"/>
+      <c r="AS20" s="100"/>
+      <c r="AT20" s="104"/>
+      <c r="AU20" s="105"/>
+      <c r="AV20" s="106"/>
+      <c r="AW20" s="106"/>
+      <c r="AX20" s="90"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E21" s="93"/>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
       <c r="H21" s="60"/>
       <c r="I21" s="60"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
       <c r="M21" s="60"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="102"/>
-      <c r="X21" s="102"/>
-      <c r="Y21" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z21" s="102"/>
-      <c r="AA21" s="102"/>
-      <c r="AB21" s="102"/>
-      <c r="AC21" s="102"/>
-      <c r="AD21" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE21" s="101"/>
-      <c r="AF21" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG21" s="101"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="101"/>
-      <c r="AJ21" s="104"/>
-      <c r="AK21" s="101"/>
-      <c r="AL21" s="103"/>
-      <c r="AM21" s="101"/>
-      <c r="AN21" s="104"/>
-      <c r="AO21" s="101"/>
-      <c r="AP21" s="103"/>
-      <c r="AQ21" s="101"/>
-      <c r="AR21" s="104"/>
-      <c r="AS21" s="101"/>
-      <c r="AT21" s="105"/>
-      <c r="AU21" s="106"/>
-      <c r="AV21" s="107"/>
-      <c r="AW21" s="107"/>
-      <c r="AX21" s="91"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U21" s="101"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="101"/>
+      <c r="AB21" s="101"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG21" s="100"/>
+      <c r="AH21" s="102"/>
+      <c r="AI21" s="100"/>
+      <c r="AJ21" s="103"/>
+      <c r="AK21" s="100"/>
+      <c r="AL21" s="102"/>
+      <c r="AM21" s="100"/>
+      <c r="AN21" s="103"/>
+      <c r="AO21" s="100"/>
+      <c r="AP21" s="102"/>
+      <c r="AQ21" s="100"/>
+      <c r="AR21" s="103"/>
+      <c r="AS21" s="100"/>
+      <c r="AT21" s="104"/>
+      <c r="AU21" s="105"/>
+      <c r="AV21" s="106"/>
+      <c r="AW21" s="106"/>
+      <c r="AX21" s="90"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E22" s="93"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
       <c r="H22" s="60"/>
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="102"/>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="102"/>
-      <c r="Z22" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA22" s="102"/>
-      <c r="AB22" s="102"/>
-      <c r="AC22" s="102"/>
-      <c r="AD22" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE22" s="101"/>
-      <c r="AF22" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG22" s="101"/>
-      <c r="AH22" s="103"/>
-      <c r="AI22" s="101"/>
-      <c r="AJ22" s="104"/>
-      <c r="AK22" s="101"/>
-      <c r="AL22" s="103"/>
-      <c r="AM22" s="101"/>
-      <c r="AN22" s="104"/>
-      <c r="AO22" s="101"/>
-      <c r="AP22" s="103"/>
-      <c r="AQ22" s="101"/>
-      <c r="AR22" s="104"/>
-      <c r="AS22" s="101"/>
-      <c r="AT22" s="105"/>
-      <c r="AU22" s="106"/>
-      <c r="AV22" s="107"/>
-      <c r="AW22" s="107"/>
-      <c r="AX22" s="91"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U22" s="101"/>
+      <c r="V22" s="101"/>
+      <c r="W22" s="101"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="101"/>
+      <c r="Z22" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA22" s="101"/>
+      <c r="AB22" s="101"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG22" s="100"/>
+      <c r="AH22" s="102"/>
+      <c r="AI22" s="100"/>
+      <c r="AJ22" s="103"/>
+      <c r="AK22" s="100"/>
+      <c r="AL22" s="102"/>
+      <c r="AM22" s="100"/>
+      <c r="AN22" s="103"/>
+      <c r="AO22" s="100"/>
+      <c r="AP22" s="102"/>
+      <c r="AQ22" s="100"/>
+      <c r="AR22" s="103"/>
+      <c r="AS22" s="100"/>
+      <c r="AT22" s="104"/>
+      <c r="AU22" s="105"/>
+      <c r="AV22" s="106"/>
+      <c r="AW22" s="106"/>
+      <c r="AX22" s="90"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E23" s="93"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
       <c r="H23" s="60"/>
@@ -5631,86 +5678,86 @@
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="60"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="101" t="s">
+      <c r="N23" s="94"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+      <c r="W23" s="101"/>
+      <c r="X23" s="101"/>
+      <c r="Y23" s="101"/>
+      <c r="Z23" s="101"/>
+      <c r="AA23" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB23" s="101"/>
+      <c r="AC23" s="101"/>
+      <c r="AD23" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG23" s="100"/>
+      <c r="AH23" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="U23" s="102"/>
-      <c r="V23" s="102"/>
-      <c r="W23" s="102"/>
-      <c r="X23" s="102"/>
-      <c r="Y23" s="102"/>
-      <c r="Z23" s="102"/>
-      <c r="AA23" s="102" t="s">
+      <c r="AI23" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="AB23" s="102"/>
-      <c r="AC23" s="102"/>
-      <c r="AD23" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE23" s="101"/>
-      <c r="AF23" s="104" t="s">
+      <c r="AJ23" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="AG23" s="101"/>
-      <c r="AH23" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI23" s="101" t="s">
+      <c r="AK23" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="AJ23" s="104" t="s">
+      <c r="AL23" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM23" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN23" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="AK23" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL23" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM23" s="101" t="s">
+      <c r="AO23" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="AN23" s="104" t="s">
+      <c r="AP23" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ23" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR23" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="AO23" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP23" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ23" s="101" t="s">
+      <c r="AS23" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="AR23" s="104" t="s">
-        <v>132</v>
-      </c>
-      <c r="AS23" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT23" s="105"/>
-      <c r="AU23" s="106"/>
-      <c r="AV23" s="107"/>
-      <c r="AW23" s="107"/>
-      <c r="AX23" s="91"/>
+      <c r="AT23" s="104"/>
+      <c r="AU23" s="105"/>
+      <c r="AV23" s="106"/>
+      <c r="AW23" s="106"/>
+      <c r="AX23" s="90"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E24" s="93"/>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
       <c r="H24" s="60"/>
@@ -5719,62 +5766,62 @@
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="102"/>
-      <c r="Y24" s="102"/>
-      <c r="Z24" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="102"/>
-      <c r="AC24" s="102"/>
-      <c r="AD24" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE24" s="101"/>
-      <c r="AF24" s="104" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG24" s="101"/>
-      <c r="AH24" s="103"/>
-      <c r="AI24" s="101"/>
-      <c r="AJ24" s="104"/>
-      <c r="AK24" s="101"/>
-      <c r="AL24" s="103"/>
-      <c r="AM24" s="101"/>
-      <c r="AN24" s="104"/>
-      <c r="AO24" s="101"/>
-      <c r="AP24" s="103"/>
-      <c r="AQ24" s="101"/>
-      <c r="AR24" s="104"/>
-      <c r="AS24" s="101"/>
-      <c r="AT24" s="105"/>
-      <c r="AU24" s="106"/>
-      <c r="AV24" s="107"/>
-      <c r="AW24" s="107"/>
-      <c r="AX24" s="91"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U24" s="101"/>
+      <c r="V24" s="101"/>
+      <c r="W24" s="101"/>
+      <c r="X24" s="101"/>
+      <c r="Y24" s="101"/>
+      <c r="Z24" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA24" s="101"/>
+      <c r="AB24" s="101"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE24" s="100"/>
+      <c r="AF24" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG24" s="100"/>
+      <c r="AH24" s="102"/>
+      <c r="AI24" s="100"/>
+      <c r="AJ24" s="103"/>
+      <c r="AK24" s="100"/>
+      <c r="AL24" s="102"/>
+      <c r="AM24" s="100"/>
+      <c r="AN24" s="103"/>
+      <c r="AO24" s="100"/>
+      <c r="AP24" s="102"/>
+      <c r="AQ24" s="100"/>
+      <c r="AR24" s="103"/>
+      <c r="AS24" s="100"/>
+      <c r="AT24" s="104"/>
+      <c r="AU24" s="105"/>
+      <c r="AV24" s="106"/>
+      <c r="AW24" s="106"/>
+      <c r="AX24" s="90"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="92"/>
-      <c r="B25" s="92"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E25" s="93"/>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
       <c r="H25" s="60"/>
@@ -5783,68 +5830,68 @@
       <c r="K25" s="60"/>
       <c r="L25" s="60"/>
       <c r="M25" s="60"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U25" s="102"/>
-      <c r="V25" s="102"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="102"/>
-      <c r="Y25" s="102"/>
-      <c r="Z25" s="102"/>
-      <c r="AA25" s="102" t="s">
+      <c r="N25" s="94"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="101"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="101"/>
+      <c r="AA25" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB25" s="101"/>
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE25" s="100"/>
+      <c r="AF25" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="AB25" s="102"/>
-      <c r="AC25" s="102"/>
-      <c r="AD25" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE25" s="101"/>
-      <c r="AF25" s="104" t="s">
+      <c r="AG25" s="100"/>
+      <c r="AH25" s="102"/>
+      <c r="AI25" s="100"/>
+      <c r="AJ25" s="103"/>
+      <c r="AK25" s="100"/>
+      <c r="AL25" s="102"/>
+      <c r="AM25" s="100"/>
+      <c r="AN25" s="103"/>
+      <c r="AO25" s="100"/>
+      <c r="AP25" s="102"/>
+      <c r="AQ25" s="100"/>
+      <c r="AR25" s="103"/>
+      <c r="AS25" s="100"/>
+      <c r="AT25" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU25" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="AG25" s="101"/>
-      <c r="AH25" s="103"/>
-      <c r="AI25" s="101"/>
-      <c r="AJ25" s="104"/>
-      <c r="AK25" s="101"/>
-      <c r="AL25" s="103"/>
-      <c r="AM25" s="101"/>
-      <c r="AN25" s="104"/>
-      <c r="AO25" s="101"/>
-      <c r="AP25" s="103"/>
-      <c r="AQ25" s="101"/>
-      <c r="AR25" s="104"/>
-      <c r="AS25" s="101"/>
-      <c r="AT25" s="105" t="s">
+      <c r="AV25" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="AU25" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV25" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW25" s="110"/>
-      <c r="AX25" s="91"/>
+      <c r="AW25" s="109"/>
+      <c r="AX25" s="90"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="92"/>
-      <c r="B26" s="92"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E26" s="93"/>
       <c r="F26" s="60"/>
       <c r="G26" s="60"/>
       <c r="H26" s="60"/>
@@ -5853,68 +5900,68 @@
       <c r="K26" s="60"/>
       <c r="L26" s="60"/>
       <c r="M26" s="60"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="102"/>
-      <c r="Y26" s="102"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="102" t="s">
+      <c r="N26" s="94"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U26" s="101"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="101"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB26" s="101"/>
+      <c r="AC26" s="101"/>
+      <c r="AD26" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="AB26" s="102"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE26" s="101"/>
-      <c r="AF26" s="104" t="s">
+      <c r="AG26" s="100"/>
+      <c r="AH26" s="102"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="103"/>
+      <c r="AK26" s="100"/>
+      <c r="AL26" s="102"/>
+      <c r="AM26" s="100"/>
+      <c r="AN26" s="103"/>
+      <c r="AO26" s="100"/>
+      <c r="AP26" s="102"/>
+      <c r="AQ26" s="100"/>
+      <c r="AR26" s="103"/>
+      <c r="AS26" s="100"/>
+      <c r="AT26" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU26" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="AG26" s="101"/>
-      <c r="AH26" s="103"/>
-      <c r="AI26" s="101"/>
-      <c r="AJ26" s="104"/>
-      <c r="AK26" s="101"/>
-      <c r="AL26" s="103"/>
-      <c r="AM26" s="101"/>
-      <c r="AN26" s="104"/>
-      <c r="AO26" s="101"/>
-      <c r="AP26" s="103"/>
-      <c r="AQ26" s="101"/>
-      <c r="AR26" s="104"/>
-      <c r="AS26" s="101"/>
-      <c r="AT26" s="105" t="s">
+      <c r="AV26" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="AU26" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV26" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW26" s="110"/>
-      <c r="AX26" s="91"/>
+      <c r="AW26" s="109"/>
+      <c r="AX26" s="90"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="92"/>
-      <c r="B27" s="92"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E27" s="93"/>
       <c r="F27" s="60"/>
       <c r="G27" s="60"/>
       <c r="H27" s="60"/>
@@ -5923,68 +5970,68 @@
       <c r="K27" s="60"/>
       <c r="L27" s="60"/>
       <c r="M27" s="60"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U27" s="102"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="102"/>
-      <c r="X27" s="102"/>
-      <c r="Y27" s="102"/>
-      <c r="Z27" s="102"/>
-      <c r="AA27" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB27" s="102"/>
-      <c r="AC27" s="102"/>
-      <c r="AD27" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE27" s="101"/>
-      <c r="AF27" s="104" t="s">
+      <c r="N27" s="94"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="99"/>
+      <c r="T27" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB27" s="101"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE27" s="100"/>
+      <c r="AF27" s="103" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG27" s="100"/>
+      <c r="AH27" s="102"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="103"/>
+      <c r="AK27" s="100"/>
+      <c r="AL27" s="102"/>
+      <c r="AM27" s="100"/>
+      <c r="AN27" s="103"/>
+      <c r="AO27" s="100"/>
+      <c r="AP27" s="102"/>
+      <c r="AQ27" s="100"/>
+      <c r="AR27" s="103"/>
+      <c r="AS27" s="100"/>
+      <c r="AT27" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU27" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="AG27" s="101"/>
-      <c r="AH27" s="103"/>
-      <c r="AI27" s="101"/>
-      <c r="AJ27" s="104"/>
-      <c r="AK27" s="101"/>
-      <c r="AL27" s="103"/>
-      <c r="AM27" s="101"/>
-      <c r="AN27" s="104"/>
-      <c r="AO27" s="101"/>
-      <c r="AP27" s="103"/>
-      <c r="AQ27" s="101"/>
-      <c r="AR27" s="104"/>
-      <c r="AS27" s="101"/>
-      <c r="AT27" s="105" t="s">
+      <c r="AV27" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="AU27" s="106" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV27" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW27" s="110"/>
-      <c r="AX27" s="91"/>
+      <c r="AW27" s="109"/>
+      <c r="AX27" s="90"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="92"/>
-      <c r="B28" s="92"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E28" s="93"/>
       <c r="F28" s="60"/>
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
@@ -5993,195 +6040,195 @@
       <c r="K28" s="60"/>
       <c r="L28" s="60"/>
       <c r="M28" s="60"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="98"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U28" s="102"/>
-      <c r="V28" s="102"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="102"/>
-      <c r="Z28" s="102"/>
-      <c r="AA28" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB28" s="102"/>
-      <c r="AC28" s="102"/>
-      <c r="AD28" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE28" s="101"/>
-      <c r="AF28" s="104" t="s">
+      <c r="N28" s="94"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U28" s="101"/>
+      <c r="V28" s="101"/>
+      <c r="W28" s="101"/>
+      <c r="X28" s="101"/>
+      <c r="Y28" s="101"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB28" s="101"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="102"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="103"/>
+      <c r="AK28" s="100"/>
+      <c r="AL28" s="102"/>
+      <c r="AM28" s="100"/>
+      <c r="AN28" s="103"/>
+      <c r="AO28" s="100"/>
+      <c r="AP28" s="102"/>
+      <c r="AQ28" s="100"/>
+      <c r="AR28" s="103"/>
+      <c r="AS28" s="100"/>
+      <c r="AT28" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU28" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="AG28" s="101"/>
-      <c r="AH28" s="103"/>
-      <c r="AI28" s="101"/>
-      <c r="AJ28" s="104"/>
-      <c r="AK28" s="101"/>
-      <c r="AL28" s="103"/>
-      <c r="AM28" s="101"/>
-      <c r="AN28" s="104"/>
-      <c r="AO28" s="101"/>
-      <c r="AP28" s="103"/>
-      <c r="AQ28" s="101"/>
-      <c r="AR28" s="104"/>
-      <c r="AS28" s="101"/>
-      <c r="AT28" s="105" t="s">
+      <c r="AV28" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="AU28" s="106" t="s">
-        <v>143</v>
-      </c>
-      <c r="AV28" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW28" s="110"/>
-      <c r="AX28" s="91"/>
+      <c r="AW28" s="109"/>
+      <c r="AX28" s="90"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="92"/>
-      <c r="B29" s="92"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E29" s="93"/>
       <c r="F29" s="60"/>
-      <c r="G29" s="111"/>
+      <c r="G29" s="110"/>
       <c r="H29" s="60"/>
       <c r="I29" s="60"/>
       <c r="J29" s="60"/>
       <c r="K29" s="60"/>
       <c r="L29" s="60"/>
       <c r="M29" s="60"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="98"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U29" s="102"/>
-      <c r="V29" s="102"/>
-      <c r="W29" s="102"/>
-      <c r="X29" s="102"/>
-      <c r="Y29" s="102"/>
-      <c r="Z29" s="102" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA29" s="102"/>
-      <c r="AB29" s="102"/>
-      <c r="AC29" s="102"/>
-      <c r="AD29" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE29" s="101"/>
-      <c r="AF29" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG29" s="101"/>
-      <c r="AH29" s="103"/>
-      <c r="AI29" s="101"/>
-      <c r="AJ29" s="104"/>
-      <c r="AK29" s="101"/>
-      <c r="AL29" s="103"/>
-      <c r="AM29" s="101"/>
-      <c r="AN29" s="104"/>
-      <c r="AO29" s="101"/>
-      <c r="AP29" s="103"/>
-      <c r="AQ29" s="101"/>
-      <c r="AR29" s="104"/>
-      <c r="AS29" s="101"/>
-      <c r="AT29" s="105"/>
-      <c r="AU29" s="106"/>
-      <c r="AV29" s="107"/>
-      <c r="AW29" s="107"/>
-      <c r="AX29" s="91"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA29" s="101"/>
+      <c r="AB29" s="101"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG29" s="100"/>
+      <c r="AH29" s="102"/>
+      <c r="AI29" s="100"/>
+      <c r="AJ29" s="103"/>
+      <c r="AK29" s="100"/>
+      <c r="AL29" s="102"/>
+      <c r="AM29" s="100"/>
+      <c r="AN29" s="103"/>
+      <c r="AO29" s="100"/>
+      <c r="AP29" s="102"/>
+      <c r="AQ29" s="100"/>
+      <c r="AR29" s="103"/>
+      <c r="AS29" s="100"/>
+      <c r="AT29" s="104"/>
+      <c r="AU29" s="105"/>
+      <c r="AV29" s="106"/>
+      <c r="AW29" s="106"/>
+      <c r="AX29" s="90"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="92"/>
-      <c r="B30" s="92"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D30" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="111"/>
+        <v>85</v>
+      </c>
+      <c r="E30" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="110"/>
       <c r="G30" s="60"/>
       <c r="H30" s="60"/>
-      <c r="I30" s="111"/>
+      <c r="I30" s="110"/>
       <c r="J30" s="60"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="111" t="s">
-        <v>145</v>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110" t="s">
+        <v>144</v>
       </c>
       <c r="M30" s="60"/>
-      <c r="N30" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="O30" s="96"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="102"/>
-      <c r="V30" s="102"/>
-      <c r="W30" s="102"/>
-      <c r="X30" s="102"/>
-      <c r="Y30" s="102"/>
-      <c r="Z30" s="102"/>
-      <c r="AA30" s="102"/>
-      <c r="AB30" s="102"/>
-      <c r="AC30" s="102"/>
-      <c r="AD30" s="103"/>
-      <c r="AE30" s="101"/>
-      <c r="AF30" s="104"/>
-      <c r="AG30" s="101"/>
-      <c r="AH30" s="103"/>
-      <c r="AI30" s="101"/>
-      <c r="AJ30" s="104"/>
-      <c r="AK30" s="101"/>
-      <c r="AL30" s="103"/>
-      <c r="AM30" s="101"/>
-      <c r="AN30" s="104"/>
-      <c r="AO30" s="101"/>
-      <c r="AP30" s="103"/>
-      <c r="AQ30" s="101"/>
-      <c r="AR30" s="104"/>
-      <c r="AS30" s="101"/>
-      <c r="AT30" s="105"/>
-      <c r="AU30" s="106"/>
-      <c r="AV30" s="107"/>
-      <c r="AW30" s="107"/>
-      <c r="AX30" s="91"/>
+      <c r="N30" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="101"/>
+      <c r="AA30" s="101"/>
+      <c r="AB30" s="101"/>
+      <c r="AC30" s="101"/>
+      <c r="AD30" s="102"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="103"/>
+      <c r="AG30" s="100"/>
+      <c r="AH30" s="102"/>
+      <c r="AI30" s="100"/>
+      <c r="AJ30" s="103"/>
+      <c r="AK30" s="100"/>
+      <c r="AL30" s="102"/>
+      <c r="AM30" s="100"/>
+      <c r="AN30" s="103"/>
+      <c r="AO30" s="100"/>
+      <c r="AP30" s="102"/>
+      <c r="AQ30" s="100"/>
+      <c r="AR30" s="103"/>
+      <c r="AS30" s="100"/>
+      <c r="AT30" s="104"/>
+      <c r="AU30" s="105"/>
+      <c r="AV30" s="106"/>
+      <c r="AW30" s="106"/>
+      <c r="AX30" s="90"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="92"/>
-      <c r="B31" s="92"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="93" t="s">
         <v>86</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="94" t="s">
-        <v>88</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="60"/>
@@ -6191,320 +6238,320 @@
       <c r="K31" s="60"/>
       <c r="L31" s="60"/>
       <c r="M31" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="N31" s="94"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q31" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="N31" s="95"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q31" s="98" t="s">
-        <v>147</v>
-      </c>
-      <c r="R31" s="99"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="102"/>
-      <c r="V31" s="102"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="102"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="102"/>
-      <c r="AA31" s="102"/>
-      <c r="AB31" s="102"/>
-      <c r="AC31" s="102"/>
-      <c r="AD31" s="103"/>
-      <c r="AE31" s="101"/>
-      <c r="AF31" s="104"/>
-      <c r="AG31" s="101"/>
-      <c r="AH31" s="103"/>
-      <c r="AI31" s="101"/>
-      <c r="AJ31" s="104"/>
-      <c r="AK31" s="101"/>
-      <c r="AL31" s="103"/>
-      <c r="AM31" s="101"/>
-      <c r="AN31" s="104"/>
-      <c r="AO31" s="101"/>
-      <c r="AP31" s="103"/>
-      <c r="AQ31" s="101"/>
-      <c r="AR31" s="104"/>
-      <c r="AS31" s="101"/>
-      <c r="AT31" s="105"/>
-      <c r="AU31" s="106"/>
-      <c r="AV31" s="107"/>
-      <c r="AW31" s="107"/>
-      <c r="AX31" s="91"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="99"/>
+      <c r="T31" s="100"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="101"/>
+      <c r="AA31" s="101"/>
+      <c r="AB31" s="101"/>
+      <c r="AC31" s="101"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="100"/>
+      <c r="AF31" s="103"/>
+      <c r="AG31" s="100"/>
+      <c r="AH31" s="102"/>
+      <c r="AI31" s="100"/>
+      <c r="AJ31" s="103"/>
+      <c r="AK31" s="100"/>
+      <c r="AL31" s="102"/>
+      <c r="AM31" s="100"/>
+      <c r="AN31" s="103"/>
+      <c r="AO31" s="100"/>
+      <c r="AP31" s="102"/>
+      <c r="AQ31" s="100"/>
+      <c r="AR31" s="103"/>
+      <c r="AS31" s="100"/>
+      <c r="AT31" s="104"/>
+      <c r="AU31" s="105"/>
+      <c r="AV31" s="106"/>
+      <c r="AW31" s="106"/>
+      <c r="AX31" s="90"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E32" s="93"/>
       <c r="F32" s="60"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
       <c r="I32" s="60"/>
-      <c r="J32" s="111"/>
+      <c r="J32" s="110"/>
       <c r="K32" s="60"/>
-      <c r="L32" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="M32" s="111"/>
-      <c r="N32" s="95" t="s">
+      <c r="L32" s="110" t="s">
+        <v>144</v>
+      </c>
+      <c r="M32" s="110"/>
+      <c r="N32" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="96"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="112"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="101"/>
-      <c r="U32" s="102"/>
-      <c r="V32" s="102"/>
-      <c r="W32" s="102"/>
-      <c r="X32" s="102"/>
-      <c r="Y32" s="102"/>
-      <c r="Z32" s="102"/>
-      <c r="AA32" s="102"/>
-      <c r="AB32" s="102"/>
-      <c r="AC32" s="102"/>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="101"/>
-      <c r="AF32" s="104"/>
-      <c r="AG32" s="101"/>
-      <c r="AH32" s="103"/>
-      <c r="AI32" s="101"/>
-      <c r="AJ32" s="104"/>
-      <c r="AK32" s="101"/>
-      <c r="AL32" s="103"/>
-      <c r="AM32" s="101"/>
-      <c r="AN32" s="104"/>
-      <c r="AO32" s="101"/>
-      <c r="AP32" s="103"/>
-      <c r="AQ32" s="101"/>
-      <c r="AR32" s="104"/>
-      <c r="AS32" s="101"/>
-      <c r="AT32" s="105"/>
-      <c r="AU32" s="106"/>
-      <c r="AV32" s="107"/>
-      <c r="AW32" s="107"/>
-      <c r="AX32" s="91"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="101"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="101"/>
+      <c r="Z32" s="101"/>
+      <c r="AA32" s="101"/>
+      <c r="AB32" s="101"/>
+      <c r="AC32" s="101"/>
+      <c r="AD32" s="102"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="103"/>
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="102"/>
+      <c r="AI32" s="100"/>
+      <c r="AJ32" s="103"/>
+      <c r="AK32" s="100"/>
+      <c r="AL32" s="102"/>
+      <c r="AM32" s="100"/>
+      <c r="AN32" s="103"/>
+      <c r="AO32" s="100"/>
+      <c r="AP32" s="102"/>
+      <c r="AQ32" s="100"/>
+      <c r="AR32" s="103"/>
+      <c r="AS32" s="100"/>
+      <c r="AT32" s="104"/>
+      <c r="AU32" s="105"/>
+      <c r="AV32" s="106"/>
+      <c r="AW32" s="106"/>
+      <c r="AX32" s="90"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E33" s="93"/>
       <c r="F33" s="60"/>
-      <c r="G33" s="111"/>
+      <c r="G33" s="110"/>
       <c r="H33" s="60"/>
       <c r="I33" s="60"/>
       <c r="J33" s="60"/>
       <c r="K33" s="60"/>
       <c r="L33" s="60"/>
       <c r="M33" s="60"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="98"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="102"/>
-      <c r="AA33" s="102"/>
-      <c r="AB33" s="102"/>
-      <c r="AC33" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="101"/>
-      <c r="AF33" s="104"/>
-      <c r="AG33" s="101"/>
-      <c r="AH33" s="103"/>
-      <c r="AI33" s="101"/>
-      <c r="AJ33" s="104"/>
-      <c r="AK33" s="101"/>
-      <c r="AL33" s="103"/>
-      <c r="AM33" s="101"/>
-      <c r="AN33" s="104"/>
-      <c r="AO33" s="101"/>
-      <c r="AP33" s="103" t="s">
+      <c r="N33" s="94"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="101"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="101"/>
+      <c r="AA33" s="101"/>
+      <c r="AB33" s="101"/>
+      <c r="AC33" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD33" s="102"/>
+      <c r="AE33" s="100"/>
+      <c r="AF33" s="103"/>
+      <c r="AG33" s="100"/>
+      <c r="AH33" s="102"/>
+      <c r="AI33" s="100"/>
+      <c r="AJ33" s="103"/>
+      <c r="AK33" s="100"/>
+      <c r="AL33" s="102"/>
+      <c r="AM33" s="100"/>
+      <c r="AN33" s="103"/>
+      <c r="AO33" s="100"/>
+      <c r="AP33" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ33" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR33" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="AQ33" s="101" t="s">
+      <c r="AS33" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="AR33" s="104" t="s">
+      <c r="AT33" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU33" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="AS33" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT33" s="105" t="s">
+      <c r="AV33" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="AU33" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV33" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW33" s="110"/>
-      <c r="AX33" s="91"/>
+      <c r="AW33" s="109"/>
+      <c r="AX33" s="90"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D34" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E34" s="93"/>
       <c r="F34" s="60"/>
-      <c r="G34" s="111"/>
+      <c r="G34" s="110"/>
       <c r="H34" s="60"/>
       <c r="I34" s="60"/>
       <c r="J34" s="60"/>
       <c r="K34" s="60"/>
       <c r="L34" s="60"/>
       <c r="M34" s="60"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="98"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="100"/>
-      <c r="T34" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="U34" s="102"/>
-      <c r="V34" s="102" t="s">
+      <c r="N34" s="94"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="98"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="U34" s="101"/>
+      <c r="V34" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="W34" s="101"/>
+      <c r="X34" s="101"/>
+      <c r="Y34" s="101"/>
+      <c r="Z34" s="101"/>
+      <c r="AA34" s="101"/>
+      <c r="AB34" s="101"/>
+      <c r="AC34" s="101"/>
+      <c r="AD34" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE34" s="100"/>
+      <c r="AF34" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="W34" s="102"/>
-      <c r="X34" s="102"/>
-      <c r="Y34" s="102"/>
-      <c r="Z34" s="102"/>
-      <c r="AA34" s="102"/>
-      <c r="AB34" s="102"/>
-      <c r="AC34" s="102"/>
-      <c r="AD34" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE34" s="101"/>
-      <c r="AF34" s="104" t="s">
+      <c r="AG34" s="100"/>
+      <c r="AH34" s="102"/>
+      <c r="AI34" s="100"/>
+      <c r="AJ34" s="103"/>
+      <c r="AK34" s="100"/>
+      <c r="AL34" s="102"/>
+      <c r="AM34" s="100"/>
+      <c r="AN34" s="103"/>
+      <c r="AO34" s="100"/>
+      <c r="AP34" s="102"/>
+      <c r="AQ34" s="100"/>
+      <c r="AR34" s="103"/>
+      <c r="AS34" s="100"/>
+      <c r="AT34" s="104"/>
+      <c r="AU34" s="105"/>
+      <c r="AV34" s="106"/>
+      <c r="AW34" s="106"/>
+      <c r="AX34" s="90"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="93"/>
+      <c r="F35" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="AG34" s="101"/>
-      <c r="AH34" s="103"/>
-      <c r="AI34" s="101"/>
-      <c r="AJ34" s="104"/>
-      <c r="AK34" s="101"/>
-      <c r="AL34" s="103"/>
-      <c r="AM34" s="101"/>
-      <c r="AN34" s="104"/>
-      <c r="AO34" s="101"/>
-      <c r="AP34" s="103"/>
-      <c r="AQ34" s="101"/>
-      <c r="AR34" s="104"/>
-      <c r="AS34" s="101"/>
-      <c r="AT34" s="105"/>
-      <c r="AU34" s="106"/>
-      <c r="AV34" s="107"/>
-      <c r="AW34" s="107"/>
-      <c r="AX34" s="91"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="92"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="94"/>
-      <c r="F35" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="111"/>
+      <c r="G35" s="110"/>
       <c r="H35" s="60"/>
       <c r="I35" s="60"/>
       <c r="J35" s="60"/>
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
       <c r="M35" s="60"/>
-      <c r="N35" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="O35" s="96"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="99"/>
-      <c r="S35" s="100"/>
-      <c r="T35" s="101"/>
-      <c r="U35" s="102"/>
-      <c r="V35" s="102"/>
-      <c r="W35" s="102"/>
-      <c r="X35" s="102"/>
-      <c r="Y35" s="102"/>
-      <c r="Z35" s="102"/>
-      <c r="AA35" s="102"/>
-      <c r="AB35" s="102"/>
-      <c r="AC35" s="102"/>
-      <c r="AD35" s="103"/>
-      <c r="AE35" s="101"/>
-      <c r="AF35" s="104"/>
-      <c r="AG35" s="101"/>
-      <c r="AH35" s="103"/>
-      <c r="AI35" s="101"/>
-      <c r="AJ35" s="104"/>
-      <c r="AK35" s="101"/>
-      <c r="AL35" s="103"/>
-      <c r="AM35" s="101"/>
-      <c r="AN35" s="104"/>
-      <c r="AO35" s="101"/>
-      <c r="AP35" s="103"/>
-      <c r="AQ35" s="101"/>
-      <c r="AR35" s="104"/>
-      <c r="AS35" s="101"/>
-      <c r="AT35" s="105"/>
-      <c r="AU35" s="106"/>
-      <c r="AV35" s="107"/>
-      <c r="AW35" s="107"/>
-      <c r="AX35" s="91"/>
+      <c r="N35" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="O35" s="95"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="98"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="101"/>
+      <c r="W35" s="101"/>
+      <c r="X35" s="101"/>
+      <c r="Y35" s="101"/>
+      <c r="Z35" s="101"/>
+      <c r="AA35" s="101"/>
+      <c r="AB35" s="101"/>
+      <c r="AC35" s="101"/>
+      <c r="AD35" s="102"/>
+      <c r="AE35" s="100"/>
+      <c r="AF35" s="103"/>
+      <c r="AG35" s="100"/>
+      <c r="AH35" s="102"/>
+      <c r="AI35" s="100"/>
+      <c r="AJ35" s="103"/>
+      <c r="AK35" s="100"/>
+      <c r="AL35" s="102"/>
+      <c r="AM35" s="100"/>
+      <c r="AN35" s="103"/>
+      <c r="AO35" s="100"/>
+      <c r="AP35" s="102"/>
+      <c r="AQ35" s="100"/>
+      <c r="AR35" s="103"/>
+      <c r="AS35" s="100"/>
+      <c r="AT35" s="104"/>
+      <c r="AU35" s="105"/>
+      <c r="AV35" s="106"/>
+      <c r="AW35" s="106"/>
+      <c r="AX35" s="90"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="94"/>
+        <v>85</v>
+      </c>
+      <c r="E36" s="93"/>
       <c r="F36" s="60"/>
-      <c r="G36" s="113" t="s">
+      <c r="G36" s="112" t="s">
         <v>153</v>
       </c>
       <c r="H36" s="60"/>
@@ -6513,184 +6560,184 @@
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
       <c r="M36" s="60"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="98"/>
-      <c r="R36" s="99"/>
-      <c r="S36" s="100"/>
-      <c r="T36" s="101"/>
-      <c r="U36" s="102"/>
-      <c r="V36" s="102"/>
-      <c r="W36" s="102"/>
-      <c r="X36" s="102"/>
-      <c r="Y36" s="102"/>
-      <c r="Z36" s="102"/>
-      <c r="AA36" s="102"/>
-      <c r="AB36" s="102"/>
-      <c r="AC36" s="102"/>
-      <c r="AD36" s="103"/>
-      <c r="AE36" s="101"/>
-      <c r="AF36" s="104"/>
-      <c r="AG36" s="101"/>
-      <c r="AH36" s="103"/>
-      <c r="AI36" s="101"/>
-      <c r="AJ36" s="104"/>
-      <c r="AK36" s="101"/>
-      <c r="AL36" s="103"/>
-      <c r="AM36" s="101"/>
-      <c r="AN36" s="104"/>
-      <c r="AO36" s="101"/>
-      <c r="AP36" s="103"/>
-      <c r="AQ36" s="101"/>
-      <c r="AR36" s="104"/>
-      <c r="AS36" s="101"/>
-      <c r="AT36" s="105"/>
-      <c r="AU36" s="106"/>
-      <c r="AV36" s="107"/>
-      <c r="AW36" s="107"/>
-      <c r="AX36" s="91"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="100"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="101"/>
+      <c r="X36" s="101"/>
+      <c r="Y36" s="101"/>
+      <c r="Z36" s="101"/>
+      <c r="AA36" s="101"/>
+      <c r="AB36" s="101"/>
+      <c r="AC36" s="101"/>
+      <c r="AD36" s="102"/>
+      <c r="AE36" s="100"/>
+      <c r="AF36" s="103"/>
+      <c r="AG36" s="100"/>
+      <c r="AH36" s="102"/>
+      <c r="AI36" s="100"/>
+      <c r="AJ36" s="103"/>
+      <c r="AK36" s="100"/>
+      <c r="AL36" s="102"/>
+      <c r="AM36" s="100"/>
+      <c r="AN36" s="103"/>
+      <c r="AO36" s="100"/>
+      <c r="AP36" s="102"/>
+      <c r="AQ36" s="100"/>
+      <c r="AR36" s="103"/>
+      <c r="AS36" s="100"/>
+      <c r="AT36" s="104"/>
+      <c r="AU36" s="105"/>
+      <c r="AV36" s="106"/>
+      <c r="AW36" s="106"/>
+      <c r="AX36" s="90"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="92"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="60"/>
-      <c r="G37" s="113"/>
+      <c r="G37" s="112"/>
       <c r="H37" s="60"/>
       <c r="I37" s="60"/>
       <c r="J37" s="60"/>
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
       <c r="M37" s="60"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="98"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="100"/>
-      <c r="T37" s="101"/>
-      <c r="U37" s="102"/>
-      <c r="V37" s="102"/>
-      <c r="W37" s="102"/>
-      <c r="X37" s="102"/>
-      <c r="Y37" s="102"/>
-      <c r="Z37" s="102"/>
-      <c r="AA37" s="102"/>
-      <c r="AB37" s="102"/>
-      <c r="AC37" s="102"/>
-      <c r="AD37" s="103"/>
-      <c r="AE37" s="101"/>
-      <c r="AF37" s="104"/>
-      <c r="AG37" s="101"/>
-      <c r="AH37" s="103"/>
-      <c r="AI37" s="101"/>
-      <c r="AJ37" s="104"/>
-      <c r="AK37" s="101"/>
-      <c r="AL37" s="103"/>
-      <c r="AM37" s="101"/>
-      <c r="AN37" s="104"/>
-      <c r="AO37" s="101"/>
-      <c r="AP37" s="103"/>
-      <c r="AQ37" s="101"/>
-      <c r="AR37" s="104"/>
-      <c r="AS37" s="101"/>
-      <c r="AT37" s="105"/>
-      <c r="AU37" s="106"/>
-      <c r="AV37" s="107"/>
-      <c r="AW37" s="107"/>
-      <c r="AX37" s="91"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="97"/>
+      <c r="R37" s="98"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="100"/>
+      <c r="U37" s="101"/>
+      <c r="V37" s="101"/>
+      <c r="W37" s="101"/>
+      <c r="X37" s="101"/>
+      <c r="Y37" s="101"/>
+      <c r="Z37" s="101"/>
+      <c r="AA37" s="101"/>
+      <c r="AB37" s="101"/>
+      <c r="AC37" s="101"/>
+      <c r="AD37" s="102"/>
+      <c r="AE37" s="100"/>
+      <c r="AF37" s="103"/>
+      <c r="AG37" s="100"/>
+      <c r="AH37" s="102"/>
+      <c r="AI37" s="100"/>
+      <c r="AJ37" s="103"/>
+      <c r="AK37" s="100"/>
+      <c r="AL37" s="102"/>
+      <c r="AM37" s="100"/>
+      <c r="AN37" s="103"/>
+      <c r="AO37" s="100"/>
+      <c r="AP37" s="102"/>
+      <c r="AQ37" s="100"/>
+      <c r="AR37" s="103"/>
+      <c r="AS37" s="100"/>
+      <c r="AT37" s="104"/>
+      <c r="AU37" s="105"/>
+      <c r="AV37" s="106"/>
+      <c r="AW37" s="106"/>
+      <c r="AX37" s="90"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="91"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="115" t="n">
+      <c r="A38" s="90"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="G38" s="115" t="n">
+      <c r="G38" s="114" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="115" t="n">
+      <c r="H38" s="114" t="n">
         <v>2</v>
       </c>
-      <c r="I38" s="115" t="n">
+      <c r="I38" s="114" t="n">
         <v>3</v>
       </c>
-      <c r="J38" s="115" t="n">
+      <c r="J38" s="114" t="n">
         <v>4</v>
       </c>
-      <c r="K38" s="115" t="n">
+      <c r="K38" s="114" t="n">
         <v>5</v>
       </c>
-      <c r="L38" s="115" t="n">
+      <c r="L38" s="114" t="n">
         <v>6</v>
       </c>
-      <c r="M38" s="115" t="n">
+      <c r="M38" s="114" t="n">
         <v>7</v>
       </c>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="114"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="117"/>
-      <c r="S38" s="117"/>
-      <c r="T38" s="118"/>
-      <c r="U38" s="115" t="n">
+      <c r="N38" s="115"/>
+      <c r="O38" s="115"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="116"/>
+      <c r="S38" s="116"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="114" t="n">
         <v>0</v>
       </c>
-      <c r="V38" s="115" t="n">
+      <c r="V38" s="114" t="n">
         <v>1</v>
       </c>
-      <c r="W38" s="115" t="n">
+      <c r="W38" s="114" t="n">
         <v>2</v>
       </c>
-      <c r="X38" s="115" t="n">
+      <c r="X38" s="114" t="n">
         <v>3</v>
       </c>
-      <c r="Y38" s="115" t="n">
+      <c r="Y38" s="114" t="n">
         <v>4</v>
       </c>
-      <c r="Z38" s="115" t="n">
+      <c r="Z38" s="114" t="n">
         <v>5</v>
       </c>
-      <c r="AA38" s="115" t="n">
+      <c r="AA38" s="114" t="n">
         <v>6</v>
       </c>
-      <c r="AB38" s="115" t="n">
+      <c r="AB38" s="114" t="n">
         <v>7</v>
       </c>
-      <c r="AC38" s="115" t="n">
+      <c r="AC38" s="114" t="n">
         <v>8</v>
       </c>
-      <c r="AD38" s="91"/>
-      <c r="AE38" s="91"/>
-      <c r="AF38" s="91"/>
-      <c r="AG38" s="119"/>
-      <c r="AH38" s="91"/>
-      <c r="AI38" s="91"/>
-      <c r="AJ38" s="91"/>
-      <c r="AK38" s="119"/>
-      <c r="AL38" s="91"/>
-      <c r="AM38" s="91"/>
-      <c r="AN38" s="91"/>
-      <c r="AO38" s="119"/>
-      <c r="AP38" s="91"/>
-      <c r="AQ38" s="91"/>
-      <c r="AR38" s="91"/>
-      <c r="AS38" s="119"/>
-      <c r="AT38" s="118"/>
-      <c r="AU38" s="91"/>
-      <c r="AV38" s="119"/>
-      <c r="AW38" s="119"/>
-      <c r="AX38" s="91"/>
+      <c r="AD38" s="90"/>
+      <c r="AE38" s="90"/>
+      <c r="AF38" s="90"/>
+      <c r="AG38" s="118"/>
+      <c r="AH38" s="90"/>
+      <c r="AI38" s="90"/>
+      <c r="AJ38" s="90"/>
+      <c r="AK38" s="118"/>
+      <c r="AL38" s="90"/>
+      <c r="AM38" s="90"/>
+      <c r="AN38" s="90"/>
+      <c r="AO38" s="118"/>
+      <c r="AP38" s="90"/>
+      <c r="AQ38" s="90"/>
+      <c r="AR38" s="90"/>
+      <c r="AS38" s="118"/>
+      <c r="AT38" s="117"/>
+      <c r="AU38" s="90"/>
+      <c r="AV38" s="118"/>
+      <c r="AW38" s="118"/>
+      <c r="AX38" s="90"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V45" s="120"/>
+      <c r="V45" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="VINE" sheetId="1" state="hidden" r:id="rId3"/>
     <sheet name="VERS_0" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="VERS_1" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="VIEW" sheetId="4" state="hidden" r:id="rId6"/>
@@ -191,223 +191,43 @@
     <t xml:space="preserve">{}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">name"</t>
-    </r>
+    <t xml:space="preserve">"name"</t>
   </si>
   <si>
     <t xml:space="preserve">:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">dfc-configurator"</t>
-    </r>
+    <t xml:space="preserve">"dfc-configurator"</t>
   </si>
   <si>
     <t xml:space="preserve">,</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">author"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Thomas Patrick Welborn"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">workspaces"</t>
-    </r>
+    <t xml:space="preserve">"author"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Thomas Patrick Welborn"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"workspaces"</t>
   </si>
   <si>
     <t xml:space="preserve">[]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">devicebase"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">database"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">devDependencies"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">yargs"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">^17.7.2"</t>
-    </r>
+    <t xml:space="preserve">"devicebase"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"database"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"devDependencies"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"yargs"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^17.7.2"</t>
   </si>
   <si>
     <t xml:space="preserve">"main"</t>
@@ -416,130 +236,22 @@
     <t xml:space="preserve">"index.js"</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">dfc-configurator-devicebase</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">dfc-configurator-database"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">mongoose"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">^8.4.1"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">express"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">^4.19.2"</t>
-    </r>
+    <t xml:space="preserve">"dfc-configurator-devicebase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"dfc-configurator-database"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"mongoose"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^8.4.1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"express"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^4.19.2"</t>
   </si>
   <si>
     <t xml:space="preserve">"multer"</t>
@@ -548,46 +260,10 @@
     <t xml:space="preserve">"1.4.5-lts.1"</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">ejs"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="FreeMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">^3.1.10"</t>
-    </r>
+    <t xml:space="preserve">"ejs"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"^3.1.10"</t>
   </si>
   <si>
     <t xml:space="preserve">element</t>
@@ -847,7 +523,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -910,12 +586,6 @@
       <name val="FreeMono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="FreeMono"/>
-      <family val="3"/>
     </font>
     <font>
       <b val="true"/>
@@ -1536,7 +1206,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1624,26 +1294,26 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1688,7 +1358,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1700,11 +1370,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1740,7 +1410,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1748,11 +1418,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="23" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="23" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="31" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="31" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1768,11 +1438,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1780,7 +1450,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2924,7 +2594,7 @@
   </sheetPr>
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -3841,7 +3511,7 @@
   </sheetPr>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="VINE" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="VINE" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="VERS_0" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="VERS_1" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="VERS_1" sheetId="3" state="hidden" r:id="rId5"/>
     <sheet name="VIEW" sheetId="4" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -27,10 +27,10 @@
     <definedName function="false" hidden="false" localSheetId="1" name="MOD_0" vbProcedure="false">VERS_0!$A$1:$P$30</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_COM" vbProcedure="false">VERS_0!$A$4:$P$30</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="MOD_0_SUP" vbProcedure="false">VERS_0!$A$1:$P$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VERS_1!$A$1:$P$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VERS_1!$D$1:$I$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0" vbProcedure="false">VERS_1!$A$1:$P$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_COM" vbProcedure="false">VERS_1!$A$4:$P$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="AREA" vbProcedure="false">VERS_1!$A$1:$P$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="LMN_0" vbProcedure="false">VERS_1!$D$1:$I$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0" vbProcedure="false">VERS_1!$A$1:$P$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_COM" vbProcedure="false">VERS_1!$A$4:$P$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="MOD_0_SUP" vbProcedure="false">VERS_1!$A$1:$P$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="AREA" vbProcedure="false">VIEW!$A$1:$AX$37</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="LMN_0" vbProcedure="false">VIEW!$F$1:$M$37</definedName>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="154">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -2594,7 +2594,7 @@
   </sheetPr>
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -3509,9 +3509,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3619,27 +3619,17 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="56" t="n">
-        <f aca="false">VINE!$A$7</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="57" t="str">
-        <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$B$7)</f>
-        <v>package.json</v>
-      </c>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="58"/>
-      <c r="D4" s="59" t="s">
-        <v>44</v>
-      </c>
+      <c r="D4" s="59"/>
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
       <c r="G4" s="60"/>
       <c r="H4" s="60"/>
       <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62" t="s">
-        <v>45</v>
-      </c>
+      <c r="J4" s="69"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="63"/>
       <c r="M4" s="64"/>
       <c r="N4" s="65"/>
@@ -3648,73 +3638,58 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="77"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="44" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="45"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="43" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="43" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" s="44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="1"/>
@@ -3729,11 +3704,11 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="79"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="79"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
@@ -3780,10 +3755,6 @@
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="166">
   <si>
     <t xml:space="preserve">fs</t>
   </si>
@@ -197,6 +197,14 @@
   </si>
   <si>
     <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model as Model
+Schema as Schema
+createConnection as createConnection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">express as express</t>
   </si>
   <si>
     <t xml:space="preserve">statement</t>
@@ -559,7 +567,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -614,6 +622,12 @@
       <name val="FreeMono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
     </font>
     <font>
       <b val="true"/>
@@ -1043,7 +1057,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1184,26 +1198,30 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1212,23 +1230,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1372,11 +1394,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="27" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1388,7 +1414,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1432,7 +1458,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1444,11 +1470,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="30" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="31" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="31" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1484,7 +1510,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="29" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1492,11 +1518,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="27" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="27" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="35" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="35" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1508,15 +1534,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1524,7 +1550,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1718,7 +1744,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="AF4" activeCellId="0" sqref="AF:AF"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1736,13 +1762,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="19" style="1" width="2.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="5.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="31.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="9.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="5.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="18.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="5.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="20.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="5.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="22.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,10 +2902,10 @@
       <c r="AB17" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AC17" s="35" t="s">
+      <c r="AC17" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AD17" s="40" t="s">
+      <c r="AD17" s="41" t="s">
         <v>27</v>
       </c>
       <c r="AE17" s="34" t="s">
@@ -2887,7 +2914,7 @@
       <c r="AF17" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="AG17" s="40" t="s">
+      <c r="AG17" s="41" t="s">
         <v>26</v>
       </c>
       <c r="AH17" s="20"/>
@@ -3041,7 +3068,7 @@
       <c r="AK19" s="20"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="41.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <f aca="false">ROW() - 4</f>
         <v>16</v>
@@ -3092,13 +3119,13 @@
       <c r="U20" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="V20" s="41" t="s">
+      <c r="V20" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="W20" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="X20" s="43" t="s">
+      <c r="W20" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="X20" s="44" t="s">
         <v>27</v>
       </c>
       <c r="Y20" s="19"/>
@@ -3107,13 +3134,13 @@
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
       <c r="AD20" s="20"/>
-      <c r="AE20" s="41" t="s">
+      <c r="AE20" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AF20" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG20" s="43" t="s">
+      <c r="AF20" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG20" s="44" t="s">
         <v>27</v>
       </c>
       <c r="AH20" s="20"/>
@@ -3166,25 +3193,25 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="44" t="n">
+      <c r="D22" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="45" t="n">
+      <c r="E22" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="45" t="n">
+      <c r="F22" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="45" t="n">
+      <c r="G22" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="H22" s="45" t="n">
+      <c r="H22" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="I22" s="46" t="n">
+      <c r="I22" s="48" t="n">
         <v>5</v>
       </c>
-      <c r="J22" s="46" t="n">
+      <c r="J22" s="48" t="n">
         <v>6</v>
       </c>
       <c r="K22" s="3"/>
@@ -3192,7 +3219,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="47"/>
+      <c r="P22" s="49"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -3200,24 +3227,24 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="47"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="49"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="48"/>
+      <c r="I27" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3263,815 +3290,815 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="1" sqref="AF:AF A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="27.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="50" width="27.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="49" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="51" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="33.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="50" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="52" width="4.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="56" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="53" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="M3" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="57"/>
+      <c r="N3" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="59"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="n">
+      <c r="A4" s="60" t="n">
         <f aca="false">VINE!$A$7</f>
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="str">
+      <c r="B4" s="61" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/", 0, VINE!$D$7)</f>
         <v>package.json</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="68"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="70"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="66"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="69"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="66"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="69"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="67"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="69"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="71"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="67" t="s">
+      <c r="L10" s="67"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="69"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="67" t="s">
+      <c r="K11" s="66"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="65"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="67"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="65"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="67"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="68"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="70"/>
       <c r="Q12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="68"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="70"/>
       <c r="Q13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="58" t="n">
+      <c r="A14" s="60" t="n">
         <f aca="false">VINE!$A$12</f>
         <v>8</v>
       </c>
-      <c r="B14" s="59" t="str">
+      <c r="B14" s="61" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/",0,VINE!$D$10,VINE!$E$12)</f>
         <v>devicebase/package.json</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="68"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="70"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64" t="s">
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="66"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="69"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="66"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O16" s="69"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="64"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66" t="s">
+      <c r="L17" s="67"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="69"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="N15" s="67" t="s">
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="64"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="O16" s="67"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="65"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="O17" s="67"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="64"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="68"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="70"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="68"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="70"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="58" t="n">
+      <c r="A20" s="60" t="n">
         <f aca="false">VINE!$A$19</f>
         <v>15</v>
       </c>
-      <c r="B20" s="59" t="str">
+      <c r="B20" s="61" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/",0,VINE!$D$14,VINE!$E$19)</f>
         <v>database/package.json</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="65"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="68"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="67"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="70"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" s="69"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="69"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="64"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66" t="s">
+      <c r="L23" s="67"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="69"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="66"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O24" s="69"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" s="69"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="66"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="69"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="N21" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="O21" s="67"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="64"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="N22" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="O22" s="67"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="O23" s="67"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" s="64"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="N24" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="O24" s="67"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="N25" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="O25" s="67"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="69"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="N26" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="O26" s="67"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="68"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="70"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="68"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="70"/>
       <c r="Q29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="80"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="82"/>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
-      <c r="B31" s="81"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="44" t="n">
+      <c r="D31" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="E31" s="45" t="n">
+      <c r="E31" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="45" t="n">
+      <c r="F31" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="G31" s="45" t="n">
+      <c r="G31" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="H31" s="45" t="n">
+      <c r="H31" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="I31" s="46" t="n">
+      <c r="I31" s="48" t="n">
         <v>5</v>
       </c>
       <c r="J31" s="3"/>
@@ -4080,7 +4107,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="47"/>
+      <c r="P31" s="49"/>
       <c r="Q31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4180,247 +4207,247 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="AF:AF D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="22.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="50" width="22.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="49" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="51" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="32.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="50" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="52" width="4.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="56" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="D3" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="53" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="M3" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="57"/>
+      <c r="N3" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="59"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="n">
+      <c r="A4" s="60" t="n">
         <f aca="false">VINE!$A$13</f>
         <v>9</v>
       </c>
-      <c r="B4" s="59" t="str">
+      <c r="B4" s="61" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/", 0,VINE!$D$10,VINE!$E$13)</f>
         <v>devicebase/index.js</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="68"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="70"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="70"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="n">
+      <c r="A6" s="60" t="n">
         <f aca="false">VINE!$A$20</f>
         <v>16</v>
       </c>
-      <c r="B6" s="59" t="str">
+      <c r="B6" s="61" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/", 0,VINE!$D$14,VINE!$E$20)</f>
         <v>database/index.js</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61" t="str">
+      <c r="C6" s="62"/>
+      <c r="D6" s="84" t="str">
         <f aca="false">_xlfn.TEXTJOIN(CHAR(10), 0, "#:imports", VINE!$W$20)</f>
         <v>#:imports
-Model
-Schema
-createConnection</v>
-      </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="68"/>
+Model as Model
+Schema as Schema
+createConnection as createConnection</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="70"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="68"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="70"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="80"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="82"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="44" t="n">
+      <c r="D9" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="45" t="n">
+      <c r="E9" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="45" t="n">
+      <c r="F9" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="45" t="n">
+      <c r="G9" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="45" t="n">
+      <c r="H9" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="I9" s="46" t="n">
+      <c r="I9" s="48" t="n">
         <v>5</v>
       </c>
       <c r="J9" s="3"/>
@@ -4429,7 +4456,7 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="47"/>
+      <c r="P9" s="49"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4449,7 +4476,7 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I14" s="82"/>
+      <c r="I14" s="85"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
@@ -4530,2600 +4557,2600 @@
   <dimension ref="A1:AX45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="AF:AF A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="48" width="8.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="48" width="12.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="48" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="50" width="8.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="50" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="50" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="1" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="25.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="83" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="83" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="84" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="85" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="83" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="83" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="86" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="86" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="87" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="88" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="86" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="86" width="4.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="21" style="1" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="86" width="5.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="89" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="86" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="89" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="4.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="86" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="89" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="8.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="20.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="86" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="83" width="4.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="86" width="30.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="86" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="89" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="86" width="4.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="89" width="30.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="89" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="9.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="88"/>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="88"/>
-      <c r="AM1" s="88"/>
-      <c r="AN1" s="88"/>
-      <c r="AO1" s="88"/>
-      <c r="AP1" s="88"/>
-      <c r="AQ1" s="88"/>
-      <c r="AR1" s="88"/>
-      <c r="AS1" s="88"/>
-      <c r="AT1" s="88"/>
-      <c r="AU1" s="88"/>
-      <c r="AV1" s="88"/>
-      <c r="AW1" s="88"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="91"/>
+      <c r="AI1" s="91"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
+      <c r="AQ1" s="91"/>
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
+      <c r="AV1" s="91"/>
+      <c r="AW1" s="91"/>
       <c r="AX1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="89" t="s">
-        <v>82</v>
-      </c>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88" t="s">
+      <c r="C2" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="89" t="s">
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="AU2" s="89"/>
-      <c r="AV2" s="89"/>
-      <c r="AW2" s="89"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="91"/>
+      <c r="AP2" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ2" s="91"/>
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
       <c r="AX2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="56" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="P3" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="53" t="s">
+      <c r="F3" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="T3" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" s="88" t="s">
+      <c r="Q3" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="89" t="n">
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89" t="n">
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="92" t="n">
         <v>1</v>
       </c>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89" t="n">
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="92" t="n">
         <v>2</v>
       </c>
-      <c r="AM3" s="89"/>
-      <c r="AN3" s="89"/>
-      <c r="AO3" s="89"/>
-      <c r="AP3" s="89" t="n">
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="92"/>
+      <c r="AP3" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="AQ3" s="89"/>
-      <c r="AR3" s="89"/>
-      <c r="AS3" s="89"/>
-      <c r="AT3" s="89" t="n">
+      <c r="AQ3" s="92"/>
+      <c r="AR3" s="92"/>
+      <c r="AS3" s="92"/>
+      <c r="AT3" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="AU3" s="89"/>
-      <c r="AV3" s="89"/>
-      <c r="AW3" s="89"/>
+      <c r="AU3" s="92"/>
+      <c r="AV3" s="92"/>
+      <c r="AW3" s="92"/>
       <c r="AX3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE4" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF4" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG4" s="88" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="91"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="AH4" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI4" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ4" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK4" s="88" t="s">
+      <c r="AE4" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF4" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH4" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="AL4" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM4" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN4" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO4" s="88" t="s">
+      <c r="AI4" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ4" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK4" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL4" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="AP4" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ4" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR4" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS4" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT4" s="92" t="s">
+      <c r="AM4" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="AU4" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV4" s="88" t="s">
+      <c r="AN4" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO4" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP4" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="AW4" s="88"/>
-      <c r="AX4" s="93"/>
+      <c r="AQ4" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR4" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS4" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT4" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU4" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV4" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW4" s="91"/>
+      <c r="AX4" s="96"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="94" t="n">
+      <c r="A5" s="97" t="n">
         <v>64</v>
       </c>
-      <c r="B5" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="60" t="s">
+      <c r="B5" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="C5" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="D5" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="71" t="s">
+      <c r="E5" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O5" s="97"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="99" t="s">
+      <c r="F5" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="R5" s="100"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="105"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="102"/>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="102"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="102"/>
-      <c r="AN5" s="105"/>
-      <c r="AO5" s="102"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="102"/>
-      <c r="AR5" s="105"/>
-      <c r="AS5" s="102"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="108"/>
-      <c r="AW5" s="108"/>
-      <c r="AX5" s="93"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="100"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="103"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="108"/>
+      <c r="AG5" s="105"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="105"/>
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="105"/>
+      <c r="AN5" s="108"/>
+      <c r="AO5" s="105"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="105"/>
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="105"/>
+      <c r="AT5" s="109"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="111"/>
+      <c r="AW5" s="111"/>
+      <c r="AX5" s="96"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="96" t="s">
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="D6" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="71" t="s">
+      <c r="O6" s="100"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" s="103"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="106"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="105"/>
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="105"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="105"/>
+      <c r="AJ6" s="108"/>
+      <c r="AK6" s="105"/>
+      <c r="AL6" s="107"/>
+      <c r="AM6" s="105"/>
+      <c r="AN6" s="108"/>
+      <c r="AO6" s="105"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="105"/>
+      <c r="AR6" s="108"/>
+      <c r="AS6" s="105"/>
+      <c r="AT6" s="109"/>
+      <c r="AU6" s="110"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="96"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O6" s="97"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="R6" s="100"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="103"/>
-      <c r="AA6" s="103"/>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="105"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="105"/>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="102"/>
-      <c r="AN6" s="105"/>
-      <c r="AO6" s="102"/>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="102"/>
-      <c r="AR6" s="105"/>
-      <c r="AS6" s="102"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="107"/>
-      <c r="AV6" s="108"/>
-      <c r="AW6" s="108"/>
-      <c r="AX6" s="93"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="96" t="s">
+      <c r="F7" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="100"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" s="103"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="108"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="105"/>
+      <c r="AN7" s="108"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="108"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="109"/>
+      <c r="AU7" s="110"/>
+      <c r="AV7" s="111"/>
+      <c r="AW7" s="111"/>
+      <c r="AX7" s="96"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="71" t="s">
+      <c r="D8" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O7" s="97"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="R7" s="100"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="104"/>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="102"/>
-      <c r="AH7" s="104"/>
-      <c r="AI7" s="102"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="102"/>
-      <c r="AL7" s="104"/>
-      <c r="AM7" s="102"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="102"/>
-      <c r="AP7" s="104"/>
-      <c r="AQ7" s="102"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="102"/>
-      <c r="AT7" s="106"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="108"/>
-      <c r="AW7" s="108"/>
-      <c r="AX7" s="93"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="96" t="s">
+      <c r="F8" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="100"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" s="103"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="107"/>
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="108"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="107"/>
+      <c r="AM8" s="105"/>
+      <c r="AN8" s="108"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="108"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="109"/>
+      <c r="AU8" s="110"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="111"/>
+      <c r="AX8" s="96"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="71" t="s">
+      <c r="D9" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="99"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U9" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="107"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="108"/>
+      <c r="AK9" s="105"/>
+      <c r="AL9" s="107"/>
+      <c r="AM9" s="105"/>
+      <c r="AN9" s="108"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="105"/>
+      <c r="AR9" s="108"/>
+      <c r="AS9" s="105"/>
+      <c r="AT9" s="109"/>
+      <c r="AU9" s="110"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="111"/>
+      <c r="AX9" s="96"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="99"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="106"/>
+      <c r="AD10" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE10" s="105"/>
+      <c r="AF10" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG10" s="105"/>
+      <c r="AH10" s="107"/>
+      <c r="AI10" s="105"/>
+      <c r="AJ10" s="108"/>
+      <c r="AK10" s="105"/>
+      <c r="AL10" s="107"/>
+      <c r="AM10" s="105"/>
+      <c r="AN10" s="108"/>
+      <c r="AO10" s="105"/>
+      <c r="AP10" s="107"/>
+      <c r="AQ10" s="105"/>
+      <c r="AR10" s="108"/>
+      <c r="AS10" s="105"/>
+      <c r="AT10" s="109"/>
+      <c r="AU10" s="110"/>
+      <c r="AV10" s="111"/>
+      <c r="AW10" s="111"/>
+      <c r="AX10" s="96"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="99"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="107"/>
+      <c r="AI11" s="105"/>
+      <c r="AJ11" s="108"/>
+      <c r="AK11" s="105"/>
+      <c r="AL11" s="107"/>
+      <c r="AM11" s="105"/>
+      <c r="AN11" s="108"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="107"/>
+      <c r="AQ11" s="105"/>
+      <c r="AR11" s="108"/>
+      <c r="AS11" s="105"/>
+      <c r="AT11" s="109"/>
+      <c r="AU11" s="110"/>
+      <c r="AV11" s="111"/>
+      <c r="AW11" s="111"/>
+      <c r="AX11" s="96"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="97"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="99"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="106"/>
+      <c r="AD12" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE12" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF12" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG12" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH12" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI12" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ12" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK12" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL12" s="107"/>
+      <c r="AM12" s="112"/>
+      <c r="AN12" s="108"/>
+      <c r="AO12" s="112"/>
+      <c r="AP12" s="107"/>
+      <c r="AQ12" s="112"/>
+      <c r="AR12" s="108"/>
+      <c r="AS12" s="112"/>
+      <c r="AT12" s="109"/>
+      <c r="AU12" s="110"/>
+      <c r="AV12" s="111"/>
+      <c r="AW12" s="111"/>
+      <c r="AX12" s="96"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="97"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="99"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG13" s="105"/>
+      <c r="AH13" s="107"/>
+      <c r="AI13" s="105"/>
+      <c r="AJ13" s="108"/>
+      <c r="AK13" s="105"/>
+      <c r="AL13" s="107"/>
+      <c r="AM13" s="105"/>
+      <c r="AN13" s="108"/>
+      <c r="AO13" s="105"/>
+      <c r="AP13" s="107"/>
+      <c r="AQ13" s="105"/>
+      <c r="AR13" s="108"/>
+      <c r="AS13" s="105"/>
+      <c r="AT13" s="109"/>
+      <c r="AU13" s="110"/>
+      <c r="AV13" s="111"/>
+      <c r="AW13" s="111"/>
+      <c r="AX13" s="96"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="97"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="99"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="106" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y14" s="106"/>
+      <c r="Z14" s="106"/>
+      <c r="AA14" s="106"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="106"/>
+      <c r="AD14" s="107"/>
+      <c r="AE14" s="105"/>
+      <c r="AF14" s="108"/>
+      <c r="AG14" s="105"/>
+      <c r="AH14" s="107"/>
+      <c r="AI14" s="105"/>
+      <c r="AJ14" s="108"/>
+      <c r="AK14" s="105"/>
+      <c r="AL14" s="107"/>
+      <c r="AM14" s="105"/>
+      <c r="AN14" s="108"/>
+      <c r="AO14" s="105"/>
+      <c r="AP14" s="107"/>
+      <c r="AQ14" s="105"/>
+      <c r="AR14" s="108"/>
+      <c r="AS14" s="105"/>
+      <c r="AT14" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU14" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV14" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW14" s="114"/>
+      <c r="AX14" s="96"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="97"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="99"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U15" s="106"/>
+      <c r="V15" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="W15" s="106"/>
+      <c r="X15" s="106"/>
+      <c r="Y15" s="106"/>
+      <c r="Z15" s="106"/>
+      <c r="AA15" s="106"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="106"/>
+      <c r="AD15" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK15" s="105"/>
+      <c r="AL15" s="107"/>
+      <c r="AM15" s="105"/>
+      <c r="AN15" s="108"/>
+      <c r="AO15" s="105"/>
+      <c r="AP15" s="107"/>
+      <c r="AQ15" s="105"/>
+      <c r="AR15" s="108"/>
+      <c r="AS15" s="105"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="110"/>
+      <c r="AV15" s="111"/>
+      <c r="AW15" s="111"/>
+      <c r="AX15" s="96"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="97"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" s="100"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="105"/>
+      <c r="AH16" s="107"/>
+      <c r="AI16" s="105"/>
+      <c r="AJ16" s="108"/>
+      <c r="AK16" s="105"/>
+      <c r="AL16" s="107"/>
+      <c r="AM16" s="105"/>
+      <c r="AN16" s="108"/>
+      <c r="AO16" s="105"/>
+      <c r="AP16" s="107"/>
+      <c r="AQ16" s="105"/>
+      <c r="AR16" s="108"/>
+      <c r="AS16" s="105"/>
+      <c r="AT16" s="109"/>
+      <c r="AU16" s="110"/>
+      <c r="AV16" s="111"/>
+      <c r="AW16" s="111"/>
+      <c r="AX16" s="96"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="97"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="O8" s="97"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="R8" s="100"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="102"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="102"/>
-      <c r="AL8" s="104"/>
-      <c r="AM8" s="102"/>
-      <c r="AN8" s="105"/>
-      <c r="AO8" s="102"/>
-      <c r="AP8" s="104"/>
-      <c r="AQ8" s="102"/>
-      <c r="AR8" s="105"/>
-      <c r="AS8" s="102"/>
-      <c r="AT8" s="106"/>
-      <c r="AU8" s="107"/>
-      <c r="AV8" s="108"/>
-      <c r="AW8" s="108"/>
-      <c r="AX8" s="93"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U9" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="104" t="s">
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="R17" s="103"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="106"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="107"/>
+      <c r="AE17" s="105"/>
+      <c r="AF17" s="108"/>
+      <c r="AG17" s="105"/>
+      <c r="AH17" s="107"/>
+      <c r="AI17" s="105"/>
+      <c r="AJ17" s="108"/>
+      <c r="AK17" s="105"/>
+      <c r="AL17" s="107"/>
+      <c r="AM17" s="105"/>
+      <c r="AN17" s="108"/>
+      <c r="AO17" s="105"/>
+      <c r="AP17" s="107"/>
+      <c r="AQ17" s="105"/>
+      <c r="AR17" s="108"/>
+      <c r="AS17" s="105"/>
+      <c r="AT17" s="109"/>
+      <c r="AU17" s="110"/>
+      <c r="AV17" s="111"/>
+      <c r="AW17" s="111"/>
+      <c r="AX17" s="96"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="97"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="99"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="115"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="100"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="106"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="105"/>
+      <c r="AF18" s="108"/>
+      <c r="AG18" s="105"/>
+      <c r="AH18" s="107"/>
+      <c r="AI18" s="105"/>
+      <c r="AJ18" s="108"/>
+      <c r="AK18" s="105"/>
+      <c r="AL18" s="107"/>
+      <c r="AM18" s="105"/>
+      <c r="AN18" s="108"/>
+      <c r="AO18" s="105"/>
+      <c r="AP18" s="107"/>
+      <c r="AQ18" s="105"/>
+      <c r="AR18" s="108"/>
+      <c r="AS18" s="105"/>
+      <c r="AT18" s="109"/>
+      <c r="AU18" s="110"/>
+      <c r="AV18" s="111"/>
+      <c r="AW18" s="111"/>
+      <c r="AX18" s="96"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="97"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="O19" s="100"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="R19" s="103"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="106"/>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="106"/>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="106"/>
+      <c r="AC19" s="106"/>
+      <c r="AD19" s="107"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="108"/>
+      <c r="AG19" s="105"/>
+      <c r="AH19" s="107"/>
+      <c r="AI19" s="105"/>
+      <c r="AJ19" s="108"/>
+      <c r="AK19" s="105"/>
+      <c r="AL19" s="107"/>
+      <c r="AM19" s="105"/>
+      <c r="AN19" s="108"/>
+      <c r="AO19" s="105"/>
+      <c r="AP19" s="107"/>
+      <c r="AQ19" s="105"/>
+      <c r="AR19" s="108"/>
+      <c r="AS19" s="105"/>
+      <c r="AT19" s="109"/>
+      <c r="AU19" s="110"/>
+      <c r="AV19" s="111"/>
+      <c r="AW19" s="111"/>
+      <c r="AX19" s="96"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="97"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="O20" s="100"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="R20" s="103"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="106"/>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="106"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="106"/>
+      <c r="AD20" s="107"/>
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="108"/>
+      <c r="AG20" s="105"/>
+      <c r="AH20" s="107"/>
+      <c r="AI20" s="105"/>
+      <c r="AJ20" s="108"/>
+      <c r="AK20" s="105"/>
+      <c r="AL20" s="107"/>
+      <c r="AM20" s="105"/>
+      <c r="AN20" s="108"/>
+      <c r="AO20" s="105"/>
+      <c r="AP20" s="107"/>
+      <c r="AQ20" s="105"/>
+      <c r="AR20" s="108"/>
+      <c r="AS20" s="105"/>
+      <c r="AT20" s="109"/>
+      <c r="AU20" s="110"/>
+      <c r="AV20" s="111"/>
+      <c r="AW20" s="111"/>
+      <c r="AX20" s="96"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="97"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="99"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="106"/>
+      <c r="AD21" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE21" s="105"/>
+      <c r="AF21" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG21" s="105"/>
+      <c r="AH21" s="107"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="108"/>
+      <c r="AK21" s="105"/>
+      <c r="AL21" s="107"/>
+      <c r="AM21" s="105"/>
+      <c r="AN21" s="108"/>
+      <c r="AO21" s="105"/>
+      <c r="AP21" s="107"/>
+      <c r="AQ21" s="105"/>
+      <c r="AR21" s="108"/>
+      <c r="AS21" s="105"/>
+      <c r="AT21" s="109"/>
+      <c r="AU21" s="110"/>
+      <c r="AV21" s="111"/>
+      <c r="AW21" s="111"/>
+      <c r="AX21" s="96"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="99"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="103"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="106"/>
+      <c r="AD22" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE22" s="105"/>
+      <c r="AF22" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG22" s="105"/>
+      <c r="AH22" s="107"/>
+      <c r="AI22" s="105"/>
+      <c r="AJ22" s="108"/>
+      <c r="AK22" s="105"/>
+      <c r="AL22" s="107"/>
+      <c r="AM22" s="105"/>
+      <c r="AN22" s="108"/>
+      <c r="AO22" s="105"/>
+      <c r="AP22" s="107"/>
+      <c r="AQ22" s="105"/>
+      <c r="AR22" s="108"/>
+      <c r="AS22" s="105"/>
+      <c r="AT22" s="109"/>
+      <c r="AU22" s="110"/>
+      <c r="AV22" s="111"/>
+      <c r="AW22" s="111"/>
+      <c r="AX22" s="96"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="97"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="99"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="106"/>
+      <c r="Y23" s="106"/>
+      <c r="Z23" s="106"/>
+      <c r="AA23" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="106"/>
+      <c r="AD23" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE23" s="105"/>
+      <c r="AF23" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG23" s="105"/>
+      <c r="AH23" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI23" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ23" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK23" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL23" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM23" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN23" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO23" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP23" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="105" t="s">
+      <c r="AQ23" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR23" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS23" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT23" s="109"/>
+      <c r="AU23" s="110"/>
+      <c r="AV23" s="111"/>
+      <c r="AW23" s="111"/>
+      <c r="AX23" s="96"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="99"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="103"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="104"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="105"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="104"/>
-      <c r="AM9" s="102"/>
-      <c r="AN9" s="105"/>
-      <c r="AO9" s="102"/>
-      <c r="AP9" s="104"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="105"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="106"/>
-      <c r="AU9" s="107"/>
-      <c r="AV9" s="108"/>
-      <c r="AW9" s="108"/>
-      <c r="AX9" s="93"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U10" s="103"/>
-      <c r="V10" s="103" t="s">
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="W10" s="103"/>
-      <c r="X10" s="103"/>
-      <c r="Y10" s="103"/>
-      <c r="Z10" s="103"/>
-      <c r="AA10" s="103"/>
-      <c r="AB10" s="103"/>
-      <c r="AC10" s="103"/>
-      <c r="AD10" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="105" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="105"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="104"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="105"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="104"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="105"/>
-      <c r="AS10" s="102"/>
-      <c r="AT10" s="106"/>
-      <c r="AU10" s="107"/>
-      <c r="AV10" s="108"/>
-      <c r="AW10" s="108"/>
-      <c r="AX10" s="93"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U11" s="103"/>
-      <c r="V11" s="103"/>
-      <c r="W11" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="X11" s="103"/>
-      <c r="Y11" s="103"/>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="103"/>
-      <c r="AD11" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="105" t="s">
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="104"/>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="105"/>
-      <c r="AK11" s="102"/>
-      <c r="AL11" s="104"/>
-      <c r="AM11" s="102"/>
-      <c r="AN11" s="105"/>
-      <c r="AO11" s="102"/>
-      <c r="AP11" s="104"/>
-      <c r="AQ11" s="102"/>
-      <c r="AR11" s="105"/>
-      <c r="AS11" s="102"/>
-      <c r="AT11" s="106"/>
-      <c r="AU11" s="107"/>
-      <c r="AV11" s="108"/>
-      <c r="AW11" s="108"/>
-      <c r="AX11" s="93"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y12" s="103"/>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE12" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF12" s="105" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG12" s="109" t="s">
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG24" s="105"/>
+      <c r="AH24" s="107"/>
+      <c r="AI24" s="105"/>
+      <c r="AJ24" s="108"/>
+      <c r="AK24" s="105"/>
+      <c r="AL24" s="107"/>
+      <c r="AM24" s="105"/>
+      <c r="AN24" s="108"/>
+      <c r="AO24" s="105"/>
+      <c r="AP24" s="107"/>
+      <c r="AQ24" s="105"/>
+      <c r="AR24" s="108"/>
+      <c r="AS24" s="105"/>
+      <c r="AT24" s="109"/>
+      <c r="AU24" s="110"/>
+      <c r="AV24" s="111"/>
+      <c r="AW24" s="111"/>
+      <c r="AX24" s="96"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="97"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="99"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="103"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE25" s="105"/>
+      <c r="AF25" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG25" s="105"/>
+      <c r="AH25" s="107"/>
+      <c r="AI25" s="105"/>
+      <c r="AJ25" s="108"/>
+      <c r="AK25" s="105"/>
+      <c r="AL25" s="107"/>
+      <c r="AM25" s="105"/>
+      <c r="AN25" s="108"/>
+      <c r="AO25" s="105"/>
+      <c r="AP25" s="107"/>
+      <c r="AQ25" s="105"/>
+      <c r="AR25" s="108"/>
+      <c r="AS25" s="105"/>
+      <c r="AT25" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="AH12" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI12" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ12" s="105" t="s">
+      <c r="AU25" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV25" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="AK12" s="109" t="s">
+      <c r="AW25" s="114"/>
+      <c r="AX25" s="96"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="99"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="106"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="106"/>
+      <c r="AD26" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE26" s="105"/>
+      <c r="AF26" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG26" s="105"/>
+      <c r="AH26" s="107"/>
+      <c r="AI26" s="105"/>
+      <c r="AJ26" s="108"/>
+      <c r="AK26" s="105"/>
+      <c r="AL26" s="107"/>
+      <c r="AM26" s="105"/>
+      <c r="AN26" s="108"/>
+      <c r="AO26" s="105"/>
+      <c r="AP26" s="107"/>
+      <c r="AQ26" s="105"/>
+      <c r="AR26" s="108"/>
+      <c r="AS26" s="105"/>
+      <c r="AT26" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="AL12" s="104"/>
-      <c r="AM12" s="109"/>
-      <c r="AN12" s="105"/>
-      <c r="AO12" s="109"/>
-      <c r="AP12" s="104"/>
-      <c r="AQ12" s="109"/>
-      <c r="AR12" s="105"/>
-      <c r="AS12" s="109"/>
-      <c r="AT12" s="106"/>
-      <c r="AU12" s="107"/>
-      <c r="AV12" s="108"/>
-      <c r="AW12" s="108"/>
-      <c r="AX12" s="93"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="X13" s="103"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE13" s="102"/>
-      <c r="AF13" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG13" s="102"/>
-      <c r="AH13" s="104"/>
-      <c r="AI13" s="102"/>
-      <c r="AJ13" s="105"/>
-      <c r="AK13" s="102"/>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="102"/>
-      <c r="AN13" s="105"/>
-      <c r="AO13" s="102"/>
-      <c r="AP13" s="104"/>
-      <c r="AQ13" s="102"/>
-      <c r="AR13" s="105"/>
-      <c r="AS13" s="102"/>
-      <c r="AT13" s="106"/>
-      <c r="AU13" s="107"/>
-      <c r="AV13" s="108"/>
-      <c r="AW13" s="108"/>
-      <c r="AX13" s="93"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="96"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U14" s="103"/>
-      <c r="V14" s="103"/>
-      <c r="W14" s="103"/>
-      <c r="X14" s="103" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="103"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="102"/>
-      <c r="AF14" s="105"/>
-      <c r="AG14" s="102"/>
-      <c r="AH14" s="104"/>
-      <c r="AI14" s="102"/>
-      <c r="AJ14" s="105"/>
-      <c r="AK14" s="102"/>
-      <c r="AL14" s="104"/>
-      <c r="AM14" s="102"/>
-      <c r="AN14" s="105"/>
-      <c r="AO14" s="102"/>
-      <c r="AP14" s="104"/>
-      <c r="AQ14" s="102"/>
-      <c r="AR14" s="105"/>
-      <c r="AS14" s="102"/>
-      <c r="AT14" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU14" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV14" s="111" t="s">
+      <c r="AU26" s="110" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV26" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW26" s="114"/>
+      <c r="AX26" s="96"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="97"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="99"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB27" s="106"/>
+      <c r="AC27" s="106"/>
+      <c r="AD27" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG27" s="105"/>
+      <c r="AH27" s="107"/>
+      <c r="AI27" s="105"/>
+      <c r="AJ27" s="108"/>
+      <c r="AK27" s="105"/>
+      <c r="AL27" s="107"/>
+      <c r="AM27" s="105"/>
+      <c r="AN27" s="108"/>
+      <c r="AO27" s="105"/>
+      <c r="AP27" s="107"/>
+      <c r="AQ27" s="105"/>
+      <c r="AR27" s="108"/>
+      <c r="AS27" s="105"/>
+      <c r="AT27" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="AW14" s="111"/>
-      <c r="AX14" s="93"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U15" s="103"/>
-      <c r="V15" s="103" t="s">
+      <c r="AU27" s="110" t="s">
+        <v>152</v>
+      </c>
+      <c r="AV27" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW27" s="114"/>
+      <c r="AX27" s="96"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="97"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="99"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="106"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB28" s="106"/>
+      <c r="AC28" s="106"/>
+      <c r="AD28" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE28" s="105"/>
+      <c r="AF28" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG28" s="105"/>
+      <c r="AH28" s="107"/>
+      <c r="AI28" s="105"/>
+      <c r="AJ28" s="108"/>
+      <c r="AK28" s="105"/>
+      <c r="AL28" s="107"/>
+      <c r="AM28" s="105"/>
+      <c r="AN28" s="108"/>
+      <c r="AO28" s="105"/>
+      <c r="AP28" s="107"/>
+      <c r="AQ28" s="105"/>
+      <c r="AR28" s="108"/>
+      <c r="AS28" s="105"/>
+      <c r="AT28" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU28" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV28" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW28" s="114"/>
+      <c r="AX28" s="96"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="97"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="99"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="106"/>
+      <c r="AD29" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE29" s="105"/>
+      <c r="AF29" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG29" s="105"/>
+      <c r="AH29" s="107"/>
+      <c r="AI29" s="105"/>
+      <c r="AJ29" s="108"/>
+      <c r="AK29" s="105"/>
+      <c r="AL29" s="107"/>
+      <c r="AM29" s="105"/>
+      <c r="AN29" s="108"/>
+      <c r="AO29" s="105"/>
+      <c r="AP29" s="107"/>
+      <c r="AQ29" s="105"/>
+      <c r="AR29" s="108"/>
+      <c r="AS29" s="105"/>
+      <c r="AT29" s="109"/>
+      <c r="AU29" s="110"/>
+      <c r="AV29" s="111"/>
+      <c r="AW29" s="111"/>
+      <c r="AX29" s="96"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="97"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="115"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="M30" s="64"/>
+      <c r="N30" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="O30" s="100"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="104"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="106"/>
+      <c r="AA30" s="106"/>
+      <c r="AB30" s="106"/>
+      <c r="AC30" s="106"/>
+      <c r="AD30" s="107"/>
+      <c r="AE30" s="105"/>
+      <c r="AF30" s="108"/>
+      <c r="AG30" s="105"/>
+      <c r="AH30" s="107"/>
+      <c r="AI30" s="105"/>
+      <c r="AJ30" s="108"/>
+      <c r="AK30" s="105"/>
+      <c r="AL30" s="107"/>
+      <c r="AM30" s="105"/>
+      <c r="AN30" s="108"/>
+      <c r="AO30" s="105"/>
+      <c r="AP30" s="107"/>
+      <c r="AQ30" s="105"/>
+      <c r="AR30" s="108"/>
+      <c r="AS30" s="105"/>
+      <c r="AT30" s="109"/>
+      <c r="AU30" s="110"/>
+      <c r="AV30" s="111"/>
+      <c r="AW30" s="111"/>
+      <c r="AX30" s="96"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="97"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="N31" s="73"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q31" s="102" t="s">
+        <v>158</v>
+      </c>
+      <c r="R31" s="103"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="106"/>
+      <c r="Z31" s="106"/>
+      <c r="AA31" s="106"/>
+      <c r="AB31" s="106"/>
+      <c r="AC31" s="106"/>
+      <c r="AD31" s="107"/>
+      <c r="AE31" s="105"/>
+      <c r="AF31" s="108"/>
+      <c r="AG31" s="105"/>
+      <c r="AH31" s="107"/>
+      <c r="AI31" s="105"/>
+      <c r="AJ31" s="108"/>
+      <c r="AK31" s="105"/>
+      <c r="AL31" s="107"/>
+      <c r="AM31" s="105"/>
+      <c r="AN31" s="108"/>
+      <c r="AO31" s="105"/>
+      <c r="AP31" s="107"/>
+      <c r="AQ31" s="105"/>
+      <c r="AR31" s="108"/>
+      <c r="AS31" s="105"/>
+      <c r="AT31" s="109"/>
+      <c r="AU31" s="110"/>
+      <c r="AV31" s="111"/>
+      <c r="AW31" s="111"/>
+      <c r="AX31" s="96"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="97"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="99"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="M32" s="115"/>
+      <c r="N32" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="O32" s="100"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="116"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="106"/>
+      <c r="V32" s="106"/>
+      <c r="W32" s="106"/>
+      <c r="X32" s="106"/>
+      <c r="Y32" s="106"/>
+      <c r="Z32" s="106"/>
+      <c r="AA32" s="106"/>
+      <c r="AB32" s="106"/>
+      <c r="AC32" s="106"/>
+      <c r="AD32" s="107"/>
+      <c r="AE32" s="105"/>
+      <c r="AF32" s="108"/>
+      <c r="AG32" s="105"/>
+      <c r="AH32" s="107"/>
+      <c r="AI32" s="105"/>
+      <c r="AJ32" s="108"/>
+      <c r="AK32" s="105"/>
+      <c r="AL32" s="107"/>
+      <c r="AM32" s="105"/>
+      <c r="AN32" s="108"/>
+      <c r="AO32" s="105"/>
+      <c r="AP32" s="107"/>
+      <c r="AQ32" s="105"/>
+      <c r="AR32" s="108"/>
+      <c r="AS32" s="105"/>
+      <c r="AT32" s="109"/>
+      <c r="AU32" s="110"/>
+      <c r="AV32" s="111"/>
+      <c r="AW32" s="111"/>
+      <c r="AX32" s="96"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="97"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="99"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U33" s="106"/>
+      <c r="V33" s="106"/>
+      <c r="W33" s="106"/>
+      <c r="X33" s="106"/>
+      <c r="Y33" s="106"/>
+      <c r="Z33" s="106"/>
+      <c r="AA33" s="106"/>
+      <c r="AB33" s="106"/>
+      <c r="AC33" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="W15" s="103"/>
-      <c r="X15" s="103"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="104" t="s">
+      <c r="AD33" s="107"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="108"/>
+      <c r="AG33" s="105"/>
+      <c r="AH33" s="107"/>
+      <c r="AI33" s="105"/>
+      <c r="AJ33" s="108"/>
+      <c r="AK33" s="105"/>
+      <c r="AL33" s="107"/>
+      <c r="AM33" s="105"/>
+      <c r="AN33" s="108"/>
+      <c r="AO33" s="105"/>
+      <c r="AP33" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="AQ33" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR33" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS33" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT33" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU33" s="110" t="s">
+        <v>161</v>
+      </c>
+      <c r="AV33" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW33" s="114"/>
+      <c r="AX33" s="96"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="97"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="99"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="104"/>
+      <c r="T34" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="U34" s="106"/>
+      <c r="V34" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="W34" s="106"/>
+      <c r="X34" s="106"/>
+      <c r="Y34" s="106"/>
+      <c r="Z34" s="106"/>
+      <c r="AA34" s="106"/>
+      <c r="AB34" s="106"/>
+      <c r="AC34" s="106"/>
+      <c r="AD34" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE34" s="105"/>
+      <c r="AF34" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG34" s="105"/>
+      <c r="AH34" s="107"/>
+      <c r="AI34" s="105"/>
+      <c r="AJ34" s="108"/>
+      <c r="AK34" s="105"/>
+      <c r="AL34" s="107"/>
+      <c r="AM34" s="105"/>
+      <c r="AN34" s="108"/>
+      <c r="AO34" s="105"/>
+      <c r="AP34" s="107"/>
+      <c r="AQ34" s="105"/>
+      <c r="AR34" s="108"/>
+      <c r="AS34" s="105"/>
+      <c r="AT34" s="109"/>
+      <c r="AU34" s="110"/>
+      <c r="AV34" s="111"/>
+      <c r="AW34" s="111"/>
+      <c r="AX34" s="96"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="97"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="99"/>
+      <c r="F35" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="115"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="O35" s="100"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="104"/>
+      <c r="T35" s="105"/>
+      <c r="U35" s="106"/>
+      <c r="V35" s="106"/>
+      <c r="W35" s="106"/>
+      <c r="X35" s="106"/>
+      <c r="Y35" s="106"/>
+      <c r="Z35" s="106"/>
+      <c r="AA35" s="106"/>
+      <c r="AB35" s="106"/>
+      <c r="AC35" s="106"/>
+      <c r="AD35" s="107"/>
+      <c r="AE35" s="105"/>
+      <c r="AF35" s="108"/>
+      <c r="AG35" s="105"/>
+      <c r="AH35" s="107"/>
+      <c r="AI35" s="105"/>
+      <c r="AJ35" s="108"/>
+      <c r="AK35" s="105"/>
+      <c r="AL35" s="107"/>
+      <c r="AM35" s="105"/>
+      <c r="AN35" s="108"/>
+      <c r="AO35" s="105"/>
+      <c r="AP35" s="107"/>
+      <c r="AQ35" s="105"/>
+      <c r="AR35" s="108"/>
+      <c r="AS35" s="105"/>
+      <c r="AT35" s="109"/>
+      <c r="AU35" s="110"/>
+      <c r="AV35" s="111"/>
+      <c r="AW35" s="111"/>
+      <c r="AX35" s="96"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="97"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="99"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="106"/>
+      <c r="V36" s="106"/>
+      <c r="W36" s="106"/>
+      <c r="X36" s="106"/>
+      <c r="Y36" s="106"/>
+      <c r="Z36" s="106"/>
+      <c r="AA36" s="106"/>
+      <c r="AB36" s="106"/>
+      <c r="AC36" s="106"/>
+      <c r="AD36" s="107"/>
+      <c r="AE36" s="105"/>
+      <c r="AF36" s="108"/>
+      <c r="AG36" s="105"/>
+      <c r="AH36" s="107"/>
+      <c r="AI36" s="105"/>
+      <c r="AJ36" s="108"/>
+      <c r="AK36" s="105"/>
+      <c r="AL36" s="107"/>
+      <c r="AM36" s="105"/>
+      <c r="AN36" s="108"/>
+      <c r="AO36" s="105"/>
+      <c r="AP36" s="107"/>
+      <c r="AQ36" s="105"/>
+      <c r="AR36" s="108"/>
+      <c r="AS36" s="105"/>
+      <c r="AT36" s="109"/>
+      <c r="AU36" s="110"/>
+      <c r="AV36" s="111"/>
+      <c r="AW36" s="111"/>
+      <c r="AX36" s="96"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="97"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="104"/>
+      <c r="T37" s="105"/>
+      <c r="U37" s="106"/>
+      <c r="V37" s="106"/>
+      <c r="W37" s="106"/>
+      <c r="X37" s="106"/>
+      <c r="Y37" s="106"/>
+      <c r="Z37" s="106"/>
+      <c r="AA37" s="106"/>
+      <c r="AB37" s="106"/>
+      <c r="AC37" s="106"/>
+      <c r="AD37" s="107"/>
+      <c r="AE37" s="105"/>
+      <c r="AF37" s="108"/>
+      <c r="AG37" s="105"/>
+      <c r="AH37" s="107"/>
+      <c r="AI37" s="105"/>
+      <c r="AJ37" s="108"/>
+      <c r="AK37" s="105"/>
+      <c r="AL37" s="107"/>
+      <c r="AM37" s="105"/>
+      <c r="AN37" s="108"/>
+      <c r="AO37" s="105"/>
+      <c r="AP37" s="107"/>
+      <c r="AQ37" s="105"/>
+      <c r="AR37" s="108"/>
+      <c r="AS37" s="105"/>
+      <c r="AT37" s="109"/>
+      <c r="AU37" s="110"/>
+      <c r="AV37" s="111"/>
+      <c r="AW37" s="111"/>
+      <c r="AX37" s="96"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="96"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="119" t="n">
         <v>2</v>
       </c>
-      <c r="AE15" s="102"/>
-      <c r="AF15" s="105" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG15" s="102"/>
-      <c r="AH15" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI15" s="102"/>
-      <c r="AJ15" s="105" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK15" s="102"/>
-      <c r="AL15" s="104"/>
-      <c r="AM15" s="102"/>
-      <c r="AN15" s="105"/>
-      <c r="AO15" s="102"/>
-      <c r="AP15" s="104"/>
-      <c r="AQ15" s="102"/>
-      <c r="AR15" s="105"/>
-      <c r="AS15" s="102"/>
-      <c r="AT15" s="110"/>
-      <c r="AU15" s="107"/>
-      <c r="AV15" s="108"/>
-      <c r="AW15" s="108"/>
-      <c r="AX15" s="93"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="O16" s="97"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="102"/>
-      <c r="AF16" s="105"/>
-      <c r="AG16" s="102"/>
-      <c r="AH16" s="104"/>
-      <c r="AI16" s="102"/>
-      <c r="AJ16" s="105"/>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="102"/>
-      <c r="AN16" s="105"/>
-      <c r="AO16" s="102"/>
-      <c r="AP16" s="104"/>
-      <c r="AQ16" s="102"/>
-      <c r="AR16" s="105"/>
-      <c r="AS16" s="102"/>
-      <c r="AT16" s="106"/>
-      <c r="AU16" s="107"/>
-      <c r="AV16" s="108"/>
-      <c r="AW16" s="108"/>
-      <c r="AX16" s="93"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q17" s="99" t="s">
-        <v>97</v>
-      </c>
-      <c r="R17" s="100"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="102"/>
-      <c r="AF17" s="105"/>
-      <c r="AG17" s="102"/>
-      <c r="AH17" s="104"/>
-      <c r="AI17" s="102"/>
-      <c r="AJ17" s="105"/>
-      <c r="AK17" s="102"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="102"/>
-      <c r="AN17" s="105"/>
-      <c r="AO17" s="102"/>
-      <c r="AP17" s="104"/>
-      <c r="AQ17" s="102"/>
-      <c r="AR17" s="105"/>
-      <c r="AS17" s="102"/>
-      <c r="AT17" s="106"/>
-      <c r="AU17" s="107"/>
-      <c r="AV17" s="108"/>
-      <c r="AW17" s="108"/>
-      <c r="AX17" s="93"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="112" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="112"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="O18" s="97"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="113"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="103"/>
-      <c r="X18" s="103"/>
-      <c r="Y18" s="103"/>
-      <c r="Z18" s="103"/>
-      <c r="AA18" s="103"/>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="103"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="102"/>
-      <c r="AF18" s="105"/>
-      <c r="AG18" s="102"/>
-      <c r="AH18" s="104"/>
-      <c r="AI18" s="102"/>
-      <c r="AJ18" s="105"/>
-      <c r="AK18" s="102"/>
-      <c r="AL18" s="104"/>
-      <c r="AM18" s="102"/>
-      <c r="AN18" s="105"/>
-      <c r="AO18" s="102"/>
-      <c r="AP18" s="104"/>
-      <c r="AQ18" s="102"/>
-      <c r="AR18" s="105"/>
-      <c r="AS18" s="102"/>
-      <c r="AT18" s="106"/>
-      <c r="AU18" s="107"/>
-      <c r="AV18" s="108"/>
-      <c r="AW18" s="108"/>
-      <c r="AX18" s="93"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="O19" s="97"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="R19" s="100"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="102"/>
-      <c r="AF19" s="105"/>
-      <c r="AG19" s="102"/>
-      <c r="AH19" s="104"/>
-      <c r="AI19" s="102"/>
-      <c r="AJ19" s="105"/>
-      <c r="AK19" s="102"/>
-      <c r="AL19" s="104"/>
-      <c r="AM19" s="102"/>
-      <c r="AN19" s="105"/>
-      <c r="AO19" s="102"/>
-      <c r="AP19" s="104"/>
-      <c r="AQ19" s="102"/>
-      <c r="AR19" s="105"/>
-      <c r="AS19" s="102"/>
-      <c r="AT19" s="106"/>
-      <c r="AU19" s="107"/>
-      <c r="AV19" s="108"/>
-      <c r="AW19" s="108"/>
-      <c r="AX19" s="93"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="O20" s="97"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="R20" s="100"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="102"/>
-      <c r="AF20" s="105"/>
-      <c r="AG20" s="102"/>
-      <c r="AH20" s="104"/>
-      <c r="AI20" s="102"/>
-      <c r="AJ20" s="105"/>
-      <c r="AK20" s="102"/>
-      <c r="AL20" s="104"/>
-      <c r="AM20" s="102"/>
-      <c r="AN20" s="105"/>
-      <c r="AO20" s="102"/>
-      <c r="AP20" s="104"/>
-      <c r="AQ20" s="102"/>
-      <c r="AR20" s="105"/>
-      <c r="AS20" s="102"/>
-      <c r="AT20" s="106"/>
-      <c r="AU20" s="107"/>
-      <c r="AV20" s="108"/>
-      <c r="AW20" s="108"/>
-      <c r="AX20" s="93"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="103"/>
-      <c r="Y21" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="103"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="103"/>
-      <c r="AD21" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE21" s="102"/>
-      <c r="AF21" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG21" s="102"/>
-      <c r="AH21" s="104"/>
-      <c r="AI21" s="102"/>
-      <c r="AJ21" s="105"/>
-      <c r="AK21" s="102"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="102"/>
-      <c r="AN21" s="105"/>
-      <c r="AO21" s="102"/>
-      <c r="AP21" s="104"/>
-      <c r="AQ21" s="102"/>
-      <c r="AR21" s="105"/>
-      <c r="AS21" s="102"/>
-      <c r="AT21" s="106"/>
-      <c r="AU21" s="107"/>
-      <c r="AV21" s="108"/>
-      <c r="AW21" s="108"/>
-      <c r="AX21" s="93"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="100"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA22" s="103"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="103"/>
-      <c r="AD22" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE22" s="102"/>
-      <c r="AF22" s="105" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG22" s="102"/>
-      <c r="AH22" s="104"/>
-      <c r="AI22" s="102"/>
-      <c r="AJ22" s="105"/>
-      <c r="AK22" s="102"/>
-      <c r="AL22" s="104"/>
-      <c r="AM22" s="102"/>
-      <c r="AN22" s="105"/>
-      <c r="AO22" s="102"/>
-      <c r="AP22" s="104"/>
-      <c r="AQ22" s="102"/>
-      <c r="AR22" s="105"/>
-      <c r="AS22" s="102"/>
-      <c r="AT22" s="106"/>
-      <c r="AU22" s="107"/>
-      <c r="AV22" s="108"/>
-      <c r="AW22" s="108"/>
-      <c r="AX22" s="93"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="100"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="103"/>
-      <c r="X23" s="103"/>
-      <c r="Y23" s="103"/>
-      <c r="Z23" s="103"/>
-      <c r="AA23" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="103"/>
-      <c r="AD23" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE23" s="102"/>
-      <c r="AF23" s="105" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG23" s="102"/>
-      <c r="AH23" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI23" s="102" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ23" s="105" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK23" s="102" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL23" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM23" s="102" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN23" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO23" s="102" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP23" s="104" t="s">
+      <c r="I38" s="119" t="n">
+        <v>3</v>
+      </c>
+      <c r="J38" s="119" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" s="119" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" s="119" t="n">
+        <v>6</v>
+      </c>
+      <c r="M38" s="119" t="n">
+        <v>7</v>
+      </c>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="121"/>
+      <c r="S38" s="121"/>
+      <c r="T38" s="122"/>
+      <c r="U38" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="119" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" s="119" t="n">
         <v>2</v>
       </c>
-      <c r="AQ23" s="102" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR23" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS23" s="102" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT23" s="106"/>
-      <c r="AU23" s="107"/>
-      <c r="AV23" s="108"/>
-      <c r="AW23" s="108"/>
-      <c r="AX23" s="93"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="103"/>
-      <c r="AD24" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE24" s="102"/>
-      <c r="AF24" s="105" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG24" s="102"/>
-      <c r="AH24" s="104"/>
-      <c r="AI24" s="102"/>
-      <c r="AJ24" s="105"/>
-      <c r="AK24" s="102"/>
-      <c r="AL24" s="104"/>
-      <c r="AM24" s="102"/>
-      <c r="AN24" s="105"/>
-      <c r="AO24" s="102"/>
-      <c r="AP24" s="104"/>
-      <c r="AQ24" s="102"/>
-      <c r="AR24" s="105"/>
-      <c r="AS24" s="102"/>
-      <c r="AT24" s="106"/>
-      <c r="AU24" s="107"/>
-      <c r="AV24" s="108"/>
-      <c r="AW24" s="108"/>
-      <c r="AX24" s="93"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="96"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="103"/>
-      <c r="Z25" s="103"/>
-      <c r="AA25" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="103"/>
-      <c r="AD25" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE25" s="102"/>
-      <c r="AF25" s="105" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG25" s="102"/>
-      <c r="AH25" s="104"/>
-      <c r="AI25" s="102"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="102"/>
-      <c r="AL25" s="104"/>
-      <c r="AM25" s="102"/>
-      <c r="AN25" s="105"/>
-      <c r="AO25" s="102"/>
-      <c r="AP25" s="104"/>
-      <c r="AQ25" s="102"/>
-      <c r="AR25" s="105"/>
-      <c r="AS25" s="102"/>
-      <c r="AT25" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU25" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV25" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW25" s="111"/>
-      <c r="AX25" s="93"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="96"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U26" s="103"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="103"/>
-      <c r="X26" s="103"/>
-      <c r="Y26" s="103"/>
-      <c r="Z26" s="103"/>
-      <c r="AA26" s="103" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB26" s="103"/>
-      <c r="AC26" s="103"/>
-      <c r="AD26" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE26" s="102"/>
-      <c r="AF26" s="105" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG26" s="102"/>
-      <c r="AH26" s="104"/>
-      <c r="AI26" s="102"/>
-      <c r="AJ26" s="105"/>
-      <c r="AK26" s="102"/>
-      <c r="AL26" s="104"/>
-      <c r="AM26" s="102"/>
-      <c r="AN26" s="105"/>
-      <c r="AO26" s="102"/>
-      <c r="AP26" s="104"/>
-      <c r="AQ26" s="102"/>
-      <c r="AR26" s="105"/>
-      <c r="AS26" s="102"/>
-      <c r="AT26" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU26" s="107" t="s">
-        <v>148</v>
-      </c>
-      <c r="AV26" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW26" s="111"/>
-      <c r="AX26" s="93"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="96"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="103"/>
-      <c r="AA27" s="103" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="103"/>
-      <c r="AD27" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE27" s="102"/>
-      <c r="AF27" s="105" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG27" s="102"/>
-      <c r="AH27" s="104"/>
-      <c r="AI27" s="102"/>
-      <c r="AJ27" s="105"/>
-      <c r="AK27" s="102"/>
-      <c r="AL27" s="104"/>
-      <c r="AM27" s="102"/>
-      <c r="AN27" s="105"/>
-      <c r="AO27" s="102"/>
-      <c r="AP27" s="104"/>
-      <c r="AQ27" s="102"/>
-      <c r="AR27" s="105"/>
-      <c r="AS27" s="102"/>
-      <c r="AT27" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU27" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV27" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW27" s="111"/>
-      <c r="AX27" s="93"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="103"/>
-      <c r="AA28" s="103" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB28" s="103"/>
-      <c r="AC28" s="103"/>
-      <c r="AD28" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE28" s="102"/>
-      <c r="AF28" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG28" s="102"/>
-      <c r="AH28" s="104"/>
-      <c r="AI28" s="102"/>
-      <c r="AJ28" s="105"/>
-      <c r="AK28" s="102"/>
-      <c r="AL28" s="104"/>
-      <c r="AM28" s="102"/>
-      <c r="AN28" s="105"/>
-      <c r="AO28" s="102"/>
-      <c r="AP28" s="104"/>
-      <c r="AQ28" s="102"/>
-      <c r="AR28" s="105"/>
-      <c r="AS28" s="102"/>
-      <c r="AT28" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU28" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="AV28" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW28" s="111"/>
-      <c r="AX28" s="93"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="96"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="103"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA29" s="103"/>
-      <c r="AB29" s="103"/>
-      <c r="AC29" s="103"/>
-      <c r="AD29" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE29" s="102"/>
-      <c r="AF29" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG29" s="102"/>
-      <c r="AH29" s="104"/>
-      <c r="AI29" s="102"/>
-      <c r="AJ29" s="105"/>
-      <c r="AK29" s="102"/>
-      <c r="AL29" s="104"/>
-      <c r="AM29" s="102"/>
-      <c r="AN29" s="105"/>
-      <c r="AO29" s="102"/>
-      <c r="AP29" s="104"/>
-      <c r="AQ29" s="102"/>
-      <c r="AR29" s="105"/>
-      <c r="AS29" s="102"/>
-      <c r="AT29" s="106"/>
-      <c r="AU29" s="107"/>
-      <c r="AV29" s="108"/>
-      <c r="AW29" s="108"/>
-      <c r="AX29" s="93"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112" t="s">
-        <v>154</v>
-      </c>
-      <c r="M30" s="62"/>
-      <c r="N30" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="O30" s="97"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="103"/>
-      <c r="AB30" s="103"/>
-      <c r="AC30" s="103"/>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="102"/>
-      <c r="AF30" s="105"/>
-      <c r="AG30" s="102"/>
-      <c r="AH30" s="104"/>
-      <c r="AI30" s="102"/>
-      <c r="AJ30" s="105"/>
-      <c r="AK30" s="102"/>
-      <c r="AL30" s="104"/>
-      <c r="AM30" s="102"/>
-      <c r="AN30" s="105"/>
-      <c r="AO30" s="102"/>
-      <c r="AP30" s="104"/>
-      <c r="AQ30" s="102"/>
-      <c r="AR30" s="105"/>
-      <c r="AS30" s="102"/>
-      <c r="AT30" s="106"/>
-      <c r="AU30" s="107"/>
-      <c r="AV30" s="108"/>
-      <c r="AW30" s="108"/>
-      <c r="AX30" s="93"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="N31" s="71"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q31" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="R31" s="100"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="103"/>
-      <c r="Z31" s="103"/>
-      <c r="AA31" s="103"/>
-      <c r="AB31" s="103"/>
-      <c r="AC31" s="103"/>
-      <c r="AD31" s="104"/>
-      <c r="AE31" s="102"/>
-      <c r="AF31" s="105"/>
-      <c r="AG31" s="102"/>
-      <c r="AH31" s="104"/>
-      <c r="AI31" s="102"/>
-      <c r="AJ31" s="105"/>
-      <c r="AK31" s="102"/>
-      <c r="AL31" s="104"/>
-      <c r="AM31" s="102"/>
-      <c r="AN31" s="105"/>
-      <c r="AO31" s="102"/>
-      <c r="AP31" s="104"/>
-      <c r="AQ31" s="102"/>
-      <c r="AR31" s="105"/>
-      <c r="AS31" s="102"/>
-      <c r="AT31" s="106"/>
-      <c r="AU31" s="107"/>
-      <c r="AV31" s="108"/>
-      <c r="AW31" s="108"/>
-      <c r="AX31" s="93"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="96"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="112" t="s">
-        <v>154</v>
-      </c>
-      <c r="M32" s="112"/>
-      <c r="N32" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="O32" s="97"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="103"/>
-      <c r="Y32" s="103"/>
-      <c r="Z32" s="103"/>
-      <c r="AA32" s="103"/>
-      <c r="AB32" s="103"/>
-      <c r="AC32" s="103"/>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="102"/>
-      <c r="AF32" s="105"/>
-      <c r="AG32" s="102"/>
-      <c r="AH32" s="104"/>
-      <c r="AI32" s="102"/>
-      <c r="AJ32" s="105"/>
-      <c r="AK32" s="102"/>
-      <c r="AL32" s="104"/>
-      <c r="AM32" s="102"/>
-      <c r="AN32" s="105"/>
-      <c r="AO32" s="102"/>
-      <c r="AP32" s="104"/>
-      <c r="AQ32" s="102"/>
-      <c r="AR32" s="105"/>
-      <c r="AS32" s="102"/>
-      <c r="AT32" s="106"/>
-      <c r="AU32" s="107"/>
-      <c r="AV32" s="108"/>
-      <c r="AW32" s="108"/>
-      <c r="AX32" s="93"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="96"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="103"/>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="103"/>
-      <c r="AA33" s="103"/>
-      <c r="AB33" s="103"/>
-      <c r="AC33" s="103" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD33" s="104"/>
-      <c r="AE33" s="102"/>
-      <c r="AF33" s="105"/>
-      <c r="AG33" s="102"/>
-      <c r="AH33" s="104"/>
-      <c r="AI33" s="102"/>
-      <c r="AJ33" s="105"/>
-      <c r="AK33" s="102"/>
-      <c r="AL33" s="104"/>
-      <c r="AM33" s="102"/>
-      <c r="AN33" s="105"/>
-      <c r="AO33" s="102"/>
-      <c r="AP33" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ33" s="102" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR33" s="105" t="s">
-        <v>158</v>
-      </c>
-      <c r="AS33" s="102" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT33" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU33" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="AV33" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW33" s="111"/>
-      <c r="AX33" s="93"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="94"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="96"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="100"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103" t="s">
-        <v>160</v>
-      </c>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="103"/>
-      <c r="AA34" s="103"/>
-      <c r="AB34" s="103"/>
-      <c r="AC34" s="103"/>
-      <c r="AD34" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE34" s="102"/>
-      <c r="AF34" s="105" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG34" s="102"/>
-      <c r="AH34" s="104"/>
-      <c r="AI34" s="102"/>
-      <c r="AJ34" s="105"/>
-      <c r="AK34" s="102"/>
-      <c r="AL34" s="104"/>
-      <c r="AM34" s="102"/>
-      <c r="AN34" s="105"/>
-      <c r="AO34" s="102"/>
-      <c r="AP34" s="104"/>
-      <c r="AQ34" s="102"/>
-      <c r="AR34" s="105"/>
-      <c r="AS34" s="102"/>
-      <c r="AT34" s="106"/>
-      <c r="AU34" s="107"/>
-      <c r="AV34" s="108"/>
-      <c r="AW34" s="108"/>
-      <c r="AX34" s="93"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="96"/>
-      <c r="F35" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" s="112"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="O35" s="97"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="101"/>
-      <c r="T35" s="102"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="103"/>
-      <c r="AA35" s="103"/>
-      <c r="AB35" s="103"/>
-      <c r="AC35" s="103"/>
-      <c r="AD35" s="104"/>
-      <c r="AE35" s="102"/>
-      <c r="AF35" s="105"/>
-      <c r="AG35" s="102"/>
-      <c r="AH35" s="104"/>
-      <c r="AI35" s="102"/>
-      <c r="AJ35" s="105"/>
-      <c r="AK35" s="102"/>
-      <c r="AL35" s="104"/>
-      <c r="AM35" s="102"/>
-      <c r="AN35" s="105"/>
-      <c r="AO35" s="102"/>
-      <c r="AP35" s="104"/>
-      <c r="AQ35" s="102"/>
-      <c r="AR35" s="105"/>
-      <c r="AS35" s="102"/>
-      <c r="AT35" s="106"/>
-      <c r="AU35" s="107"/>
-      <c r="AV35" s="108"/>
-      <c r="AW35" s="108"/>
-      <c r="AX35" s="93"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="94"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="96"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="114" t="s">
-        <v>163</v>
-      </c>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="98"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="102"/>
-      <c r="U36" s="103"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="103"/>
-      <c r="AA36" s="103"/>
-      <c r="AB36" s="103"/>
-      <c r="AC36" s="103"/>
-      <c r="AD36" s="104"/>
-      <c r="AE36" s="102"/>
-      <c r="AF36" s="105"/>
-      <c r="AG36" s="102"/>
-      <c r="AH36" s="104"/>
-      <c r="AI36" s="102"/>
-      <c r="AJ36" s="105"/>
-      <c r="AK36" s="102"/>
-      <c r="AL36" s="104"/>
-      <c r="AM36" s="102"/>
-      <c r="AN36" s="105"/>
-      <c r="AO36" s="102"/>
-      <c r="AP36" s="104"/>
-      <c r="AQ36" s="102"/>
-      <c r="AR36" s="105"/>
-      <c r="AS36" s="102"/>
-      <c r="AT36" s="106"/>
-      <c r="AU36" s="107"/>
-      <c r="AV36" s="108"/>
-      <c r="AW36" s="108"/>
-      <c r="AX36" s="93"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="94"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="100"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="102"/>
-      <c r="U37" s="103"/>
-      <c r="V37" s="103"/>
-      <c r="W37" s="103"/>
-      <c r="X37" s="103"/>
-      <c r="Y37" s="103"/>
-      <c r="Z37" s="103"/>
-      <c r="AA37" s="103"/>
-      <c r="AB37" s="103"/>
-      <c r="AC37" s="103"/>
-      <c r="AD37" s="104"/>
-      <c r="AE37" s="102"/>
-      <c r="AF37" s="105"/>
-      <c r="AG37" s="102"/>
-      <c r="AH37" s="104"/>
-      <c r="AI37" s="102"/>
-      <c r="AJ37" s="105"/>
-      <c r="AK37" s="102"/>
-      <c r="AL37" s="104"/>
-      <c r="AM37" s="102"/>
-      <c r="AN37" s="105"/>
-      <c r="AO37" s="102"/>
-      <c r="AP37" s="104"/>
-      <c r="AQ37" s="102"/>
-      <c r="AR37" s="105"/>
-      <c r="AS37" s="102"/>
-      <c r="AT37" s="106"/>
-      <c r="AU37" s="107"/>
-      <c r="AV37" s="108"/>
-      <c r="AW37" s="108"/>
-      <c r="AX37" s="93"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="93"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="116" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" s="116" t="n">
+      <c r="X38" s="119" t="n">
         <v>3</v>
       </c>
-      <c r="J38" s="116" t="n">
+      <c r="Y38" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="K38" s="116" t="n">
+      <c r="Z38" s="119" t="n">
         <v>5</v>
       </c>
-      <c r="L38" s="116" t="n">
+      <c r="AA38" s="119" t="n">
         <v>6</v>
       </c>
-      <c r="M38" s="116" t="n">
+      <c r="AB38" s="119" t="n">
         <v>7</v>
       </c>
-      <c r="N38" s="117"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="115"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="118"/>
-      <c r="S38" s="118"/>
-      <c r="T38" s="119"/>
-      <c r="U38" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" s="116" t="n">
-        <v>1</v>
-      </c>
-      <c r="W38" s="116" t="n">
-        <v>2</v>
-      </c>
-      <c r="X38" s="116" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y38" s="116" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z38" s="116" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA38" s="116" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB38" s="116" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC38" s="116" t="n">
+      <c r="AC38" s="119" t="n">
         <v>8</v>
       </c>
-      <c r="AD38" s="93"/>
-      <c r="AE38" s="93"/>
-      <c r="AF38" s="93"/>
-      <c r="AG38" s="120"/>
-      <c r="AH38" s="93"/>
-      <c r="AI38" s="93"/>
-      <c r="AJ38" s="93"/>
-      <c r="AK38" s="120"/>
-      <c r="AL38" s="93"/>
-      <c r="AM38" s="93"/>
-      <c r="AN38" s="93"/>
-      <c r="AO38" s="120"/>
-      <c r="AP38" s="93"/>
-      <c r="AQ38" s="93"/>
-      <c r="AR38" s="93"/>
-      <c r="AS38" s="120"/>
-      <c r="AT38" s="119"/>
-      <c r="AU38" s="93"/>
-      <c r="AV38" s="120"/>
-      <c r="AW38" s="120"/>
-      <c r="AX38" s="93"/>
+      <c r="AD38" s="96"/>
+      <c r="AE38" s="96"/>
+      <c r="AF38" s="96"/>
+      <c r="AG38" s="123"/>
+      <c r="AH38" s="96"/>
+      <c r="AI38" s="96"/>
+      <c r="AJ38" s="96"/>
+      <c r="AK38" s="123"/>
+      <c r="AL38" s="96"/>
+      <c r="AM38" s="96"/>
+      <c r="AN38" s="96"/>
+      <c r="AO38" s="123"/>
+      <c r="AP38" s="96"/>
+      <c r="AQ38" s="96"/>
+      <c r="AR38" s="96"/>
+      <c r="AS38" s="123"/>
+      <c r="AT38" s="122"/>
+      <c r="AU38" s="96"/>
+      <c r="AV38" s="123"/>
+      <c r="AW38" s="123"/>
+      <c r="AX38" s="96"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V45" s="82"/>
+      <c r="V45" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLE" sheetId="1" state="visible" r:id="rId3"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="201">
   <si>
     <t xml:space="preserve">TEMPLATES</t>
   </si>
@@ -198,12 +198,6 @@
   </si>
   <si>
     <t xml:space="preserve">express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Application
-Request
-Response
-Router</t>
   </si>
   <si>
     <t xml:space="preserve">multer</t>
@@ -1172,7 +1166,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="163">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1449,7 +1443,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1461,44 +1455,40 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="28" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2275,7 +2265,7 @@
   </sheetPr>
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="L4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
       <selection pane="bottomLeft" activeCell="AP10" activeCellId="0" sqref="AP10"/>
@@ -2309,8 +2299,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="48" width="5.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="48" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="48" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="48" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="48" width="6.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,19 +3470,13 @@
         <v>11</v>
       </c>
       <c r="AB16" s="62"/>
-      <c r="AC16" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD16" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE16" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
       <c r="AJ16" s="30"/>
       <c r="AK16" s="30"/>
       <c r="AL16" s="30"/>
@@ -3504,7 +3488,7 @@
       <c r="AR16" s="30"/>
       <c r="AS16" s="45"/>
     </row>
-    <row r="17" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="54" t="n">
         <f aca="false">ROW() - 4</f>
         <v>13</v>
@@ -3564,18 +3548,12 @@
       <c r="AA17" s="30"/>
       <c r="AB17" s="62"/>
       <c r="AC17" s="62"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH17" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI17" s="74" t="s">
-        <v>11</v>
-      </c>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
       <c r="AJ17" s="30"/>
       <c r="AK17" s="30"/>
       <c r="AL17" s="30"/>
@@ -3602,7 +3580,7 @@
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -3742,7 +3720,7 @@
       <c r="AR19" s="30"/>
       <c r="AS19" s="45"/>
     </row>
-    <row r="20" s="75" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="72" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="54" t="n">
         <f aca="false">ROW() - 4</f>
         <v>16</v>
@@ -3820,7 +3798,7 @@
       <c r="AR20" s="30"/>
       <c r="AS20" s="45"/>
     </row>
-    <row r="21" s="75" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="72" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="54" t="n">
         <f aca="false">ROW() - 4</f>
         <v>17</v>
@@ -3831,7 +3809,7 @@
       <c r="C21" s="54"/>
       <c r="D21" s="15"/>
       <c r="E21" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -3902,11 +3880,11 @@
       <c r="B22" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="76"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="15"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
@@ -3917,7 +3895,7 @@
       <c r="M22" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N22" s="77"/>
+      <c r="N22" s="74"/>
       <c r="O22" s="56" t="s">
         <v>7</v>
       </c>
@@ -3950,23 +3928,23 @@
       <c r="Z22" s="30"/>
       <c r="AA22" s="30"/>
       <c r="AB22" s="62"/>
-      <c r="AC22" s="78"/>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="78"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
       <c r="AF22" s="30"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="78"/>
+      <c r="AG22" s="75"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
       <c r="AJ22" s="62"/>
       <c r="AK22" s="62"/>
       <c r="AL22" s="30"/>
       <c r="AM22" s="30"/>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="78"/>
-      <c r="AP22" s="78"/>
-      <c r="AQ22" s="78"/>
-      <c r="AR22" s="78"/>
-      <c r="AS22" s="79"/>
+      <c r="AN22" s="75"/>
+      <c r="AO22" s="75"/>
+      <c r="AP22" s="75"/>
+      <c r="AQ22" s="75"/>
+      <c r="AR22" s="75"/>
+      <c r="AS22" s="76"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="54" t="n">
@@ -4021,8 +3999,8 @@
       <c r="W23" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="X23" s="80" t="s">
-        <v>52</v>
+      <c r="X23" s="77" t="s">
+        <v>51</v>
       </c>
       <c r="Y23" s="31" t="s">
         <v>13</v>
@@ -4034,23 +4012,23 @@
         <v>11</v>
       </c>
       <c r="AB23" s="62"/>
-      <c r="AC23" s="78"/>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="78"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
       <c r="AF23" s="30"/>
-      <c r="AG23" s="78"/>
-      <c r="AH23" s="78"/>
-      <c r="AI23" s="78"/>
+      <c r="AG23" s="75"/>
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="75"/>
       <c r="AJ23" s="62"/>
       <c r="AK23" s="62"/>
       <c r="AL23" s="30"/>
       <c r="AM23" s="30"/>
-      <c r="AN23" s="78"/>
-      <c r="AO23" s="78"/>
-      <c r="AP23" s="78"/>
-      <c r="AQ23" s="78"/>
-      <c r="AR23" s="78"/>
-      <c r="AS23" s="79"/>
+      <c r="AN23" s="75"/>
+      <c r="AO23" s="75"/>
+      <c r="AP23" s="75"/>
+      <c r="AQ23" s="75"/>
+      <c r="AR23" s="75"/>
+      <c r="AS23" s="76"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="54" t="n">
@@ -4060,11 +4038,11 @@
       <c r="B24" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="15"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
@@ -4075,7 +4053,7 @@
       <c r="M24" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="77"/>
+      <c r="N24" s="74"/>
       <c r="O24" s="56" t="s">
         <v>7</v>
       </c>
@@ -4108,23 +4086,23 @@
       <c r="Z24" s="30"/>
       <c r="AA24" s="30"/>
       <c r="AB24" s="62"/>
-      <c r="AC24" s="78"/>
-      <c r="AD24" s="78"/>
-      <c r="AE24" s="78"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
       <c r="AF24" s="30"/>
-      <c r="AG24" s="78"/>
-      <c r="AH24" s="78"/>
-      <c r="AI24" s="78"/>
+      <c r="AG24" s="75"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="75"/>
       <c r="AJ24" s="62"/>
       <c r="AK24" s="62"/>
       <c r="AL24" s="30"/>
       <c r="AM24" s="30"/>
-      <c r="AN24" s="78"/>
-      <c r="AO24" s="78"/>
-      <c r="AP24" s="78"/>
-      <c r="AQ24" s="78"/>
-      <c r="AR24" s="78"/>
-      <c r="AS24" s="79"/>
+      <c r="AN24" s="75"/>
+      <c r="AO24" s="75"/>
+      <c r="AP24" s="75"/>
+      <c r="AQ24" s="75"/>
+      <c r="AR24" s="75"/>
+      <c r="AS24" s="76"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="54" t="n">
@@ -4134,12 +4112,12 @@
       <c r="B25" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="73"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
-      <c r="G25" s="81" t="s">
-        <v>54</v>
+      <c r="G25" s="78" t="s">
+        <v>53</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -4149,7 +4127,7 @@
       <c r="M25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N25" s="77"/>
+      <c r="N25" s="74"/>
       <c r="O25" s="56" t="s">
         <v>7</v>
       </c>
@@ -4182,23 +4160,23 @@
       <c r="Z25" s="30"/>
       <c r="AA25" s="30"/>
       <c r="AB25" s="62"/>
-      <c r="AC25" s="78"/>
-      <c r="AD25" s="78"/>
-      <c r="AE25" s="78"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
       <c r="AF25" s="30"/>
-      <c r="AG25" s="78"/>
-      <c r="AH25" s="78"/>
-      <c r="AI25" s="78"/>
+      <c r="AG25" s="75"/>
+      <c r="AH25" s="75"/>
+      <c r="AI25" s="75"/>
       <c r="AJ25" s="62"/>
       <c r="AK25" s="62"/>
       <c r="AL25" s="30"/>
       <c r="AM25" s="30"/>
-      <c r="AN25" s="78"/>
-      <c r="AO25" s="78"/>
-      <c r="AP25" s="78"/>
-      <c r="AQ25" s="78"/>
-      <c r="AR25" s="78"/>
-      <c r="AS25" s="79"/>
+      <c r="AN25" s="75"/>
+      <c r="AO25" s="75"/>
+      <c r="AP25" s="75"/>
+      <c r="AQ25" s="75"/>
+      <c r="AR25" s="75"/>
+      <c r="AS25" s="76"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="54" t="n">
@@ -4208,13 +4186,13 @@
       <c r="B26" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="76"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="15"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="81" t="s">
-        <v>55</v>
+      <c r="H26" s="78" t="s">
+        <v>54</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
@@ -4223,7 +4201,7 @@
       <c r="M26" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N26" s="77"/>
+      <c r="N26" s="74"/>
       <c r="O26" s="56" t="s">
         <v>7</v>
       </c>
@@ -4256,23 +4234,23 @@
       <c r="Z26" s="30"/>
       <c r="AA26" s="30"/>
       <c r="AB26" s="62"/>
-      <c r="AC26" s="78"/>
-      <c r="AD26" s="78"/>
-      <c r="AE26" s="78"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75"/>
       <c r="AF26" s="30"/>
-      <c r="AG26" s="78"/>
-      <c r="AH26" s="78"/>
-      <c r="AI26" s="78"/>
+      <c r="AG26" s="75"/>
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="75"/>
       <c r="AJ26" s="62"/>
       <c r="AK26" s="62"/>
       <c r="AL26" s="30"/>
       <c r="AM26" s="30"/>
-      <c r="AN26" s="78"/>
-      <c r="AO26" s="78"/>
-      <c r="AP26" s="78"/>
-      <c r="AQ26" s="78"/>
-      <c r="AR26" s="78"/>
-      <c r="AS26" s="79"/>
+      <c r="AN26" s="75"/>
+      <c r="AO26" s="75"/>
+      <c r="AP26" s="75"/>
+      <c r="AQ26" s="75"/>
+      <c r="AR26" s="75"/>
+      <c r="AS26" s="76"/>
     </row>
     <row r="27" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="54" t="n">
@@ -4327,8 +4305,8 @@
       <c r="W27" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="X27" s="80" t="s">
-        <v>52</v>
+      <c r="X27" s="77" t="s">
+        <v>51</v>
       </c>
       <c r="Y27" s="31" t="s">
         <v>13</v>
@@ -4339,26 +4317,26 @@
       <c r="AA27" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AB27" s="80" t="s">
-        <v>56</v>
+      <c r="AB27" s="77" t="s">
+        <v>55</v>
       </c>
       <c r="AC27" s="31" t="s">
         <v>13</v>
       </c>
       <c r="AD27" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE27" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AF27" s="80" t="s">
-        <v>56</v>
+      <c r="AF27" s="77" t="s">
+        <v>55</v>
       </c>
       <c r="AG27" s="31" t="s">
         <v>13</v>
       </c>
       <c r="AH27" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI27" s="33" t="s">
         <v>5</v>
@@ -4367,12 +4345,12 @@
       <c r="AK27" s="62"/>
       <c r="AL27" s="30"/>
       <c r="AM27" s="30"/>
-      <c r="AN27" s="78"/>
-      <c r="AO27" s="78"/>
-      <c r="AP27" s="78"/>
-      <c r="AQ27" s="78"/>
-      <c r="AR27" s="78"/>
-      <c r="AS27" s="79"/>
+      <c r="AN27" s="75"/>
+      <c r="AO27" s="75"/>
+      <c r="AP27" s="75"/>
+      <c r="AQ27" s="75"/>
+      <c r="AR27" s="75"/>
+      <c r="AS27" s="76"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="54" t="n">
@@ -4388,8 +4366,8 @@
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="81" t="s">
-        <v>59</v>
+      <c r="I28" s="78" t="s">
+        <v>58</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
@@ -4397,7 +4375,7 @@
       <c r="M28" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N28" s="77"/>
+      <c r="N28" s="74"/>
       <c r="O28" s="56" t="s">
         <v>7</v>
       </c>
@@ -4433,24 +4411,24 @@
       <c r="AC28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AD28" s="78"/>
-      <c r="AE28" s="78"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="75"/>
       <c r="AF28" s="30"/>
       <c r="AG28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="78"/>
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="75"/>
       <c r="AJ28" s="62"/>
       <c r="AK28" s="62"/>
       <c r="AL28" s="30"/>
       <c r="AM28" s="30"/>
-      <c r="AN28" s="78"/>
-      <c r="AO28" s="78"/>
-      <c r="AP28" s="78"/>
-      <c r="AQ28" s="78"/>
-      <c r="AR28" s="78"/>
-      <c r="AS28" s="79"/>
+      <c r="AN28" s="75"/>
+      <c r="AO28" s="75"/>
+      <c r="AP28" s="75"/>
+      <c r="AQ28" s="75"/>
+      <c r="AR28" s="75"/>
+      <c r="AS28" s="76"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="54" t="n">
@@ -4505,8 +4483,8 @@
       <c r="W29" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="X29" s="80" t="s">
-        <v>52</v>
+      <c r="X29" s="77" t="s">
+        <v>51</v>
       </c>
       <c r="Y29" s="31" t="s">
         <v>13</v>
@@ -4521,28 +4499,28 @@
       <c r="AC29" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="78"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="75"/>
       <c r="AF29" s="30"/>
       <c r="AG29" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AH29" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI29" s="73" t="s">
+      <c r="AH29" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI29" s="80" t="s">
         <v>5</v>
       </c>
       <c r="AJ29" s="62"/>
       <c r="AK29" s="62"/>
       <c r="AL29" s="30"/>
       <c r="AM29" s="30"/>
-      <c r="AN29" s="78"/>
-      <c r="AO29" s="78"/>
-      <c r="AP29" s="78"/>
-      <c r="AQ29" s="78"/>
-      <c r="AR29" s="78"/>
-      <c r="AS29" s="79"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="75"/>
+      <c r="AP29" s="75"/>
+      <c r="AQ29" s="75"/>
+      <c r="AR29" s="75"/>
+      <c r="AS29" s="76"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="54" t="n">
@@ -4559,15 +4537,15 @@
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
-      <c r="J30" s="81" t="s">
-        <v>61</v>
+      <c r="J30" s="78" t="s">
+        <v>60</v>
       </c>
       <c r="K30" s="16"/>
       <c r="L30" s="17"/>
       <c r="M30" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N30" s="77"/>
+      <c r="N30" s="74"/>
       <c r="O30" s="56" t="s">
         <v>7</v>
       </c>
@@ -4603,24 +4581,24 @@
       <c r="AC30" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="78"/>
-      <c r="AF30" s="78"/>
-      <c r="AG30" s="78"/>
-      <c r="AH30" s="78"/>
-      <c r="AI30" s="78"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="75"/>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="75"/>
       <c r="AJ30" s="62"/>
       <c r="AK30" s="62"/>
       <c r="AL30" s="30"/>
       <c r="AM30" s="30"/>
-      <c r="AN30" s="78"/>
-      <c r="AO30" s="78"/>
-      <c r="AP30" s="78"/>
-      <c r="AQ30" s="78"/>
-      <c r="AR30" s="78"/>
-      <c r="AS30" s="79"/>
-    </row>
-    <row r="31" s="75" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN30" s="75"/>
+      <c r="AO30" s="75"/>
+      <c r="AP30" s="75"/>
+      <c r="AQ30" s="75"/>
+      <c r="AR30" s="75"/>
+      <c r="AS30" s="76"/>
+    </row>
+    <row r="31" s="72" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="54" t="n">
         <f aca="false">ROW() - 4</f>
         <v>27</v>
@@ -4673,8 +4651,8 @@
       <c r="W31" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="X31" s="80" t="s">
-        <v>52</v>
+      <c r="X31" s="77" t="s">
+        <v>51</v>
       </c>
       <c r="Y31" s="31" t="s">
         <v>13</v>
@@ -4689,28 +4667,28 @@
       <c r="AC31" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AD31" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE31" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF31" s="78"/>
-      <c r="AG31" s="78"/>
-      <c r="AH31" s="78"/>
-      <c r="AI31" s="78"/>
+      <c r="AD31" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE31" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF31" s="75"/>
+      <c r="AG31" s="75"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="75"/>
       <c r="AJ31" s="62"/>
       <c r="AK31" s="62"/>
       <c r="AL31" s="30"/>
       <c r="AM31" s="30"/>
-      <c r="AN31" s="78"/>
-      <c r="AO31" s="78"/>
-      <c r="AP31" s="78"/>
-      <c r="AQ31" s="78"/>
-      <c r="AR31" s="78"/>
-      <c r="AS31" s="79"/>
-    </row>
-    <row r="32" s="75" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN31" s="75"/>
+      <c r="AO31" s="75"/>
+      <c r="AP31" s="75"/>
+      <c r="AQ31" s="75"/>
+      <c r="AR31" s="75"/>
+      <c r="AS31" s="76"/>
+    </row>
+    <row r="32" s="72" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="54" t="n">
         <f aca="false">ROW() - 4</f>
         <v>28</v>
@@ -4718,13 +4696,13 @@
       <c r="B32" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="15"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
@@ -4733,7 +4711,7 @@
       <c r="M32" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N32" s="77"/>
+      <c r="N32" s="74"/>
       <c r="O32" s="56" t="s">
         <v>7</v>
       </c>
@@ -4766,25 +4744,25 @@
       <c r="Z32" s="30"/>
       <c r="AA32" s="30"/>
       <c r="AB32" s="62"/>
-      <c r="AC32" s="78"/>
-      <c r="AD32" s="78"/>
-      <c r="AE32" s="78"/>
-      <c r="AF32" s="78"/>
-      <c r="AG32" s="78"/>
-      <c r="AH32" s="78"/>
-      <c r="AI32" s="78"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="75"/>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="75"/>
       <c r="AJ32" s="62"/>
       <c r="AK32" s="62"/>
       <c r="AL32" s="30"/>
       <c r="AM32" s="30"/>
-      <c r="AN32" s="78"/>
-      <c r="AO32" s="78"/>
-      <c r="AP32" s="78"/>
-      <c r="AQ32" s="78"/>
-      <c r="AR32" s="78"/>
-      <c r="AS32" s="79"/>
-    </row>
-    <row r="33" s="75" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AN32" s="75"/>
+      <c r="AO32" s="75"/>
+      <c r="AP32" s="75"/>
+      <c r="AQ32" s="75"/>
+      <c r="AR32" s="75"/>
+      <c r="AS32" s="76"/>
+    </row>
+    <row r="33" s="72" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="54" t="n">
         <f aca="false">ROW() - 4</f>
         <v>29</v>
@@ -4837,8 +4815,8 @@
       <c r="W33" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="X33" s="80" t="s">
-        <v>52</v>
+      <c r="X33" s="77" t="s">
+        <v>51</v>
       </c>
       <c r="Y33" s="31" t="s">
         <v>13</v>
@@ -4850,23 +4828,23 @@
         <v>11</v>
       </c>
       <c r="AB33" s="62"/>
-      <c r="AC33" s="78"/>
-      <c r="AD33" s="78"/>
-      <c r="AE33" s="78"/>
-      <c r="AF33" s="78"/>
-      <c r="AG33" s="78"/>
-      <c r="AH33" s="78"/>
-      <c r="AI33" s="78"/>
+      <c r="AC33" s="75"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="75"/>
+      <c r="AF33" s="75"/>
+      <c r="AG33" s="75"/>
+      <c r="AH33" s="75"/>
+      <c r="AI33" s="75"/>
       <c r="AJ33" s="62"/>
       <c r="AK33" s="62"/>
       <c r="AL33" s="30"/>
       <c r="AM33" s="30"/>
-      <c r="AN33" s="78"/>
-      <c r="AO33" s="78"/>
-      <c r="AP33" s="78"/>
-      <c r="AQ33" s="78"/>
-      <c r="AR33" s="78"/>
-      <c r="AS33" s="79"/>
+      <c r="AN33" s="75"/>
+      <c r="AO33" s="75"/>
+      <c r="AP33" s="75"/>
+      <c r="AQ33" s="75"/>
+      <c r="AR33" s="75"/>
+      <c r="AS33" s="76"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="54" t="n">
@@ -4876,13 +4854,13 @@
       <c r="B34" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="76"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -4891,7 +4869,7 @@
       <c r="M34" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N34" s="77"/>
+      <c r="N34" s="74"/>
       <c r="O34" s="56" t="s">
         <v>7</v>
       </c>
@@ -4924,23 +4902,23 @@
       <c r="Z34" s="30"/>
       <c r="AA34" s="30"/>
       <c r="AB34" s="62"/>
-      <c r="AC34" s="78"/>
-      <c r="AD34" s="78"/>
-      <c r="AE34" s="78"/>
-      <c r="AF34" s="78"/>
-      <c r="AG34" s="78"/>
-      <c r="AH34" s="78"/>
-      <c r="AI34" s="78"/>
+      <c r="AC34" s="75"/>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="75"/>
+      <c r="AF34" s="75"/>
+      <c r="AG34" s="75"/>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="75"/>
       <c r="AJ34" s="62"/>
       <c r="AK34" s="62"/>
       <c r="AL34" s="30"/>
       <c r="AM34" s="30"/>
-      <c r="AN34" s="78"/>
-      <c r="AO34" s="78"/>
-      <c r="AP34" s="78"/>
-      <c r="AQ34" s="78"/>
-      <c r="AR34" s="78"/>
-      <c r="AS34" s="79"/>
+      <c r="AN34" s="75"/>
+      <c r="AO34" s="75"/>
+      <c r="AP34" s="75"/>
+      <c r="AQ34" s="75"/>
+      <c r="AR34" s="75"/>
+      <c r="AS34" s="76"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="54" t="n">
@@ -4995,8 +4973,8 @@
       <c r="W35" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="X35" s="80" t="s">
-        <v>52</v>
+      <c r="X35" s="77" t="s">
+        <v>51</v>
       </c>
       <c r="Y35" s="31" t="s">
         <v>13</v>
@@ -5008,23 +4986,23 @@
         <v>11</v>
       </c>
       <c r="AB35" s="62"/>
-      <c r="AC35" s="78"/>
-      <c r="AD35" s="78"/>
-      <c r="AE35" s="78"/>
-      <c r="AF35" s="78"/>
-      <c r="AG35" s="78"/>
-      <c r="AH35" s="78"/>
-      <c r="AI35" s="78"/>
+      <c r="AC35" s="75"/>
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="75"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="75"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75"/>
       <c r="AJ35" s="62"/>
       <c r="AK35" s="62"/>
       <c r="AL35" s="30"/>
       <c r="AM35" s="30"/>
-      <c r="AN35" s="78"/>
-      <c r="AO35" s="78"/>
-      <c r="AP35" s="78"/>
-      <c r="AQ35" s="78"/>
-      <c r="AR35" s="78"/>
-      <c r="AS35" s="79"/>
+      <c r="AN35" s="75"/>
+      <c r="AO35" s="75"/>
+      <c r="AP35" s="75"/>
+      <c r="AQ35" s="75"/>
+      <c r="AR35" s="75"/>
+      <c r="AS35" s="76"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="54"/>
@@ -5055,53 +5033,53 @@
       <c r="Z36" s="32"/>
       <c r="AA36" s="33"/>
       <c r="AB36" s="62"/>
-      <c r="AC36" s="78"/>
-      <c r="AD36" s="78"/>
-      <c r="AE36" s="78"/>
-      <c r="AF36" s="78"/>
-      <c r="AG36" s="78"/>
-      <c r="AH36" s="78"/>
-      <c r="AI36" s="78"/>
+      <c r="AC36" s="75"/>
+      <c r="AD36" s="75"/>
+      <c r="AE36" s="75"/>
+      <c r="AF36" s="75"/>
+      <c r="AG36" s="75"/>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="75"/>
       <c r="AJ36" s="62"/>
       <c r="AK36" s="62"/>
       <c r="AL36" s="30"/>
       <c r="AM36" s="30"/>
-      <c r="AN36" s="78"/>
-      <c r="AO36" s="78"/>
-      <c r="AP36" s="78"/>
-      <c r="AQ36" s="78"/>
-      <c r="AR36" s="78"/>
-      <c r="AS36" s="79"/>
+      <c r="AN36" s="75"/>
+      <c r="AO36" s="75"/>
+      <c r="AP36" s="75"/>
+      <c r="AQ36" s="75"/>
+      <c r="AR36" s="75"/>
+      <c r="AS36" s="76"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="45"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
-      <c r="D37" s="82" t="n">
+      <c r="D37" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="E37" s="83" t="n">
+      <c r="E37" s="82" t="n">
         <v>1</v>
       </c>
-      <c r="F37" s="83" t="n">
+      <c r="F37" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="G37" s="83" t="n">
+      <c r="G37" s="82" t="n">
         <v>3</v>
       </c>
-      <c r="H37" s="83" t="n">
+      <c r="H37" s="82" t="n">
         <v>4</v>
       </c>
-      <c r="I37" s="84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" s="84" t="n">
+      <c r="I37" s="83" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" s="83" t="n">
         <v>6</v>
       </c>
-      <c r="K37" s="84" t="n">
+      <c r="K37" s="83" t="n">
         <v>7</v>
       </c>
-      <c r="L37" s="84" t="n">
+      <c r="L37" s="83" t="n">
         <v>8</v>
       </c>
       <c r="M37" s="45"/>
@@ -5109,7 +5087,7 @@
       <c r="O37" s="45"/>
       <c r="P37" s="45"/>
       <c r="Q37" s="45"/>
-      <c r="R37" s="85"/>
+      <c r="R37" s="84"/>
       <c r="S37" s="45"/>
       <c r="T37" s="45"/>
       <c r="U37" s="45"/>
@@ -5118,23 +5096,23 @@
       <c r="X37" s="45"/>
       <c r="Y37" s="45"/>
       <c r="Z37" s="45"/>
-      <c r="AA37" s="85"/>
-      <c r="AB37" s="85"/>
-      <c r="AC37" s="85"/>
-      <c r="AD37" s="85"/>
-      <c r="AE37" s="85"/>
-      <c r="AF37" s="85"/>
-      <c r="AG37" s="85"/>
-      <c r="AH37" s="85"/>
-      <c r="AI37" s="85"/>
-      <c r="AJ37" s="85"/>
-      <c r="AK37" s="85"/>
-      <c r="AL37" s="85"/>
-      <c r="AM37" s="85"/>
-      <c r="AN37" s="85"/>
-      <c r="AO37" s="85"/>
-      <c r="AP37" s="85"/>
-      <c r="AQ37" s="85"/>
+      <c r="AA37" s="84"/>
+      <c r="AB37" s="84"/>
+      <c r="AC37" s="84"/>
+      <c r="AD37" s="84"/>
+      <c r="AE37" s="84"/>
+      <c r="AF37" s="84"/>
+      <c r="AG37" s="84"/>
+      <c r="AH37" s="84"/>
+      <c r="AI37" s="84"/>
+      <c r="AJ37" s="84"/>
+      <c r="AK37" s="84"/>
+      <c r="AL37" s="84"/>
+      <c r="AM37" s="84"/>
+      <c r="AN37" s="84"/>
+      <c r="AO37" s="84"/>
+      <c r="AP37" s="84"/>
+      <c r="AQ37" s="84"/>
       <c r="AR37" s="45"/>
       <c r="AS37" s="45"/>
     </row>
@@ -5188,11 +5166,11 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="48" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="86" width="27.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="86" width="6.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="85" width="27.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="85" width="6.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="48" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="48" width="9.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="87" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="86" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="48" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="48" width="33.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="48" width="3.89"/>
@@ -5202,90 +5180,90 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="91"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="90"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90" t="s">
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="45"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="87"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="45"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="88"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="92" t="s">
+      <c r="D3" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="89" t="s">
+      <c r="K3" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="90" t="s">
+      <c r="N3" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="90" t="s">
+      <c r="O3" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="O3" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" s="95"/>
+      <c r="P3" s="94"/>
       <c r="Q3" s="45"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5299,7 +5277,7 @@
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
@@ -5308,7 +5286,7 @@
       <c r="I4" s="39"/>
       <c r="J4" s="40"/>
       <c r="K4" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="42"/>
@@ -5323,22 +5301,22 @@
       <c r="C5" s="36"/>
       <c r="D5" s="37"/>
       <c r="E5" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="39"/>
       <c r="J5" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K5" s="40"/>
       <c r="L5" s="41"/>
       <c r="M5" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="43" t="s">
         <v>76</v>
-      </c>
-      <c r="N5" s="43" t="s">
-        <v>77</v>
       </c>
       <c r="O5" s="43"/>
       <c r="P5" s="44"/>
@@ -5350,22 +5328,22 @@
       <c r="C6" s="36"/>
       <c r="D6" s="37"/>
       <c r="E6" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
       <c r="I6" s="39"/>
       <c r="J6" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6" s="40"/>
       <c r="L6" s="41"/>
       <c r="M6" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N6" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" s="43"/>
       <c r="P6" s="44"/>
@@ -5377,22 +5355,22 @@
       <c r="C7" s="36"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39"/>
       <c r="J7" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L7" s="41"/>
       <c r="M7" s="42"/>
       <c r="N7" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O7" s="43"/>
       <c r="P7" s="44"/>
@@ -5405,13 +5383,13 @@
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="39"/>
       <c r="J8" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="40"/>
       <c r="L8" s="41"/>
@@ -5428,7 +5406,7 @@
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
@@ -5448,22 +5426,22 @@
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
       <c r="E10" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="39"/>
       <c r="J10" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L10" s="41"/>
       <c r="M10" s="42"/>
       <c r="N10" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O10" s="43"/>
       <c r="P10" s="44"/>
@@ -5476,18 +5454,18 @@
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="39"/>
       <c r="J11" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="40"/>
       <c r="L11" s="41"/>
       <c r="M11" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N11" s="43"/>
       <c r="O11" s="43"/>
@@ -5500,19 +5478,19 @@
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
       <c r="E12" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="39"/>
       <c r="J12" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="40"/>
       <c r="L12" s="41"/>
       <c r="M12" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N12" s="43"/>
       <c r="O12" s="43"/>
@@ -5530,7 +5508,7 @@
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
@@ -5539,7 +5517,7 @@
       <c r="I13" s="39"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L13" s="41"/>
       <c r="M13" s="42"/>
@@ -5554,22 +5532,22 @@
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
       <c r="E14" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="39"/>
       <c r="J14" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" s="40"/>
       <c r="L14" s="41"/>
       <c r="M14" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N14" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O14" s="43"/>
       <c r="P14" s="44"/>
@@ -5581,22 +5559,22 @@
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
       <c r="E15" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="39"/>
       <c r="J15" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15" s="40"/>
       <c r="L15" s="41"/>
       <c r="M15" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N15" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O15" s="43"/>
       <c r="P15" s="44"/>
@@ -5608,22 +5586,22 @@
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
       <c r="E16" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
       <c r="I16" s="39"/>
       <c r="J16" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K16" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L16" s="41"/>
       <c r="M16" s="42"/>
       <c r="N16" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O16" s="43"/>
       <c r="P16" s="44"/>
@@ -5635,19 +5613,19 @@
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
       <c r="E17" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
       <c r="I17" s="39"/>
       <c r="J17" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" s="40"/>
       <c r="L17" s="41"/>
       <c r="M17" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N17" s="43"/>
       <c r="O17" s="43"/>
@@ -5665,7 +5643,7 @@
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
@@ -5673,8 +5651,8 @@
       <c r="H18" s="38"/>
       <c r="I18" s="39"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="96" t="s">
-        <v>73</v>
+      <c r="K18" s="95" t="s">
+        <v>72</v>
       </c>
       <c r="L18" s="41"/>
       <c r="M18" s="42"/>
@@ -5689,22 +5667,22 @@
       <c r="C19" s="36"/>
       <c r="D19" s="37"/>
       <c r="E19" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
       <c r="I19" s="39"/>
       <c r="J19" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K19" s="40"/>
       <c r="L19" s="41"/>
       <c r="M19" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N19" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O19" s="43"/>
       <c r="P19" s="44"/>
@@ -5716,22 +5694,22 @@
       <c r="C20" s="36"/>
       <c r="D20" s="37"/>
       <c r="E20" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="39"/>
       <c r="J20" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K20" s="40"/>
       <c r="L20" s="41"/>
       <c r="M20" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N20" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O20" s="43"/>
       <c r="P20" s="44"/>
@@ -5743,22 +5721,22 @@
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
       <c r="E21" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="39"/>
       <c r="J21" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K21" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L21" s="41"/>
       <c r="M21" s="42"/>
       <c r="N21" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O21" s="43"/>
       <c r="P21" s="44"/>
@@ -5771,21 +5749,21 @@
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="39"/>
       <c r="J22" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K22" s="40"/>
       <c r="L22" s="41"/>
       <c r="M22" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N22" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O22" s="43"/>
       <c r="P22" s="44"/>
@@ -5798,21 +5776,21 @@
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
       <c r="I23" s="39"/>
       <c r="J23" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K23" s="40"/>
       <c r="L23" s="41"/>
       <c r="M23" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N23" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="43"/>
       <c r="P23" s="44"/>
@@ -5825,21 +5803,21 @@
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="39"/>
       <c r="J24" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K24" s="40"/>
       <c r="L24" s="41"/>
       <c r="M24" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N24" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="43"/>
       <c r="P24" s="44"/>
@@ -5852,18 +5830,18 @@
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="39"/>
       <c r="J25" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K25" s="40"/>
       <c r="L25" s="41"/>
       <c r="M25" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N25" s="43"/>
       <c r="O25" s="43"/>
@@ -5876,19 +5854,19 @@
       <c r="C26" s="36"/>
       <c r="D26" s="37"/>
       <c r="E26" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="39"/>
       <c r="J26" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K26" s="40"/>
       <c r="L26" s="41"/>
       <c r="M26" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N26" s="43"/>
       <c r="O26" s="43"/>
@@ -5905,7 +5883,7 @@
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="97"/>
+      <c r="J27" s="96"/>
       <c r="K27" s="40"/>
       <c r="L27" s="41"/>
       <c r="M27" s="42"/>
@@ -5915,53 +5893,53 @@
       <c r="Q27" s="45"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="98"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="105"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="104"/>
       <c r="Q28" s="45"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="45"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="82" t="n">
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="E29" s="83" t="n">
+      <c r="E29" s="82" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="83" t="n">
+      <c r="F29" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="G29" s="83" t="n">
+      <c r="G29" s="82" t="n">
         <v>3</v>
       </c>
-      <c r="H29" s="83" t="n">
+      <c r="H29" s="82" t="n">
         <v>4</v>
       </c>
-      <c r="I29" s="84" t="n">
+      <c r="I29" s="83" t="n">
         <v>5</v>
       </c>
       <c r="J29" s="45"/>
       <c r="K29" s="45"/>
-      <c r="L29" s="106"/>
+      <c r="L29" s="105"/>
       <c r="M29" s="45"/>
       <c r="N29" s="45"/>
       <c r="O29" s="45"/>
-      <c r="P29" s="85"/>
+      <c r="P29" s="84"/>
       <c r="Q29" s="45"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6060,24 +6038,28 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L39" activeCellId="0" sqref="L39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="48" width="3.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="86" width="27.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="86" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="85" width="3.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="85" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="48" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="48" width="3.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="48" width="4.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="48" width="23.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="87" width="4.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="86" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="48" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="48" width="32.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="87" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="87" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="86" width="3.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="86" width="4.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="4.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="48" width="11.53"/>
   </cols>
@@ -6087,28 +6069,28 @@
         <v>15</v>
       </c>
       <c r="B1" s="50"/>
-      <c r="C1" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="107"/>
+      <c r="C1" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="106"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="50" t="s">
@@ -6117,103 +6099,103 @@
       <c r="B2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="95" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="85"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="84"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="50"/>
       <c r="B3" s="50"/>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="108" t="s">
+      <c r="N3" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="108" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="94" t="s">
+      <c r="O3" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="P3" s="95" t="s">
+      <c r="Q3" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="109" t="s">
+      <c r="R3" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" s="95"/>
-      <c r="T3" s="85"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="84"/>
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="110" t="n">
+      <c r="A4" s="109" t="n">
         <f aca="false">VINE!$A$31</f>
         <v>27</v>
       </c>
-      <c r="B4" s="110" t="str">
+      <c r="B4" s="109" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/",0,VINE!$D$14,VINE!$E$21,VINE!$F$24,VINE!$G$25,VINE!$H$26,VINE!$I$28,VINE!$J$30,VINE!$K$31)</f>
         <v>database/schemata/cycles/spreadsheet-to-filesystem/spreadsheet-to-spreadsheet-database/worksheet/range/index.js</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="85"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="84"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
@@ -6224,18 +6206,18 @@
       <c r="K5" s="38"/>
       <c r="L5" s="39"/>
       <c r="M5" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N5" s="40"/>
       <c r="O5" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P5" s="42" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="43"/>
       <c r="R5" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S5" s="44"/>
       <c r="T5" s="45"/>
@@ -6246,7 +6228,7 @@
       <c r="C6" s="36"/>
       <c r="D6" s="37"/>
       <c r="E6" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -6257,12 +6239,12 @@
       <c r="L6" s="39"/>
       <c r="M6" s="40"/>
       <c r="N6" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O6" s="41"/>
       <c r="P6" s="42"/>
       <c r="Q6" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R6" s="43"/>
       <c r="S6" s="44"/>
@@ -6275,7 +6257,7 @@
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
@@ -6284,15 +6266,15 @@
       <c r="K7" s="38"/>
       <c r="L7" s="39"/>
       <c r="M7" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N7" s="40"/>
       <c r="O7" s="41"/>
       <c r="P7" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R7" s="43"/>
       <c r="S7" s="44"/>
@@ -6305,7 +6287,7 @@
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
@@ -6314,15 +6296,15 @@
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
       <c r="M8" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O8" s="41"/>
       <c r="P8" s="42"/>
       <c r="Q8" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R8" s="43"/>
       <c r="S8" s="44"/>
@@ -6336,7 +6318,7 @@
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
@@ -6344,15 +6326,15 @@
       <c r="K9" s="38"/>
       <c r="L9" s="39"/>
       <c r="M9" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O9" s="41"/>
       <c r="P9" s="42"/>
       <c r="Q9" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R9" s="43"/>
       <c r="S9" s="44"/>
@@ -6374,15 +6356,15 @@
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
       <c r="M10" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N10" s="40"/>
       <c r="O10" s="41"/>
       <c r="P10" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R10" s="43"/>
       <c r="S10" s="44"/>
@@ -6397,19 +6379,19 @@
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
       <c r="L11" s="39"/>
       <c r="M11" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N11" s="40"/>
       <c r="O11" s="41"/>
       <c r="P11" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="43"/>
       <c r="R11" s="43"/>
@@ -6424,7 +6406,7 @@
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
@@ -6432,15 +6414,15 @@
       <c r="K12" s="38"/>
       <c r="L12" s="39"/>
       <c r="M12" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N12" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O12" s="41"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R12" s="43"/>
       <c r="S12" s="44"/>
@@ -6462,15 +6444,15 @@
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
       <c r="M13" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N13" s="40"/>
       <c r="O13" s="41"/>
       <c r="P13" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R13" s="43"/>
       <c r="S13" s="44"/>
@@ -6485,19 +6467,19 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
       <c r="L14" s="39"/>
       <c r="M14" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N14" s="40"/>
       <c r="O14" s="41"/>
       <c r="P14" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="43"/>
       <c r="R14" s="43"/>
@@ -6510,7 +6492,7 @@
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
       <c r="E15" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
@@ -6521,7 +6503,7 @@
       <c r="L15" s="39"/>
       <c r="M15" s="40"/>
       <c r="N15" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O15" s="41"/>
       <c r="P15" s="42"/>
@@ -6537,7 +6519,7 @@
       <c r="D16" s="37"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
@@ -6546,7 +6528,7 @@
       <c r="K16" s="38"/>
       <c r="L16" s="39"/>
       <c r="M16" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N16" s="40"/>
       <c r="O16" s="41"/>
@@ -6559,41 +6541,41 @@
       <c r="T16" s="45"/>
     </row>
     <row r="17" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="110" t="n">
+      <c r="A17" s="109" t="n">
         <f aca="false">VINE!$A$29</f>
         <v>25</v>
       </c>
-      <c r="B17" s="110" t="str">
+      <c r="B17" s="109" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/",0,VINE!$D$14,VINE!$E$21,VINE!$F$24,VINE!$G$25,VINE!$H$26,VINE!$I$28,VINE!$J$29)</f>
         <v>database/schemata/cycles/spreadsheet-to-filesystem/spreadsheet-to-spreadsheet-database/worksheet/index.js</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="111"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="113"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="85"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="84"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="46"/>
       <c r="B18" s="47"/>
       <c r="C18" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
@@ -6604,18 +6586,18 @@
       <c r="K18" s="38"/>
       <c r="L18" s="39"/>
       <c r="M18" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N18" s="40"/>
       <c r="O18" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P18" s="42" t="s">
         <v>14</v>
       </c>
       <c r="Q18" s="43"/>
       <c r="R18" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S18" s="44"/>
       <c r="T18" s="45"/>
@@ -6626,7 +6608,7 @@
       <c r="C19" s="36"/>
       <c r="D19" s="37"/>
       <c r="E19" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
@@ -6637,12 +6619,12 @@
       <c r="L19" s="39"/>
       <c r="M19" s="40"/>
       <c r="N19" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O19" s="41"/>
       <c r="P19" s="42"/>
       <c r="Q19" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R19" s="43"/>
       <c r="S19" s="44"/>
@@ -6655,7 +6637,7 @@
       <c r="D20" s="37"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
@@ -6664,10 +6646,10 @@
       <c r="K20" s="38"/>
       <c r="L20" s="39"/>
       <c r="M20" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N20" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O20" s="41"/>
       <c r="P20" s="42"/>
@@ -6692,15 +6674,15 @@
       <c r="K21" s="38"/>
       <c r="L21" s="39"/>
       <c r="M21" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N21" s="40"/>
       <c r="O21" s="41"/>
       <c r="P21" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R21" s="43"/>
       <c r="S21" s="44"/>
@@ -6714,7 +6696,7 @@
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
@@ -6722,12 +6704,12 @@
       <c r="K22" s="38"/>
       <c r="L22" s="39"/>
       <c r="M22" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N22" s="40"/>
       <c r="O22" s="41"/>
       <c r="P22" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="43"/>
       <c r="R22" s="43"/>
@@ -6740,7 +6722,7 @@
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -6751,7 +6733,7 @@
       <c r="L23" s="39"/>
       <c r="M23" s="40"/>
       <c r="N23" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="41"/>
       <c r="P23" s="42"/>
@@ -6783,443 +6765,443 @@
       <c r="T24" s="45"/>
     </row>
     <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="110" t="n">
+      <c r="A25" s="109" t="n">
         <f aca="false">VINE!$A$27</f>
         <v>23</v>
       </c>
-      <c r="B25" s="110" t="str">
+      <c r="B25" s="109" t="str">
         <f aca="false">_xlfn.TEXTJOIN("/", 0,VINE!$D$14,VINE!$E$21,VINE!$F$24,VINE!$G$25,VINE!$H$26,VINE!$I$27)</f>
         <v>database/schemata/cycles/spreadsheet-to-filesystem/spreadsheet-to-spreadsheet-database/index.js</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="85"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="84"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="114"/>
       <c r="C26" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="N26" s="95"/>
+      <c r="O26" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="S26" s="44"/>
+      <c r="T26" s="84"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="113"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="41"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R27" s="119"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="84"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="113"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="N26" s="96"/>
-      <c r="O26" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="P26" s="119" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="120" t="s">
-        <v>102</v>
-      </c>
-      <c r="S26" s="44"/>
-      <c r="T26" s="85"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="114"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="O27" s="41"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="R27" s="120"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="85"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="114"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117" t="s">
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="O28" s="41"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R28" s="119"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="84"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="113"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="120"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" s="95"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q29" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R29" s="119"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="84"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="113"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="N28" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="O28" s="41"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="R28" s="120"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="85"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="114"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="121"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="N29" s="96"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="119" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q29" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="R29" s="120"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="85"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="114"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117" t="s">
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N30" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="41"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="84"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="113"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31" s="95"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q31" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R31" s="119"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="84"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="113"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N32" s="95"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="N30" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="O30" s="41"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="85"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="N31" s="96"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q31" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="R31" s="120"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="85"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117" t="s">
-        <v>115</v>
-      </c>
-      <c r="I32" s="117"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="N32" s="96"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="119" t="s">
+      <c r="Q32" s="43"/>
+      <c r="R32" s="119"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="84"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N33" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="O33" s="41"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R33" s="119"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="84"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="85"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="N33" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="O33" s="41"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="R33" s="120"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="85"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117" t="s">
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N34" s="95"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="118" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q34" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R34" s="119"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="84"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="113"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="N34" s="96"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="119" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q34" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="R34" s="120"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="85"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="114"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="118"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="117"/>
       <c r="M35" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="N35" s="96" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="N35" s="95" t="s">
+        <v>72</v>
       </c>
       <c r="O35" s="41"/>
-      <c r="P35" s="119"/>
+      <c r="P35" s="118"/>
       <c r="Q35" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="R35" s="120"/>
+        <v>76</v>
+      </c>
+      <c r="R35" s="119"/>
       <c r="S35" s="44"/>
-      <c r="T35" s="85"/>
+      <c r="T35" s="84"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="114"/>
-      <c r="B36" s="115"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="114"/>
       <c r="C36" s="36"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="117" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="118"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="117"/>
       <c r="M36" s="40"/>
-      <c r="N36" s="96" t="s">
-        <v>73</v>
+      <c r="N36" s="95" t="s">
+        <v>72</v>
       </c>
       <c r="O36" s="41"/>
-      <c r="P36" s="119"/>
+      <c r="P36" s="118"/>
       <c r="Q36" s="43"/>
-      <c r="R36" s="120"/>
+      <c r="R36" s="119"/>
       <c r="S36" s="44"/>
-      <c r="T36" s="85"/>
+      <c r="T36" s="84"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="114"/>
-      <c r="B37" s="115"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="114"/>
       <c r="C37" s="36"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="118"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="117"/>
       <c r="M37" s="40"/>
-      <c r="N37" s="96"/>
+      <c r="N37" s="95"/>
       <c r="O37" s="41"/>
-      <c r="P37" s="119"/>
+      <c r="P37" s="118"/>
       <c r="Q37" s="43"/>
-      <c r="R37" s="120"/>
+      <c r="R37" s="119"/>
       <c r="S37" s="44"/>
-      <c r="T37" s="85"/>
+      <c r="T37" s="84"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="122"/>
-      <c r="B38" s="123"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="124"/>
-      <c r="L38" s="123"/>
-      <c r="M38" s="103"/>
-      <c r="N38" s="125"/>
-      <c r="O38" s="100"/>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="103"/>
-      <c r="R38" s="125"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="85"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="124"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="124"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="84"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="82" t="n">
+      <c r="A39" s="84"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="E39" s="83" t="n">
+      <c r="E39" s="82" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="83" t="n">
+      <c r="F39" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="G39" s="83" t="n">
+      <c r="G39" s="82" t="n">
         <v>3</v>
       </c>
-      <c r="H39" s="83" t="n">
+      <c r="H39" s="82" t="n">
         <v>4</v>
       </c>
-      <c r="I39" s="84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J39" s="84" t="n">
+      <c r="I39" s="83" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" s="83" t="n">
         <v>6</v>
       </c>
-      <c r="K39" s="84" t="n">
+      <c r="K39" s="83" t="n">
         <v>7</v>
       </c>
-      <c r="L39" s="84" t="n">
+      <c r="L39" s="83" t="n">
         <v>8</v>
       </c>
-      <c r="M39" s="126"/>
-      <c r="N39" s="126"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="126"/>
-      <c r="R39" s="126"/>
-      <c r="S39" s="85"/>
-      <c r="T39" s="85"/>
+      <c r="M39" s="125"/>
+      <c r="N39" s="125"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="125"/>
+      <c r="R39" s="125"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="84"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L44" s="127"/>
+      <c r="L44" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7257,365 +7239,365 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="48" width="4.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="17.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="86" width="8.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="86" width="12.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="86" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="85" width="8.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="85" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="85" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="48" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="48" width="25.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="128" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="128" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="129" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="130" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="128" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="128" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="127" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="127" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="128" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="129" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="127" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="127" width="4.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="21" style="48" width="2.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="48" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="48" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="48" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="48" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="131" width="5.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="130" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="48" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="48" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="48" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="131" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="130" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="48" width="4.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="48" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="48" width="19.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="131" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="130" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="48" width="8.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="48" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="48" width="20.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="131" width="4.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="128" width="4.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="131" width="30.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="131" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="130" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="127" width="4.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="130" width="30.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="48" style="130" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="48" width="9.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="89" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
+      <c r="AH1" s="132"/>
+      <c r="AI1" s="132"/>
+      <c r="AJ1" s="132"/>
+      <c r="AK1" s="132"/>
+      <c r="AL1" s="132"/>
+      <c r="AM1" s="132"/>
+      <c r="AN1" s="132"/>
+      <c r="AO1" s="132"/>
+      <c r="AP1" s="132"/>
+      <c r="AQ1" s="132"/>
+      <c r="AR1" s="132"/>
+      <c r="AS1" s="132"/>
+      <c r="AT1" s="132"/>
+      <c r="AU1" s="132"/>
+      <c r="AV1" s="132"/>
+      <c r="AW1" s="132"/>
+      <c r="AX1" s="45"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="133" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="133" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="133"/>
-      <c r="AD1" s="133" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE1" s="133"/>
-      <c r="AF1" s="133"/>
-      <c r="AG1" s="133"/>
-      <c r="AH1" s="133"/>
-      <c r="AI1" s="133"/>
-      <c r="AJ1" s="133"/>
-      <c r="AK1" s="133"/>
-      <c r="AL1" s="133"/>
-      <c r="AM1" s="133"/>
-      <c r="AN1" s="133"/>
-      <c r="AO1" s="133"/>
-      <c r="AP1" s="133"/>
-      <c r="AQ1" s="133"/>
-      <c r="AR1" s="133"/>
-      <c r="AS1" s="133"/>
-      <c r="AT1" s="133"/>
-      <c r="AU1" s="133"/>
-      <c r="AV1" s="133"/>
-      <c r="AW1" s="133"/>
-      <c r="AX1" s="45"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="132" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="132" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="90" t="s">
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="132" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="132"/>
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="132"/>
+      <c r="AM2" s="132"/>
+      <c r="AN2" s="132"/>
+      <c r="AO2" s="132"/>
+      <c r="AP2" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ2" s="132"/>
+      <c r="AR2" s="132"/>
+      <c r="AS2" s="132"/>
+      <c r="AT2" s="133" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU2" s="133"/>
+      <c r="AV2" s="133"/>
+      <c r="AW2" s="133"/>
+      <c r="AX2" s="45"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="134" t="s">
-        <v>124</v>
-      </c>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="133" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="133"/>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="133"/>
-      <c r="AJ2" s="133"/>
-      <c r="AK2" s="133"/>
-      <c r="AL2" s="133"/>
-      <c r="AM2" s="133"/>
-      <c r="AN2" s="133"/>
-      <c r="AO2" s="133"/>
-      <c r="AP2" s="133" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ2" s="133"/>
-      <c r="AR2" s="133"/>
-      <c r="AS2" s="133"/>
-      <c r="AT2" s="134" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU2" s="134"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="134"/>
-      <c r="AX2" s="45"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="132"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="92" t="s">
+      <c r="F3" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="P3" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="R3" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="108" t="s">
+      <c r="S3" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="T3" s="134" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="132" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="133"/>
+      <c r="AF3" s="133"/>
+      <c r="AG3" s="133"/>
+      <c r="AH3" s="133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="133"/>
+      <c r="AJ3" s="133"/>
+      <c r="AK3" s="133"/>
+      <c r="AL3" s="133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="133"/>
+      <c r="AN3" s="133"/>
+      <c r="AO3" s="133"/>
+      <c r="AP3" s="133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="133"/>
+      <c r="AR3" s="133"/>
+      <c r="AS3" s="133"/>
+      <c r="AT3" s="133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="133"/>
+      <c r="AV3" s="133"/>
+      <c r="AW3" s="133"/>
+      <c r="AX3" s="45"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="131"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="P3" s="90" t="s">
+      <c r="AE4" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF4" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="90" t="s">
+      <c r="AG4" s="132" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH4" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI4" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ4" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK4" s="132" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL4" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM4" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN4" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO4" s="132" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP4" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ4" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="T3" s="135" t="s">
-        <v>70</v>
-      </c>
-      <c r="U3" s="133" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="133"/>
-      <c r="W3" s="133"/>
-      <c r="X3" s="133"/>
-      <c r="Y3" s="133"/>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="133"/>
-      <c r="AB3" s="133"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="134"/>
-      <c r="AH3" s="134" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="134"/>
-      <c r="AJ3" s="134"/>
-      <c r="AK3" s="134"/>
-      <c r="AL3" s="134" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="134"/>
-      <c r="AS3" s="134"/>
-      <c r="AT3" s="134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="134"/>
-      <c r="AV3" s="134"/>
-      <c r="AW3" s="134"/>
-      <c r="AX3" s="45"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="133"/>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="133"/>
-      <c r="AD4" s="133" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE4" s="133" t="s">
+      <c r="AR4" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS4" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT4" s="134" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU4" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV4" s="132" t="s">
         <v>132</v>
       </c>
-      <c r="AF4" s="133" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG4" s="133" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH4" s="133" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI4" s="133" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ4" s="133" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK4" s="133" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL4" s="133" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM4" s="133" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN4" s="133" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO4" s="133" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP4" s="133" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ4" s="133" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR4" s="133" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS4" s="133" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT4" s="135" t="s">
+      <c r="AW4" s="132"/>
+      <c r="AX4" s="135"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="136" t="n">
+        <v>64</v>
+      </c>
+      <c r="B5" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="AU4" s="133" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV4" s="133" t="s">
-        <v>133</v>
-      </c>
-      <c r="AW4" s="133"/>
-      <c r="AX4" s="136"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="137" t="n">
-        <v>64</v>
-      </c>
-      <c r="B5" s="138" t="s">
+      <c r="C5" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="E5" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>137</v>
-      </c>
-      <c r="E5" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>138</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
@@ -7624,62 +7606,62 @@
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
-      <c r="N5" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" s="140"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="142" t="s">
+      <c r="N5" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" s="139"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="141" t="s">
+        <v>138</v>
+      </c>
+      <c r="R5" s="142"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="145"/>
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="145"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="144"/>
+      <c r="AF5" s="147"/>
+      <c r="AG5" s="144"/>
+      <c r="AH5" s="146"/>
+      <c r="AI5" s="144"/>
+      <c r="AJ5" s="147"/>
+      <c r="AK5" s="144"/>
+      <c r="AL5" s="146"/>
+      <c r="AM5" s="144"/>
+      <c r="AN5" s="147"/>
+      <c r="AO5" s="144"/>
+      <c r="AP5" s="146"/>
+      <c r="AQ5" s="144"/>
+      <c r="AR5" s="147"/>
+      <c r="AS5" s="144"/>
+      <c r="AT5" s="148"/>
+      <c r="AU5" s="149"/>
+      <c r="AV5" s="150"/>
+      <c r="AW5" s="150"/>
+      <c r="AX5" s="135"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>139</v>
-      </c>
-      <c r="R5" s="143"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="145"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="146"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="146"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="147"/>
-      <c r="AE5" s="145"/>
-      <c r="AF5" s="148"/>
-      <c r="AG5" s="145"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="148"/>
-      <c r="AK5" s="145"/>
-      <c r="AL5" s="147"/>
-      <c r="AM5" s="145"/>
-      <c r="AN5" s="148"/>
-      <c r="AO5" s="145"/>
-      <c r="AP5" s="147"/>
-      <c r="AQ5" s="145"/>
-      <c r="AR5" s="148"/>
-      <c r="AS5" s="145"/>
-      <c r="AT5" s="149"/>
-      <c r="AU5" s="150"/>
-      <c r="AV5" s="151"/>
-      <c r="AW5" s="151"/>
-      <c r="AX5" s="136"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="137"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>140</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
@@ -7688,62 +7670,62 @@
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
-      <c r="N6" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" s="140"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="142" t="s">
+      <c r="N6" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="139"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="142"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="144"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="145"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="145"/>
+      <c r="AC6" s="145"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="144"/>
+      <c r="AF6" s="147"/>
+      <c r="AG6" s="144"/>
+      <c r="AH6" s="146"/>
+      <c r="AI6" s="144"/>
+      <c r="AJ6" s="147"/>
+      <c r="AK6" s="144"/>
+      <c r="AL6" s="146"/>
+      <c r="AM6" s="144"/>
+      <c r="AN6" s="147"/>
+      <c r="AO6" s="144"/>
+      <c r="AP6" s="146"/>
+      <c r="AQ6" s="144"/>
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="144"/>
+      <c r="AT6" s="148"/>
+      <c r="AU6" s="149"/>
+      <c r="AV6" s="150"/>
+      <c r="AW6" s="150"/>
+      <c r="AX6" s="135"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="38" t="s">
         <v>141</v>
-      </c>
-      <c r="R6" s="143"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="145"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="146"/>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="147"/>
-      <c r="AE6" s="145"/>
-      <c r="AF6" s="148"/>
-      <c r="AG6" s="145"/>
-      <c r="AH6" s="147"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="148"/>
-      <c r="AK6" s="145"/>
-      <c r="AL6" s="147"/>
-      <c r="AM6" s="145"/>
-      <c r="AN6" s="148"/>
-      <c r="AO6" s="145"/>
-      <c r="AP6" s="147"/>
-      <c r="AQ6" s="145"/>
-      <c r="AR6" s="148"/>
-      <c r="AS6" s="145"/>
-      <c r="AT6" s="149"/>
-      <c r="AU6" s="150"/>
-      <c r="AV6" s="151"/>
-      <c r="AW6" s="151"/>
-      <c r="AX6" s="136"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="137"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>142</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
@@ -7752,62 +7734,62 @@
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
-      <c r="N7" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7" s="140"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="142" t="s">
+      <c r="N7" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="139"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="141" t="s">
+        <v>142</v>
+      </c>
+      <c r="R7" s="142"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="144"/>
+      <c r="U7" s="145"/>
+      <c r="V7" s="145"/>
+      <c r="W7" s="145"/>
+      <c r="X7" s="145"/>
+      <c r="Y7" s="145"/>
+      <c r="Z7" s="145"/>
+      <c r="AA7" s="145"/>
+      <c r="AB7" s="145"/>
+      <c r="AC7" s="145"/>
+      <c r="AD7" s="146"/>
+      <c r="AE7" s="144"/>
+      <c r="AF7" s="147"/>
+      <c r="AG7" s="144"/>
+      <c r="AH7" s="146"/>
+      <c r="AI7" s="144"/>
+      <c r="AJ7" s="147"/>
+      <c r="AK7" s="144"/>
+      <c r="AL7" s="146"/>
+      <c r="AM7" s="144"/>
+      <c r="AN7" s="147"/>
+      <c r="AO7" s="144"/>
+      <c r="AP7" s="146"/>
+      <c r="AQ7" s="144"/>
+      <c r="AR7" s="147"/>
+      <c r="AS7" s="144"/>
+      <c r="AT7" s="148"/>
+      <c r="AU7" s="149"/>
+      <c r="AV7" s="150"/>
+      <c r="AW7" s="150"/>
+      <c r="AX7" s="135"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="136"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>143</v>
-      </c>
-      <c r="R7" s="143"/>
-      <c r="S7" s="144"/>
-      <c r="T7" s="145"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="146"/>
-      <c r="W7" s="146"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="146"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="145"/>
-      <c r="AF7" s="148"/>
-      <c r="AG7" s="145"/>
-      <c r="AH7" s="147"/>
-      <c r="AI7" s="145"/>
-      <c r="AJ7" s="148"/>
-      <c r="AK7" s="145"/>
-      <c r="AL7" s="147"/>
-      <c r="AM7" s="145"/>
-      <c r="AN7" s="148"/>
-      <c r="AO7" s="145"/>
-      <c r="AP7" s="147"/>
-      <c r="AQ7" s="145"/>
-      <c r="AR7" s="148"/>
-      <c r="AS7" s="145"/>
-      <c r="AT7" s="149"/>
-      <c r="AU7" s="150"/>
-      <c r="AV7" s="151"/>
-      <c r="AW7" s="151"/>
-      <c r="AX7" s="136"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>144</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
@@ -7816,58 +7798,58 @@
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
-      <c r="N8" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" s="140"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="142" t="s">
-        <v>145</v>
-      </c>
-      <c r="R8" s="143"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="146"/>
-      <c r="V8" s="146"/>
-      <c r="W8" s="146"/>
-      <c r="X8" s="146"/>
-      <c r="Y8" s="146"/>
-      <c r="Z8" s="146"/>
-      <c r="AA8" s="146"/>
-      <c r="AB8" s="146"/>
-      <c r="AC8" s="146"/>
-      <c r="AD8" s="147"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="148"/>
-      <c r="AG8" s="145"/>
-      <c r="AH8" s="147"/>
-      <c r="AI8" s="145"/>
-      <c r="AJ8" s="148"/>
-      <c r="AK8" s="145"/>
-      <c r="AL8" s="147"/>
-      <c r="AM8" s="145"/>
-      <c r="AN8" s="148"/>
-      <c r="AO8" s="145"/>
-      <c r="AP8" s="147"/>
-      <c r="AQ8" s="145"/>
-      <c r="AR8" s="148"/>
-      <c r="AS8" s="145"/>
-      <c r="AT8" s="149"/>
-      <c r="AU8" s="150"/>
-      <c r="AV8" s="151"/>
-      <c r="AW8" s="151"/>
-      <c r="AX8" s="136"/>
+      <c r="N8" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="139"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="141" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="142"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="144"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="145"/>
+      <c r="Z8" s="145"/>
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="145"/>
+      <c r="AD8" s="146"/>
+      <c r="AE8" s="144"/>
+      <c r="AF8" s="147"/>
+      <c r="AG8" s="144"/>
+      <c r="AH8" s="146"/>
+      <c r="AI8" s="144"/>
+      <c r="AJ8" s="147"/>
+      <c r="AK8" s="144"/>
+      <c r="AL8" s="146"/>
+      <c r="AM8" s="144"/>
+      <c r="AN8" s="147"/>
+      <c r="AO8" s="144"/>
+      <c r="AP8" s="146"/>
+      <c r="AQ8" s="144"/>
+      <c r="AR8" s="147"/>
+      <c r="AS8" s="144"/>
+      <c r="AT8" s="148"/>
+      <c r="AU8" s="149"/>
+      <c r="AV8" s="150"/>
+      <c r="AW8" s="150"/>
+      <c r="AX8" s="135"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="137"/>
-      <c r="B9" s="137"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="139"/>
+      <c r="E9" s="138"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
@@ -7876,62 +7858,62 @@
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="143"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="145" t="s">
+      <c r="N9" s="95"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="142"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U9" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="U9" s="146" t="s">
+      <c r="V9" s="145"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="145"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="145"/>
+      <c r="AA9" s="145"/>
+      <c r="AB9" s="145"/>
+      <c r="AC9" s="145"/>
+      <c r="AD9" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="V9" s="146"/>
-      <c r="W9" s="146"/>
-      <c r="X9" s="146"/>
-      <c r="Y9" s="146"/>
-      <c r="Z9" s="146"/>
-      <c r="AA9" s="146"/>
-      <c r="AB9" s="146"/>
-      <c r="AC9" s="146"/>
-      <c r="AD9" s="147" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE9" s="145"/>
-      <c r="AF9" s="148" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="147"/>
-      <c r="AI9" s="145"/>
-      <c r="AJ9" s="148"/>
-      <c r="AK9" s="145"/>
-      <c r="AL9" s="147"/>
-      <c r="AM9" s="145"/>
-      <c r="AN9" s="148"/>
-      <c r="AO9" s="145"/>
-      <c r="AP9" s="147"/>
-      <c r="AQ9" s="145"/>
-      <c r="AR9" s="148"/>
-      <c r="AS9" s="145"/>
-      <c r="AT9" s="149"/>
-      <c r="AU9" s="150"/>
-      <c r="AV9" s="151"/>
-      <c r="AW9" s="151"/>
-      <c r="AX9" s="136"/>
+      <c r="AG9" s="144"/>
+      <c r="AH9" s="146"/>
+      <c r="AI9" s="144"/>
+      <c r="AJ9" s="147"/>
+      <c r="AK9" s="144"/>
+      <c r="AL9" s="146"/>
+      <c r="AM9" s="144"/>
+      <c r="AN9" s="147"/>
+      <c r="AO9" s="144"/>
+      <c r="AP9" s="146"/>
+      <c r="AQ9" s="144"/>
+      <c r="AR9" s="147"/>
+      <c r="AS9" s="144"/>
+      <c r="AT9" s="148"/>
+      <c r="AU9" s="149"/>
+      <c r="AV9" s="150"/>
+      <c r="AW9" s="150"/>
+      <c r="AX9" s="135"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="137"/>
-      <c r="B10" s="137"/>
+      <c r="A10" s="136"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="139"/>
+      <c r="E10" s="138"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
@@ -7940,62 +7922,62 @@
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="U10" s="146"/>
-      <c r="V10" s="146" t="s">
+      <c r="N10" s="95"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U10" s="145"/>
+      <c r="V10" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="W10" s="145"/>
+      <c r="X10" s="145"/>
+      <c r="Y10" s="145"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="145"/>
+      <c r="AB10" s="145"/>
+      <c r="AC10" s="145"/>
+      <c r="AD10" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="W10" s="146"/>
-      <c r="X10" s="146"/>
-      <c r="Y10" s="146"/>
-      <c r="Z10" s="146"/>
-      <c r="AA10" s="146"/>
-      <c r="AB10" s="146"/>
-      <c r="AC10" s="146"/>
-      <c r="AD10" s="147" t="s">
+      <c r="AE10" s="144"/>
+      <c r="AF10" s="147" t="s">
         <v>150</v>
       </c>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="148" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG10" s="145"/>
-      <c r="AH10" s="147"/>
-      <c r="AI10" s="145"/>
-      <c r="AJ10" s="148"/>
-      <c r="AK10" s="145"/>
-      <c r="AL10" s="147"/>
-      <c r="AM10" s="145"/>
-      <c r="AN10" s="148"/>
-      <c r="AO10" s="145"/>
-      <c r="AP10" s="147"/>
-      <c r="AQ10" s="145"/>
-      <c r="AR10" s="148"/>
-      <c r="AS10" s="145"/>
-      <c r="AT10" s="149"/>
-      <c r="AU10" s="150"/>
-      <c r="AV10" s="151"/>
-      <c r="AW10" s="151"/>
-      <c r="AX10" s="136"/>
+      <c r="AG10" s="144"/>
+      <c r="AH10" s="146"/>
+      <c r="AI10" s="144"/>
+      <c r="AJ10" s="147"/>
+      <c r="AK10" s="144"/>
+      <c r="AL10" s="146"/>
+      <c r="AM10" s="144"/>
+      <c r="AN10" s="147"/>
+      <c r="AO10" s="144"/>
+      <c r="AP10" s="146"/>
+      <c r="AQ10" s="144"/>
+      <c r="AR10" s="147"/>
+      <c r="AS10" s="144"/>
+      <c r="AT10" s="148"/>
+      <c r="AU10" s="149"/>
+      <c r="AV10" s="150"/>
+      <c r="AW10" s="150"/>
+      <c r="AX10" s="135"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="137"/>
-      <c r="B11" s="137"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="139"/>
+      <c r="E11" s="138"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
@@ -8004,62 +7986,62 @@
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="145" t="s">
+      <c r="N11" s="95"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="141"/>
+      <c r="R11" s="142"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U11" s="145"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="U11" s="146"/>
-      <c r="V11" s="146"/>
-      <c r="W11" s="146" t="s">
-        <v>147</v>
-      </c>
-      <c r="X11" s="146"/>
-      <c r="Y11" s="146"/>
-      <c r="Z11" s="146"/>
-      <c r="AA11" s="146"/>
-      <c r="AB11" s="146"/>
-      <c r="AC11" s="146"/>
-      <c r="AD11" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE11" s="145"/>
-      <c r="AF11" s="148" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG11" s="145"/>
-      <c r="AH11" s="147"/>
-      <c r="AI11" s="145"/>
-      <c r="AJ11" s="148"/>
-      <c r="AK11" s="145"/>
-      <c r="AL11" s="147"/>
-      <c r="AM11" s="145"/>
-      <c r="AN11" s="148"/>
-      <c r="AO11" s="145"/>
-      <c r="AP11" s="147"/>
-      <c r="AQ11" s="145"/>
-      <c r="AR11" s="148"/>
-      <c r="AS11" s="145"/>
-      <c r="AT11" s="149"/>
-      <c r="AU11" s="150"/>
-      <c r="AV11" s="151"/>
-      <c r="AW11" s="151"/>
-      <c r="AX11" s="136"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="145"/>
+      <c r="Z11" s="145"/>
+      <c r="AA11" s="145"/>
+      <c r="AB11" s="145"/>
+      <c r="AC11" s="145"/>
+      <c r="AD11" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE11" s="144"/>
+      <c r="AF11" s="147" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG11" s="144"/>
+      <c r="AH11" s="146"/>
+      <c r="AI11" s="144"/>
+      <c r="AJ11" s="147"/>
+      <c r="AK11" s="144"/>
+      <c r="AL11" s="146"/>
+      <c r="AM11" s="144"/>
+      <c r="AN11" s="147"/>
+      <c r="AO11" s="144"/>
+      <c r="AP11" s="146"/>
+      <c r="AQ11" s="144"/>
+      <c r="AR11" s="147"/>
+      <c r="AS11" s="144"/>
+      <c r="AT11" s="148"/>
+      <c r="AU11" s="149"/>
+      <c r="AV11" s="150"/>
+      <c r="AW11" s="150"/>
+      <c r="AX11" s="135"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="137"/>
-      <c r="B12" s="137"/>
+      <c r="A12" s="136"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="139"/>
+      <c r="E12" s="138"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
@@ -8068,74 +8050,74 @@
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="140"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="143"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="145" t="s">
+      <c r="N12" s="95"/>
+      <c r="O12" s="139"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="141"/>
+      <c r="R12" s="142"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="144" t="s">
+        <v>152</v>
+      </c>
+      <c r="U12" s="145"/>
+      <c r="V12" s="145"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="U12" s="146"/>
-      <c r="V12" s="146"/>
-      <c r="W12" s="146"/>
-      <c r="X12" s="146" t="s">
+      <c r="Y12" s="145"/>
+      <c r="Z12" s="145"/>
+      <c r="AA12" s="145"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="146"/>
-      <c r="AB12" s="146"/>
-      <c r="AC12" s="146"/>
-      <c r="AD12" s="147" t="s">
+      <c r="AE12" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="AE12" s="152" t="s">
+      <c r="AF12" s="147" t="s">
         <v>156</v>
       </c>
-      <c r="AF12" s="148" t="s">
+      <c r="AG12" s="151" t="s">
         <v>157</v>
       </c>
-      <c r="AG12" s="152" t="s">
+      <c r="AH12" s="146" t="s">
         <v>158</v>
       </c>
-      <c r="AH12" s="147" t="s">
+      <c r="AI12" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ12" s="147" t="s">
         <v>159</v>
       </c>
-      <c r="AI12" s="152" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ12" s="148" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK12" s="152" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL12" s="147"/>
-      <c r="AM12" s="152"/>
-      <c r="AN12" s="148"/>
-      <c r="AO12" s="152"/>
-      <c r="AP12" s="147"/>
-      <c r="AQ12" s="152"/>
-      <c r="AR12" s="148"/>
-      <c r="AS12" s="152"/>
-      <c r="AT12" s="149"/>
-      <c r="AU12" s="150"/>
-      <c r="AV12" s="151"/>
-      <c r="AW12" s="151"/>
-      <c r="AX12" s="136"/>
+      <c r="AK12" s="151" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL12" s="146"/>
+      <c r="AM12" s="151"/>
+      <c r="AN12" s="147"/>
+      <c r="AO12" s="151"/>
+      <c r="AP12" s="146"/>
+      <c r="AQ12" s="151"/>
+      <c r="AR12" s="147"/>
+      <c r="AS12" s="151"/>
+      <c r="AT12" s="148"/>
+      <c r="AU12" s="149"/>
+      <c r="AV12" s="150"/>
+      <c r="AW12" s="150"/>
+      <c r="AX12" s="135"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="137"/>
-      <c r="B13" s="137"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="139"/>
+      <c r="E13" s="138"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
@@ -8144,62 +8126,62 @@
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="142"/>
-      <c r="R13" s="143"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="U13" s="146"/>
-      <c r="V13" s="146"/>
-      <c r="W13" s="146" t="s">
+      <c r="N13" s="95"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="142"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U13" s="145"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="145" t="s">
+        <v>160</v>
+      </c>
+      <c r="X13" s="145"/>
+      <c r="Y13" s="145"/>
+      <c r="Z13" s="145"/>
+      <c r="AA13" s="145"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE13" s="144"/>
+      <c r="AF13" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="X13" s="146"/>
-      <c r="Y13" s="146"/>
-      <c r="Z13" s="146"/>
-      <c r="AA13" s="146"/>
-      <c r="AB13" s="146"/>
-      <c r="AC13" s="146"/>
-      <c r="AD13" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="148" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG13" s="145"/>
-      <c r="AH13" s="147"/>
-      <c r="AI13" s="145"/>
-      <c r="AJ13" s="148"/>
-      <c r="AK13" s="145"/>
-      <c r="AL13" s="147"/>
-      <c r="AM13" s="145"/>
-      <c r="AN13" s="148"/>
-      <c r="AO13" s="145"/>
-      <c r="AP13" s="147"/>
-      <c r="AQ13" s="145"/>
-      <c r="AR13" s="148"/>
-      <c r="AS13" s="145"/>
-      <c r="AT13" s="149"/>
-      <c r="AU13" s="150"/>
-      <c r="AV13" s="151"/>
-      <c r="AW13" s="151"/>
-      <c r="AX13" s="136"/>
+      <c r="AG13" s="144"/>
+      <c r="AH13" s="146"/>
+      <c r="AI13" s="144"/>
+      <c r="AJ13" s="147"/>
+      <c r="AK13" s="144"/>
+      <c r="AL13" s="146"/>
+      <c r="AM13" s="144"/>
+      <c r="AN13" s="147"/>
+      <c r="AO13" s="144"/>
+      <c r="AP13" s="146"/>
+      <c r="AQ13" s="144"/>
+      <c r="AR13" s="147"/>
+      <c r="AS13" s="144"/>
+      <c r="AT13" s="148"/>
+      <c r="AU13" s="149"/>
+      <c r="AV13" s="150"/>
+      <c r="AW13" s="150"/>
+      <c r="AX13" s="135"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="137"/>
-      <c r="B14" s="137"/>
+      <c r="A14" s="136"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="139"/>
+      <c r="E14" s="138"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
@@ -8208,64 +8190,64 @@
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="143"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="U14" s="146"/>
-      <c r="V14" s="146"/>
-      <c r="W14" s="146"/>
-      <c r="X14" s="146" t="s">
+      <c r="N14" s="95"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U14" s="145"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="145"/>
+      <c r="X14" s="145" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14" s="145"/>
+      <c r="Z14" s="145"/>
+      <c r="AA14" s="145"/>
+      <c r="AB14" s="145"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="146"/>
+      <c r="AE14" s="144"/>
+      <c r="AF14" s="147"/>
+      <c r="AG14" s="144"/>
+      <c r="AH14" s="146"/>
+      <c r="AI14" s="144"/>
+      <c r="AJ14" s="147"/>
+      <c r="AK14" s="144"/>
+      <c r="AL14" s="146"/>
+      <c r="AM14" s="144"/>
+      <c r="AN14" s="147"/>
+      <c r="AO14" s="144"/>
+      <c r="AP14" s="146"/>
+      <c r="AQ14" s="144"/>
+      <c r="AR14" s="147"/>
+      <c r="AS14" s="144"/>
+      <c r="AT14" s="152" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU14" s="149" t="s">
         <v>163</v>
       </c>
-      <c r="Y14" s="146"/>
-      <c r="Z14" s="146"/>
-      <c r="AA14" s="146"/>
-      <c r="AB14" s="146"/>
-      <c r="AC14" s="146"/>
-      <c r="AD14" s="147"/>
-      <c r="AE14" s="145"/>
-      <c r="AF14" s="148"/>
-      <c r="AG14" s="145"/>
-      <c r="AH14" s="147"/>
-      <c r="AI14" s="145"/>
-      <c r="AJ14" s="148"/>
-      <c r="AK14" s="145"/>
-      <c r="AL14" s="147"/>
-      <c r="AM14" s="145"/>
-      <c r="AN14" s="148"/>
-      <c r="AO14" s="145"/>
-      <c r="AP14" s="147"/>
-      <c r="AQ14" s="145"/>
-      <c r="AR14" s="148"/>
-      <c r="AS14" s="145"/>
-      <c r="AT14" s="153" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU14" s="150" t="s">
-        <v>164</v>
-      </c>
-      <c r="AV14" s="154" t="s">
-        <v>158</v>
-      </c>
-      <c r="AW14" s="154"/>
-      <c r="AX14" s="136"/>
+      <c r="AV14" s="153" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW14" s="153"/>
+      <c r="AX14" s="135"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="137"/>
-      <c r="B15" s="137"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="139"/>
+      <c r="E15" s="138"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
@@ -8274,508 +8256,508 @@
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="140"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="144"/>
-      <c r="T15" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="U15" s="146"/>
-      <c r="V15" s="146" t="s">
+      <c r="N15" s="95"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="141"/>
+      <c r="R15" s="142"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U15" s="145"/>
+      <c r="V15" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="W15" s="145"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="145"/>
+      <c r="Z15" s="145"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="145"/>
+      <c r="AC15" s="145"/>
+      <c r="AD15" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE15" s="144"/>
+      <c r="AF15" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG15" s="144"/>
+      <c r="AH15" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI15" s="144"/>
+      <c r="AJ15" s="147" t="s">
         <v>165</v>
       </c>
-      <c r="W15" s="146"/>
-      <c r="X15" s="146"/>
-      <c r="Y15" s="146"/>
-      <c r="Z15" s="146"/>
-      <c r="AA15" s="146"/>
-      <c r="AB15" s="146"/>
-      <c r="AC15" s="146"/>
-      <c r="AD15" s="147" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE15" s="145"/>
-      <c r="AF15" s="148" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG15" s="145"/>
-      <c r="AH15" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI15" s="145"/>
-      <c r="AJ15" s="148" t="s">
+      <c r="AK15" s="144"/>
+      <c r="AL15" s="146"/>
+      <c r="AM15" s="144"/>
+      <c r="AN15" s="147"/>
+      <c r="AO15" s="144"/>
+      <c r="AP15" s="146"/>
+      <c r="AQ15" s="144"/>
+      <c r="AR15" s="147"/>
+      <c r="AS15" s="144"/>
+      <c r="AT15" s="152"/>
+      <c r="AU15" s="149"/>
+      <c r="AV15" s="150"/>
+      <c r="AW15" s="150"/>
+      <c r="AX15" s="135"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="136"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="138" t="s">
         <v>166</v>
       </c>
-      <c r="AK15" s="145"/>
-      <c r="AL15" s="147"/>
-      <c r="AM15" s="145"/>
-      <c r="AN15" s="148"/>
-      <c r="AO15" s="145"/>
-      <c r="AP15" s="147"/>
-      <c r="AQ15" s="145"/>
-      <c r="AR15" s="148"/>
-      <c r="AS15" s="145"/>
-      <c r="AT15" s="153"/>
-      <c r="AU15" s="150"/>
-      <c r="AV15" s="151"/>
-      <c r="AW15" s="151"/>
-      <c r="AX15" s="136"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="137"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="139" t="s">
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154" t="s">
         <v>167</v>
-      </c>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155" t="s">
-        <v>168</v>
       </c>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
-      <c r="N16" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" s="140"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="143"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="145"/>
-      <c r="U16" s="146"/>
-      <c r="V16" s="146"/>
-      <c r="W16" s="146"/>
-      <c r="X16" s="146"/>
-      <c r="Y16" s="146"/>
-      <c r="Z16" s="146"/>
-      <c r="AA16" s="146"/>
-      <c r="AB16" s="146"/>
-      <c r="AC16" s="146"/>
-      <c r="AD16" s="147"/>
-      <c r="AE16" s="145"/>
-      <c r="AF16" s="148"/>
-      <c r="AG16" s="145"/>
-      <c r="AH16" s="147"/>
-      <c r="AI16" s="145"/>
-      <c r="AJ16" s="148"/>
-      <c r="AK16" s="145"/>
-      <c r="AL16" s="147"/>
-      <c r="AM16" s="145"/>
-      <c r="AN16" s="148"/>
-      <c r="AO16" s="145"/>
-      <c r="AP16" s="147"/>
-      <c r="AQ16" s="145"/>
-      <c r="AR16" s="148"/>
-      <c r="AS16" s="145"/>
-      <c r="AT16" s="149"/>
-      <c r="AU16" s="150"/>
-      <c r="AV16" s="151"/>
-      <c r="AW16" s="151"/>
-      <c r="AX16" s="136"/>
+      <c r="N16" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" s="139"/>
+      <c r="P16" s="140"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="142"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="144"/>
+      <c r="U16" s="145"/>
+      <c r="V16" s="145"/>
+      <c r="W16" s="145"/>
+      <c r="X16" s="145"/>
+      <c r="Y16" s="145"/>
+      <c r="Z16" s="145"/>
+      <c r="AA16" s="145"/>
+      <c r="AB16" s="145"/>
+      <c r="AC16" s="145"/>
+      <c r="AD16" s="146"/>
+      <c r="AE16" s="144"/>
+      <c r="AF16" s="147"/>
+      <c r="AG16" s="144"/>
+      <c r="AH16" s="146"/>
+      <c r="AI16" s="144"/>
+      <c r="AJ16" s="147"/>
+      <c r="AK16" s="144"/>
+      <c r="AL16" s="146"/>
+      <c r="AM16" s="144"/>
+      <c r="AN16" s="147"/>
+      <c r="AO16" s="144"/>
+      <c r="AP16" s="146"/>
+      <c r="AQ16" s="144"/>
+      <c r="AR16" s="147"/>
+      <c r="AS16" s="144"/>
+      <c r="AT16" s="148"/>
+      <c r="AU16" s="149"/>
+      <c r="AV16" s="150"/>
+      <c r="AW16" s="150"/>
+      <c r="AX16" s="135"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="137"/>
-      <c r="B17" s="137"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="139" t="s">
-        <v>99</v>
+      <c r="E17" s="138" t="s">
+        <v>98</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
       <c r="I17" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="140"/>
-      <c r="P17" s="141" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q17" s="142" t="s">
-        <v>138</v>
-      </c>
-      <c r="R17" s="143"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="145"/>
-      <c r="U17" s="146"/>
-      <c r="V17" s="146"/>
-      <c r="W17" s="146"/>
-      <c r="X17" s="146"/>
-      <c r="Y17" s="146"/>
-      <c r="Z17" s="146"/>
-      <c r="AA17" s="146"/>
-      <c r="AB17" s="146"/>
-      <c r="AC17" s="146"/>
-      <c r="AD17" s="147"/>
-      <c r="AE17" s="145"/>
-      <c r="AF17" s="148"/>
-      <c r="AG17" s="145"/>
-      <c r="AH17" s="147"/>
-      <c r="AI17" s="145"/>
-      <c r="AJ17" s="148"/>
-      <c r="AK17" s="145"/>
-      <c r="AL17" s="147"/>
-      <c r="AM17" s="145"/>
-      <c r="AN17" s="148"/>
-      <c r="AO17" s="145"/>
-      <c r="AP17" s="147"/>
-      <c r="AQ17" s="145"/>
-      <c r="AR17" s="148"/>
-      <c r="AS17" s="145"/>
-      <c r="AT17" s="149"/>
-      <c r="AU17" s="150"/>
-      <c r="AV17" s="151"/>
-      <c r="AW17" s="151"/>
-      <c r="AX17" s="136"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="140" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17" s="141" t="s">
+        <v>137</v>
+      </c>
+      <c r="R17" s="142"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="144"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="145"/>
+      <c r="Z17" s="145"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="145"/>
+      <c r="AC17" s="145"/>
+      <c r="AD17" s="146"/>
+      <c r="AE17" s="144"/>
+      <c r="AF17" s="147"/>
+      <c r="AG17" s="144"/>
+      <c r="AH17" s="146"/>
+      <c r="AI17" s="144"/>
+      <c r="AJ17" s="147"/>
+      <c r="AK17" s="144"/>
+      <c r="AL17" s="146"/>
+      <c r="AM17" s="144"/>
+      <c r="AN17" s="147"/>
+      <c r="AO17" s="144"/>
+      <c r="AP17" s="146"/>
+      <c r="AQ17" s="144"/>
+      <c r="AR17" s="147"/>
+      <c r="AS17" s="144"/>
+      <c r="AT17" s="148"/>
+      <c r="AU17" s="149"/>
+      <c r="AV17" s="150"/>
+      <c r="AW17" s="150"/>
+      <c r="AX17" s="135"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="137"/>
-      <c r="B18" s="137"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="139"/>
+      <c r="E18" s="138"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
-      <c r="H18" s="155" t="s">
-        <v>168</v>
-      </c>
-      <c r="I18" s="155"/>
+      <c r="H18" s="154" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="154"/>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
-      <c r="N18" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="O18" s="140"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="143"/>
-      <c r="S18" s="144"/>
-      <c r="T18" s="145"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="146"/>
-      <c r="W18" s="146"/>
-      <c r="X18" s="146"/>
-      <c r="Y18" s="146"/>
-      <c r="Z18" s="146"/>
-      <c r="AA18" s="146"/>
-      <c r="AB18" s="146"/>
-      <c r="AC18" s="146"/>
-      <c r="AD18" s="147"/>
-      <c r="AE18" s="145"/>
-      <c r="AF18" s="148"/>
-      <c r="AG18" s="145"/>
-      <c r="AH18" s="147"/>
-      <c r="AI18" s="145"/>
-      <c r="AJ18" s="148"/>
-      <c r="AK18" s="145"/>
-      <c r="AL18" s="147"/>
-      <c r="AM18" s="145"/>
-      <c r="AN18" s="148"/>
-      <c r="AO18" s="145"/>
-      <c r="AP18" s="147"/>
-      <c r="AQ18" s="145"/>
-      <c r="AR18" s="148"/>
-      <c r="AS18" s="145"/>
-      <c r="AT18" s="149"/>
-      <c r="AU18" s="150"/>
-      <c r="AV18" s="151"/>
-      <c r="AW18" s="151"/>
-      <c r="AX18" s="136"/>
+      <c r="N18" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="139"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="142"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="144"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="145"/>
+      <c r="W18" s="145"/>
+      <c r="X18" s="145"/>
+      <c r="Y18" s="145"/>
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="145"/>
+      <c r="AB18" s="145"/>
+      <c r="AC18" s="145"/>
+      <c r="AD18" s="146"/>
+      <c r="AE18" s="144"/>
+      <c r="AF18" s="147"/>
+      <c r="AG18" s="144"/>
+      <c r="AH18" s="146"/>
+      <c r="AI18" s="144"/>
+      <c r="AJ18" s="147"/>
+      <c r="AK18" s="144"/>
+      <c r="AL18" s="146"/>
+      <c r="AM18" s="144"/>
+      <c r="AN18" s="147"/>
+      <c r="AO18" s="144"/>
+      <c r="AP18" s="146"/>
+      <c r="AQ18" s="144"/>
+      <c r="AR18" s="147"/>
+      <c r="AS18" s="144"/>
+      <c r="AT18" s="148"/>
+      <c r="AU18" s="149"/>
+      <c r="AV18" s="150"/>
+      <c r="AW18" s="150"/>
+      <c r="AX18" s="135"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="137"/>
-      <c r="B19" s="137"/>
+      <c r="A19" s="136"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="139" t="s">
-        <v>99</v>
+      <c r="E19" s="138" t="s">
+        <v>98</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
       <c r="I19" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
-      <c r="N19" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="O19" s="140"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="R19" s="143"/>
-      <c r="S19" s="144"/>
-      <c r="T19" s="145"/>
-      <c r="U19" s="146"/>
-      <c r="V19" s="146"/>
-      <c r="W19" s="146"/>
-      <c r="X19" s="146"/>
-      <c r="Y19" s="146"/>
-      <c r="Z19" s="146"/>
-      <c r="AA19" s="146"/>
-      <c r="AB19" s="146"/>
-      <c r="AC19" s="146"/>
-      <c r="AD19" s="147"/>
-      <c r="AE19" s="145"/>
-      <c r="AF19" s="148"/>
-      <c r="AG19" s="145"/>
-      <c r="AH19" s="147"/>
-      <c r="AI19" s="145"/>
-      <c r="AJ19" s="148"/>
-      <c r="AK19" s="145"/>
-      <c r="AL19" s="147"/>
-      <c r="AM19" s="145"/>
-      <c r="AN19" s="148"/>
-      <c r="AO19" s="145"/>
-      <c r="AP19" s="147"/>
-      <c r="AQ19" s="145"/>
-      <c r="AR19" s="148"/>
-      <c r="AS19" s="145"/>
-      <c r="AT19" s="149"/>
-      <c r="AU19" s="150"/>
-      <c r="AV19" s="151"/>
-      <c r="AW19" s="151"/>
-      <c r="AX19" s="136"/>
+      <c r="N19" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="O19" s="139"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="141" t="s">
+        <v>170</v>
+      </c>
+      <c r="R19" s="142"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="144"/>
+      <c r="U19" s="145"/>
+      <c r="V19" s="145"/>
+      <c r="W19" s="145"/>
+      <c r="X19" s="145"/>
+      <c r="Y19" s="145"/>
+      <c r="Z19" s="145"/>
+      <c r="AA19" s="145"/>
+      <c r="AB19" s="145"/>
+      <c r="AC19" s="145"/>
+      <c r="AD19" s="146"/>
+      <c r="AE19" s="144"/>
+      <c r="AF19" s="147"/>
+      <c r="AG19" s="144"/>
+      <c r="AH19" s="146"/>
+      <c r="AI19" s="144"/>
+      <c r="AJ19" s="147"/>
+      <c r="AK19" s="144"/>
+      <c r="AL19" s="146"/>
+      <c r="AM19" s="144"/>
+      <c r="AN19" s="147"/>
+      <c r="AO19" s="144"/>
+      <c r="AP19" s="146"/>
+      <c r="AQ19" s="144"/>
+      <c r="AR19" s="147"/>
+      <c r="AS19" s="144"/>
+      <c r="AT19" s="148"/>
+      <c r="AU19" s="149"/>
+      <c r="AV19" s="150"/>
+      <c r="AW19" s="150"/>
+      <c r="AX19" s="135"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="137"/>
-      <c r="B20" s="137"/>
+      <c r="A20" s="136"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="139" t="s">
-        <v>99</v>
+      <c r="E20" s="138" t="s">
+        <v>98</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
-      <c r="N20" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="O20" s="140"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="142" t="s">
-        <v>173</v>
-      </c>
-      <c r="R20" s="143"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="145"/>
-      <c r="U20" s="146"/>
-      <c r="V20" s="146"/>
-      <c r="W20" s="146"/>
-      <c r="X20" s="146"/>
-      <c r="Y20" s="146"/>
-      <c r="Z20" s="146"/>
-      <c r="AA20" s="146"/>
-      <c r="AB20" s="146"/>
-      <c r="AC20" s="146"/>
-      <c r="AD20" s="147"/>
-      <c r="AE20" s="145"/>
-      <c r="AF20" s="148"/>
-      <c r="AG20" s="145"/>
-      <c r="AH20" s="147"/>
-      <c r="AI20" s="145"/>
-      <c r="AJ20" s="148"/>
-      <c r="AK20" s="145"/>
-      <c r="AL20" s="147"/>
-      <c r="AM20" s="145"/>
-      <c r="AN20" s="148"/>
-      <c r="AO20" s="145"/>
-      <c r="AP20" s="147"/>
-      <c r="AQ20" s="145"/>
-      <c r="AR20" s="148"/>
-      <c r="AS20" s="145"/>
-      <c r="AT20" s="149"/>
-      <c r="AU20" s="150"/>
-      <c r="AV20" s="151"/>
-      <c r="AW20" s="151"/>
-      <c r="AX20" s="136"/>
+      <c r="N20" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" s="139"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="141" t="s">
+        <v>172</v>
+      </c>
+      <c r="R20" s="142"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="144"/>
+      <c r="U20" s="145"/>
+      <c r="V20" s="145"/>
+      <c r="W20" s="145"/>
+      <c r="X20" s="145"/>
+      <c r="Y20" s="145"/>
+      <c r="Z20" s="145"/>
+      <c r="AA20" s="145"/>
+      <c r="AB20" s="145"/>
+      <c r="AC20" s="145"/>
+      <c r="AD20" s="146"/>
+      <c r="AE20" s="144"/>
+      <c r="AF20" s="147"/>
+      <c r="AG20" s="144"/>
+      <c r="AH20" s="146"/>
+      <c r="AI20" s="144"/>
+      <c r="AJ20" s="147"/>
+      <c r="AK20" s="144"/>
+      <c r="AL20" s="146"/>
+      <c r="AM20" s="144"/>
+      <c r="AN20" s="147"/>
+      <c r="AO20" s="144"/>
+      <c r="AP20" s="146"/>
+      <c r="AQ20" s="144"/>
+      <c r="AR20" s="147"/>
+      <c r="AS20" s="144"/>
+      <c r="AT20" s="148"/>
+      <c r="AU20" s="149"/>
+      <c r="AV20" s="150"/>
+      <c r="AW20" s="150"/>
+      <c r="AX20" s="135"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="137"/>
-      <c r="B21" s="137"/>
+      <c r="A21" s="136"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="139"/>
+      <c r="E21" s="138"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
       <c r="M21" s="38"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="140"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="143"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="145" t="s">
+      <c r="N21" s="95"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="140"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="142"/>
+      <c r="S21" s="143"/>
+      <c r="T21" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U21" s="145"/>
+      <c r="V21" s="145"/>
+      <c r="W21" s="145"/>
+      <c r="X21" s="145"/>
+      <c r="Y21" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="U21" s="146"/>
-      <c r="V21" s="146"/>
-      <c r="W21" s="146"/>
-      <c r="X21" s="146"/>
-      <c r="Y21" s="146" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z21" s="146"/>
-      <c r="AA21" s="146"/>
-      <c r="AB21" s="146"/>
-      <c r="AC21" s="146"/>
-      <c r="AD21" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE21" s="145"/>
-      <c r="AF21" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG21" s="145"/>
-      <c r="AH21" s="147"/>
-      <c r="AI21" s="145"/>
-      <c r="AJ21" s="148"/>
-      <c r="AK21" s="145"/>
-      <c r="AL21" s="147"/>
-      <c r="AM21" s="145"/>
-      <c r="AN21" s="148"/>
-      <c r="AO21" s="145"/>
-      <c r="AP21" s="147"/>
-      <c r="AQ21" s="145"/>
-      <c r="AR21" s="148"/>
-      <c r="AS21" s="145"/>
-      <c r="AT21" s="149"/>
-      <c r="AU21" s="150"/>
-      <c r="AV21" s="151"/>
-      <c r="AW21" s="151"/>
-      <c r="AX21" s="136"/>
+      <c r="Z21" s="145"/>
+      <c r="AA21" s="145"/>
+      <c r="AB21" s="145"/>
+      <c r="AC21" s="145"/>
+      <c r="AD21" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE21" s="144"/>
+      <c r="AF21" s="147" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG21" s="144"/>
+      <c r="AH21" s="146"/>
+      <c r="AI21" s="144"/>
+      <c r="AJ21" s="147"/>
+      <c r="AK21" s="144"/>
+      <c r="AL21" s="146"/>
+      <c r="AM21" s="144"/>
+      <c r="AN21" s="147"/>
+      <c r="AO21" s="144"/>
+      <c r="AP21" s="146"/>
+      <c r="AQ21" s="144"/>
+      <c r="AR21" s="147"/>
+      <c r="AS21" s="144"/>
+      <c r="AT21" s="148"/>
+      <c r="AU21" s="149"/>
+      <c r="AV21" s="150"/>
+      <c r="AW21" s="150"/>
+      <c r="AX21" s="135"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="137"/>
-      <c r="B22" s="137"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="136"/>
       <c r="C22" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="139"/>
+      <c r="E22" s="138"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="140"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="143"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="145" t="s">
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="142"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U22" s="145"/>
+      <c r="V22" s="145"/>
+      <c r="W22" s="145"/>
+      <c r="X22" s="145"/>
+      <c r="Y22" s="145"/>
+      <c r="Z22" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="U22" s="146"/>
-      <c r="V22" s="146"/>
-      <c r="W22" s="146"/>
-      <c r="X22" s="146"/>
-      <c r="Y22" s="146"/>
-      <c r="Z22" s="146" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA22" s="146"/>
-      <c r="AB22" s="146"/>
-      <c r="AC22" s="146"/>
-      <c r="AD22" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE22" s="145"/>
-      <c r="AF22" s="148" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG22" s="145"/>
-      <c r="AH22" s="147"/>
-      <c r="AI22" s="145"/>
-      <c r="AJ22" s="148"/>
-      <c r="AK22" s="145"/>
-      <c r="AL22" s="147"/>
-      <c r="AM22" s="145"/>
-      <c r="AN22" s="148"/>
-      <c r="AO22" s="145"/>
-      <c r="AP22" s="147"/>
-      <c r="AQ22" s="145"/>
-      <c r="AR22" s="148"/>
-      <c r="AS22" s="145"/>
-      <c r="AT22" s="149"/>
-      <c r="AU22" s="150"/>
-      <c r="AV22" s="151"/>
-      <c r="AW22" s="151"/>
-      <c r="AX22" s="136"/>
+      <c r="AA22" s="145"/>
+      <c r="AB22" s="145"/>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE22" s="144"/>
+      <c r="AF22" s="147" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG22" s="144"/>
+      <c r="AH22" s="146"/>
+      <c r="AI22" s="144"/>
+      <c r="AJ22" s="147"/>
+      <c r="AK22" s="144"/>
+      <c r="AL22" s="146"/>
+      <c r="AM22" s="144"/>
+      <c r="AN22" s="147"/>
+      <c r="AO22" s="144"/>
+      <c r="AP22" s="146"/>
+      <c r="AQ22" s="144"/>
+      <c r="AR22" s="147"/>
+      <c r="AS22" s="144"/>
+      <c r="AT22" s="148"/>
+      <c r="AU22" s="149"/>
+      <c r="AV22" s="150"/>
+      <c r="AW22" s="150"/>
+      <c r="AX22" s="135"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="137"/>
-      <c r="B23" s="137"/>
+      <c r="A23" s="136"/>
+      <c r="B23" s="136"/>
       <c r="C23" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="139"/>
+      <c r="E23" s="138"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
@@ -8784,86 +8766,86 @@
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="140"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="143"/>
-      <c r="S23" s="144"/>
-      <c r="T23" s="145" t="s">
+      <c r="N23" s="95"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="140"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="142"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="144" t="s">
+        <v>152</v>
+      </c>
+      <c r="U23" s="145"/>
+      <c r="V23" s="145"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="145"/>
+      <c r="Y23" s="145"/>
+      <c r="Z23" s="145"/>
+      <c r="AA23" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="U23" s="146"/>
-      <c r="V23" s="146"/>
-      <c r="W23" s="146"/>
-      <c r="X23" s="146"/>
-      <c r="Y23" s="146"/>
-      <c r="Z23" s="146"/>
-      <c r="AA23" s="146" t="s">
+      <c r="AB23" s="145"/>
+      <c r="AC23" s="145"/>
+      <c r="AD23" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE23" s="144"/>
+      <c r="AF23" s="147" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG23" s="144"/>
+      <c r="AH23" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="AB23" s="146"/>
-      <c r="AC23" s="146"/>
-      <c r="AD23" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE23" s="145"/>
-      <c r="AF23" s="148" t="s">
+      <c r="AI23" s="144" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ23" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="AG23" s="145"/>
-      <c r="AH23" s="147" t="s">
+      <c r="AK23" s="144" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL23" s="146" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM23" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="AI23" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ23" s="148" t="s">
+      <c r="AN23" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="AK23" s="145" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL23" s="147" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM23" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN23" s="148" t="s">
+      <c r="AO23" s="144" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP23" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ23" s="144" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR23" s="147" t="s">
         <v>178</v>
       </c>
-      <c r="AO23" s="145" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP23" s="147" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ23" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR23" s="148" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS23" s="145" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT23" s="149"/>
-      <c r="AU23" s="150"/>
-      <c r="AV23" s="151"/>
-      <c r="AW23" s="151"/>
-      <c r="AX23" s="136"/>
+      <c r="AS23" s="144" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT23" s="148"/>
+      <c r="AU23" s="149"/>
+      <c r="AV23" s="150"/>
+      <c r="AW23" s="150"/>
+      <c r="AX23" s="135"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="137"/>
-      <c r="B24" s="137"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="136"/>
       <c r="C24" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="139"/>
+      <c r="E24" s="138"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
@@ -8872,62 +8854,62 @@
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="141"/>
-      <c r="Q24" s="142"/>
-      <c r="R24" s="143"/>
-      <c r="S24" s="144"/>
-      <c r="T24" s="145" t="s">
+      <c r="N24" s="95"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="140"/>
+      <c r="Q24" s="141"/>
+      <c r="R24" s="142"/>
+      <c r="S24" s="143"/>
+      <c r="T24" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U24" s="145"/>
+      <c r="V24" s="145"/>
+      <c r="W24" s="145"/>
+      <c r="X24" s="145"/>
+      <c r="Y24" s="145"/>
+      <c r="Z24" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="U24" s="146"/>
-      <c r="V24" s="146"/>
-      <c r="W24" s="146"/>
-      <c r="X24" s="146"/>
-      <c r="Y24" s="146"/>
-      <c r="Z24" s="146" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA24" s="146"/>
-      <c r="AB24" s="146"/>
-      <c r="AC24" s="146"/>
-      <c r="AD24" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE24" s="145"/>
-      <c r="AF24" s="148" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG24" s="145"/>
-      <c r="AH24" s="147"/>
-      <c r="AI24" s="145"/>
-      <c r="AJ24" s="148"/>
-      <c r="AK24" s="145"/>
-      <c r="AL24" s="147"/>
-      <c r="AM24" s="145"/>
-      <c r="AN24" s="148"/>
-      <c r="AO24" s="145"/>
-      <c r="AP24" s="147"/>
-      <c r="AQ24" s="145"/>
-      <c r="AR24" s="148"/>
-      <c r="AS24" s="145"/>
-      <c r="AT24" s="149"/>
-      <c r="AU24" s="150"/>
-      <c r="AV24" s="151"/>
-      <c r="AW24" s="151"/>
-      <c r="AX24" s="136"/>
+      <c r="AA24" s="145"/>
+      <c r="AB24" s="145"/>
+      <c r="AC24" s="145"/>
+      <c r="AD24" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE24" s="144"/>
+      <c r="AF24" s="147" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG24" s="144"/>
+      <c r="AH24" s="146"/>
+      <c r="AI24" s="144"/>
+      <c r="AJ24" s="147"/>
+      <c r="AK24" s="144"/>
+      <c r="AL24" s="146"/>
+      <c r="AM24" s="144"/>
+      <c r="AN24" s="147"/>
+      <c r="AO24" s="144"/>
+      <c r="AP24" s="146"/>
+      <c r="AQ24" s="144"/>
+      <c r="AR24" s="147"/>
+      <c r="AS24" s="144"/>
+      <c r="AT24" s="148"/>
+      <c r="AU24" s="149"/>
+      <c r="AV24" s="150"/>
+      <c r="AW24" s="150"/>
+      <c r="AX24" s="135"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="137"/>
-      <c r="B25" s="137"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="136"/>
       <c r="C25" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="139"/>
+      <c r="E25" s="138"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
@@ -8936,68 +8918,68 @@
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="140"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="142"/>
-      <c r="R25" s="143"/>
-      <c r="S25" s="144"/>
-      <c r="T25" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="U25" s="146"/>
-      <c r="V25" s="146"/>
-      <c r="W25" s="146"/>
-      <c r="X25" s="146"/>
-      <c r="Y25" s="146"/>
-      <c r="Z25" s="146"/>
-      <c r="AA25" s="146" t="s">
+      <c r="N25" s="95"/>
+      <c r="O25" s="139"/>
+      <c r="P25" s="140"/>
+      <c r="Q25" s="141"/>
+      <c r="R25" s="142"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U25" s="145"/>
+      <c r="V25" s="145"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="145"/>
+      <c r="Y25" s="145"/>
+      <c r="Z25" s="145"/>
+      <c r="AA25" s="145" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB25" s="145"/>
+      <c r="AC25" s="145"/>
+      <c r="AD25" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE25" s="144"/>
+      <c r="AF25" s="147" t="s">
         <v>181</v>
       </c>
-      <c r="AB25" s="146"/>
-      <c r="AC25" s="146"/>
-      <c r="AD25" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE25" s="145"/>
-      <c r="AF25" s="148" t="s">
+      <c r="AG25" s="144"/>
+      <c r="AH25" s="146"/>
+      <c r="AI25" s="144"/>
+      <c r="AJ25" s="147"/>
+      <c r="AK25" s="144"/>
+      <c r="AL25" s="146"/>
+      <c r="AM25" s="144"/>
+      <c r="AN25" s="147"/>
+      <c r="AO25" s="144"/>
+      <c r="AP25" s="146"/>
+      <c r="AQ25" s="144"/>
+      <c r="AR25" s="147"/>
+      <c r="AS25" s="144"/>
+      <c r="AT25" s="148" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU25" s="149" t="s">
         <v>182</v>
       </c>
-      <c r="AG25" s="145"/>
-      <c r="AH25" s="147"/>
-      <c r="AI25" s="145"/>
-      <c r="AJ25" s="148"/>
-      <c r="AK25" s="145"/>
-      <c r="AL25" s="147"/>
-      <c r="AM25" s="145"/>
-      <c r="AN25" s="148"/>
-      <c r="AO25" s="145"/>
-      <c r="AP25" s="147"/>
-      <c r="AQ25" s="145"/>
-      <c r="AR25" s="148"/>
-      <c r="AS25" s="145"/>
-      <c r="AT25" s="149" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU25" s="150" t="s">
-        <v>183</v>
-      </c>
-      <c r="AV25" s="154" t="s">
-        <v>158</v>
-      </c>
-      <c r="AW25" s="154"/>
-      <c r="AX25" s="136"/>
+      <c r="AV25" s="153" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW25" s="153"/>
+      <c r="AX25" s="135"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="137"/>
-      <c r="B26" s="137"/>
+      <c r="A26" s="136"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E26" s="139"/>
+      <c r="E26" s="138"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
@@ -9006,68 +8988,68 @@
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="141"/>
-      <c r="Q26" s="142"/>
-      <c r="R26" s="143"/>
-      <c r="S26" s="144"/>
-      <c r="T26" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="U26" s="146"/>
-      <c r="V26" s="146"/>
-      <c r="W26" s="146"/>
-      <c r="X26" s="146"/>
-      <c r="Y26" s="146"/>
-      <c r="Z26" s="146"/>
-      <c r="AA26" s="146" t="s">
+      <c r="N26" s="95"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="141"/>
+      <c r="R26" s="142"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U26" s="145"/>
+      <c r="V26" s="145"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="145"/>
+      <c r="Z26" s="145"/>
+      <c r="AA26" s="145" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB26" s="145"/>
+      <c r="AC26" s="145"/>
+      <c r="AD26" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE26" s="144"/>
+      <c r="AF26" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="AB26" s="146"/>
-      <c r="AC26" s="146"/>
-      <c r="AD26" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE26" s="145"/>
-      <c r="AF26" s="148" t="s">
+      <c r="AG26" s="144"/>
+      <c r="AH26" s="146"/>
+      <c r="AI26" s="144"/>
+      <c r="AJ26" s="147"/>
+      <c r="AK26" s="144"/>
+      <c r="AL26" s="146"/>
+      <c r="AM26" s="144"/>
+      <c r="AN26" s="147"/>
+      <c r="AO26" s="144"/>
+      <c r="AP26" s="146"/>
+      <c r="AQ26" s="144"/>
+      <c r="AR26" s="147"/>
+      <c r="AS26" s="144"/>
+      <c r="AT26" s="148" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU26" s="149" t="s">
         <v>185</v>
       </c>
-      <c r="AG26" s="145"/>
-      <c r="AH26" s="147"/>
-      <c r="AI26" s="145"/>
-      <c r="AJ26" s="148"/>
-      <c r="AK26" s="145"/>
-      <c r="AL26" s="147"/>
-      <c r="AM26" s="145"/>
-      <c r="AN26" s="148"/>
-      <c r="AO26" s="145"/>
-      <c r="AP26" s="147"/>
-      <c r="AQ26" s="145"/>
-      <c r="AR26" s="148"/>
-      <c r="AS26" s="145"/>
-      <c r="AT26" s="149" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU26" s="150" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV26" s="154" t="s">
-        <v>158</v>
-      </c>
-      <c r="AW26" s="154"/>
-      <c r="AX26" s="136"/>
+      <c r="AV26" s="153" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW26" s="153"/>
+      <c r="AX26" s="135"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="137"/>
-      <c r="B27" s="137"/>
+      <c r="A27" s="136"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="139"/>
+      <c r="E27" s="138"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
@@ -9076,68 +9058,68 @@
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="140"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="142"/>
-      <c r="R27" s="143"/>
-      <c r="S27" s="144"/>
-      <c r="T27" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="U27" s="146"/>
-      <c r="V27" s="146"/>
-      <c r="W27" s="146"/>
-      <c r="X27" s="146"/>
-      <c r="Y27" s="146"/>
-      <c r="Z27" s="146"/>
-      <c r="AA27" s="146" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB27" s="146"/>
-      <c r="AC27" s="146"/>
-      <c r="AD27" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE27" s="145"/>
-      <c r="AF27" s="148" t="s">
+      <c r="N27" s="95"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="141"/>
+      <c r="R27" s="142"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U27" s="145"/>
+      <c r="V27" s="145"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="145"/>
+      <c r="Z27" s="145"/>
+      <c r="AA27" s="145" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB27" s="145"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE27" s="144"/>
+      <c r="AF27" s="147" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG27" s="144"/>
+      <c r="AH27" s="146"/>
+      <c r="AI27" s="144"/>
+      <c r="AJ27" s="147"/>
+      <c r="AK27" s="144"/>
+      <c r="AL27" s="146"/>
+      <c r="AM27" s="144"/>
+      <c r="AN27" s="147"/>
+      <c r="AO27" s="144"/>
+      <c r="AP27" s="146"/>
+      <c r="AQ27" s="144"/>
+      <c r="AR27" s="147"/>
+      <c r="AS27" s="144"/>
+      <c r="AT27" s="148" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU27" s="149" t="s">
         <v>187</v>
       </c>
-      <c r="AG27" s="145"/>
-      <c r="AH27" s="147"/>
-      <c r="AI27" s="145"/>
-      <c r="AJ27" s="148"/>
-      <c r="AK27" s="145"/>
-      <c r="AL27" s="147"/>
-      <c r="AM27" s="145"/>
-      <c r="AN27" s="148"/>
-      <c r="AO27" s="145"/>
-      <c r="AP27" s="147"/>
-      <c r="AQ27" s="145"/>
-      <c r="AR27" s="148"/>
-      <c r="AS27" s="145"/>
-      <c r="AT27" s="149" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU27" s="150" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV27" s="154" t="s">
-        <v>158</v>
-      </c>
-      <c r="AW27" s="154"/>
-      <c r="AX27" s="136"/>
+      <c r="AV27" s="153" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW27" s="153"/>
+      <c r="AX27" s="135"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="137"/>
-      <c r="B28" s="137"/>
+      <c r="A28" s="136"/>
+      <c r="B28" s="136"/>
       <c r="C28" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="139"/>
+      <c r="E28" s="138"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
@@ -9146,195 +9128,195 @@
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="140"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="142"/>
-      <c r="R28" s="143"/>
-      <c r="S28" s="144"/>
-      <c r="T28" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="U28" s="146"/>
-      <c r="V28" s="146"/>
-      <c r="W28" s="146"/>
-      <c r="X28" s="146"/>
-      <c r="Y28" s="146"/>
-      <c r="Z28" s="146"/>
-      <c r="AA28" s="146" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB28" s="146"/>
-      <c r="AC28" s="146"/>
-      <c r="AD28" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="148" t="s">
+      <c r="N28" s="95"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="142"/>
+      <c r="S28" s="143"/>
+      <c r="T28" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="145"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="145" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB28" s="145"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE28" s="144"/>
+      <c r="AF28" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG28" s="144"/>
+      <c r="AH28" s="146"/>
+      <c r="AI28" s="144"/>
+      <c r="AJ28" s="147"/>
+      <c r="AK28" s="144"/>
+      <c r="AL28" s="146"/>
+      <c r="AM28" s="144"/>
+      <c r="AN28" s="147"/>
+      <c r="AO28" s="144"/>
+      <c r="AP28" s="146"/>
+      <c r="AQ28" s="144"/>
+      <c r="AR28" s="147"/>
+      <c r="AS28" s="144"/>
+      <c r="AT28" s="148" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU28" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="147"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="148"/>
-      <c r="AK28" s="145"/>
-      <c r="AL28" s="147"/>
-      <c r="AM28" s="145"/>
-      <c r="AN28" s="148"/>
-      <c r="AO28" s="145"/>
-      <c r="AP28" s="147"/>
-      <c r="AQ28" s="145"/>
-      <c r="AR28" s="148"/>
-      <c r="AS28" s="145"/>
-      <c r="AT28" s="149" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU28" s="150" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV28" s="154" t="s">
-        <v>158</v>
-      </c>
-      <c r="AW28" s="154"/>
-      <c r="AX28" s="136"/>
+      <c r="AV28" s="153" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW28" s="153"/>
+      <c r="AX28" s="135"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="137"/>
-      <c r="B29" s="137"/>
+      <c r="A29" s="136"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="139"/>
+      <c r="E29" s="138"/>
       <c r="F29" s="38"/>
-      <c r="G29" s="155"/>
+      <c r="G29" s="154"/>
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="142"/>
-      <c r="R29" s="143"/>
-      <c r="S29" s="144"/>
-      <c r="T29" s="145" t="s">
+      <c r="N29" s="95"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="140"/>
+      <c r="Q29" s="141"/>
+      <c r="R29" s="142"/>
+      <c r="S29" s="143"/>
+      <c r="T29" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U29" s="145"/>
+      <c r="V29" s="145"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="U29" s="146"/>
-      <c r="V29" s="146"/>
-      <c r="W29" s="146"/>
-      <c r="X29" s="146"/>
-      <c r="Y29" s="146"/>
-      <c r="Z29" s="146" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA29" s="146"/>
-      <c r="AB29" s="146"/>
-      <c r="AC29" s="146"/>
-      <c r="AD29" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE29" s="145"/>
-      <c r="AF29" s="148" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG29" s="145"/>
-      <c r="AH29" s="147"/>
-      <c r="AI29" s="145"/>
-      <c r="AJ29" s="148"/>
-      <c r="AK29" s="145"/>
-      <c r="AL29" s="147"/>
-      <c r="AM29" s="145"/>
-      <c r="AN29" s="148"/>
-      <c r="AO29" s="145"/>
-      <c r="AP29" s="147"/>
-      <c r="AQ29" s="145"/>
-      <c r="AR29" s="148"/>
-      <c r="AS29" s="145"/>
-      <c r="AT29" s="149"/>
-      <c r="AU29" s="150"/>
-      <c r="AV29" s="151"/>
-      <c r="AW29" s="151"/>
-      <c r="AX29" s="136"/>
+      <c r="AA29" s="145"/>
+      <c r="AB29" s="145"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE29" s="144"/>
+      <c r="AF29" s="147" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG29" s="144"/>
+      <c r="AH29" s="146"/>
+      <c r="AI29" s="144"/>
+      <c r="AJ29" s="147"/>
+      <c r="AK29" s="144"/>
+      <c r="AL29" s="146"/>
+      <c r="AM29" s="144"/>
+      <c r="AN29" s="147"/>
+      <c r="AO29" s="144"/>
+      <c r="AP29" s="146"/>
+      <c r="AQ29" s="144"/>
+      <c r="AR29" s="147"/>
+      <c r="AS29" s="144"/>
+      <c r="AT29" s="148"/>
+      <c r="AU29" s="149"/>
+      <c r="AV29" s="150"/>
+      <c r="AW29" s="150"/>
+      <c r="AX29" s="135"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="137"/>
-      <c r="B30" s="137"/>
+      <c r="A30" s="136"/>
+      <c r="B30" s="136"/>
       <c r="C30" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="155"/>
+      <c r="E30" s="138" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="154"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
-      <c r="I30" s="155"/>
+      <c r="I30" s="154"/>
       <c r="J30" s="38"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="155" t="s">
-        <v>192</v>
+      <c r="K30" s="154"/>
+      <c r="L30" s="154" t="s">
+        <v>191</v>
       </c>
       <c r="M30" s="38"/>
-      <c r="N30" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="O30" s="140"/>
-      <c r="P30" s="141"/>
-      <c r="Q30" s="142"/>
-      <c r="R30" s="143"/>
-      <c r="S30" s="144"/>
-      <c r="T30" s="145"/>
-      <c r="U30" s="146"/>
-      <c r="V30" s="146"/>
-      <c r="W30" s="146"/>
-      <c r="X30" s="146"/>
-      <c r="Y30" s="146"/>
-      <c r="Z30" s="146"/>
-      <c r="AA30" s="146"/>
-      <c r="AB30" s="146"/>
-      <c r="AC30" s="146"/>
-      <c r="AD30" s="147"/>
-      <c r="AE30" s="145"/>
-      <c r="AF30" s="148"/>
-      <c r="AG30" s="145"/>
-      <c r="AH30" s="147"/>
-      <c r="AI30" s="145"/>
-      <c r="AJ30" s="148"/>
-      <c r="AK30" s="145"/>
-      <c r="AL30" s="147"/>
-      <c r="AM30" s="145"/>
-      <c r="AN30" s="148"/>
-      <c r="AO30" s="145"/>
-      <c r="AP30" s="147"/>
-      <c r="AQ30" s="145"/>
-      <c r="AR30" s="148"/>
-      <c r="AS30" s="145"/>
-      <c r="AT30" s="149"/>
-      <c r="AU30" s="150"/>
-      <c r="AV30" s="151"/>
-      <c r="AW30" s="151"/>
-      <c r="AX30" s="136"/>
+      <c r="N30" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="O30" s="139"/>
+      <c r="P30" s="140"/>
+      <c r="Q30" s="141"/>
+      <c r="R30" s="142"/>
+      <c r="S30" s="143"/>
+      <c r="T30" s="144"/>
+      <c r="U30" s="145"/>
+      <c r="V30" s="145"/>
+      <c r="W30" s="145"/>
+      <c r="X30" s="145"/>
+      <c r="Y30" s="145"/>
+      <c r="Z30" s="145"/>
+      <c r="AA30" s="145"/>
+      <c r="AB30" s="145"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="146"/>
+      <c r="AE30" s="144"/>
+      <c r="AF30" s="147"/>
+      <c r="AG30" s="144"/>
+      <c r="AH30" s="146"/>
+      <c r="AI30" s="144"/>
+      <c r="AJ30" s="147"/>
+      <c r="AK30" s="144"/>
+      <c r="AL30" s="146"/>
+      <c r="AM30" s="144"/>
+      <c r="AN30" s="147"/>
+      <c r="AO30" s="144"/>
+      <c r="AP30" s="146"/>
+      <c r="AQ30" s="144"/>
+      <c r="AR30" s="147"/>
+      <c r="AS30" s="144"/>
+      <c r="AT30" s="148"/>
+      <c r="AU30" s="149"/>
+      <c r="AV30" s="150"/>
+      <c r="AW30" s="150"/>
+      <c r="AX30" s="135"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="137"/>
-      <c r="B31" s="137"/>
+      <c r="A31" s="136"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="139" t="s">
-        <v>99</v>
+      <c r="E31" s="138" t="s">
+        <v>98</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
@@ -9344,321 +9326,321 @@
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
       <c r="M31" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="N31" s="95"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="140" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q31" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="N31" s="96"/>
-      <c r="O31" s="140"/>
-      <c r="P31" s="141" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q31" s="142" t="s">
-        <v>194</v>
-      </c>
-      <c r="R31" s="143"/>
-      <c r="S31" s="144"/>
-      <c r="T31" s="145"/>
-      <c r="U31" s="146"/>
-      <c r="V31" s="146"/>
-      <c r="W31" s="146"/>
-      <c r="X31" s="146"/>
-      <c r="Y31" s="146"/>
-      <c r="Z31" s="146"/>
-      <c r="AA31" s="146"/>
-      <c r="AB31" s="146"/>
-      <c r="AC31" s="146"/>
-      <c r="AD31" s="147"/>
-      <c r="AE31" s="145"/>
-      <c r="AF31" s="148"/>
-      <c r="AG31" s="145"/>
-      <c r="AH31" s="147"/>
-      <c r="AI31" s="145"/>
-      <c r="AJ31" s="148"/>
-      <c r="AK31" s="145"/>
-      <c r="AL31" s="147"/>
-      <c r="AM31" s="145"/>
-      <c r="AN31" s="148"/>
-      <c r="AO31" s="145"/>
-      <c r="AP31" s="147"/>
-      <c r="AQ31" s="145"/>
-      <c r="AR31" s="148"/>
-      <c r="AS31" s="145"/>
-      <c r="AT31" s="149"/>
-      <c r="AU31" s="150"/>
-      <c r="AV31" s="151"/>
-      <c r="AW31" s="151"/>
-      <c r="AX31" s="136"/>
+      <c r="R31" s="142"/>
+      <c r="S31" s="143"/>
+      <c r="T31" s="144"/>
+      <c r="U31" s="145"/>
+      <c r="V31" s="145"/>
+      <c r="W31" s="145"/>
+      <c r="X31" s="145"/>
+      <c r="Y31" s="145"/>
+      <c r="Z31" s="145"/>
+      <c r="AA31" s="145"/>
+      <c r="AB31" s="145"/>
+      <c r="AC31" s="145"/>
+      <c r="AD31" s="146"/>
+      <c r="AE31" s="144"/>
+      <c r="AF31" s="147"/>
+      <c r="AG31" s="144"/>
+      <c r="AH31" s="146"/>
+      <c r="AI31" s="144"/>
+      <c r="AJ31" s="147"/>
+      <c r="AK31" s="144"/>
+      <c r="AL31" s="146"/>
+      <c r="AM31" s="144"/>
+      <c r="AN31" s="147"/>
+      <c r="AO31" s="144"/>
+      <c r="AP31" s="146"/>
+      <c r="AQ31" s="144"/>
+      <c r="AR31" s="147"/>
+      <c r="AS31" s="144"/>
+      <c r="AT31" s="148"/>
+      <c r="AU31" s="149"/>
+      <c r="AV31" s="150"/>
+      <c r="AW31" s="150"/>
+      <c r="AX31" s="135"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="137"/>
-      <c r="B32" s="137"/>
+      <c r="A32" s="136"/>
+      <c r="B32" s="136"/>
       <c r="C32" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="139"/>
+      <c r="E32" s="138"/>
       <c r="F32" s="38"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
       <c r="I32" s="38"/>
-      <c r="J32" s="155"/>
+      <c r="J32" s="154"/>
       <c r="K32" s="38"/>
-      <c r="L32" s="155" t="s">
-        <v>192</v>
-      </c>
-      <c r="M32" s="155"/>
-      <c r="N32" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="O32" s="140"/>
-      <c r="P32" s="141"/>
-      <c r="Q32" s="156"/>
-      <c r="R32" s="143"/>
-      <c r="S32" s="144"/>
-      <c r="T32" s="145"/>
-      <c r="U32" s="146"/>
-      <c r="V32" s="146"/>
-      <c r="W32" s="146"/>
-      <c r="X32" s="146"/>
-      <c r="Y32" s="146"/>
-      <c r="Z32" s="146"/>
-      <c r="AA32" s="146"/>
-      <c r="AB32" s="146"/>
-      <c r="AC32" s="146"/>
-      <c r="AD32" s="147"/>
-      <c r="AE32" s="145"/>
-      <c r="AF32" s="148"/>
-      <c r="AG32" s="145"/>
-      <c r="AH32" s="147"/>
-      <c r="AI32" s="145"/>
-      <c r="AJ32" s="148"/>
-      <c r="AK32" s="145"/>
-      <c r="AL32" s="147"/>
-      <c r="AM32" s="145"/>
-      <c r="AN32" s="148"/>
-      <c r="AO32" s="145"/>
-      <c r="AP32" s="147"/>
-      <c r="AQ32" s="145"/>
-      <c r="AR32" s="148"/>
-      <c r="AS32" s="145"/>
-      <c r="AT32" s="149"/>
-      <c r="AU32" s="150"/>
-      <c r="AV32" s="151"/>
-      <c r="AW32" s="151"/>
-      <c r="AX32" s="136"/>
+      <c r="L32" s="154" t="s">
+        <v>191</v>
+      </c>
+      <c r="M32" s="154"/>
+      <c r="N32" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="O32" s="139"/>
+      <c r="P32" s="140"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="142"/>
+      <c r="S32" s="143"/>
+      <c r="T32" s="144"/>
+      <c r="U32" s="145"/>
+      <c r="V32" s="145"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="145"/>
+      <c r="Y32" s="145"/>
+      <c r="Z32" s="145"/>
+      <c r="AA32" s="145"/>
+      <c r="AB32" s="145"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="146"/>
+      <c r="AE32" s="144"/>
+      <c r="AF32" s="147"/>
+      <c r="AG32" s="144"/>
+      <c r="AH32" s="146"/>
+      <c r="AI32" s="144"/>
+      <c r="AJ32" s="147"/>
+      <c r="AK32" s="144"/>
+      <c r="AL32" s="146"/>
+      <c r="AM32" s="144"/>
+      <c r="AN32" s="147"/>
+      <c r="AO32" s="144"/>
+      <c r="AP32" s="146"/>
+      <c r="AQ32" s="144"/>
+      <c r="AR32" s="147"/>
+      <c r="AS32" s="144"/>
+      <c r="AT32" s="148"/>
+      <c r="AU32" s="149"/>
+      <c r="AV32" s="150"/>
+      <c r="AW32" s="150"/>
+      <c r="AX32" s="135"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="137"/>
-      <c r="B33" s="137"/>
+      <c r="A33" s="136"/>
+      <c r="B33" s="136"/>
       <c r="C33" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33" s="139"/>
+      <c r="E33" s="138"/>
       <c r="F33" s="38"/>
-      <c r="G33" s="155"/>
+      <c r="G33" s="154"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="140"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="142"/>
-      <c r="R33" s="143"/>
-      <c r="S33" s="144"/>
-      <c r="T33" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="U33" s="146"/>
-      <c r="V33" s="146"/>
-      <c r="W33" s="146"/>
-      <c r="X33" s="146"/>
-      <c r="Y33" s="146"/>
-      <c r="Z33" s="146"/>
-      <c r="AA33" s="146"/>
-      <c r="AB33" s="146"/>
-      <c r="AC33" s="146" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD33" s="147"/>
-      <c r="AE33" s="145"/>
-      <c r="AF33" s="148"/>
-      <c r="AG33" s="145"/>
-      <c r="AH33" s="147"/>
-      <c r="AI33" s="145"/>
-      <c r="AJ33" s="148"/>
-      <c r="AK33" s="145"/>
-      <c r="AL33" s="147"/>
-      <c r="AM33" s="145"/>
-      <c r="AN33" s="148"/>
-      <c r="AO33" s="145"/>
-      <c r="AP33" s="147" t="s">
+      <c r="N33" s="95"/>
+      <c r="O33" s="139"/>
+      <c r="P33" s="140"/>
+      <c r="Q33" s="141"/>
+      <c r="R33" s="142"/>
+      <c r="S33" s="143"/>
+      <c r="T33" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U33" s="145"/>
+      <c r="V33" s="145"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="145"/>
+      <c r="AC33" s="145" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD33" s="146"/>
+      <c r="AE33" s="144"/>
+      <c r="AF33" s="147"/>
+      <c r="AG33" s="144"/>
+      <c r="AH33" s="146"/>
+      <c r="AI33" s="144"/>
+      <c r="AJ33" s="147"/>
+      <c r="AK33" s="144"/>
+      <c r="AL33" s="146"/>
+      <c r="AM33" s="144"/>
+      <c r="AN33" s="147"/>
+      <c r="AO33" s="144"/>
+      <c r="AP33" s="146" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ33" s="144" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR33" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="AQ33" s="145" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR33" s="148" t="s">
+      <c r="AS33" s="144" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT33" s="148" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU33" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="AS33" s="145" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT33" s="149" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU33" s="150" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV33" s="154" t="s">
-        <v>158</v>
-      </c>
-      <c r="AW33" s="154"/>
-      <c r="AX33" s="136"/>
+      <c r="AV33" s="153" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW33" s="153"/>
+      <c r="AX33" s="135"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="137"/>
-      <c r="B34" s="137"/>
+      <c r="A34" s="136"/>
+      <c r="B34" s="136"/>
       <c r="C34" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D34" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="139"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="38"/>
-      <c r="G34" s="155"/>
+      <c r="G34" s="154"/>
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="140"/>
-      <c r="P34" s="141"/>
-      <c r="Q34" s="142"/>
-      <c r="R34" s="143"/>
-      <c r="S34" s="144"/>
-      <c r="T34" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="U34" s="146"/>
-      <c r="V34" s="146" t="s">
+      <c r="N34" s="95"/>
+      <c r="O34" s="139"/>
+      <c r="P34" s="140"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="142"/>
+      <c r="S34" s="143"/>
+      <c r="T34" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="U34" s="145"/>
+      <c r="V34" s="145" t="s">
+        <v>197</v>
+      </c>
+      <c r="W34" s="145"/>
+      <c r="X34" s="145"/>
+      <c r="Y34" s="145"/>
+      <c r="Z34" s="145"/>
+      <c r="AA34" s="145"/>
+      <c r="AB34" s="145"/>
+      <c r="AC34" s="145"/>
+      <c r="AD34" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE34" s="144"/>
+      <c r="AF34" s="147" t="s">
         <v>198</v>
       </c>
-      <c r="W34" s="146"/>
-      <c r="X34" s="146"/>
-      <c r="Y34" s="146"/>
-      <c r="Z34" s="146"/>
-      <c r="AA34" s="146"/>
-      <c r="AB34" s="146"/>
-      <c r="AC34" s="146"/>
-      <c r="AD34" s="147" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE34" s="145"/>
-      <c r="AF34" s="148" t="s">
+      <c r="AG34" s="144"/>
+      <c r="AH34" s="146"/>
+      <c r="AI34" s="144"/>
+      <c r="AJ34" s="147"/>
+      <c r="AK34" s="144"/>
+      <c r="AL34" s="146"/>
+      <c r="AM34" s="144"/>
+      <c r="AN34" s="147"/>
+      <c r="AO34" s="144"/>
+      <c r="AP34" s="146"/>
+      <c r="AQ34" s="144"/>
+      <c r="AR34" s="147"/>
+      <c r="AS34" s="144"/>
+      <c r="AT34" s="148"/>
+      <c r="AU34" s="149"/>
+      <c r="AV34" s="150"/>
+      <c r="AW34" s="150"/>
+      <c r="AX34" s="135"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="136"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="138"/>
+      <c r="F35" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="AG34" s="145"/>
-      <c r="AH34" s="147"/>
-      <c r="AI34" s="145"/>
-      <c r="AJ34" s="148"/>
-      <c r="AK34" s="145"/>
-      <c r="AL34" s="147"/>
-      <c r="AM34" s="145"/>
-      <c r="AN34" s="148"/>
-      <c r="AO34" s="145"/>
-      <c r="AP34" s="147"/>
-      <c r="AQ34" s="145"/>
-      <c r="AR34" s="148"/>
-      <c r="AS34" s="145"/>
-      <c r="AT34" s="149"/>
-      <c r="AU34" s="150"/>
-      <c r="AV34" s="151"/>
-      <c r="AW34" s="151"/>
-      <c r="AX34" s="136"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="137"/>
-      <c r="B35" s="137"/>
-      <c r="C35" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="139"/>
-      <c r="F35" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="G35" s="155"/>
+      <c r="G35" s="154"/>
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
       <c r="K35" s="38"/>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
-      <c r="N35" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="O35" s="140"/>
-      <c r="P35" s="141"/>
-      <c r="Q35" s="142"/>
-      <c r="R35" s="143"/>
-      <c r="S35" s="144"/>
-      <c r="T35" s="145"/>
-      <c r="U35" s="146"/>
-      <c r="V35" s="146"/>
-      <c r="W35" s="146"/>
-      <c r="X35" s="146"/>
-      <c r="Y35" s="146"/>
-      <c r="Z35" s="146"/>
-      <c r="AA35" s="146"/>
-      <c r="AB35" s="146"/>
-      <c r="AC35" s="146"/>
-      <c r="AD35" s="147"/>
-      <c r="AE35" s="145"/>
-      <c r="AF35" s="148"/>
-      <c r="AG35" s="145"/>
-      <c r="AH35" s="147"/>
-      <c r="AI35" s="145"/>
-      <c r="AJ35" s="148"/>
-      <c r="AK35" s="145"/>
-      <c r="AL35" s="147"/>
-      <c r="AM35" s="145"/>
-      <c r="AN35" s="148"/>
-      <c r="AO35" s="145"/>
-      <c r="AP35" s="147"/>
-      <c r="AQ35" s="145"/>
-      <c r="AR35" s="148"/>
-      <c r="AS35" s="145"/>
-      <c r="AT35" s="149"/>
-      <c r="AU35" s="150"/>
-      <c r="AV35" s="151"/>
-      <c r="AW35" s="151"/>
-      <c r="AX35" s="136"/>
+      <c r="N35" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="O35" s="139"/>
+      <c r="P35" s="140"/>
+      <c r="Q35" s="141"/>
+      <c r="R35" s="142"/>
+      <c r="S35" s="143"/>
+      <c r="T35" s="144"/>
+      <c r="U35" s="145"/>
+      <c r="V35" s="145"/>
+      <c r="W35" s="145"/>
+      <c r="X35" s="145"/>
+      <c r="Y35" s="145"/>
+      <c r="Z35" s="145"/>
+      <c r="AA35" s="145"/>
+      <c r="AB35" s="145"/>
+      <c r="AC35" s="145"/>
+      <c r="AD35" s="146"/>
+      <c r="AE35" s="144"/>
+      <c r="AF35" s="147"/>
+      <c r="AG35" s="144"/>
+      <c r="AH35" s="146"/>
+      <c r="AI35" s="144"/>
+      <c r="AJ35" s="147"/>
+      <c r="AK35" s="144"/>
+      <c r="AL35" s="146"/>
+      <c r="AM35" s="144"/>
+      <c r="AN35" s="147"/>
+      <c r="AO35" s="144"/>
+      <c r="AP35" s="146"/>
+      <c r="AQ35" s="144"/>
+      <c r="AR35" s="147"/>
+      <c r="AS35" s="144"/>
+      <c r="AT35" s="148"/>
+      <c r="AU35" s="149"/>
+      <c r="AV35" s="150"/>
+      <c r="AW35" s="150"/>
+      <c r="AX35" s="135"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="137"/>
-      <c r="B36" s="137"/>
+      <c r="A36" s="136"/>
+      <c r="B36" s="136"/>
       <c r="C36" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" s="139"/>
+      <c r="E36" s="138"/>
       <c r="F36" s="38"/>
-      <c r="G36" s="157" t="s">
-        <v>201</v>
+      <c r="G36" s="156" t="s">
+        <v>200</v>
       </c>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
@@ -9666,184 +9648,184 @@
       <c r="K36" s="38"/>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="140"/>
-      <c r="P36" s="141"/>
-      <c r="Q36" s="142"/>
-      <c r="R36" s="143"/>
-      <c r="S36" s="144"/>
-      <c r="T36" s="145"/>
-      <c r="U36" s="146"/>
-      <c r="V36" s="146"/>
-      <c r="W36" s="146"/>
-      <c r="X36" s="146"/>
-      <c r="Y36" s="146"/>
-      <c r="Z36" s="146"/>
-      <c r="AA36" s="146"/>
-      <c r="AB36" s="146"/>
-      <c r="AC36" s="146"/>
-      <c r="AD36" s="147"/>
-      <c r="AE36" s="145"/>
-      <c r="AF36" s="148"/>
-      <c r="AG36" s="145"/>
-      <c r="AH36" s="147"/>
-      <c r="AI36" s="145"/>
-      <c r="AJ36" s="148"/>
-      <c r="AK36" s="145"/>
-      <c r="AL36" s="147"/>
-      <c r="AM36" s="145"/>
-      <c r="AN36" s="148"/>
-      <c r="AO36" s="145"/>
-      <c r="AP36" s="147"/>
-      <c r="AQ36" s="145"/>
-      <c r="AR36" s="148"/>
-      <c r="AS36" s="145"/>
-      <c r="AT36" s="149"/>
-      <c r="AU36" s="150"/>
-      <c r="AV36" s="151"/>
-      <c r="AW36" s="151"/>
-      <c r="AX36" s="136"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="139"/>
+      <c r="P36" s="140"/>
+      <c r="Q36" s="141"/>
+      <c r="R36" s="142"/>
+      <c r="S36" s="143"/>
+      <c r="T36" s="144"/>
+      <c r="U36" s="145"/>
+      <c r="V36" s="145"/>
+      <c r="W36" s="145"/>
+      <c r="X36" s="145"/>
+      <c r="Y36" s="145"/>
+      <c r="Z36" s="145"/>
+      <c r="AA36" s="145"/>
+      <c r="AB36" s="145"/>
+      <c r="AC36" s="145"/>
+      <c r="AD36" s="146"/>
+      <c r="AE36" s="144"/>
+      <c r="AF36" s="147"/>
+      <c r="AG36" s="144"/>
+      <c r="AH36" s="146"/>
+      <c r="AI36" s="144"/>
+      <c r="AJ36" s="147"/>
+      <c r="AK36" s="144"/>
+      <c r="AL36" s="146"/>
+      <c r="AM36" s="144"/>
+      <c r="AN36" s="147"/>
+      <c r="AO36" s="144"/>
+      <c r="AP36" s="146"/>
+      <c r="AQ36" s="144"/>
+      <c r="AR36" s="147"/>
+      <c r="AS36" s="144"/>
+      <c r="AT36" s="148"/>
+      <c r="AU36" s="149"/>
+      <c r="AV36" s="150"/>
+      <c r="AW36" s="150"/>
+      <c r="AX36" s="135"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="137"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
+      <c r="A37" s="136"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
       <c r="F37" s="38"/>
-      <c r="G37" s="157"/>
+      <c r="G37" s="156"/>
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
       <c r="M37" s="38"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="140"/>
-      <c r="P37" s="141"/>
-      <c r="Q37" s="142"/>
-      <c r="R37" s="143"/>
-      <c r="S37" s="144"/>
-      <c r="T37" s="145"/>
-      <c r="U37" s="146"/>
-      <c r="V37" s="146"/>
-      <c r="W37" s="146"/>
-      <c r="X37" s="146"/>
-      <c r="Y37" s="146"/>
-      <c r="Z37" s="146"/>
-      <c r="AA37" s="146"/>
-      <c r="AB37" s="146"/>
-      <c r="AC37" s="146"/>
-      <c r="AD37" s="147"/>
-      <c r="AE37" s="145"/>
-      <c r="AF37" s="148"/>
-      <c r="AG37" s="145"/>
-      <c r="AH37" s="147"/>
-      <c r="AI37" s="145"/>
-      <c r="AJ37" s="148"/>
-      <c r="AK37" s="145"/>
-      <c r="AL37" s="147"/>
-      <c r="AM37" s="145"/>
-      <c r="AN37" s="148"/>
-      <c r="AO37" s="145"/>
-      <c r="AP37" s="147"/>
-      <c r="AQ37" s="145"/>
-      <c r="AR37" s="148"/>
-      <c r="AS37" s="145"/>
-      <c r="AT37" s="149"/>
-      <c r="AU37" s="150"/>
-      <c r="AV37" s="151"/>
-      <c r="AW37" s="151"/>
-      <c r="AX37" s="136"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="139"/>
+      <c r="P37" s="140"/>
+      <c r="Q37" s="141"/>
+      <c r="R37" s="142"/>
+      <c r="S37" s="143"/>
+      <c r="T37" s="144"/>
+      <c r="U37" s="145"/>
+      <c r="V37" s="145"/>
+      <c r="W37" s="145"/>
+      <c r="X37" s="145"/>
+      <c r="Y37" s="145"/>
+      <c r="Z37" s="145"/>
+      <c r="AA37" s="145"/>
+      <c r="AB37" s="145"/>
+      <c r="AC37" s="145"/>
+      <c r="AD37" s="146"/>
+      <c r="AE37" s="144"/>
+      <c r="AF37" s="147"/>
+      <c r="AG37" s="144"/>
+      <c r="AH37" s="146"/>
+      <c r="AI37" s="144"/>
+      <c r="AJ37" s="147"/>
+      <c r="AK37" s="144"/>
+      <c r="AL37" s="146"/>
+      <c r="AM37" s="144"/>
+      <c r="AN37" s="147"/>
+      <c r="AO37" s="144"/>
+      <c r="AP37" s="146"/>
+      <c r="AQ37" s="144"/>
+      <c r="AR37" s="147"/>
+      <c r="AS37" s="144"/>
+      <c r="AT37" s="148"/>
+      <c r="AU37" s="149"/>
+      <c r="AV37" s="150"/>
+      <c r="AW37" s="150"/>
+      <c r="AX37" s="135"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="136"/>
-      <c r="B38" s="136"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="159" t="n">
+      <c r="A38" s="135"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="158" t="n">
         <v>0</v>
       </c>
-      <c r="G38" s="159" t="n">
+      <c r="G38" s="158" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="159" t="n">
+      <c r="H38" s="158" t="n">
         <v>2</v>
       </c>
-      <c r="I38" s="159" t="n">
+      <c r="I38" s="158" t="n">
         <v>3</v>
       </c>
-      <c r="J38" s="159" t="n">
+      <c r="J38" s="158" t="n">
         <v>4</v>
       </c>
-      <c r="K38" s="159" t="n">
-        <v>5</v>
-      </c>
-      <c r="L38" s="159" t="n">
+      <c r="K38" s="158" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" s="158" t="n">
         <v>6</v>
       </c>
-      <c r="M38" s="159" t="n">
+      <c r="M38" s="158" t="n">
         <v>7</v>
       </c>
-      <c r="N38" s="160"/>
-      <c r="O38" s="160"/>
-      <c r="P38" s="158"/>
-      <c r="Q38" s="136"/>
-      <c r="R38" s="161"/>
-      <c r="S38" s="161"/>
-      <c r="T38" s="162"/>
-      <c r="U38" s="159" t="n">
+      <c r="N38" s="159"/>
+      <c r="O38" s="159"/>
+      <c r="P38" s="157"/>
+      <c r="Q38" s="135"/>
+      <c r="R38" s="160"/>
+      <c r="S38" s="160"/>
+      <c r="T38" s="161"/>
+      <c r="U38" s="158" t="n">
         <v>0</v>
       </c>
-      <c r="V38" s="159" t="n">
+      <c r="V38" s="158" t="n">
         <v>1</v>
       </c>
-      <c r="W38" s="159" t="n">
+      <c r="W38" s="158" t="n">
         <v>2</v>
       </c>
-      <c r="X38" s="159" t="n">
+      <c r="X38" s="158" t="n">
         <v>3</v>
       </c>
-      <c r="Y38" s="159" t="n">
+      <c r="Y38" s="158" t="n">
         <v>4</v>
       </c>
-      <c r="Z38" s="159" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA38" s="159" t="n">
+      <c r="Z38" s="158" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="158" t="n">
         <v>6</v>
       </c>
-      <c r="AB38" s="159" t="n">
+      <c r="AB38" s="158" t="n">
         <v>7</v>
       </c>
-      <c r="AC38" s="159" t="n">
+      <c r="AC38" s="158" t="n">
         <v>8</v>
       </c>
-      <c r="AD38" s="136"/>
-      <c r="AE38" s="136"/>
-      <c r="AF38" s="136"/>
-      <c r="AG38" s="163"/>
-      <c r="AH38" s="136"/>
-      <c r="AI38" s="136"/>
-      <c r="AJ38" s="136"/>
-      <c r="AK38" s="163"/>
-      <c r="AL38" s="136"/>
-      <c r="AM38" s="136"/>
-      <c r="AN38" s="136"/>
-      <c r="AO38" s="163"/>
-      <c r="AP38" s="136"/>
-      <c r="AQ38" s="136"/>
-      <c r="AR38" s="136"/>
-      <c r="AS38" s="163"/>
-      <c r="AT38" s="162"/>
-      <c r="AU38" s="136"/>
-      <c r="AV38" s="163"/>
-      <c r="AW38" s="163"/>
-      <c r="AX38" s="136"/>
+      <c r="AD38" s="135"/>
+      <c r="AE38" s="135"/>
+      <c r="AF38" s="135"/>
+      <c r="AG38" s="162"/>
+      <c r="AH38" s="135"/>
+      <c r="AI38" s="135"/>
+      <c r="AJ38" s="135"/>
+      <c r="AK38" s="162"/>
+      <c r="AL38" s="135"/>
+      <c r="AM38" s="135"/>
+      <c r="AN38" s="135"/>
+      <c r="AO38" s="162"/>
+      <c r="AP38" s="135"/>
+      <c r="AQ38" s="135"/>
+      <c r="AR38" s="135"/>
+      <c r="AS38" s="162"/>
+      <c r="AT38" s="161"/>
+      <c r="AU38" s="135"/>
+      <c r="AV38" s="162"/>
+      <c r="AW38" s="162"/>
+      <c r="AX38" s="135"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V45" s="127"/>
+      <c r="V45" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLE" sheetId="1" state="visible" r:id="rId3"/>
@@ -36,10 +36,10 @@
     <definedName function="false" hidden="false" localSheetId="3" name="MOD_0" vbProcedure="false">VIEW!$A$1:$R$37</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="MOD_0_COM" vbProcedure="false">VIEW!$A$5:$AW$37</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="MOD_0_SUP" vbProcedure="false">VIEW!$A$1:$AX$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="AREA" vbProcedure="false">VERS_1_Database_Project!$A$1:$S$7</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="LMN_0" vbProcedure="false">VERS_1_Database_Project!$D$1:$L$7</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0" vbProcedure="false">VERS_1_Database_Project!$A$1:$S$7</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_COM" vbProcedure="false">VERS_1_Database_Project!$A$4:$S$7</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="AREA" vbProcedure="false">VERS_1_Database_Project!$A$1:$S$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="LMN_0" vbProcedure="false">VERS_1_Database_Project!$D$1:$L$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0" vbProcedure="false">VERS_1_Database_Project!$A$1:$S$14</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_COM" vbProcedure="false">VERS_1_Database_Project!$A$4:$S$14</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_SUP" vbProcedure="false">VERS_1_Database_Project!$A$1:$S$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="191">
   <si>
     <t xml:space="preserve">TEMPLATES</t>
   </si>
@@ -226,24 +226,24 @@
     <t xml:space="preserve">Application</t>
   </si>
   <si>
+    <t xml:space="preserve">re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectRouter</t>
+  </si>
+  <si>
     <t xml:space="preserve">project</t>
   </si>
   <si>
     <t xml:space="preserve">Router</t>
   </si>
   <si>
-    <t xml:space="preserve">re</t>
-  </si>
-  <si>
     <t xml:space="preserve">ProjectSchema</t>
   </si>
   <si>
     <t xml:space="preserve">ProjectController</t>
   </si>
   <si>
-    <t xml:space="preserve">ProjectRouter</t>
-  </si>
-  <si>
     <t xml:space="preserve">controller.js</t>
   </si>
   <si>
@@ -613,13 +613,22 @@
     <t xml:space="preserve">"done"</t>
   </si>
   <si>
-    <t xml:space="preserve">Database Routers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router()</t>
+    <t xml:space="preserve">Database | Project Schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:SchemaSettings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#:SchemaOptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database | Project Controller</t>
   </si>
 </sst>
 </file>
@@ -1474,6 +1483,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="32" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1488,10 +1501,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="33" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2296,12 +2305,10 @@
   </sheetPr>
   <dimension ref="A1:BK27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="X4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP23" activeCellId="0" sqref="AP23"/>
+      <selection pane="bottomLeft" activeCell="L30" activeCellId="0" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3614,7 +3621,7 @@
       <c r="BA15" s="69"/>
       <c r="BB15" s="45"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="80" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="56" t="s">
         <v>47</v>
       </c>
@@ -3694,8 +3701,17 @@
       <c r="AZ16" s="69"/>
       <c r="BA16" s="69"/>
       <c r="BB16" s="45"/>
-    </row>
-    <row r="17" customFormat="false" ht="21.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BC16" s="0"/>
+      <c r="BD16" s="0"/>
+      <c r="BE16" s="0"/>
+      <c r="BF16" s="0"/>
+      <c r="BG16" s="0"/>
+      <c r="BH16" s="0"/>
+      <c r="BI16" s="0"/>
+      <c r="BJ16" s="0"/>
+      <c r="BK16" s="0"/>
+    </row>
+    <row r="17" s="80" customFormat="true" ht="21.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="56" t="s">
         <v>47</v>
       </c>
@@ -3749,13 +3765,13 @@
         <v>5</v>
       </c>
       <c r="Y17" s="67"/>
-      <c r="Z17" s="80" t="s">
+      <c r="Z17" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="AA17" s="81" t="s">
+      <c r="AA17" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AB17" s="82" t="s">
+      <c r="AB17" s="83" t="s">
         <v>11</v>
       </c>
       <c r="AC17" s="67"/>
@@ -3784,8 +3800,17 @@
       <c r="AZ17" s="69"/>
       <c r="BA17" s="69"/>
       <c r="BB17" s="45"/>
-    </row>
-    <row r="18" customFormat="false" ht="21.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BC17" s="0"/>
+      <c r="BD17" s="0"/>
+      <c r="BE17" s="0"/>
+      <c r="BF17" s="0"/>
+      <c r="BG17" s="0"/>
+      <c r="BH17" s="0"/>
+      <c r="BI17" s="0"/>
+      <c r="BJ17" s="0"/>
+      <c r="BK17" s="0"/>
+    </row>
+    <row r="18" s="80" customFormat="true" ht="21.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="56" t="s">
         <v>47</v>
       </c>
@@ -3839,19 +3864,19 @@
         <v>5</v>
       </c>
       <c r="Y18" s="67"/>
-      <c r="Z18" s="83" t="s">
+      <c r="Z18" s="84" t="s">
         <v>12</v>
       </c>
       <c r="AA18" s="69"/>
       <c r="AB18" s="69"/>
       <c r="AC18" s="67"/>
-      <c r="AD18" s="80" t="s">
+      <c r="AD18" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="AE18" s="81" t="s">
+      <c r="AE18" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="AF18" s="82" t="s">
+      <c r="AF18" s="83" t="s">
         <v>11</v>
       </c>
       <c r="AG18" s="67"/>
@@ -3876,8 +3901,17 @@
       <c r="AZ18" s="69"/>
       <c r="BA18" s="69"/>
       <c r="BB18" s="45"/>
-    </row>
-    <row r="19" s="84" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BC18" s="0"/>
+      <c r="BD18" s="0"/>
+      <c r="BE18" s="0"/>
+      <c r="BF18" s="0"/>
+      <c r="BG18" s="0"/>
+      <c r="BH18" s="0"/>
+      <c r="BI18" s="0"/>
+      <c r="BJ18" s="0"/>
+      <c r="BK18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="56" t="s">
         <v>47</v>
       </c>
@@ -3931,13 +3965,13 @@
         <v>5</v>
       </c>
       <c r="Y19" s="67"/>
-      <c r="Z19" s="83" t="s">
+      <c r="Z19" s="84" t="s">
         <v>12</v>
       </c>
       <c r="AA19" s="69"/>
       <c r="AB19" s="69"/>
       <c r="AC19" s="67"/>
-      <c r="AD19" s="83" t="s">
+      <c r="AD19" s="84" t="s">
         <v>12</v>
       </c>
       <c r="AE19" s="69"/>
@@ -3974,7 +4008,7 @@
       <c r="BJ19" s="48"/>
       <c r="BK19" s="48"/>
     </row>
-    <row r="20" s="84" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="56" t="s">
         <v>47</v>
       </c>
@@ -4029,13 +4063,13 @@
         <v>4</v>
       </c>
       <c r="Y20" s="67"/>
-      <c r="Z20" s="83" t="s">
+      <c r="Z20" s="84" t="s">
         <v>12</v>
       </c>
       <c r="AA20" s="69"/>
       <c r="AB20" s="69"/>
       <c r="AC20" s="67"/>
-      <c r="AD20" s="83" t="s">
+      <c r="AD20" s="84" t="s">
         <v>12</v>
       </c>
       <c r="AE20" s="69"/>
@@ -4072,7 +4106,7 @@
       <c r="BJ20" s="48"/>
       <c r="BK20" s="48"/>
     </row>
-    <row r="21" s="84" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="56" t="s">
         <v>47</v>
       </c>
@@ -4158,10 +4192,18 @@
       <c r="AL21" s="68"/>
       <c r="AM21" s="69"/>
       <c r="AN21" s="69"/>
-      <c r="AO21" s="67"/>
-      <c r="AP21" s="68"/>
-      <c r="AQ21" s="69"/>
-      <c r="AR21" s="69"/>
+      <c r="AO21" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP21" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ21" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR21" s="88" t="s">
+        <v>5</v>
+      </c>
       <c r="AS21" s="67"/>
       <c r="AT21" s="68"/>
       <c r="AU21" s="69"/>
@@ -4172,6 +4214,15 @@
       <c r="AZ21" s="69"/>
       <c r="BA21" s="69"/>
       <c r="BB21" s="45"/>
+      <c r="BC21" s="80"/>
+      <c r="BD21" s="80"/>
+      <c r="BE21" s="80"/>
+      <c r="BF21" s="80"/>
+      <c r="BG21" s="80"/>
+      <c r="BH21" s="80"/>
+      <c r="BI21" s="80"/>
+      <c r="BJ21" s="80"/>
+      <c r="BK21" s="80"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="56" t="s">
@@ -4184,7 +4235,7 @@
       </c>
       <c r="D22" s="58"/>
       <c r="E22" s="59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F22" s="59"/>
       <c r="G22" s="59"/>
@@ -4224,13 +4275,13 @@
         <v>5</v>
       </c>
       <c r="Y22" s="67"/>
-      <c r="Z22" s="83" t="s">
+      <c r="Z22" s="84" t="s">
         <v>12</v>
       </c>
       <c r="AA22" s="69"/>
       <c r="AB22" s="69"/>
       <c r="AC22" s="67"/>
-      <c r="AD22" s="83" t="s">
+      <c r="AD22" s="84" t="s">
         <v>12</v>
       </c>
       <c r="AE22" s="69"/>
@@ -4244,7 +4295,9 @@
       <c r="AM22" s="67"/>
       <c r="AN22" s="67"/>
       <c r="AO22" s="67"/>
-      <c r="AP22" s="68"/>
+      <c r="AP22" s="84" t="s">
+        <v>12</v>
+      </c>
       <c r="AQ22" s="69"/>
       <c r="AR22" s="69"/>
       <c r="AS22" s="67"/>
@@ -4257,15 +4310,15 @@
       <c r="AZ22" s="69"/>
       <c r="BA22" s="69"/>
       <c r="BB22" s="45"/>
-      <c r="BC22" s="84"/>
-      <c r="BD22" s="84"/>
-      <c r="BE22" s="84"/>
-      <c r="BF22" s="84"/>
-      <c r="BG22" s="84"/>
-      <c r="BH22" s="84"/>
-      <c r="BI22" s="84"/>
-      <c r="BJ22" s="84"/>
-      <c r="BK22" s="84"/>
+      <c r="BC22" s="80"/>
+      <c r="BD22" s="80"/>
+      <c r="BE22" s="80"/>
+      <c r="BF22" s="80"/>
+      <c r="BG22" s="80"/>
+      <c r="BH22" s="80"/>
+      <c r="BI22" s="80"/>
+      <c r="BJ22" s="80"/>
+      <c r="BK22" s="80"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="56" t="s">
@@ -4322,7 +4375,7 @@
         <v>4</v>
       </c>
       <c r="Y23" s="67"/>
-      <c r="Z23" s="83" t="s">
+      <c r="Z23" s="84" t="s">
         <v>12</v>
       </c>
       <c r="AA23" s="69"/>
@@ -4334,44 +4387,44 @@
         <v>13</v>
       </c>
       <c r="AE23" s="87" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AF23" s="88" t="s">
         <v>11</v>
       </c>
       <c r="AG23" s="85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AH23" s="86" t="s">
         <v>13</v>
       </c>
       <c r="AI23" s="89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AJ23" s="88" t="s">
         <v>5</v>
       </c>
       <c r="AK23" s="85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AL23" s="86" t="s">
         <v>13</v>
       </c>
       <c r="AM23" s="89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN23" s="88" t="s">
         <v>5</v>
       </c>
       <c r="AO23" s="67"/>
-      <c r="AP23" s="80" t="s">
+      <c r="AP23" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="AQ23" s="81" t="s">
-        <v>61</v>
-      </c>
-      <c r="AR23" s="82" t="b">
-        <v>1</v>
+      <c r="AQ23" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR23" s="83" t="s">
+        <v>5</v>
       </c>
       <c r="AS23" s="67"/>
       <c r="AT23" s="68"/>
@@ -4383,15 +4436,15 @@
       <c r="AZ23" s="69"/>
       <c r="BA23" s="69"/>
       <c r="BB23" s="45"/>
-      <c r="BC23" s="84"/>
-      <c r="BD23" s="84"/>
-      <c r="BE23" s="84"/>
-      <c r="BF23" s="84"/>
-      <c r="BG23" s="84"/>
-      <c r="BH23" s="84"/>
-      <c r="BI23" s="84"/>
-      <c r="BJ23" s="84"/>
-      <c r="BK23" s="84"/>
+      <c r="BC23" s="80"/>
+      <c r="BD23" s="80"/>
+      <c r="BE23" s="80"/>
+      <c r="BF23" s="80"/>
+      <c r="BG23" s="80"/>
+      <c r="BH23" s="80"/>
+      <c r="BI23" s="80"/>
+      <c r="BJ23" s="80"/>
+      <c r="BK23" s="80"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="56" t="s">
@@ -4448,7 +4501,7 @@
         <v>4</v>
       </c>
       <c r="Y24" s="67"/>
-      <c r="Z24" s="83" t="s">
+      <c r="Z24" s="84" t="s">
         <v>12</v>
       </c>
       <c r="AA24" s="69"/>
@@ -4458,19 +4511,19 @@
       <c r="AE24" s="69"/>
       <c r="AF24" s="69"/>
       <c r="AG24" s="67"/>
-      <c r="AH24" s="83" t="s">
+      <c r="AH24" s="84" t="s">
         <v>12</v>
       </c>
       <c r="AI24" s="69"/>
       <c r="AJ24" s="69"/>
       <c r="AK24" s="67"/>
-      <c r="AL24" s="80" t="s">
+      <c r="AL24" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="AM24" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN24" s="82" t="s">
+      <c r="AM24" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN24" s="83" t="s">
         <v>5</v>
       </c>
       <c r="AO24" s="67"/>
@@ -4487,15 +4540,15 @@
       <c r="AZ24" s="69"/>
       <c r="BA24" s="69"/>
       <c r="BB24" s="45"/>
-      <c r="BC24" s="84"/>
-      <c r="BD24" s="84"/>
-      <c r="BE24" s="84"/>
-      <c r="BF24" s="84"/>
-      <c r="BG24" s="84"/>
-      <c r="BH24" s="84"/>
-      <c r="BI24" s="84"/>
-      <c r="BJ24" s="84"/>
-      <c r="BK24" s="84"/>
+      <c r="BC24" s="80"/>
+      <c r="BD24" s="80"/>
+      <c r="BE24" s="80"/>
+      <c r="BF24" s="80"/>
+      <c r="BG24" s="80"/>
+      <c r="BH24" s="80"/>
+      <c r="BI24" s="80"/>
+      <c r="BJ24" s="80"/>
+      <c r="BK24" s="80"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="56" t="s">
@@ -4568,13 +4621,13 @@
       <c r="AE25" s="69"/>
       <c r="AF25" s="69"/>
       <c r="AG25" s="67"/>
-      <c r="AH25" s="80" t="s">
+      <c r="AH25" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="AI25" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ25" s="82" t="s">
+      <c r="AI25" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ25" s="83" t="s">
         <v>5</v>
       </c>
       <c r="AK25" s="67"/>
@@ -4595,15 +4648,15 @@
       <c r="AZ25" s="69"/>
       <c r="BA25" s="69"/>
       <c r="BB25" s="45"/>
-      <c r="BC25" s="84"/>
-      <c r="BD25" s="84"/>
-      <c r="BE25" s="84"/>
-      <c r="BF25" s="84"/>
-      <c r="BG25" s="84"/>
-      <c r="BH25" s="84"/>
-      <c r="BI25" s="84"/>
-      <c r="BJ25" s="84"/>
-      <c r="BK25" s="84"/>
+      <c r="BC25" s="80"/>
+      <c r="BD25" s="80"/>
+      <c r="BE25" s="80"/>
+      <c r="BF25" s="80"/>
+      <c r="BG25" s="80"/>
+      <c r="BH25" s="80"/>
+      <c r="BI25" s="80"/>
+      <c r="BJ25" s="80"/>
+      <c r="BK25" s="80"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="56"/>
@@ -4785,7 +4838,7 @@
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -8362,7 +8415,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -8372,7 +8425,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="48" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="51" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="51" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="48" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="48" width="3.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="48" width="4.45"/>
@@ -8484,8 +8537,8 @@
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="160" t="n">
-        <f aca="false">VINE!$C$34</f>
-        <v>0</v>
+        <f aca="false">VINE!$C$25</f>
+        <v>21</v>
       </c>
       <c r="B4" s="161" t="s">
         <v>185</v>
@@ -8516,7 +8569,7 @@
         <v>117</v>
       </c>
       <c r="D5" s="165" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="E5" s="166"/>
       <c r="F5" s="166"/>
@@ -8530,12 +8583,16 @@
         <v>119</v>
       </c>
       <c r="N5" s="110"/>
-      <c r="O5" s="41"/>
+      <c r="O5" s="41" t="s">
+        <v>186</v>
+      </c>
       <c r="P5" s="168" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="43"/>
-      <c r="R5" s="169"/>
+      <c r="R5" s="169" t="s">
+        <v>150</v>
+      </c>
       <c r="S5" s="44"/>
       <c r="T5" s="94"/>
     </row>
@@ -8544,7 +8601,9 @@
       <c r="B6" s="108"/>
       <c r="C6" s="36"/>
       <c r="D6" s="165"/>
-      <c r="E6" s="166"/>
+      <c r="E6" s="166" t="s">
+        <v>187</v>
+      </c>
       <c r="F6" s="166"/>
       <c r="G6" s="166"/>
       <c r="H6" s="166"/>
@@ -8553,78 +8612,269 @@
       <c r="K6" s="166"/>
       <c r="L6" s="167"/>
       <c r="M6" s="40"/>
-      <c r="N6" s="110"/>
+      <c r="N6" s="110" t="s">
+        <v>74</v>
+      </c>
       <c r="O6" s="41"/>
       <c r="P6" s="168"/>
-      <c r="Q6" s="43"/>
+      <c r="Q6" s="43" t="s">
+        <v>78</v>
+      </c>
       <c r="R6" s="169"/>
       <c r="S6" s="44"/>
       <c r="T6" s="94"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="170"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="119"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="110"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" s="169"/>
+      <c r="S7" s="44"/>
       <c r="T7" s="94"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="95"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="91" t="n">
+      <c r="A8" s="164"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="110"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="168" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="169"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="94"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="164"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="166" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="41"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="169"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="94"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="164"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="94"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="160" t="n">
+        <f aca="false">VINE!$C$24</f>
+        <v>20</v>
+      </c>
+      <c r="B11" s="161" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="162"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="163"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="163"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="94"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="164"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="165" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="167"/>
+      <c r="M12" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" s="41"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="94"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="164"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="167"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="94"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="170"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="173"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="173"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="94"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="95"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="92" t="n">
+      <c r="E15" s="92" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="92" t="n">
+      <c r="F15" s="92" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="92" t="n">
+      <c r="G15" s="92" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="92" t="n">
+      <c r="H15" s="92" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="93" t="n">
+      <c r="I15" s="93" t="n">
         <v>5</v>
       </c>
-      <c r="J8" s="93" t="n">
+      <c r="J15" s="93" t="n">
         <v>6</v>
       </c>
-      <c r="K8" s="93" t="n">
+      <c r="K15" s="93" t="n">
         <v>7</v>
       </c>
-      <c r="L8" s="93" t="n">
+      <c r="L15" s="93" t="n">
         <v>8</v>
       </c>
-      <c r="M8" s="96"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="94"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L13" s="157"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L20" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/demonstrament/projects/001/development.xlsx
+++ b/demonstrament/projects/001/development.xlsx
@@ -36,10 +36,10 @@
     <definedName function="false" hidden="false" localSheetId="3" name="MOD_0" vbProcedure="false">VIEW!$A$1:$R$37</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="MOD_0_COM" vbProcedure="false">VIEW!$A$5:$AW$37</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="MOD_0_SUP" vbProcedure="false">VIEW!$A$1:$AX$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="AREA" vbProcedure="false">VERS_1_Devicebase!$A$1:$U$28</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="LMN_0" vbProcedure="false">VERS_1_Devicebase!$D$1:$L$28</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0" vbProcedure="false">VERS_1_Devicebase!$A$1:$U$28</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_COM" vbProcedure="false">VERS_1_Devicebase!$A$4:$U$28</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="AREA" vbProcedure="false">VERS_1_Devicebase!$A$1:$U$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="LMN_0" vbProcedure="false">VERS_1_Devicebase!$D$1:$L$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0" vbProcedure="false">VERS_1_Devicebase!$A$1:$U$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_COM" vbProcedure="false">VERS_1_Devicebase!$A$4:$U$30</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="MOD_0_SUP" vbProcedure="false">VERS_1_Devicebase!$A$1:$U$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="212">
   <si>
     <t xml:space="preserve">TEMPLATES</t>
   </si>
@@ -216,10 +216,10 @@
     <t xml:space="preserve">re</t>
   </si>
   <si>
-    <t xml:space="preserve">DefaultView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DefaultRouter</t>
+    <t xml:space="preserve">ApplicationView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApplicationRouter</t>
   </si>
   <si>
     <t xml:space="preserve">router.js</t>
@@ -659,9 +659,6 @@
   </si>
   <si>
     <t xml:space="preserve">extends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;</t>
   </si>
   <si>
     <t xml:space="preserve">constructor</t>
@@ -712,7 +709,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -783,6 +780,12 @@
       <name val="FreeMono"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="FreeMono"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1228,7 +1231,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1589,14 +1592,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="34" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="34" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1725,7 +1732,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1737,7 +1744,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1777,7 +1784,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1789,11 +1796,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="26" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="27" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1829,7 +1836,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="25" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1837,11 +1844,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="23" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="23" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="34" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="34" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1857,11 +1864,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1869,11 +1876,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="28" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2127,7 +2134,7 @@
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="21:22 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2390,7 +2397,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="X4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P32" activeCellId="0" sqref="P32"/>
+      <selection pane="bottomLeft" activeCell="P32" activeCellId="1" sqref="21:22 P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2413,11 +2420,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="9.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="51" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="50" width="5.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="48" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="48" width="20.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="9.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="51" width="5.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="50" width="5.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="48" width="15.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="48" width="20.